--- a/output/Total_time_range_data/河北省/衡水市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/衡水市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2878 +436,3150 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>董晓航会见远景科技集团客商</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F11%2F15%2Fart_46_451207.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_451207</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['11月14日上午，衡水市市长董晓航会见了来衡考察的远景科技集团投资中心常务副总经理兼河北公司总经理袁荣科一行。', '董晓航对袁荣科一行表示欢迎，并介绍了衡水经济社会发展情况。他说，衡水交通区位优越，生态环境优美，产业特色鲜明。当前，全市上下正在深入学习宣传贯彻党的二十大精神，全面落实省委十届三次全会、市委五届五次全会部署，解放思想、奋发进取，争先进位、勇闯新路，奋力谱写中国式现代化河北场景的衡水篇章。特别是围绕壮大市域主导产业和县域特色产业集群转型升级，着力引进一批符合国家产业政策、契合衡水发展需求的大项目、好项目。远景科技集团是业内知名的绿色科技领军企业，在智慧风电、储能电池等方面具有丰富经验和雄厚实力。希望远景科技集团发挥自身优势，与衡水加强战略合作，助力衡水新能源产业发展，实现互利共赢。市委、市政府将聚焦打造“三最”营商环境，为包括远景科技集团在内的各类企业在衡发展营造良好环境，提供优质服务。', '袁荣科介绍了远景科技集团有关情况。他表示，衡水发展态势良好、未来前景广阔，对双方合作充满信心。下一步，将加强沟通对接，开展务实合作，助力衡水经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>董晓航率团到寿光考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F2%2F2%2Fart_46_463080.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_463080</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为加快推动我市果蔬产业高质量发展，1月31日，市长董晓航率领我市考察团赴山东寿光进行学习考察。副市长胡克明一同参加。', '这次考察时间紧凑，行程密集。考察团先后参观了稻田镇崔岭西村、丹河设施蔬菜标准化生产示范园、寿光农产品物流园、田柳现代化农业创新创业示范园、寿光现代农业高新技术示范区、东华蔬菜专业合作社和全国蔬菜质量标准中心，并与潍坊市、寿光市有关负责同志座谈，详细了解寿光在蔬菜产业品质提升、品牌塑造、科技助力、标准化建设、全产业链打造等方面的好经验好做法。', '2月1日上午，考察团召开座谈会，交流考察体会，研究部署下一步工作。在听取了大家发言后，董晓航指出，这次考察成果丰硕，达到了学习先进、开阔眼界、振作精神、启迪思路的目的。寿光蔬菜产业实力雄厚，发展理念领先，为我市果蔬产业发展提供了有益借鉴。要全面总结考察所思所获，抢抓机遇，强化措施，推动高品质果蔬产业示范区创建良好开局、见到实效。要坚持以市场为导向，以提质增效为目标，进一步完善创建行动方案，加强顶层设计，选准工作的突破口。要加强与寿光市沟通对接，深化双方在技术服务、园区运营、产品营销等方面的合作，助力我市果蔬产业跨越式发展。要瞄准龙头企业大力度招商引资，做好延链补链强链文章。要加大政府扶持力度，用市场的办法、改革的举措激发市场主体活力动力。要树立全市“一盘棋”思想，加强工作统筹，优化产业布局，整合各类资源，凝聚工作合力。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>衡水市政府代表团赴福建开展招商考察活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F7%2F5%2Fart_46_425564.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_425564</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['7月1日至3日，衡水市政府代表团赴福建省福州市、泉州市、厦门市开展招商考察活动。市长董晓航，市委常委、常务副市长王伟出席有关活动。', '在福州市，我市举办了衡水·福州纺织鞋服产业对接会，与部分商协会和纺织鞋服企业面对面交流，桃城区、阜城县、故城县负责同志分别介绍了各自服装服饰产业发展情况，与会人员就招商引资、企业用工、行业发展等深入沟通。代表团还参观了福光公司、国航远洋运输公司、福州市市民服务中心，与福州市政府座谈交流。在泉州市和厦门市，代表团实地考察了杰豪体育用品公司、鸿星尔克公司、卡宾服饰公司、大帝集团、纵横集团等企业，详细了解企业生产经营、技术研发、市场营销等情况。', '每到一处，董晓航都介绍我市投资环境、交通区位、产业特色等情况。他表示，当前，承载着“千年大计、国家大事”的雄安新区已进入大规模开工建设阶段，衡水的发展优势更加凸显，各方面资源正在加速聚集。希望福建的企业家抢抓难得机遇，到衡水参观考察，寻求合作空间。衡水市委、市政府将以最大诚意亲商、爱商、敬商，打造审批事项最少、收费数额最低、审批时限最短的“三最”营商环境。', '董晓航要求，全市各级各部门要积极与福建企业加强对接，主动回应客商关切，扎实开展产业链招商、以商招商，努力引进一批产业链龙头企业、高新技术项目。要充分学习借鉴福州等地在优化营商环境、帮助企业上市、推动产业发展等方面的好经验、好做法，结合衡水实际，尽快推出一批过硬举措，打通堵点难点，打造工作亮点，促进各项工作再上新台阶。', '董晓航在全市防汛工作视频会议上强调 抓实抓细防汛备汛各项工作 确保人民群众生命财产安全']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>衡水深圳珠三角投资环境说明会举行</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F2%2F16%2Fart_46_465666.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_465666</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['2月14日，衡水·深圳（珠三角）投资环境说明会在深圳市举行。市长董晓航出席并致辞。副市长支斌主持并就衡水市投资环境作推介说明。深圳中安控股集团、盘古集团、深圳汽车维修行业协会、深圳昌恩智能股份有限公司等190余名企业家代表参加。', '董晓航首先代表市委、市政府向各位嘉宾表示欢迎和感谢。他说，衡水发展势头好、交通区位好、产业基础好、生活配套好，是京津冀地区富有活力、充满希望的新兴城市，是各方才俊创新创业的圆梦之地，是拓展合作、互利共赢的最佳选择。当前，衡水正处于蓄势待发的机遇期。我们深入学习贯彻党的二十大精神，围绕中国式现代化“5+10+N”衡水场景，推进实施一大批优质项目，涵盖特色产业、现代农业、产业园区、生态文旅、基础设施等多个领域，投资机会多，合作空间大。下一步，还将围绕重点区域、重点产业、重点平台、重点客户开展一系列主题招商活动，推出一批论证成熟、具有良好成长性和市场前景的好项目，欢迎更多的一流企业、优质资本参与进来，实现互利共赢、共同发展。我们将全力保护企业家合法权益，全面保障企业的投资安全和合理回报，让大家在衡水放心投资、舒心创业、安心发展。', '活动期间，董晓航、支斌会见了参加活动的重点客商，实地考察了深圳昌恩智能股份有限公司、盘古集团、中国电子信息产业集团有限公司、华润集团等企业，推进相关合作项目。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>我市与新疆尉犁县举行对口援疆工作座谈会</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F7%2F11%2Fart_46_426538.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_426538</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['7月10日下午，市长董晓航与新疆维吾尔自治区尉犁县委书记李中华举行对口援疆工作座谈会。市政协副主席牛泽彬主持座谈会。', '董晓航代表市委、市政府对李中华一行表示欢迎，对尉犁县经济社会发展取得的成就表示祝贺。他说，对口援疆是国家战略，是实现新疆繁荣稳定和长治久安总目标的重要举措。多年来，衡水市委、市政府坚决贯彻落实党中央决策部署和省委、省政府工作要求，先后选派多名优秀干部人才赴尉犁县工作，经过两地党委、政府和干部群众的共同努力，对口支援工作取得了阶段性成效。我们将以此次尉犁县来衡考察为契机，深入学习贯彻习近平总书记关于新疆工作的重要指示精神和新时代党的治疆方略，进一步加强与尉犁县沟通交流，精心组织实施“十四五”援疆规划，全面深化在教育、经济、医疗、文化等领域的合作，鼓励本地优势企业到尉犁县投资兴业，更好助力尉犁县经济社会高质量发展。', '李中华对衡水市长期以来给予尉犁县的无私援助和大力支持表示感谢，并介绍了尉犁县经济社会发展情况。他表示，将加强两地沟通交流，充分发挥各自优势，在多方面、多领域开展务实合作，携手共创美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>保定市考察团来我市考察设施农业发展情况</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-11</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F1%2F11%2Fart_46_390052.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_390052</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['1月10日，保定市委副书记商黎兵、副市长单有高率领保定市考察团，来我市考察设施农业发展情况。市委副书记李国勇、副市长胡克明陪同考察。', '考察团先后到饶阳县京津冀蔬菜科技测评示范中心、大尹村镇万亩设施果蔬基地参观考察。大家一路走、一路看，认真听取饶阳县设施农业发展有关情况介绍，对饶阳县设施农业发展取得的成绩给予了高度评价。', '商黎兵表示，近年来，饶阳县坚持以深化农业供给侧结构性改革为统领，把发展设施农业作为推动农业高质量发展和农民增收致富的重要抓手，从科技、绿色、质量、品牌等四方面入手，积极扩规模、提品质、延链条、塑品牌，走出了一条符合本地实际的特色农业发展路子，创造了良好的经济效益和社会效益，许多经验做法值得学习借鉴。考察团将把在衡水、在饶阳学到的好经验、好做法、好模式带回保定，结合保定实际研究制订落实举措，争取在设施农业发展等方面取得新突破。', '李国勇对保定市考察团来衡考察表示欢迎。他说，保定市历史底蕴厚重，资源禀赋优越，产业基础雄厚，发展空间广阔，在城市建设、产业发展等方面取得了突出成就，创造了很多的先进经验，是衡水对标学习的榜样。衡水和保定地缘相近、人缘相亲，业缘相通、经济相融，合作领域十分宽广。希望在今后工作中，双方进一步密切交流合作，推动优势产业协作协同，在互通有无、优势互补中实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>张国华率雄安新区代表团来我市调研指导衡水湖生态环境保护工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F5%2F16%2Fart_46_415064.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_415064</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 张国华率雄安新区代表团来我市调研指导衡水湖生态环境保护工作', '5月14日，省委常委、副省长，雄安新区党工委书记、管委会主任张国华率雄安新区代表团来我市调研指导衡水湖保护工作。市领导吴晓华、董晓航、吴波陪同。', '张国华一行来到衡水湖畔，详细听取衡水湖生态环境保护、鸟类保护和生物多样性保护情况介绍，乘船实地考察衡水湖生态情况，就科学实施生态修复保护、加强生物多样性保护等工作，与我市有关负责同志进行深入交流。', '张国华指出，衡水湖晋升国家级自然保护区以来，衡水市委、市政府深入践行习近平生态文明思想，全面落实省委、省政府部署要求，着力在科学保护、有序治理上下功夫，认真实施湖区企业拆迁、村庄搬迁、环湖绿化，有效开展生态补水、取缔养殖业、增殖放流等工作，构建以水生态、林业生态、生物多样性生态为支撑的优良生态系统，在衡水湖生态环境治理和保护方面取得显著成效，并积极探索出一系列卓有成效的体制机制、模式办法。雄安新区将认真借鉴衡水湖科学治污、保护生物多样性等方面的成功做法，不断巩固提升白洋淀水质，营造良好的生态基底。', '吴晓华向雄安新区代表团介绍了衡水湖保护有关情况。他说，雄安新区是衡水学习对标的榜样，我市将以雄安新区代表团来衡调研指导为契机，树牢绿水青山就是金山银山理念，全面落实倪岳峰书记对衡水提出的要求，进一步加强衡水湖的保护和治理，在生态环境保护上闯出一条新路。同时，把服务雄安新区建设发展作为义不容辞的政治责任，完善与雄安新区常态化对接机制，在对接雄安、服务雄安中加快衡水发展。', '全市领导干部会议召开 以主动作为奋发有为的精神状态争先进位 推动四个“闯出一条新路”要求落地落实']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>吴晓华收看省应对疫情工作视频调度会议</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-10-21</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F10%2F21%2Fart_46_367669.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_367669</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['10月20日上午，在收看省应对疫情工作视频调度会议后，市长吴晓华随即主持召开会议，就贯彻落实省会议精神，做好我市疫情防控和当前重点工作作出安排。市领导吴波、张俊华、崔海霞、赵学军出席。', '吴晓华指出，各级各部门要深入学习贯彻习近平总书记关于疫情防控的重要指示和在承德考察时的重要讲话精神，落实省应对疫情工作视频调度会议部署和王东峰书记重要讲话要求，立即进入应急响应状态，从严从紧抓好疫情防控各项措施，强化经济运行调度，确保人民群众生命安全和身体健康，确保圆满完成全年目标任务。', '吴晓华要求，要快排查快隔离，全面强化外防输入各项工作，迅速及时精准开展重点人群排查筛查，做好应急处置准备，严格落实“10个常态化30项举措”，加强“八支队伍”建设，健全完善“六个信息化”系统，宣传引导群众提高防控意识和自我保护能力，积极推进疫苗接种，加快构筑群体免疫屏障。要补短板强弱项，对照年初目标任务，算清账、找支撑，强化包联帮扶，协调解决实际问题，坚决杜绝统计造假。要查隐患快整改，紧盯安全生产、农民工工资、信访维稳等重点领域、重点行业，持续深入开展隐患排查整治，有效化解各种矛盾和问题，为全国、全省和我市重要活动顺利举办创造良好环境。要学党史办实事，扎实推进省20项民生工程和市20件民生实事，全力做好能源和电力保供、提前供热和农村清洁取暖工作，保障人民群众正常生活，保障重点项目建设和重点企业生产经营。要明责任抓督导，对省委、省政府部署的工作拉出清单、建立台账，明确责任单位、责任人和完成时限，确保各项任务在衡水落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>赵革会见飞鹤乳业有限公司董事长冷友斌一行</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021-08-02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F8%2F2%2Fart_46_347363.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_347363</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['8月1日下午，市委书记赵革、市长吴晓华会见了来衡考察的飞鹤乳业有限公司董事长冷友斌一行，双方就深化合作进行深入交流。市委秘书长吴波、市政府党组成员胡克明一同参加会见。', '赵革代表市委、市政府对冷友斌一行来衡表示欢迎，并简要介绍了衡水经济社会发展情况。他说，衡水文化底蕴深厚，特色产业鲜明，交通区位优越，生态环境良好。党中央大力推进京津冀协同发展和雄安新区规划建设，为衡水高质量发展提供了宝贵的历史机遇。当前，全市上下正深入学习贯彻习近平总书记“七一”重要讲话精神，按照省委、省政府的决策部署，大力推进产业振兴强市、结构调整富民，树牢抓产业项目就是抓发展的理念，坚持以产业项目论英雄，以求贤若渴的态度招商引资。希望双方以此次考察为契机，深入探讨交流，找准合作的切入点，努力实现互利共赢。衡水市委、市政府将积极营造一流的发展环境，全力支持企业在衡水投资兴业、共谋发展。', '冷友斌表示，衡水地理位置优越、生态优势突出、发展环境良好，对与衡水的合作充满期待。下一步，将结合企业发展定位，发挥企业的优势和作用，积极寻求合作机会，助力衡水经济社会发展。', '就当前经济形势和下半年经济工作 中共中央召开党外人士座谈会 习近平主持并发表重要讲话']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>董晓航率团到天津市考察招商</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F7%2F3%2Fart_46_491021.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_491021</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['6月30日至7月1日，市长董晓航率团赴天津市考察学习乡村旅游、现代都市农业等工作，开展小团组点对点招商洽谈，推进有关合作事项。', '天津市北辰区青光镇韩家墅村围绕文旅产业发展村集体经济，谋划建设了墅外桃源生态采摘园、婚礼主题公园、饮食文化博物馆等项目，既增加村集体收入，也为市民提供了休闲旅游的好去处。董晓航认真听取负责人关于项目情况的介绍，并就发展模式、运营理念、人才培养等方面进行深入交流。西青区杨柳青镇白滩寺村建设了传统文化研学基地，组织村民制作非遗手工艺品。董晓航详细了解该村在挖掘非遗文化传承、发展乡村特色产业等方面的好做法。他表示，乡村有着丰富的旅游资源，要立足市场需求，融合乡情、餐饮、研学等特色文旅资源，精心谋划吸引力强的旅游消费场景，大力发展观光农业、休闲农业，带动农民增收致富。', '天津耕德农业发展集团是一家集种植技术研发、电子商务于一体的大型“互联网+农业”集团公司，拥有15000余亩蔬菜种植基地，业务覆盖近200个城市。海吉星农产品批发市场是天津最大的果蔬一级批发交易市场，占据天津市70%以上市场份额。董晓航与企业负责人就推动净菜进津、深化合作等进行洽谈对接。他指出，衡水是农业大市，土地资源丰富、自然条件适宜、区位交通优越，果蔬供应充足稳定、产品优质安全。当前，我市正落实省委、省政府部署，以果蔬产业提质增效为目标，做大规模、做优特色、做强品牌，全力打造高品质果蔬产业示范区。希望双方进一步加强沟通，在种植基地建设、净菜生产等方面深化合作，拓展在津销售网络，推动更多衡水优质农产品走上天津市民的餐桌。衡水市委、市政府将坚持无事不扰、有求必应，为企业在衡发展创造一流营商环境，努力实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>河北衡水湖商务洽谈会开幕式暨重点项目签约仪式举行</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F9%2F20%2Fart_46_505387.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_505387</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 2023·河北衡水湖商务洽谈会开幕式暨重点项目签约仪式举行', '9月19日上午，2023·河北衡水湖商务洽谈会开幕式暨重点项目签约仪式在我市举行。市长董晓航宣布开幕并致辞。省商务厅副厅长张贺成、省对口支援新疆工作领导小组办公室专职副主任李建书、央企投资协会秘书长任金春以及来自京津、长三角、珠三角、成渝等地的170余名企业家代表参会。副市长支斌主持开幕式。', '董晓航在致辞中向各位嘉宾表示欢迎和感谢。他说，衡水交通区位优越、城市生态宜居，产业特色鲜明、园区配套完备，营商环境良好、服务优质高效，是一座充满创新活力、极具发展潜力的城市。当前，我们正深入学习贯彻习近平总书记重要讲话精神，全面落实省委、省政府部署要求，扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，奋力谱写中国式现代化建设衡水篇章。此次衡水湖商务洽谈会以“携手新征程 共赢新商机”为主题，会同新疆尉犁县、新疆生产建设兵团第二师三十四团一道推介发布项目，邀请诸多商界精英开展产业对接，知名度和影响力又上了一个新台阶。希望各位嘉宾充分利用这个平台，增强相互了解，在深化合作中实现共赢，真诚邀请大家经常来衡水考察指导、投资兴业。我们将竭诚搞好服务，不断做优环境，让大家在衡水放心投资、舒心创业、安心发展。', '开幕式上，市直有关部门负责同志分别就衡水投资环境、特色产业集群及产业链发展情况进行推介说明，发布重点招商项目，并举行重点合作项目签约仪式，共签约项目40项，总投资170.3亿元，拟引进资金165.5亿元。新疆尉犁县、新疆生产建设兵团第二师三十四团也分别作投资环境推介并发布重点招商项目。洽谈会期间，还将举办“粤商衡水行”产业对接等活动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>中国国际数字经济博览会首届全国企业数字化应用生态大会举行</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F9%2F6%2Fart_46_503353.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_503353</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 2023中国国际数字经济博览会首届全国企业数字化应用生态大会举行', '9月5日下午，由中国国际数字经济博览会组委会主办，中关村数字经济产业联盟、河北省数字经济联合会、衡水市人民政府共同承办的2023中国国际数字经济博览会首届全国企业数字化应用生态大会在石家庄正定举行。省人大常委会副主任、市委书记吴晓华出席并致辞。工业和信息化部原副部长杨学山，原国家粮食储备局局长、中关村数字经济产业联盟首任理事长高铁生，中国工程院院士张宏科，工业和信息化部信息技术发展司一级巡视员王建伟等参加。市长董晓航作衡水市情推介。', '吴晓华在致辞中表示，省委、省政府高度重视数字经济发展，自2019年始，已连续四年成功举办中国国际数字经济博览会。今年的数博会，规模之大、规格之高、内容之丰富前所未有，必将对河北数字经济发展产生广泛而深远的影响。近年来，衡水市深入学习贯彻习近平总书记重要指示批示精神，全面落实省委、省政府工作部署，坚持把数字衡水建设作为高质量发展的基础性先导工程，以提升基础设施为支撑，以拓展应用场景为导向，推动数字技术与实体经济融合、向社会管理渗透、为民生福祉护航，着力构建良好数字生态。', '吴晓华强调，当前我们正在加快实施数字衡水建设行动方案，扎实开展制造业和农业数字化转型、服务业数字化融合等专项行动，努力为产业发展插上数字的翅膀，让传统产业在数字化驱动下迸发出高质量发展新活力，在奋力谱写中国式现代化建设河北篇章中展现更大作为。诚邀各位领导、各位嘉宾多到衡水考察指导，欢迎广大科学家、企业家深耕数字蓝海、投资兴业衡水，共享数字经济发展红利。', '会上，深州市中瑞数字化产业示范基地项目、武邑县新能源电子产业园项目、衡水老白干打造白酒行业智能工厂项目进行了战略签约。与会人员观看了衡水市宣传片。', '大会还揭晓了2023全国企业数字化应用十大典型场景与十佳解决方案，并为获奖企业颁发证书；发布了《2023全国企业数字化应用场景与解决方案》报告和《河北省两化融合发展数据地图（2022）》评估报告；邀请来自中央企业、北京市属国有企业、数字化领军企业以及河北省本土企业的6位优秀企业界人士，分享在构建数字化应用生态方面的积极探索与创新实践；举办了以“企业数字化生态合作与协同创新”为主题的高端对话。', '吴晓华主持召开央企落户工作调度会 加强对接跑办 做好服务保障 争取更多央企二三级子公司落户衡水']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>董晓航赴安徽合肥考察招商</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F12%2F11%2Fart_46_520219.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_520219</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['12月7日至8日，市长董晓航带领景县、故城县、衡水高新区相关负责同志赴安徽合肥考察招商，走访荣事达集团、德威特涂料有限公司、舜禹水务股份有限公司，就深化合作达成意向。', '董晓航一行实地考察了企业生产经营、项目建设等情况，向企业负责人详细介绍了衡水发展优势、产业基础、招商政策。他说，当前，全市上下正深入学习贯彻习近平总书记重要讲话精神，全面落实省委十届五次全会和市委五届七次全会部署，奋力谱写中国式现代化建设衡水篇章。希望企业积极参与我市灾后恢复重建、产业转型升级、城市规划建设、和美乡村建设，加快合作项目落地，加大投资布局力度，共享衡水机遇，实现互利共赢。我们将打造一流营商环境，为企业落地项目、拓展业务提供全方位服务保障。', '各企业负责人表示，衡水产业基础较好，营商环境优越，对在衡投资充满信心，将加快推动洽谈项目落地，深化多领域务实合作，助力衡水高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>董晓航带队赴北京唐山对接考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F3%2F21%2Fart_46_536814.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_536814</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['3月19日至20日，市长董晓航带队在北京拜访国家发展改革委、国家能源集团、中国钢研科技集团，到唐山考察高端装备制造和文旅产业发展情况，就争取超长期特别国债项目、开展大规模设备更新、衡丰电厂扩建、央企入衡等工作深入对接。 董晓航对部委和央企给予衡水的关心支持表示感谢，并详细介绍了衡水经济社会发展情况。他说，全市上下正深入学习贯彻习近平总书记重要讲话和全国两会精神，牢牢把握高质量发展这个首要任务，奋力谱写中国式现代化建设衡水篇章。恳请国家发展改革委在市政基础设施、全域生态建设、大规模设备更新等方面给予更多指导支持。希望与央企建立常态化沟通机制，在我市布局更多产业项目、二三级子公司或创新业务板块。我们将持续优化营商环境，为企业来衡发展提供优质服务。 在唐山市，董晓航实地考察了国芯晶源、万杰印机、晶玉科技、凯勒科技、海泰新能等企业和玉田智能装备制造（印机）产业综合体、百川机器人共享制造工厂、机器人展示体验中心，以及河头老街、南湖、开滦国家矿山公园，与当地负责人和企业深入交流。他表示，衡水将学习唐山经验，加快建设特色产业强市、文化旅游强市。诚邀大家来衡考察洽谈，推进投资合作，实现互利共赢。 部委、企业负责同志表示，将继续关注支持衡水，发挥自身优势，深化务实合作，助力衡水高质量发展。', '董晓航在暗访检查大气污染防治工作时强调 精准精细治理扬尘污染 推动空气质量持续改善']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F11%2F14%2Fart_46_514917.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_514917</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['11月13日，市长董晓航主持召开市政府第39次常务会议，深入学习贯彻习近平总书记在北京、河北考察灾后恢复重建工作时的重要讲话精神，按照省委常委会（扩大）会议、省政府常务会议、市委常委会（扩大）会议部署，研究市政府系统贯彻落实工作。', '会议指出，市政府各部门要把学习贯彻习近平总书记重要讲话精神作为当前和今后一个时期的首要政治任务，忠诚捍卫“两个确立”、坚决做到“两个维护”，坚定不移沿着习近平总书记指引的方向感恩奋进。', '会议要求，要对受损房屋修缮加固重建工作开展“回头看”，把取暖工作落实落细、做到每家每户，确保群众安全温暖过冬。要科学规划、加快推进灾后恢复重建项目，持续加强应急体系建设，提升防灾减灾救灾能力。要深入开展城乡人居环境整治，形成常态长效，建设和美乡村。要抓好今冬明春农业生产，一体推进农业设施修复和高品质果蔬产业示范区建设。要着力纾难解困，坚决防止因灾致贫返贫，帮助受灾群众和企业渡过难关。要结合开展主题教育，以奋发有为的精神状态做好经济运行、绿色发展、安全稳定等当前工作，确保圆满完成全年目标任务，奋力夺取灾后恢复重建和经济社会发展双胜利。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>衡水市党政代表团到雄安新区学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-06-28</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F6%2F28%2Fart_47_423787.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_423787</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['6月24日，市委书记吴晓华、市长董晓航率领我市党政代表团一行到雄安新区学习考察，并举办雄安衡水协作区推介说明会暨政企对接会。省委常委、副省长，雄安新区党工委书记、管委会主任张国华与吴晓华一行举行工作座谈。', '张国华首先代表雄安新区党工委、管委会对衡水市党政代表团一行的到访表示热烈欢迎，对衡水市一直以来对新区规划建设发展的大力支持表示感谢。他表示，在省委、省政府的坚强领导下，雄安新区同步推进承接北京非首都功能疏解和大规模开发建设，城市框架全面拉开，城市雏形加快显现，承接疏解起势良好。当前，雄安新区上下正全面落实省委十届二次全会部署要求，解放思想、奋发进取，扎实推进承接疏解、重点片区和重大项目建设、改革创新、生态治理、生物多样性保护等重点工作。衡水市特色产业发达，水生态和水生物保护工作成效显著，值得雄安新区认真学习借鉴。希望双方进一步发挥各自优势，深化务实合作，不断开创高质量发展新局面，更好地造福两地群众，携手为经济强省、美丽河北建设作出更多贡献。', '在座谈会和对接会上，吴晓华表示，通过此次考察调研，深切感受到雄安新区日新月异、拔节生长的发展势头和干部队伍解放思想、奋发进取的精神状态，深受启发、倍感振奋。在雄安新区举办雄安衡水协作区推介说明会暨政企对接会，就是要深入对标对接雄安新区，全面学习雄安新区，加快衡水跨越赶超、高质量发展步伐。衡水将与雄安新区建立更加紧密的联系，积极对标雄安新区的好理念、好做法，在全面深化改革上不断形成新的亮点，在统筹城乡发展上不断取得新的成效，在生态环境保护上不断开创新的局面。特别是对接雄安新区建设需求，在科技成果转化、绿色建材、智能家居等方面加强合作，在支持服务雄安新区建设发展中展现衡水作为、贡献衡水力量，助力雄安新区打造“妙不可言”、“心向往之”的典范城市。', '考察期间，我市党政代表团一行前往雄安新区规划展示中心、启动区综合服务中心、容东片区、雄安郊野公园衡水园、保府集团第一家中央厨房、衡水·安平经济协作中心等地，现场考察雄安新区规划建设发展以及衡水市参建项目有关情况，深入了解新区建设需求，探索建立长效合作机制。', '雄安新区领导田金昌、吴海军、赵丰东、王纪平，衡水市领导王伟、吴波，雄安新区和衡水市相关部门主要负责同志参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市政府与河北科技大学签署战略合作协议</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F10%2F20%2Fart_46_510621.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_510621</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['10月18日，衡水市人民政府与河北科技大学签署战略合作协议。市长董晓航，河北科技大学党委书记朱立光、校长李铁军出席签约仪式。市领导吴波、支斌一同参加。', '董晓航代表市委、市政府对河北科技大学长期以来给予衡水的关心和支持表示感谢。他说，全市上下正深入学习贯彻习近平总书记视察河北重要讲话精神，全面落实省委、省政府工作部署，强化科技创新引领作用，突出科技成果转化、科技赋能产业转型升级两大主攻方向，不断深化与高校、科研院所合作，加快建设京津冀科技创新支点城市。希望河北科技大学发挥科研、人才等优势，助力衡水传统产业转型升级，促进更多科技成果在衡水转化、创新人才向衡水聚集，帮助我市招商引资、招才引智，携手推动创新驱动发展战略落地落实。', '朱立光、李铁军表示，河北科技大学将充分发挥自身优势，坚持政产学研一体化发展，同衡水开展更深层次、更高水平的合作，为衡水经济社会高质量发展多作贡献。', '签约仪式上，副市长支斌代表市政府与河北科技大学签署校地政产学研合作协议。河北科技大学还分别与河北鑫考科技股份有限公司、衡水老白干酒业股份有限公司签订合作协议。在衡期间，朱立光、李铁军一行还深入到我市部分企业实地考察。', '市委常委会召开会议 认真学习习近平总书记重要讲话重要指示精神 以更加奋发有为的精神状态扎实做好各...']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>我市举行侨商衡水行产业对接活动</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F9%2F15%2Fart_46_504838.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_504838</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['9月12日至13日，我市举行侨商衡水行产业对接活动，市委书记吴晓华、市长董晓航与省工商联副主席、省侨商会会长、省华商会执行会长、河北利鑫集团董事长宣武兵等来衡侨商举行工作座谈。市领导吴波、支斌出席有关活动。', '吴晓华、董晓航代表市委、市政府对各位侨商来衡考察交流表示欢迎，对省工商联、省侨商会长期以来给予衡水的关心和支持表示感谢。吴晓华、董晓航说，衡水交通区位优越、特色产业鲜明、生态环境优美，是一片投资兴业的沃土。当前，全市上下正深入学习贯彻习近平总书记视察河北重要讲话精神，落实省委、省政府工作部署，抢抓京津冀协同发展和雄安新区建设等重大机遇，加快争先进位、勇闯新路步伐，奋力谱写中国式现代化建设衡水篇章。侨商是推动高质量发展的重要力量，在融通中外、招商引资、招才引智等方面发挥着重要作用。希望大家发挥各自优势，聚焦装备制造、现代农业、文化旅游等领域，积极寻找契合点、切入点，不断深化务实合作，努力实现互惠共赢、共同发展。市委、市政府将持续打造一流的营商环境，提供优质高效的服务，让侨商在衡水放心投资、舒心创业、安心发展。', '宣武兵表示，衡水发展势头好、未来潜力大，是一座充满生机和活力的城市。省侨商会将继续发挥桥梁纽带作用，拓宽广大侨商与衡水的交流渠道，全面宣传衡水、推介衡水，带动更多侨商到衡水投资兴业，为推动衡水高质量发展贡献侨商力量。', '活动期间，宣武兵一行还深入部分县区和企业实地考察，双方围绕现代物流、新材料、生态农业等方面进行了对接交流，达成一批合作意向。', '吴晓华在全市网络安全和信息化工作会议上强调 深入贯彻习近平总书记关于网络强国的重要思想 努力开创...', '董晓航主持召开全市经济运行专题调度会强调 坚决打好三季度攻坚战 努力在全省经济社会发展中争先进位']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>董晓航与中国电信河北分公司总经理李新颖举行工作会谈</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F7%2F24%2Fart_46_495730.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_495730</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['7月20日下午，市长董晓航与来衡考察的中国电信河北分公司总经理李新颖一行举行工作会谈。副市长支斌参加会谈。', '董晓航代表市委、市政府对李新颖一行来衡考察表示欢迎，向河北电信公司长期以来给予衡水的支持和帮助表示感谢，并简要介绍了衡水经济社会发展情况。董晓航说，当前，全市上下正深入学习贯彻习近平总书记视察河北重要讲话精神，全面落实省委十届四次全会部署要求，以更加奋发有为的精神状态推进经济社会高质量发展，各项工作保持争先进位的良好态势。发展数字经济和数字技术是抢抓新一轮科技革命和产业革命重大机遇的必然要求，也是构建现代化产业体系、建设数字衡水的重要途径。希望河北电信公司一如既往地关心支持衡水发展，聚焦数字赋能产业转型升级、推动新型基础设施建设向农村延伸、加快建设智慧城市等方面，与衡水进一步加强沟通对接，不断拓展新的合作领域，推动更多项目落地，实现互利共赢、共同发展。市委、市政府将持续优化营商环境，全力做好服务保障，为河北电信公司在衡发展创造良好条件。', '李新颖对衡水市委、市政府长期以来给予河北电信公司的关心支持表示感谢，并简要介绍了企业发展方向和主要业务开展情况。他表示，将充分发挥企业优势，在推进产业数字化、数字政府建设、数字乡村建设、以数字化赋能社会治理现代化等方面与衡水开展紧密合作，为衡水通信事业和数字经济高质量发展作出新的更大贡献。', '习近平在全国生态环境保护大会上强调 全面推进美丽中国建设 加快推进人与自然和谐共生的现代化']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>我市举行闽商衡水行系列对接活动</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F7%2F5%2Fart_46_491599.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_491599</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['7月3日至4日，我市举行闽商衡水行系列对接活动，市长董晓航会见福建省河北衡水商会会长、中视国广（福建）集团董事长王保田一行。副市长支斌出席有关活动。', '董晓航代表市委、市政府向各位客商表示欢迎，并介绍衡水有关情况。他表示，全市上下正深入学习贯彻习近平总书记视察河北重要讲话精神，全面落实省委十届四次全会部署，解放思想、奋发进取，奋力谱写中国式现代化建设衡水篇章，在特色产业、现代农业、科技成果转化、文旅康养等领域有广阔的合作空间。福建是民营经济最早的发轫地之一，广大闽商素有“敢为天下先、爱拼才会赢”的精神。衷心希望福建省河北衡水商会发挥桥梁纽带作用，宣传推介衡水，诚挚邀请各位闽商来衡投资兴业，共享发展机遇。市委、市政府将持续优化营商环境，构建亲清政商关系，让大家在衡水放心投资、舒心创业、安心发展。', '王保田介绍了福建省河北衡水商会情况。他表示，衡水发展势头好、未来潜力大，将发挥自身优势，促进更多福建企业与衡水对接合作，实现共赢发展，为家乡建设贡献更大力量。', '活动期间，王保田一行深入我市部分县区、园区和企业实地考察；在闽商衡水行对接洽谈会上，双方围绕建设数智产业园、橡塑新材料产业园、纺织鞋服生产基地等进行了对接交流，达成一批合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>衡水市委常委会扩大会议召开</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F6%2F13%2Fart_46_487310.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_487310</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['6月12日，市委常委会（扩大）会议召开，传达学习习近平总书记在考察内蒙古时的重要讲话和在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话精神、给上海市虹口区嘉兴路街道垃圾分类志愿者的回信和省委常委会（扩大）会议精神，安排部署防汛备汛、安全生产工作。市委书记吴晓华主持并讲话。', '会议指出，要深入学习宣传贯彻习近平总书记重要讲话精神，全面落实省委常委会（扩大）会议工作部署，以高度的政治自觉推动重点工作任务落地见效。要把投资和项目紧紧抓在手上，加强经济运行调度，进一步做实增量、补足短板，确保上半年交出优异成绩单。要加大谋跑争促力度，争取更多央企二三级子公司和创新业务板块在衡水落地。要发展壮大现代农业和丝网产业，制定务实管用的措施，培育壮大龙头企业，推动县域主导产业集群发展。要坚持精准施策，强化源头治理，持续提升空气质量。要下大力优化营商环境，切实做到让市场主体有感。要积极推动绿色发展，加快探索建立主城区垃圾分类全流程处理体系。要加强调查研究，较真碰硬、真抓实干，推动问题在一线解决、工作在一线落实。', '会议强调，要全力抓好防汛备汛工作，聚焦重点部位和薄弱环节，“一点一案”做实预案，强化监测预警和应急准备，确保安全度汛。要坚决贯彻落实安全生产“十五条”硬措施，抓实重点领域排查整治，狠抓末端落实，确保安全生产形势持续稳定。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>董晓航主持召开衡水市经济运行专题调度会</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F5%2F22%2Fart_46_482890.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_482890</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['5月20日，衡水市召开经济运行专题调度会，听取各县市区工作情况汇报，安排下一步工作。市长董晓航主持会议并讲话。市领导吴波、支斌出席并讲了具体意见。', '董晓航指出，二季度是推进工作的关键期。各级各部门要深入学习贯彻习近平总书记在河北考察时的重要讲话和重要指示精神，落实省委、省政府和市委工作要求，牢牢把握高质量发展这个首要任务，进一步找差距、明措施、增动力，担当作为、真抓实干，推动经济运行稳中向好、稳中提质，努力在全省经济社会发展中争先进位。', '董晓航要求，要紧盯目标抓调度、稳运行，在全省、全市大局中找准方位，对各项工作进行“回头看”，加强分析研究，有针对性地补短板、强弱项、扬优势，奋力实现上半年时间任务“双过半”。要集中精力抓招商、扩投资，坚持外引和内生并重、招大引强和全产业链招商并举，做实签约、落地、投产三类项目台账，下大力气优化营商环境，引进一批立县兴市的大项目好项目，掀起招商引资新热潮。要精准施策优服务、强工业，深入实施创新驱动发展战略，抓好重点行业、重点企业包联帮扶，帮助企业找订单、拓市场，着力推进个转企、小升规，强化科技和数字赋能，为高质量发展提供有力支撑。要千方百计促消费、稳外贸，提振传统消费、促进新型消费，抓好消费主体培育和场景打造，研究制定促进外贸一揽子政策措施，加快发展跨境电商等新业态，牢牢稳住外贸基本盘。要毫不放松惠民生、保稳定，加快推进民生工程和民生实事，扎实开展重大事故隐患专项排查整治行动，统筹做好防汛抗旱、大气污染防治、中考高考安全等工作，为经济社会发展营造良好环境。', '李强主持召开国务院常务会议 研究落实建设全国统一大市场部署总体工作方案和近期举措 审议通过《关于...']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>首届衡水中关村科技创新大会举行</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F3%2F24%2Fart_46_472235.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_472235</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['3月23日上午，以“科创衡水 智赢未来”为主题的首届衡水·中关村科技创新大会在市迎宾馆举行。市长董晓航出席大会并致辞。副市长支斌主持大会。北京中关村信息谷公司总经理扈德辉作项目推介。来自全国各地的专家学者、投融资代表、企业家代表等200余人参加大会。 董晓航在致辞中向各位来宾表示欢迎，并简要介绍了衡水基本情况。他说，衡水交通区位优越、城市生态宜居、产业特色鲜明、园区配套完备。近年来，我们深入实施创新驱动发展战略，搭建创新平台、增加科技投入、引育高端人才、完善服务体系，科技实力和创新能力显著提高。当前，全市上下正深入学习贯彻党的二十大和全国两会精神，谋划推进中国式现代化衡水场景，加快建设京津冀科技创新支点城市。中关村是我国创新发展的一面旗帜，衡水高新区是我市承接科技成果转移转化的主平台，衡水·中关村信息谷创新中心的成立，必将为双方合作发展注入新动能。希望各位来宾多到衡水考察洽谈、投资兴业，市委、市政府将打造良好营商环境、提供优质高效服务，携手开辟互利共赢的新境界、谱写共同发展的新篇章。 会上，举行了衡水·中关村信息谷创新中心揭牌仪式、高端智库专家聘任仪式。加拿大国家工程院院士、上海产业技术研究院首席专家宋梁，国际欧亚科学院院士、中国无线导航与通信学科带头人邓中亮分别作主旨演讲。15个项目成功签约，部分科技创新项目进行了路演。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>董晓航与北京新发地集团董事长张玉玺举行工作会谈</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F3%2F20%2Fart_46_471351.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_471351</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['3月16日下午，市长董晓航与来衡考察的北京新发地集团董事长张玉玺举行工作会谈，省农业农村厅二级巡视员王旗、副市长胡克明一同参加。', '董晓航代表市委、市政府向张玉玺一行表示欢迎。他说，新发地集团是全国乃至亚洲农产品批发行业的龙头。近年来，双方以“果蔬进京”活动为载体，相互支持、密切协作，建设了一批优质农产品基地，形成了“单品大王+农民合作社”等多种合作模式，有力促进了互利共赢。当前，我市正深入学习贯彻党的二十大和全国两会精神，落实省委、省政府部署，全力打造高品质果蔬产业示范区，加快建设现代农业强市。希望双方以这次考察为契机，进一步加强沟通交流，实现更宽领域、更高层次的合作。要坚持以更高站位、更实举措谋划项目、推动工作，确保干一件、成一件，每年都有新进展。坚持让群众真受益、多增收，创新合作模式，不断提高农民在产业链上的收益，推动双方合作行稳致远。坚持高起点规划、高标准建设，围绕现代都市农业、设施果蔬等领域，打造一批标杆工程。坚持聚焦全产业链发展，深化在育种育苗、预制菜净菜、物流配送、标准制定等方面的合作，推动果蔬产业高质量发展，使更多衡水优质农产品摆上首都市民的餐桌。市委、市政府将坚持无事不扰、有求必应，以最大的诚意、最好的服务为新发地在衡发展提供一流营商环境。', '张玉玺表示，北京新发地集团将发挥自身优势，加强与衡水的沟通对接，不断拓宽合作广度，挖掘合作深度，加大项目推进力度，为衡水经济社会发展和乡村振兴作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>衡水市委常委会扩大会议召开</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F5%2F15%2Fart_46_481747.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_481747</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['5月14日上午，市委常委会（扩大）会议召开，专题传达学习贯彻习近平总书记在河北考察时的重要讲话重要指示精神，传达学习省委常委会（扩大）会议工作部署，研究我市贯彻落实意见。市委书记吴晓华主持会议并讲话。', '会议指出，习近平总书记在河北考察时发表的重要讲话、作出的系列重要指示，为我们做好工作指明了前进方向，提供了根本遵循。全市各级党组织和广大党员干部要把学习贯彻习近平总书记重要讲话和重要指示精神，作为当前和今后一个时期的头等大事和首要政治任务，与贯彻落实党的二十大精神、习近平总书记对河北工作作出的一系列重要指示批示精神和党中央、省委部署要求结合起来，忠诚捍卫“两个确立”、坚决做到“两个维护”，以高度的政治自觉、思想自觉、行动自觉，推动衡水各项事业始终沿着习近平总书记指引的方向阔步前进。要迅速兴起学习宣传贯彻热潮，抓实干部教育培训，加大宣传阐释力度，各级领导干部要带头学，深入开展调查研究，不折不扣推动习近平总书记重要讲话和重要指示精神深入人心、落地见效。', '会议强调，要抢抓京津冀协同发展历史机遇，加大谋跑争促力度，加强重点承接平台建设，积极承接北京非首都功能疏解，不断优化创新生态，加快建设京津冀科技创新支点城市，创建高品质果蔬产业示范区，打造“京津周末休闲首选地”，在对接京津服务京津中加快发展。要抢抓雄安新区建设重大机遇，加快建设雄安衡水协作区，精准抓好产业对接，认真学习借鉴雄安经验，对标雄安标准，持续深化改革开放，优化营商环境，提升城市建设管理、生态环境保护水平，在服从服务千年大计、国家大事中加快推动衡水高质量发展。', '会议要求，要以学习贯彻习近平总书记重要讲话和重要指示精神为动力，奋力谱写中国式现代化建设衡水篇章。各级各部门要全面对标对表，细化分解任务，按照“二三四”抓落实工作机制，推动各项任务末端落实。要充分发挥考核“指挥棒”作用，激发干事创业精气神，引导各级干部在中国式现代化新征程中彰显新担当、展现新作为。要扎实有力抓好经济运行调度、“三夏”工作、安全生产和信访稳定等当前重点工作，全力维护社会大局和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>省政协领导来衡调研中央和省委政协工作会议精神贯彻落实情况</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F7%2F26%2Fart_46_430627.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_430627</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 省政协领导来衡调研中央和省委政协工作会议精神贯彻落实情况', '7月21日，省政协党组副书记、副主席冉万祥带领调研组，就市县政协贯彻落实中央和省委政协工作会议精神、加强和改进新时代市县政协工作、加强和促进凝聚共识工作情况来我市调研。市政协副主席平荣振、牛泽彬、葛城、李敬东，市政协秘书长王建勇参加座谈或调研。', '冉万祥一行先后到广川董子文化园、河北百工实业有限公司、景县西苑社区委员工作站、市政协机关等地，实地了解我市市县两级政协工作情况，走访考察委员企业，看望住我市省政协委员，并召开座谈会，听取市政协及冀州区、枣强县、饶阳县、景县政协工作汇报，和住我市省政协委员进行深入交流，听取意见建议。', '冉万祥对我市相关工作给予充分肯定。他指出，衡水市贯彻落实中央和省委政协工作会议精神有特点、有亮点，市县党委高度重视、政协组织贯彻有力，做了许多打基础、利长远、开新局、求实效的工作，成效显著。', '冉万祥强调，要加强党的领导，强化政治意识，切实增强贯彻落实的责任感、紧迫感，持续深入学习习近平总书记关于加强和改进人民政协工作的重要思想和在中央政协工作会议上重要讲话精神，切实把思想和行动统一到中央精神和省委部署上来，把人民政协的职能定位坚持好，把任务要求落实好，做到一切从政治上考量、在大局下行动。要不断加强专门协商机构建设，突出协商主责主业，创新协商方式方法，把握履职中心环节，紧扣重点任务协商议政，在建言资政和凝聚共识上双向发力，努力为衡水争先进位贡献政协力量。要加强自身建设，突出委员主体作用，精心制定和落实委员培训计划、履职计划，健全委员履职评价及激励机制，教育引导委员懂政协、会协商、善议政，守纪律、讲规矩、重品行。要增强开拓创新精神，破除惯性思维和路径依赖，努力干出新时代人民政协新样子，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>吴晓华主持召开市委理论学习中心组扩大专题学习会</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F5%2F23%2Fart_46_483176.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_483176</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['5月22日，市委书记吴晓华主持召开市委理论学习中心组（扩大）专题学习会，深入学习习近平总书记在河北考察时的重要讲话精神。', '会上，董晓航、吴波、张学锋、刘立斌结合思想和工作实际发言，交流学习体会和贯彻落实措施。', '会议指出，要深刻学习领会习近平总书记在河北考察时的重要讲话精神，忠诚捍卫“两个确立”、坚决做到“两个维护”，不断提高推动高质量发展本领、服务群众本领和防范化解风险本领，奋力谱写中国式现代化建设衡水篇章，推动党中央重大决策部署和省委工作要求落地落实。', '会议强调，要深刻领会习近平总书记对高标准高质量推进雄安新区建设的重要要求，在服从服务千年大计、国家大事中加快衡水发展。要全力建好雄安衡水协作区，主动加强沟通对接，抓实产业配套和项目建设，力求服务更精准、保障更有力。要学习借鉴雄安新区在投融资体制机制、创新平台建设、城市建设管理、住房保障、生态环境治理等方面的创新举措和先进经验，持续优化营商环境，提升城市治理现代化水平，塑造衡水高质量发展新优势。', '会议指出，要深刻领会习近平总书记对推动京津冀协同发展的战略部署，在对接京津服务京津中加快衡水发展。要推动重点承接平台能级提升，强化协同创新和产业协作，积极吸引更多京津科技成果到衡水转化，全力创建高品质果蔬产业示范区，大力发展文旅产业，不断丰富实践场景，深化教育医疗康养协同，加快教育强市和健康乐享衡水建设。', '会议强调，要深刻领会习近平总书记对河北工作的重要指示精神，不断开创衡水高质量发展新局面。要积极引进战略性新兴产业，大力发展数字经济和现代服务业。要持续推进园区能级提升，完善招商引资奖励政策，加大人事薪酬制度改革力度。要扎实推进绿色低碳转型，抓好“无废城市”建设，打好蓝天碧水净土保卫战。要切实保障改善民生，持续抓好省20项民生工程和市20件民生实事。要统筹发展和安全，及时有效防范化解各类风险。', '会议强调，学习贯彻习近平总书记重要讲话精神，是当前和今后一个时期的首要政治任务和头等大事，各级领导干部要切实发挥示范带头作用，当好学习贯彻的排头兵，大兴调查研究，抓好末端落实，努力创造出更多经得起历史和人民检验的实绩。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F5%2F15%2Fart_46_481744.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_481744</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['5月14日，衡水市市长董晓航主持召开市政府第30次常务会议，传达学习习近平总书记在河北考察时的重要讲话和重要指示精神，以及省委常委会（扩大）会议、市委常委会（扩大）会议精神，研究市政府贯彻落实意见。', '会议指出，在深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育、全面建设社会主义现代化国家开局起步的关键时期，习近平总书记亲临河北考察，发表重要讲话、作出重要指示，为我们做好工作指明了前进方向，提供了根本遵循。全市政府系统要切实把思想和行动统一到习近平总书记重要讲话和重要指示精神上来，完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，感恩奋进、真抓实干，奋力谱写中国式现代化建设衡水篇章，以实际行动忠诚捍卫“两个确立”、坚决做到“两个维护”。', '会议强调，学习宣传贯彻习近平总书记重要讲话和重要指示精神，是我们当前和今后一个时期的首要政治任务和头等大事。要按照省委、市委部署，精心组织安排，抓好学习传达，搞好宣传宣讲，迅速掀起学习宣传贯彻热潮。要把重大机遇转化为高质量发展的实际成效，着力稳增长、抓创新、促协同、优环境，加大招商引资和“谋跑争促”力度，积极承接京津科技成果转移，推动传统产业科技赋能、数字赋能，精准对接雄安需求，加快雄安衡水协作区建设，开展“找差距、补短板、提位次”优化营商环境专项行动，厚植发展新优势。要全面对标对表习近平总书记重要讲话重要指示，按照“二三四”抓落实工作机制，建立清单台账，完善工作举措，推动各项任务末端落实，开创加快建设经济强市、美丽衡水新局面。', '会议还传达了全省安全生产工作视频会议精神，听取了有关情况汇报，就开展重大事故隐患专项排查整治行动，做好消防、教育等重点领域安全工作进行了安排部署。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>第六届京津冀蔬菜产业发展大会暨招商对接活动在饶阳县举办</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F5%2F19%2Fart_46_482562.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_482562</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['5月18日上午，第六届京津冀蔬菜产业发展大会暨招商对接活动在饶阳县开幕。副省长时清霜宣布大会开幕。省农业农村厅厅长刘宝岐、市长董晓航出席并致辞。副市长胡克明出席。', '开幕式上，董晓航代表市委、市政府对大会的召开表示祝贺，向各位嘉宾表示欢迎和感谢。他说，发展高品质果蔬产业，衡水拥有良好的资源禀赋、雄厚的产业基础、优越的发展环境。京津冀蔬菜产业发展大会是三地联手搭建的重要合作平台，对推动京津冀蔬菜产业产销对接和合作交流、加快建设衡沧高品质蔬菜产业示范区具有重要意义。大会选择在饶阳县举办，充分体现了省委、省政府的信任和支持，为我市发展高品质果蔬产业带来了新的机遇。各位领导、各界朋友和广大客商亲临大会参观考察、招商洽谈，为我们提供了难得的学习机会、创造了广阔的市场空间。我们将虚心请教，竭诚服务，为大家搭建好对接交流的平台。同时，也诚挚地邀请大家多在衡水走一走、看一看，了解衡水、投资衡水，共享京津冀协同发展机遇，共创蔬菜产业发展更加美好的明天。', '刘宝岐在致辞中表示，河北省高度重视蔬菜产业发展，坚持种好河北“菜园子”、保障京津“菜篮子”的发展定位，着力推动蔬菜产业规模化、周年化、品质化和产业化发展，全省蔬菜产业发展呈现出阔步前进的良好态势。今年是全省农业投资项目提升年，各地均出台了招商优惠政策，诚邀企业到河北考察洽谈、投资兴业，我们将为大家提供优质的服务保障、优良的营商环境，守望相助共奋进、同舟共济共发展，认真贯彻落实习近平总书记在河北考察时的重要讲话和重要指示精神，深入推进京津冀协同发展，推动河北净菜进京入津，携手构建优势互补、共建共享的协同发展格局。', '本次大会由省农业农村厅、北京市农业农村局、天津市农业农村委、衡水市人民政府、沧州市人民政府主办。农业农村部、京津冀三地农业农村部门、天津市商务局、省人力资源和社会保障厅、各地市农业农村部门、国家蔬菜工程技术中心、京津冀农产品行业联盟等相关负责同志应邀参加，全国大中城市蔬菜投资商、采购商、经销商、电商平台及省内规模化蔬菜生产基地负责人约2300人现场对接洽谈，达成蔬菜采购意向51.3万吨，金额约12.9亿元。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>13</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市委常委会召开会议以解放思想奋发进取的精神状态狠抓落实强力推动各项工作提质增效争先进位</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F7%2F13%2Fart_46_427590.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_427590</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 市委常委会召开会议 以解放思想奋发进取的精神状态狠抓落实 强力推动各项工作提质增效争先进位', '市委常委会召开会议 以解放思想奋发进取的精神状态狠抓落实 强力推动各项工作提质增效争先进位', '7月12日，市委常委会召开会议，传达学习全省优化营商环境大会、全省组织部门专题视频会议、全省信访工作会议精神，研究我市贯彻落实意见；听取2022年上半年全面依法治市工作汇报。市委书记吴晓华主持会议并讲话。省第九督查组组长刘振华列席会议。', '会议指出，要认真贯彻落实党中央和省委、省政府决策部署，深刻认识优化营商环境的极端重要性，加快打造更有吸引力、更具竞争力、更加富有活力的营商环境。要持续深化“放管服”改革，推出更多便民利企服务事项，争取更多改革试点、项目、资金落户衡水，不断优化政务环境、市场环境、法治环境、信用环境、金融环境，加快构建“三最”营商环境，切实把这一政务服务品牌擦亮叫响。要深化“送政策服务、保市场主体”活动，推动国家和省市一系列政策措施落地落实。要聚焦突出问题整改提升，在补齐短板弱项上发力、在学习赶超先进上发力，真正把好的营商环境体现在群众和市场主体的获得感上，推动我市营商环境实现大跃升。各级领导干部要带头构建亲清政商关系，积极营造尊商亲商安商的浓厚氛围。', '会议强调，要深入贯彻新时代党的组织路线，全面落实全省组织部门专题视频会议部署要求，解放思想、奋发进取，推动组织工作上台阶、上水平。要落实好产业人才政策十四条，进一步深化人才发展体制机制改革和科技体制改革，多渠道培育、引进、用好人才，为创新发展、高质量发展提供人才支撑。要抓好“四学四助”系列专题培训，在斗争一线考察识别干部，树立鲜明的用人导向和工作导向。要统筹抓好各领域基层党建，切实抓好农村集体经济“提质增量”行动、抓党建促乡村振兴等工作，抓特色、创亮点、出实效，推动组织工作在全省争先进位。', '会议要求，要全面提升信访工作水平，切实维护群众合法权益和社会大局和谐稳定，为党的二十大胜利召开营造良好环境。要坚持事要解决，强化源头治理，聚焦重点领域开展矛盾隐患排查化解，确保将各类问题化解在早、化解在小，消除在萌芽状态。要扎实开展“化积案、解新案、净环境、迎盛会”信访隐患清零行动，各位市级领导干部要带头落实接访约访下访和包联制度，推动一批“骨头案”“老大难”问题有力有效解决。', '会议强调，要坚持以习近平法治思想为指导，继续加大依法治市工作力度，加快地方科学立法，强化法治政府建设，加快司法体制改革步伐，扎实推进“八五”普法，切实增强全民法治观念，在全社会营造崇尚法律、敬畏法律、遵守法律的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>全市创建全国文明城市指挥部调度会召开以更大力度推进全国文明城市创建努力在统筹城乡发展上闯出一条新路</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022-05-17</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F5%2F17%2Fart_46_415323.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_415323</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 全市创建全国文明城市指挥部调度会召开 以更大力度推进全国文明城市创建 努力在统筹城乡发展上闯出一条新路', '全市创建全国文明城市指挥部调度会召开 以更大力度推进全国文明城市创建 努力在统筹城乡发展上闯出一条新路', '5月13日上午，我市召开创建全国文明城市指挥部调度会，市委书记吴晓华出席并讲话。市长董晓航主持。市领导李国勇、赵志强、吴波、张学锋、崔海霞、胡克明、范晓军、周峰出席会议并讲了意见。', '会议充分肯定了前一阶段全国文明城市创建工作取得的阶段性成效。要求各级各部门深入学习贯彻省委书记倪岳峰在衡水调研时的讲话精神，保持良好的创建势头，解放思想、真抓实干，坚定信心、奋力赶超，以更大力度推进全国文明城市创建工作，向着首创首成的目标扎实迈进，努力在统筹城乡发展上闯出一条新路。', '会议要求，要正视问题补短板，高标准抓好省暗访反馈问题整改落实，聚焦飞线乱象、乱停乱放、乱贴小广告、乱堆乱放等突出问题，深入剖析问题成因，找准工作着力点，达标点位要巩固提升，基本达标点位要动态达标，不达标点位要全力攻坚，抓好市民素质提升、特色街区打造、小区物业管理等重点工作，塑文明之形、铸文化之魂、见惠民之实，全力形成规范有序的城市面貌、向上向善的文明新风、宜居宜业的生活环境，努力实现标准有提升、达标有特色。要采取有力举措抓创建，严格落实“二三四”抓落实工作机制，明确任务、标准、时限和责任人，配足人员和资金，组建专班和突击队，精准整合资源，广泛调动发动，落实属地责任、包建责任，分类施策、攻坚克难，下大力整治各类顽瘴痼疾。要加强督导考核协调，坚持周通报、月调度，严格执行“四位一体”强督查、促落实工作机制，坚持“不贰过”要求，奔着问题去、盯着短板改，采取提示函、任务清单等方式，推动创建重点工作落地落实。要发挥好考核“指挥棒”作用，坚持在创城一线考察、识别、使用干部。要严格奖惩，采取现场会等方式推广好经验好做法，对工作不力、造成严重影响的依法依纪追责问责。', '会上播放了创建全国文明城市工作进展专题片，桃城区、冀州区、衡水高新区、滨湖新区和市创城指挥部各牵头部门主要负责同志分别汇报了各自创建工作进展情况。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>吴晓华在桃城区调研时强调强化基层党的建设全面推进乡村振兴</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F5%2F9%2Fart_46_413778.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_413778</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 吴晓华在桃城区调研时强调强化基层党的建设 全面推进乡村振兴', '5月6日，市委书记吴晓华到基层党建联系点桃城区赵家圈镇前王家村调研。市委常委、秘书长吴波一同参加。', '吴晓华一行来到赵家圈镇前王家村，实地了解该村基层党建、种植结构调整、壮大集体经济、农村人居环境整治、加强基层社会治理和服务群众等工作情况，与镇村干部共同研究解决基层党建工作中存在的困难和问题。', '吴晓华强调，要深入学习贯彻习近平总书记关于“三农”工作的重要论述，深化党建引领，凝聚发展合力，扎实有序做好乡村发展、乡村建设、乡村治理重点工作，推动乡村振兴迈出新步伐。要强化政治引领，加强党支部标准化、规范化建设，严肃党内政治生活，认真落实“三会一课”“主题党日”等制度，加快推进基层治理体系和治理能力现代化，切实把党的组织优势转化为推动农村各项事业发展的强大动力。要聚焦强基固本，着力加强“两委”班子建设，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，办好农民合作社，积极调整种植结构，深入开展河湖水系连通整治，推进农业规模化、产业化、市场化发展，千方百计增加群众收入、壮大集体经济。要加快美丽乡村建设，深入推进农村人居环境整治，着力解决农村改厕、坑塘改造提升、垃圾处理和污水治理等问题，进一步完善基础设施，提升公共服务能力，让乡村成为生态宜居的美丽家园。要坚持为民服务，进一步加强乡村干部队伍作风建设，用心用情用力为群众办实事、解难题，深入开展矛盾纠纷排查化解，全力打通服务群众“最后一公里”。要注重能力提升，坚持在乡村振兴一线考察、识别干部，积极发展年轻党员，加强后备力量建设，不断提升基层党组织凝聚力、战斗力。要抓好疫情防控，充分发挥村卫生室“哨点”作用，严格落实“四早”要求，加强来衡返衡人员排查管控，切实筑牢基层防疫屏障。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>致衡水市民的一封信</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F6%2F4%2Fart_46_332085.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_332085</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['2021年6月5日是第50个“世界环境日”，今年的中国主题为“人与自然和谐共生”，旨在进一步提升全社会生物多样性保护和应对气候变化意识，坚定深入打好污染防治攻坚战的信心和决心，为建设人与自然和谐共生的美丽家园凝聚共识、汇聚力量。', '构建人与自然和谐共生的现代化是社会主义现代化的重要特征。今年以来，习近平总书记在赴福建、广西、河南等地考察时，都就生态文明建设和生态环境保护作出了重要指示、提出了明确要求。习近平总书记在主持中央政治局第二十九次集体学习时强调，要站在人与自然和谐共生的高度来谋划经济社会发展。习近平总书记在领导人气候峰会上首次提出并系统阐释了“人与自然生命共同体”理念，重申了中国实现碳达峰、碳中和目标的承诺，向世界、向世人展现了妥善处理人与自然关系、实现全人类可持续发展的远见卓识，展示了构建人与自然生命共同体的责任担当。我们要深入学习贯彻习近平生态文明思想，立足新发展阶段、贯彻新发展理念、服务和融入新发展格局，加快推动经济社会发展全面绿色转型，为建成青山常在、绿水长流、空气常新的美丽中国贡献更多衡水力量。', '近年来，市委、市政府坚持生态优先、绿色发展，持续打好蓝天、碧水、净土保卫战，生态环境质量不断改善。“十三五”期间，我市PM2.5浓度累计下降45.8%，空气质量综合指数稳定退出全国重点城市后20名，年优良天数由145天增加到238天，10个国省考河湖断面水质全部达标，主城区黑臭水体和农村纳污坑塘实现“双清零”，压减地下水超采8.4亿立方米，森林覆盖率提高到33%，多项工作走在全国、全省前列。蓝天白云、繁星闪烁、清水绿岸、鱼翔浅底的生态画卷舒展在衡水人民面前，推窗见景、低头拾绿的期盼正变成现实，“衡水蓝”更多在苍穹展现，群众的生态获得感、幸福感日益增强。', '广大市民朋友们，生态环境保护是全社会的共同责任，既需要各级政府全力以赴，也需要广大市民勠力同心。希望大家携起手来，从自身做起，从身边小事做起，增强节约意识、环保意识、生态意识，当好生态环境保护的宣传者、实践者、监督者，自觉践行简约适度、绿色低碳的生活方式，积极参与环保公益活动，坚决抵制环境违法行为，共同呵护我们的绿色家园，为建设美丽衡水尽一份责、出一份力，让美丽抬头可见，让幸福触手可及！']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市委常委扩大会议召开</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F4%2F25%2Fart_46_411286.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_411286</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['4月24日，市委常委（扩大）会议召开，传达学习全省领导干部会议、省委书记倪岳峰带领省领导到平山县西柏坡调研学习讲话、省应对新冠肺炎疫情工作领导小组会议暨全省视频调度会议等重要会议精神，研究我市贯彻落实意见。市委书记吴晓华主持会议并讲话。', '会议指出，要坚持政治站位，迅速把思想和行动统一到省委最新部署要求上来。要深入学习领会倪岳峰书记讲话精神，坚决向省委对标，不断提高政治判断力、政治领悟力、政治执行力，始终牢记“两个务必”，大力弘扬西柏坡精神，发扬“严细深实快”作风，说到做到、雷厉风行，不折不扣贯彻落实党中央决策部署和省委工作要求，统筹疫情防控和经济社会发展各项工作，努力为全省大局增光添彩。', '会议强调，要强化责任担当，当务之急是坚决打赢疫情防控阻击战、歼灭战。站位要高起来，把疫情防控作为忠诚捍卫“两个确立”、坚决做到“两个维护”的现实检验，作为头等大事和重中之重，坚持“外防输入、内防反弹”总策略和“动态清零”总方针，从严从紧从细落实各项防控措施，坚决完成省委、省政府提出的目标任务。责任要严起来，坚持党政同责、一岗双责，压紧压实“四方”责任，切实做到守土有责、守土负责、守土尽责。行动要快起来，“条条块块”要对各项措施落实情况进行“回头看”，快速查短板、补漏洞，总结自身经验，学习外地先进经验，提高防疫措施的针对性、实效性。工作要实起来，强化督导检查，把压力传导到最基层、最末梢、最后一个人，推动各项防控措施扎扎实实落地见效。要广泛发动群众，加强防疫政策要求的宣传教育，强化群众的防控意识和防控责任，打好疫情防控的人民战争。保障要强起来，科学排兵布阵、充实人员队伍，备足备齐防控物资，优化工作运行机制，全力保障疫情防控和群众生活。', '会议要求，要抓牢第一要务，持续推动经济社会高质量发展。坚持全神贯注促发展、凝心聚力抓落实，把一季度的工作总结好，加快推动“十项重点工作”落地落实，努力实现上半年“双过半”目标，为全年经济社会发展奠定坚实基础。', '会议强调，要加强考核奖惩，为统筹疫情防控和经济社会发展提供坚强组织保障。要树牢实干导向，完善考核机制，坚持在防疫和发展一线考察识别干部，激励引导广大干部在重大斗争一线经受考验，努力创造一流业绩。要充分发挥基层党组织的战斗堡垒作用和党员的先锋模范作用，切实把党的组织优势转化为抗疫优势、发展优势。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>吴晓华在冀州区调研</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F9%2F30%2Fart_46_363312.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_363312</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['9月29日下午，市长吴晓华带领有关部门负责同志，就经济运行、投资和项目建设、基层党建和宗教工作到冀州区调研。市领导郝卫东、牛泽斌、赵学军一同参加。', '吴晓华一行先后到航能新材料公司功能性光学材料、冀工胶管公司橡塑件配套扩建、恒洋工程装备公司气盾坝系列产品项目现场，详细了解项目建设、企业经营等情况。他要求，要抓住当前施工黄金期，全方位强化过程管理，全链条做好服务保障，在确保工程质量和安全前提下，加快工程组织、设备调试进度，推动项目早建成、早投产、早达效，发挥好对全市经济的支撑作用。', '吴晓华详细询问了冀州区经济社会发展情况。他强调，要强化经济运行调度，紧盯短板弱项，精准测算四季度任务量，倒排时间表，找准支撑点，拿出硬举措，全力完成全年目标任务。', '在基层党建联系点北漳淮乡北内漳村，吴晓华详细了解“开门一件事”活动开展情况。他强调，要强化大抓基层鲜明导向，深入开展“三基”建设年活动，压紧压实全面从严治党政治责任，建强战斗堡垒，为乡村振兴提供坚强组织保证。要聚焦强村富民，发展壮大农村集体经济，促进农民稳定增收。要结合“我为群众办实事”实践活动，不断加强和创新基层治理，发挥“开门一件事”等机制平台作用，用心用情用力解决急难愁盼问题，让群众有更多获得感幸福感，巩固乡村和谐稳定的良好局面。', '吴晓华还到道安寺实地察看宗教场所疫情防控、“双创四进”工作开展情况。他要求，要深入学习贯彻习近平总书记关于宗教工作的重要论述和在承德考察时重要讲话精神，坚持党的宗教工作基本方针，坚持宗教中国化方向，依法依规管理宗教事务，深化“双创四进”活动，落实常态化疫情防控措施，不断增强教职人员和信教群众对党和国家的政治认同、文化认同，促进宗教更好顺应社会、服务社会、履行社会责任，确保宗教领域和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市供销社农村产权流转交易工作跃居全省第二</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F1%2F27%2Fart_46_298987.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_298987</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['近日，记者获悉，2020年市供销社农村产权流转交易工作由上一年度的全省末位跃居第二，交易总额达到2.59亿元，位居全省第一，取得了跨越式发展。', '为规范农村产权流转交易行为，发挥市场配置农村资源的作用，推动农村生产要素有序流动，2019年，河北省政府办公厅印发了《河北省农村产权流转交易管理办法》，提出坚持为农服务宗旨，建立农村产权流转交易中心，流转交易中心由供销合作社负责建设运营。', '河北省是全国率先开展农村产权交易的省份，没有现成经验可循，最初，我市在这方面工作开展比较被动，处于全省末位。2020年初，经过深入调查研究、学习考察，市供销社党委总结出党政重视、政策引领、全员参与、全程监管十六字方针，推动农村产权交易工作走上新台阶。', '制定政策措施。做好农村产权流转交易工作，必须依靠各级党委、政府的强力推动。为此，市委、市政府多次召开会议，制定《关于加快推进农村产权流转交易市场建设的实施意见》等文件，明确农村集体产权、供销社产权必须全部进入农村产权交易中心交易，并制定了全市的目标任务、工作步骤等，这些政策措施为引领全市农村产权流转交易发挥了积极作用。', '全力推进落实。农村产权流转交易工作是一项系统工程，必须靠全员参与，共同推进。在市供销社的积极推动下，我市相关负责人多次深入武邑县、深州市、枣强县、景县等，不定期实地督导调研，及时发现、解决问题，并坚持月报告、季调度、半年总结工作制度。2020年6月底，县级交易中心全部规范并运营，乡、村服务站、点实现全覆盖、全规范，高效打造了市、县、乡、村四级服务体系。', '注重培树典型。坚持政府推动、部门主动、创新驱动、群众发动等角度，培树深州、武邑、阜城、枣强及武强镇等5个典型，依靠典型引导推动工作开展。', '大力开展培训。全年开展市级集中培训三次，培训人员500多人次；县级培训班8期，培训人员400多人；乡镇村“两委”等人员培训班88期，培训人员4000余人。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>衡水中学青年教师畅谈理想庆五四坚守初心建功青春</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018-05-04</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2018%2F5%2F4%2Fart_47_4314.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_4314</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['为学习贯彻习近平总书记考察北大重要讲话精神，纪念五四运动99周年、建团96周年，5月3日下午，衡水中学召开了以“坚守初心?建功青春”为主题的青年教师座谈会。校领导、处室主任和近三年加盟的青年教师们参会。', '衡中一直以来非常重视青年教师的培养工作，近三年加盟的青年教师有259人，占全校教职工的30%多。可以说，青年教师是衡中发展的生力军和希望，关乎衡中的未来。座谈会上，青年教师代表郭蒙、刘东振、裴沛、周松松、孙耀东五位老师，分别结合自己在衡中的工作经历和成长感悟，畅所欲言。郭蒙老师的发言激情澎湃，展现了她参加工作一年来，通过自己的努力和付出，得到了学生的认可，实现了成绩的飞跃，也收获了自身的成长。刘东振老师的发言感人肺腑，他的经历诠释了青春的底色是奋斗。裴沛老师向大家讲述了她来衡中后重新定位自己的理想、感受到衡中有温度的生活和如何学做一名学习型、研究型、管理型的教师经历。周松松老师的发言平淡朴实，他踏实勤恳的工作，收获了学生、家长和同事的认可。不忘初心，不辱使命，大胆创新，长情陪伴。这，是孙耀东老师成功的奥秘。他们的发言情真意切、富有激情，感动了在场的每一个人。他们的成长心路和教育感悟带给参会青年教师们深深的启发。', '随后，学校领导纷纷寄语青年教师。校长张文茂首先向老师们致以节日的问候，并充分肯定了青年教师在衡中的成长和取得的成绩，感谢老师们的无私付出、默默奉献。同时，张文茂还对青年教师在今后的工作、学习、生活上，提出了具体的希望和建议。他希望大家要秉承理想信念，做一名有教育情怀的好老师；要筑牢立身之本，做一名有扎实学识的好老师；要坚守一颗初心，做一名有实干精神的好老师。此外，张文茂还表示衡中将一如既往地重视青年教师的培养，进一步出台新策略，拿出新措施，努力为青年教师的专业成长、精彩人生搭建展示自我的舞台。他要求班子成员和相关主任，要从学校长远发展的战略角度考虑，重视青年教师的师德建设和专业培养，给予他们更多的人文关爱，更丰富的学习机会，更广阔的发展空间，让青年教师尽快成长，帮助每一名青年教师充分挖掘其人生价值，为衡中的持续发展奠定坚实基础。', '坚守初心，建功青春。会后，青年教师纷纷表示，一定会深入学习贯彻习近平总书记考察北大重要讲话精神，牢记五四精神，践行五四精神，扎实工作，认真负责，提升素养，通过不懈奋斗来实现人生的美好梦想。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017-12-12</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2017%2F12%2F12%2Fart_34_15453.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_34_15453</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['会议听取了市发改委赴德州考察学习报告。会议指出，德州发展对我市有很强的借鉴意义。各级各部门要认真学习消化德州的先进理念和工作方法，将其转化成推进我市发展的思路办法和切实举措。会议强调，学习德州，要打开视野、解放思想，放眼全省、全国，以更大的勇气、智慧和魄力，开拓创新、奋力赶超，推进各项工作提速增效。要认真研究出台有关政策，不断提高政策的精准性、导向性和可操作性。要充分挖掘我市优势资源，积极培育城市名片，努力提高城市知名度和美誉度。', '会议研究并原则通过了《全面抓质量提升打造质量衡水行动计划（2018-2022年）》《创建全国质量强市示范城市实施方案》《创建全国质量强市示范城市2018年工作重点》。会议指出，推进质量强市建设，创建全国质量强市示范城市，是实现捷径超车、后来居上的重要抓手。质量强市涵盖面广，全市各系统各方面都要牢固树立质量意识，坚持“质量第一、效益优先”，以创建全国质量强市示范城市为牵引，把党的十九大关于质量的新论断、新理念、新要求变为生动的衡水实践，全力推动经济社会实现质量型创新发展。政府各部门要切实增强主体意识，立足自身实际，积极主动地制订具体方案，落实具体措施。要加快构建“政府推动、部门联动、企业主动、社会互动”的大质量工作体系，通力协作，齐抓共上，凝聚打造质量衡水的强大合力。', '会议研究并原则通过了《衡水市公安机关警务辅助人员管理办法》。会议还研究了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>13</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>全市检察机关以高质量履职维护未成年人合法权益</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F3%2F4%2Fart_46_533915.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_533915</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['3月1日，市政府新闻办召开新闻发布会，衡水市人民检察院党组成员、政治部主任陈子兆就全市检察机关融合运用“四大检察”职能、加强未成年人司法保护、积极融入其他“五大保护”的做法及成效有关工作情况进行发布，衡水市人民检察院第八检察部主任杨静就相关工作回答记者提问。', '去年以来，全市检察机关秉持融合履职、“以我管促都管”、诉源治理等司法新理念，以司法保护促推了“六大保护”深度融合、协同发力，综合保护效果逐步显现。', '固根本、精办案，提高涉未成年刑事案件质效。严惩侵害未成年人犯罪活动，严格落实“一站式”询问等未成年人综合保护工作机制，依法从严提出量刑建议，积极建议适用从业禁止；开展“未成年人网络保护重点工作”专项活动，共受理涉网络刑事案件36件，民事支持起诉案件1件，行政公益诉讼案件1件，制发社会治理类检察建议1件，制定规范性文件3个。加强未成年人双向保护，提升精准帮教实效，开展心理疏导30次，捐赠图书100余本，经过考察帮教，21人顺利返校学习，11人考入大学深造，25人找到工作，重新融入社会生活；加强对被害人的司法救助，建立“一站式”办案区14个，一次性完成证据收集、身体检查等工作，避免反复询问取证对未成年人造成“次生伤害”。', '转理念、延触角，推动涉未成年案件融合履职走深走实。在未成年人检察业务集中统一办理的基础上，深化“四大检察”融合履职。去年，从涉未刑事案件中衍生涉未民事、公益诉讼案件线索70件，涉及抚养权纠纷、隐私权维权等多个方面。联合相关部门开展“校园周边环境治理”“守护学生安全出行”等专项活动，通过检察履职促进社会综合治理。', '聚合力、拓思路，促推“六大保护”协同共治。持续推动“一号检察建议”强制报告、入职查询制度落实。全市两级院开展“进机关”“进学校”“进医院”“进宾馆”四进普法活动20余场，发放主题宣传海报1500份，有力拓展宣传覆盖面。同时，对案件办理的流程监控和程序加强规范监督，推动社会治理审查力度，发挥网格作用，扩大线索来源。优化家庭教育指导工作。与市妇联联合成立衡水首个市级家庭教育指导站，引入司法社工等专业力量重塑家庭环境和亲子关系。截至目前，全市共有93个家庭教育指导站，形成覆盖全市的家庭教育指导阵地。去年以来，共制发“督促监护令”和“家庭教育指导令”163份。常态化开展法治宣传。不断丰富法治教育的形式和内容，统筹线下、线上资源，打造法治宣传教育矩阵。开展“走进特教学校”“检爱同行 共护花开”等法治宣讲、检察开放日活动，共计150场，发放法治宣传资料3.9万余份，线上线下累计覆盖师生7.5万余名。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>13</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>第十四届全国运动会在西安闭幕李克强出席闭幕式</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-09-28</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F9%2F28%2Fart_46_362762.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_362762</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['晚8时，第十四届全运会闭幕式在西安奥体中心体育馆举行。中共中央政治局常委、国务院总理李克强宣布，中华人民共和国第十四届运动会闭幕。在第十四届全运会会歌《追着未来出发》的乐曲声中，第十四届全运会会旗缓缓落下，燃烧了13天的主火炬渐渐熄灭。', '第十四届全运会是在中国共产党成立100周年、我国开启全面建设社会主义现代化国家新征程的重要节点举办的综合性体育盛会，也是我国提出到2035年建成体育强国、健康中国后举办的一次重要综合性运动会。本届全运会坚持以人民为中心的发展思想，突出“全民全运、同心同行”主题，运动健儿发扬顽强拼搏的优良传统，诠释“使命在肩、奋斗有我”的责任担当，借鉴上届全运会改革创新经验，继续设立群众赛事活动。东道主陕西省和有关部门严格执行疫情防控措施，为体育健儿搭建起奋勇争先的舞台，为全国人民奉献了一场简约、安全、精彩的体育盛会。', '第十四届全运会组委会执行主任、陕西省省长赵一德致辞。他说，在党中央、国务院的正确领导和国家体育总局等部委的精心指导下，通过大家的共同努力，本届全运会精彩圆满。全民全运点燃的希望之火、照亮的梦想之光，必将激励全体中华儿女万众一心、奋勇前进。陕西将深入学习贯彻习近平总书记来陕考察重要讲话重要指示精神，解放思想、改革创新、再接再厉，奋力谱写陕西高质量发展新篇章。', '第十四届全运会组委会主任、国家体育总局局长苟仲文致辞。他说，在党中央、国务院的坚强领导和亲切关怀下，本届全运会圆满成功，取得了运动成绩和精神文明双丰收。让我们紧密团结在以习近平同志为核心的党中央周围，增强“四个意识”、坚定“四个自信”、做到“两个维护”，全力推进体育强国建设，为实现中华民族伟大复兴贡献更大力量。', '闭幕式上，赵一德将全运会会旗交还给苟仲文，苟仲文将会旗移交给作为第十五届全运会承办单位代表的广东省省长马兴瑞、香港特别行政区行政长官林郑月娥、澳门特别行政区行政长官贺一诚。第十五届全运会将于2025年在广东、香港、澳门举办。', '我市召开抓党建促乡村振兴、基层党建工作、“三基”建设年暨“三重四创五优化”活动推进会议']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>13</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>李书磊到武邑县调研巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F12%2F17%2Fart_46_382937.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_382937</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 李书磊到武邑县调研巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作', '12月14日至15日，中央党校（国家行政学院）分管日常工作的副校（院）长李书磊、副校（院）长甄占民到武邑县调研巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作。中央纪委国家监委驻中央组织部纪检监察组副组长罗兴平一同参加。省委常委、组织部部长、省委党校（河北行政学院校（院）长柯俊，省委党校（河北行政学院）常务副校（院）长赵士锋，市委副书记、市长吴晓华，市委副书记、市委党校（衡水行政学院）校（院）长李国勇，市委常委、组织部部长、市委党校（衡水行政学院）第一副校（院）长赵志强陪同调研或参加有关活动。', '武邑县是中央党校（国家行政学院）定点帮扶县，自2012年开始由校（院）进行定点帮扶，自2015年开始选派优秀干部到审坡镇贾寺院村挂职“第一书记”。2018年，武邑县正式获批退出国家贫困县序列。李书磊一行来到审坡镇贾寺院村，看望驻村帮扶干部，慰问脱贫户代表，实地考察定点帮扶工作和巩固拓展脱贫攻坚成果同乡村振兴有效衔接情况。在脱贫户家中，李书磊与乡亲们话起家常，详细询问脱贫后的生活状况，鼓励他们坚定信心，依靠党和政府的好政策，努力改善生产生活条件，不断提高生活质量。随后，李书磊一行来到清凉店镇京东跑步鸡乐园、虎牌奥笛柜业、观津书院和县委党校等地，实地调研了产业扶贫、工业发展、文化传承与振兴、智志双扶等工作开展情况。', '在武邑县定点扶贫工作座谈会上，李书磊认真听取河北省、衡水市、武邑县巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作情况的汇报。他指出，脱贫摘帽不是终点，而是新生活、新奋斗的起点。要切实做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接各项工作，稳妥推动政策衔接过渡，在保持帮扶政策总体稳定的基础上，分类优化完善原有政策、研究推出新的支持举措。要严格落实“四个不摘”要求，巩固“两不愁三保障”成果，持续做好防止返贫监测和帮扶，坚决防止出现规模性返贫。要抓住产业这个关键，加快农业结构调整步伐，提高农业产业化水平，促进脱贫人口稳定就业、持续增收。要深入推进乡村振兴战略，按照产业兴旺、生态宜居、乡风文明、治理有效、生活富裕的总要求，找准着力点和突破口，以更有力的举措、汇聚更强大的力量，加快农业农村现代化步伐，促进农业高质高效、乡村宜居宜业、农民富裕富足。', '李书磊还主持召开四级党校座谈会，就如何做好新形势下县级党校建设听取了河北省委党校、衡水市委党校、武邑县委党校工作情况的汇报，并提出了明确的要求。他强调，党校在党的事业中具有非常重要的地位，我们建党不久就开始办党校，在党的历史上，党校是思想统一、组织统一的一个非常有力的纽带。要深入学习贯彻习近平总书记关于党校办学治校系列重要指示精神，充分认识到县级党校的重要性和特殊性，更好地发挥作用，推动基层党校事业高质量发展。要持续强化师资队伍建设，创优师资管理机制，加快形成激发创新活力的科研体制和人才评价体系，打造一支政治强、业务精、作风好的高素质教师队伍，持续推进教学、科研工作高水平发展。要扎实做好调查研究，坚持问题导向，聚焦党中央重大决策部署和人民群众所思所盼所愿，全面调查、深入研究、跟踪问效，加强调查成果交流共享运用，努力形成一批有价值的研究成果，在全方位推动高质量发展中发挥党校优势、体现党校担当。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>13</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>我市积极推进国家卫生城市创建工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F2%2F7%2Fart_46_463930.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_463930</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['自创建国家卫生城市工作开展以来，我市各相关单位广泛开展宣传动员，扎实推进创建工作，取得了阶段成效。今年以来，为贯彻落实全市“开好局、优环境、抓落实、转作风”动员大会精神，我市积极组织各级各部门认真总结经验和不足，持续发力、迎头赶上，推进国家卫生城市创建工作全面展开。', '统一思想、加压奋进，增强“三感”。各级各部门将进一步增强责任感、紧迫感和压力感，把创卫工作摆在重要位置，坚定信心、横下决心，拿出背水一战的勇气，和时间赛跑、向问题宣战，抓紧抓实抓出成效，确保交出优异成绩单，奋力实现创则必成、首创首成。市创卫办将组织各区各部门分管领导和相关科室负责人赴外地先进省市学习国家卫生城市创建工作经验，包括工作开展举措、重点难点主攻方向、档案资料整理、组织保障等方面；邀请国家级创卫专家到我市现场指导，梳理创建工作的重点难点问题，提出解决思路，为全面推动国家卫生城市创建工作打好基础。', '把握关键、突出重点，做到“四清”。各级各部门将坚持目标导向，紧盯网上申报、实地考察、问卷调查等关键环节，严格对照测评指标要求，逐条梳理对标，做到任务目标清、问题差距清、攻坚方向清、档案资料清。各区和城管、公安等部门积极排查清理积存垃圾和各类卫生死角，规范早夜市经营，整治乱停乱放、乱贴乱画等“十乱”问题等工作；组织力量对道路两侧公用设施和垃圾收集设施进行清洗出新。各区和城管、住建等部门将按照各自职责分工，完成破损路牙、路面、窨井修复；对雨水沟、下水道进行清理和疏通，确保畅通、洁净；加强在建工程管理，确保施工现场整洁和食堂、宿舍、厕所卫生达标。各区、各部门、各单位广泛开展环境卫生集中大扫除活动，清除所有卫生死角，开展病媒消杀活动；各居民社区将组织动员群众开展卫生大扫除，认真清除积尘、垃圾和杂草，整治乱堆乱放、乱贴乱画等。商务、市场监管等部门将进一步加强农贸市场、集贸市场等各类市场的秩序规范，敦促各类商贩入市、入坊经营，发动督促商户搞好环境卫生。环保部门将加强工业企业、餐饮业排污监管以及大气污染综合治理和噪声整治，确保各项指标达到要求。同时，市、区创卫办将进一步加强工作调度，通过现场拍照片、拍视频等方式逐街逐巷查找问题，采取每月一调度的方式，将存在问题梳理后逐条落实到责任部门，明确整改时限，加大创建推进力度。', '加强领导、广泛宣传，做好“四有”。市创卫办积极发挥好牵头抓总作用，明确组织机构和工作职责；四个区和各有关部门要坚决扛起责任，把“二三四”抓落实工作机制贯穿创建全过程、各方面，建立起一级抓一级、层层抓落实的责任体系，形成齐抓共管的强大合力，确保创建任务有力有序有效推进。同时，各区、各部门、各单位将继续强化健康知识的普及，对健康教育宣传栏进行更新，确保宣传及时有效。我市也将进一步加大创卫工作的宣传力度，广泛运用报纸、电台、“两微一端”等媒体平台开展全方位、多层次的宣传，引导群众主动参与建设管理美好家园，变“要我创”为“我要创”，在共建共治共享中增强获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>13</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>衡水湖生态文明国际交流会举行</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2019-11-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2019%2F11%2F25%2Fart_47_190963.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_190963</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['11月21日至22日，2019衡水湖生态文明国际交流会在我市举行。市委书记王景武出席并致辞。市长吴晓华主持会议。荷兰南荷兰省省长雅普·斯密特率代表团参加会议并致辞。河北省住房城乡建设厅副厅长李贤明致辞。市领导王世昆、韩克俭出席会议。来自国内外知名机构和高校的专家、学者及企业界嘉宾参加会议。', '王景武在致辞中代表市委、市政府和全市人民，向各位嘉宾的到来表示热烈欢迎。他说，党的十八大以来，以习近平同志为核心的党中央，把生态文明建设纳入中国特色社会主义事业“五位一体”总体布局，习近平生态文明思想为建设美丽中国提供了科学指南。我们将在习近平生态文明思想的科学指引下，树牢“绿水青山就是金山银山”的理念，坚定不移走好生态优先、绿色发展之路。我们将坚持保护第一，深入贯彻落实河北省《关于支持和加强衡水湖保护与发展的意见》，用最严格的措施保护好衡水湖，为子孙后代看护好这片宝贵的湿地。我们将坚持生态优先，树立合理利用、友好保护的理念，大力实施生态补水、地下水超采综合治理等工程，保持“一湖九河”水生态系统健康，把衡水建设成独具魅力的“北方水乡”。我们将坚持走湖城融合发展的道路，着力探索生态城市、滨水城市发展规律，建设生态宜居的美丽湖城。', '王景武强调，衡水湖湿地保护和发展，需要汇聚全球的智慧和资源。荷兰南荷兰省在水生态保护、都市农业发展等方面拥有丰富的经验和资源；参加大会的各位院士、专家都是相关领域的顶级智囊。我们愿意聆听大家的精彩发言、学习大家的真知灼见，并把大家的智慧成果付诸衡水湖保护与发展的实践，与各方并肩进行不懈探索，在推动人与自然和谐发展上展现衡水担当、作出衡水贡献。我们将树牢“功成不必在我”的理念，积极推动国际交流合作常态化、制度化，把高端学术交流活动一届一届办下去，让衡水湖湿地汇聚全球目光、世界智慧，惠及人民、造福后代。', '雅普·斯密特在致辞中简要介绍了荷兰南荷兰省有关情况。他表示，衡水致力于打造河北生态最为可持续城市之一，在衡水湖保护与发展方面做了很多有益的工作，与南荷兰省在农业、水利等方面既有共同需求又有互补性，合作潜力巨大，希望双方以此次会议为契机，相互启发、交流经验、开展合作，实现互惠共赢。', '会议期间，王景武、吴晓华等会见了雅普·斯密特一行，雅普·斯密特一行到衡水湖进行了参观考察。', '大会还举行了主旨报告、水生态和湿地保护国际研讨会、都市农业与宜居环境国际研讨会、城市设计与滨水城市国际研讨会等活动。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>全市创建全国文明城市推进会召开</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2022-04-06</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F4%2F6%2Fart_46_407295.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_407295</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['4月2日，我市召开创建全国文明城市推进会。市委书记吴晓华、市长董晓航出席会议并讲话。市委副书记李国勇主持会议。市领导赵志强、吴波、郝建哲出席会议。', '董晓航要求，要明确职责抓创建，对每个点位、每个片区、主次干道逐个明确包联领导、责任单位、创建标准、时间节点，真正做到责任全覆盖、创建无死角。要转变作风抓创建，结合开展“大学习、大调研、大创新、大提升”活动，严格落实“二三四”工作机制，坚持问题导向，践行一线工作法，以作风持续转变推动创建工作落实。要强化统筹抓创建，树立系统思维，坚持疏堵结合，统筹当前和长远、建设和管理、党政主导和群众主体，深化集中整治，建立长效机制，不断巩固扩大创建成果。统筹推进疫情防控、民生实事、爱国卫生运动、城市更新、春季绿化等工作，互促并进，形成合力，推动城市容貌、社会秩序、基层治理能力实现大提升。', '会上播放了市区创建全国文明城市问题整改回访专题片，桃城区、冀州区、衡水高新区、滨湖新区主要负责同志作了表态发言。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>13</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>我市召开疫情防控和经济运行暨重点项目建设视频调度会</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021-09-18</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F9%2F18%2Fart_46_360218.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_360218</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['9月17日下午，我市召开疫情防控和经济运行暨重点项目建设视频调度会。市委书记赵革作出批示。市长吴晓华出席并讲话。市委副书记李国勇主持会议。市领导王伟、赵志强、吴波、崔海霞、胡克明、周峰、赵学军出席。', '赵革在批示中强调，全市上下要坚决贯彻全省疫情防控和经济运行暨重点项目建设视频调度会议精神，深刻领会王东峰书记、许勤省长讲话要求，进一步提高政治站位，迅速行动起来，把实现省委、省政府提出的“三季度好于二季度”目标作为政治任务，全力冲刺三季度最后半个月。市级包县领导要迅速深入到所包县（市、区）开展督导检查。各县（市、区）党政主要负责同志要亲力亲为，聚焦短板弱项，一个项目一个项目推进。市直主责部门要加强指导、精准服务，着力解决经济运行和项目建设、企业发展中的现实问题。要以决战决胜的姿态，攻坚三季度，全力推动省委、省政府各项部署要求落到实处。', '吴晓华指出，今年是“十四五”开局之年，也是中国共产党成立100周年，做好今年工作意义重大。各地各部门要提高政治站位，认真学习贯彻习近平总书记在承德考察时的重要讲话精神，坚决贯彻全省疫情防控和经济运行暨重点项目建设视频调度会议精神，按照廉毅敏部长指示和赵革书记批示要求，开展百日攻坚，统筹推进疫情防控和经济社会发展各项工作，确保疫情防控万无一失，确保三季度好于二季度、下半年好于上半年，全面完成今年经济社会发展目标任务，实现“十四五”开好局、起好步。', '吴晓华要求，一要坚持项目为王，打好项目投资翻身仗。抓住三季度最后两周时间，算清时间任务账，大小项目一起抓，政府投资、社会投资齐推进，千方百计找到支撑项目、落实入统条件，尽快形成更多工作量。大干四季度，做实招商对象、签约、注册、前期、开工、入统、投产项目库，紧盯入统关键节点每月三次调度，强化领导包联，按照王东峰书记讲话要求，突出“四个一批”，抓好“十项重点”，大力招商引资，抓紧启动实施“十四五”重大项目，形成滚动建设的良好局面。二要强化经济运行调度，牢牢稳住经济基本盘。紧盯工业用电量等先行指标，稳住大的、支持快的、培育新的、帮助弱的，推动工业运行持续向好。利用中秋、国庆假期开展形式多样的促进消费活动。抓好外贸外资工作，推动已签约项目尽快落地。三要扎实推进新冠疫苗接种工作，从严从紧抓好常态化疫情防控，切实巩固疫情防控成果。四要强化工作统筹，全面抓好安全生产、信访稳定、食品药品农产品安全等工作。五要加强领导，压实责任，改进工作作风，强化督导检查，持续深入开展“送政策、抓落实、帮企业、促发展”活动，为各项工作落地见效提供坚实保障。', '会议通报了全市疫情防控和疫苗接种工作、1至8月份全市经济运行和重点项目建设情况，各县市区负责同志作了发言。', '习近平在视察驻陕西部队某基地时强调 聚焦备战打仗 加快创新发展 全面提升履行使命任务能力']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>13</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017-08-11</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2017%2F8%2F11%2Fart_34_14955.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_34_14955</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['会议首先学习了新修正的《中华人民共和国人口与计划生育法》及相关政策。会议指出，人口和计划生育工作事关人民群众的切身利益，事关全面建成小康社会和改革发展稳定大局。各级各有关部门要认真学习新修正的人口与计划生育法，正确做好政策解读，扎实做好新形势下人口计生工作。一要重管理，切实做好新旧政策衔接，实施好计划生育奖励和扶助，不断提高依法管理水平。二要重服务，创新基层计划生育工作方式方法，加强出生人口监测和风险防控，拓展妇幼保健、幼儿教育等公共服务，不断提高出生人口素质。三要重宣传，引导群众正确认识当前我国生育政策调整完善的重大意义，树立新型婚育观念，推动我市人口和计划生育工作和谐健康发展。', '会议听取了赴秦皇岛市学习考察“双违”集中整治工作的汇报，研究并原则通过了全市集中整治违法用地违法建设专项行动实施方案。会议指出，开展集中整治违法用地、违法违章建设是全省要求突出抓好的民生实事，是创建全国文明城市的重要内容。全市上下要坚定决心，攻坚克难，严厉打击“双违”行为，以大整治促进市容市貌大转变和城市形象大提升。一要强化组织领导，细化工作方案，明确整治任务、重点、范围和完成时限，特别要落实县市区主体责任，层层传导压力，确保顺利推进。二要强化工作举措，坚持城乡一体、全域整治，本着“属地管理、依法依规、无偿拆除、先难后易、拆规并举”的原则，开展专项整治工作。三要强化宣传引导，大力宣传专项整治的重要意义，加强对违法行为的曝光力度，发挥群众监督作用，形成全社会参与的浓厚氛围。四要强化督查问责，及时研究解决工作中遇到的困难和问题，确保专项整治出实招、见实效。', '会议传达学习了京津冀及周边地区大气污染防治协作小组第十次会议精神，研究并原则通过了我市贯彻落实意见。会议强调，要认真学习领会会议精神，全力以赴做好我市大气污染防治工作。一是态度要更坚决，牢固树立“环境优先”思想，紧盯大气污染综合治理“1+27”方案要求，精准精细抓好工作任务落实。二是措施要更过硬，以秋冬季攻坚行动为主要抓手，突出抓好气代煤工程、劣质散煤市场取缔、“散乱污”企业整治等重点工作，着力解决大气主要污染物浓度居高不下问题。三是责任要更明确，建立起覆盖各行各业的大气污染管控机制，密切配合，协调联动，以空前的力度不折不扣地完成好大气污染防治各项任务。', '会议听取了衡水高新区以“中科院+”加快换道赶超情况的汇报。会议指出，高新区坚持把科技创新作为谋求经济换道赶超的先手棋和引爆点，依托“中科院+”打造京津冀科技创新和成果转化战略高地，改造提升传统产业，大力发展新兴产业，为加快实现“三个迈进”提供了强力支撑。会议强调，要继续深化推进“中科院+”，加强与京津科研院所和高校的对接合作，特别是对已经启动建设的十余个百亿级高新技术产业项目，要抓紧推进、加快建设。要围绕高新区发展需求和实际问题，加大政策倾斜力度，打造便捷交通环境，进一步提升高新区建设水平，举全市之力打造国家级高新区。要放大高新区科技创新成效，引导各县市区借鉴成功经验，以科技创新加快新旧动能转换，掀起全市创新创业的新热潮。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>13</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>宣传阐释习近平新时代中国特色社会主义思想两手抓两不误两促进</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F12%2F8%2Fart_10731_520055.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10731_520055</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['衡水市人民政府 宣传阐释习近平新时代中国特色社会主义思想 宣传阐释习近平新时代中国特色社会主义思想-两手抓 两不误 两促进', '开展学习贯彻习近平新时代中国特色社会主义思想主题教育，是今年党的建设的重大任务，是一件事关全局的大事。第二批主题教育开展以来，各地更加注重理论武装、更加注重分类指导、更加注重强基固本、更加注重统筹协调、更加注重领导指导，教育引导广大党员、干部树牢造福人民的政绩观，坚持问计于民、问需于民，着力解决人民群众急难愁盼问题，通过“解剖一个问题”推动“解决一类问题”，切实把焕发出来的学习、工作热情转化为攻坚克难、干事创业的强大动力，以各方面工作实际成效推动人民群众获得感、幸福感、安全感不断增强。越是临近收官，越要慎终如始，把主题教育抓出高质量好效果，确保取得扎扎实实的成效。', '大道至简，实干为要。应当看到，第二批主题教育在群众身边开展，同群众联系更直接，面对的矛盾问题更复杂，群众期待解决的问题更具体，越到基层越要突出一个“实”字。坚持标准不降、劲头不松，必须把实的要求贯穿主题教育全过程，把功夫下在解决实际问题上。要广泛听取群众意见，把学习推广“四下基层”作为重要抓手，把解决群众的操心事烦心事揪心事作为着力点，把理论学习、调查研究、推动发展、检视整改等重点措施贯通起来，把惠民生、暖民心、顺民意的工作做到群众心坎上。要坚持一切从实际出发，牢牢把握主题教育目标任务，多在实效上用功、少在形式上费劲，不做表面文章，不搞花样翻新，以严实作风维护主题教育的政治性和严肃性。要把开展第二批主题教育作为重要政治任务紧紧抓在手上，继续发挥好在第一批主题教育中建立的领导体制和工作机制的作用，防止“松口气”“歇歇脚”倾向，确保主题教育善始善终、善作善成。', '实践性是马克思主义的显著特征，学习的目的全在于运用。只有坚持教育实践两手抓、两不误、两促进，防止“两张皮”，才能彰显党的创新理论的真理力量和实践伟力。各地区各部门各单位要坚持围绕中心、服务大局，把开展主题教育同贯彻落实党中央各项决策部署结合起来，同推动本地区本部门本单位的中心工作结合起来，提升主题教育整体效能，使开展主题教育的过程成为理论学习向实践运用转化的过程，成为党员、干部提高履职本领、增强责任担当的过程。岁末年初，全年工作收官和新一年工作开局任务繁重，工作头绪多。要坚持统筹兼顾，处理好主题教育和中心工作的关系，把搞好主题教育与全面完成今年各项工作任务统筹好，突出推动高质量发展，把主题教育解决问题的实效体现在推进中心工作上，用中心工作成效检验主题教育成效。', '对于我们这样一个世界上最大的马克思主义执政党来说，理论强，才能方向明、人心齐、底气足。坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，坚持标准不降、劲头不松，把主题教育谋划好、组织好、落实好，实实在在抓好理论学习和调查研究，实实在在检视整改突出问题，实实在在办好惠民利民实事，做到两手抓、两不误、两促进，我们定能用实干推动发展、取信于民，在推进中国式现代化建设中展现新气象新作为。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>13</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>宣传阐释习近平新时代中国特色社会主义思想共同努力创造属于我们这个时代的新文化人民观点</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F8%2F7%2Fart_10731_498663.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10731_498663</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['衡水市人民政府 宣传阐释习近平新时代中国特色社会主义思想 宣传阐释习近平新时代中国特色社会主义思想-共同努力创造属于我们这个时代的新文化（人民观点）', '宣传阐释习近平新时代中国特色社会主义思想-共同努力创造属于我们这个时代的新文化（人民观点）', '建设中华民族现代文明，是推进中国式现代化的必然要求，是社会主义精神文明建设的重要内容', '“第二个结合”是又一次的思想解放，让我们能够在更广阔的文化空间中，充分运用中华优秀传统文化的宝贵资源，探索面向未来的理论和制度创新', '前不久，习近平总书记来到位于江苏省苏州古城东北隅的平江历史文化街区考察调研，在街边一家商铺内见到了苏绣代表性传承人卢建英。观看苏绣制作，听到四代人传承的故事，习近平总书记十分感慨：“中华文化的传承力有多强，通过这个苏绣就可以看出来。像这样的功夫，充分体现出中国人的韧性、耐心和定力，这是中华民族精神的一部分。”这一番话，揭示了自古以来中国人血液里不变的根、本、魂，流贯的意、韵、脉，传承的精、气、神。', '江流万里，绵延不绝；文脉悠远，与古为新。在文化传承发展座谈会上，习近平总书记强调：“在新的起点上继续推动文化繁荣、建设文化强国、建设中华民族现代文明，是我们在新时代新的文化使命。”要深刻认识到，建设中华民族现代文明，是推进中国式现代化的必然要求，是社会主义精神文明建设的重要内容。更好担负起新的文化使命，“共同努力创造属于我们这个时代的新文化”，这是时代的呼唤，更是时代的必然。', '中华优秀传统文化是中华民族的精神命脉，是我们最深厚的文化软实力。党的十八大以来，习近平总书记深刻把握新时代历史方位，以坚定的文化自觉、宏阔的历史视野、深远的战略考量，就文化建设提出了一系列新理念新思想新战略，引领中华优秀传统文化创造性转化、创新性发展，推动中华文脉绵延繁盛、中华文明历久弥新。今天，北京胡同镌刻古都记忆与浓浓乡情，正定古城重现北方雄镇风貌，历史文脉融入现代生活；国宝、文物、非遗走进人们生活，越来越多收藏在博物馆里的文物、陈列在广阔大地上的遗产、书写在古籍里的文字活了起来；旅游演艺、乡村旅游、文化遗产旅游蓬勃兴起，人们在旅游中感悟文化味道。新时代中华大地呈现出“郁郁乎文哉”的盛大气象，历史悠久的文明古国充满时代生机。正如习近平总书记深刻总结的：“‘第二个结合’让我们掌握了思想和文化主动，并有力地作用于道路、理论和制度。”', '每一种文明都延续着一个国家和民族的精神血脉，既需要薪火相传、代代守护，更需要与时俱进、勇于创新。“第二个结合”是又一次的思想解放，让我们能够在更广阔的文化空间中，充分运用中华优秀传统文化的宝贵资源，探索面向未来的理论和制度创新。北京2022年冬奥会开闭幕式精彩呈现二十四节气、折柳寄情等文化元素，“中国式浪漫”吸引全世界的目光；铜奔马造型玩偶等实物文创商品走红，《千里江山图》数字展等展览深受欢迎，文化创意产品开发呈现活跃景象；舞剧《大梦敦煌》、昆剧《临川四梦》等蕴含中华文化气度风范的作品不断涌现……正是在马克思主义和中华优秀传统文化的互相成就中，造就了一个有机统一的新的文化生命体，让马克思主义成为中国的，中华优秀传统文化成为现代的，让经由“结合”而形成的新文化成为中国式现代化的文化形态。', '一个国家、一个民族的强盛，总是以文化兴盛为支撑的，中华民族伟大复兴需要以中华文化发展繁荣为条件。党的二十大明确了2035年建成文化强国、国家文化软实力显著增强的发展目标。站上新的历史起点，继续推动文化繁荣、建设文化强国、建设中华民族现代文明，更加需要我们全面深入了解中华文明五千多年发展史，深入推进“第二个结合”，以更高远的历史站位、更宽广的世界视野、更深邃的战略眼光、更主动的精神力量，充分运用中华优秀传统文化的宝贵资源，拓展更为广阔的文化空间。坚定文化自信，秉持开放包容，坚持守正创新，激发全民族文化创新创造活力，我们定能更好担负起新的文化使命，为强国建设、民族复兴注入强大精神力量。', '在北京市，京剧、相声等艺术形式在老会馆开启了活化利用之旅；在上海市，经过保护性修缮，具有海派特色的石库门建筑群被赋予全新商业功能；在辽宁省沈阳市，千余种具有沈阳故宫文化元素的文创产品有效传播了历史和文化……今日之中国，是创新创造活力迸发的中国，是文化之花繁盛绚丽的中国。不忘本来、吸收外来、面向未来，在继承中转化，在学习中超越，我们的文化将绵延不绝，我们的创造将生生不息。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>13</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>中国共产党衡水市代表会议召开</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F11%2F1%2Fart_46_370360.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_370360</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['10月29日，中国共产党衡水市代表会议在衡水会堂召开。会议选举产生了我市出席中国共产党河北省第十次代表大会的代表。', '中国共产党衡水市代表会议的代表共426名，出席会议402名，符合规定人数。大会于上午9时开幕，全体代表起立高唱国歌。', '会议由市委常委会主持。受市委书记赵革委托，市委副书记、市长吴晓华讲话。市领导李国勇、王伟、孙桂芝、吴波、郝建哲、张学锋、刘立斌、申文霞等出席会议。市委常委、组织部部长赵志强作关于我市出席省第十次党代会代表候选人预备人选推荐提名情况的说明。全体与会代表观看了警示教育片《警钟长鸣》。', '省委九届十三次全会决定，今年11月召开省第十次党代会。全市各级党组织和广大党员根据党中央精神和省、市委部署，积极参与省第十次党代会代表候选人预备人选的推荐提名工作。经过层层遴选、反复酝酿、综合平衡、严格考察，市委五届二次全会投票确定了我市出席省第十次党代会代表候选人预备人选。', '按照党章和省委要求以及相关程序，会议坚持民主集中制原则，发扬民主，充分酝酿讨论，确定了选举办法，经过差额预选，正式选举产生了我市出席省第十次党代会的代表。当选的代表涵盖了各行业、各领域、各层级，结构合理、比例恰当，具有广泛的先进性和代表性，完全符合省委要求，充分体现了全市广大党员的意愿。', '吴晓华在讲话中代表市委向全体当选代表表示热烈祝贺。他指出，代表我市25万名党员参加省第十次党代会，不仅是一种荣誉，更是沉甸甸的责任。希望当选的同志认真学习贯彻习近平新时代中国特色社会主义思想，不忘初心、牢记使命，认真履责、不负重托，围绕大局作贡献，立足岗位促发展，始终保持先进性和纯洁性，在产业振兴强市、结构调整富民，开创衡水人民更加幸福美好的新生活中切实发挥党代表的先进模范作用，在各个领域、各条战线中当好标杆、作好表率，展示出良好形象和精神风貌。', '吴晓华强调，全市各级党组织、广大党员要旗帜鲜明讲政治，把为党的十九届六中全会和省第十次党代会胜利召开营造良好环境作为重大政治任务，认真贯彻党中央和省委决策部署，加快落实市第五次党代会和市“两会”部署的各项任务，提高政治站位，强化政治担当，确保统筹疫情防控和经济社会发展取得更加扎实的成效。一要以精准有力的举措抓好疫情防控。坚持“外防输入、内防反弹”不动摇，从速从快排查流调，备强备足队伍物资，应接尽接新冠疫苗，持续做好重点人员定期核酸检测，大力普及防护知识，构建群防群控、联防联控严密防线，全力守护人民群众生命安全和身体健康。二要以攻坚冲刺的劲头抓好经济工作。深入贯彻全省经济工作推进会议精神，大干四季度、争创新业绩，对前三季度工作进行全面总结，有针对性地补短板、强弱项、固优势，全力推动项目建设、招商引资、消费升级、科技创新、生态环境治理、全国文明城市创建、冬小麦抢播种保越冬等重点工作，确保圆满完成全年经济社会发展目标任务。三要以精耕细作的理念抓好民生保障。扎实开展“我为群众办实事”实践活动，加大民生投入力度，补足民生短板，解决好人民群众最关心、最直接、最现实的利益问题，圆满完成省20项民生工程和我市20件民生实事，持续巩固拓展脱贫攻坚成果，全力抓好热力、能源电力、清洁型煤和气源保供等工作。四要以毫不放松的态度抓好安全稳定。坚持领导到位、责任到位、措施到位，强化社会面整体防控，深入开展信访隐患排查整治专项行动，扎实开展校园安全专项整顿，持续开展安全生产大排查大整治，打好宣传舆论主动仗，确保社会大局和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>13</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017-09-27</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2017%2F9%2F27%2Fart_34_12997.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_34_12997</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['7月26日，市政府召开第七次常务会议。市长王景武主持会议。 会议传达学习了6月22日省长办公会议精神和省政府深圳创新驱动发展考察报告。会议强调，要深入学习习近平总书记关于创新驱动发展战略的重要讲话精神，大力推进以科技创新为核心的全面创新，加快推动我市新旧动能转换、产业转型升级。会议要求，要抓紧制定我市科技创新五年行动计划，明确工作目标和重点任务，形成科技创新的“路线图”。要抓紧完善我市科技创新政策措施，形成涵盖规划政策、创新创业、创新平台、创新产业等方面的“政策包”，特别是要在提高政策“落地率”上下功夫。要把创建国家创新型试点城市作为推进科技创新的有效载体，加快补齐 “短板”，推动我市科技创新工作整体提升。要切实抓好创新创业平台建设，桃城区、工业新区、滨湖新区要力争走在全市前列。 会议听取了市消委会关于我市上半年消防安全形势的报告，对我市高层建筑消防安全综合治理工作进行了研究。会议强调，越是在经济发展转型的关键时期，越要重视消防安全。消防安全必须警钟长鸣、常抓不懈，绝不能有半点松懈和侥幸。各级各有关部门特别是公安消防部门要扎实做好火灾事故预防各项工作，为党的十九大胜利召开创造良好环境。会议要求，要大力加强消防安全基础设施建设，加快配齐配强救火装备特别是高层建筑火灾特种救援装备，拉出清单，补齐欠账，筑牢城市综合应急救援底线。要大力推进多种形式消防队伍建设，切实加强消防平安社区建设，切实加强重点领域的火灾防控工作，切实加强消防安全宣传教育，加快推进“智慧消防”建设，全面推动社会消防管理创新。要集中开展以高层建筑消防安全为重点的消防安全综合治理，突出整治高层建筑外墙采用易燃可燃保温材料、建筑消防设施缺失损坏、日常消防安全管理不到位等问题。 会议研究并原则通过了市行政规范性文件管理办法（修订草案）。会议指出，加强政府规范性文件管理，是提高依法行政和法治政府建设水平的一项重要举措。要加强规范性文件管理工作，适时修改和废止不适应形势发展的规范性文件。要对规范性文件的制定程序、制发内容、制发质量等严格审查把关，统一登记、统一编号、统一印发、及时归档，确保规范性文件制定的合法性、严肃性和有效性。 会议研究并原则通过了市食品药品安全“十三五”规划和市节能“十三五”规划。会议强调，食药安全事关人民群众身体健康和生命安全，要积极创建国家食品安全示范城市，市、县两级都要大力创建国家级检验检测中心，切实加强对校园、小摊贩、农村集贸市场等重点区域和对象的日常监管，加快推进农产品系统源代码、可追溯机制建设。会议要求，推进我市“十三五”期间的节能工作，要强化约束，倒逼转型，不断强化节能目标的约束性作用。要严控增量，优化存量，努力提高新上项目的能效水平，加快淘汰落后和低端产能。要创新驱动，完善机制，加快节能技术创新、管理创新和制度创新，完善激励、约束和倒逼机制，充分发挥市场配置资源的决定性作用，增强用能单位和公民自觉节能的内生动力。要突出重点，全面推进，既要突出抓好工业、建筑、交通、公共机构等重点领域和重点用能单位节能，大幅提高能源利用效率，又要以建设生态文明为主线，动员社会各界参与节能，推动形成绿色生产和生活方式。 会议研究并原则通过了关于大力发展装配式建筑的若干意见、关于加快发展“大智移云”的实施意见。会议还研究了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>13</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市委召开常委扩大会议王景武主持并讲话</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-02-24</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2020%2F2%2F24%2Fart_47_213282.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_213282</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['2月23日下午，市委召开常委（扩大）会议，传达学习统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议精神，就我市毫不放松抓紧抓实抓细防控工作，统筹推进经济社会发展进行安排部署；传达学习全省政法系统疫情防控工作电视电话会议精神。市委书记王景武主持会议并讲话。市领导吴晓华、邸义、王金刚、李洪林、马福华、商黎兵、李克良、王伟、孙世岩、赵志强、蔡永琦等出席会议。', '会议指出，习近平总书记的重要讲话深刻分析当前疫情形势，对统筹做好疫情防控和经济社会发展工作作出重大部署，为全面打赢疫情防控的人民战争、总体战、阻击战，努力实现今年经济社会发展目标任务，进一步指明了前进方向、提供了根本遵循。要提高政治站位，切实把思想和行动统一到习近平总书记重要讲话精神上来，增强“四个意识”、坚定“四个自信”、做到“两个维护”，从疫情防控工作取得的重大成效中看到我们强大的政治优势、制度优势，把奋力实现疫情防控和经济社会发展目标任务双胜利作为检验初心使命的实际行动，进一步坚定信心决心，以百倍的努力全力做好疫情防控和经济社会发展各项工作。要深刻认识疫情给经济运行带来的影响，以更加有力有效的措施、更加奋发有为的工作，全力推动复工复产，努力把疫情影响降到最低，在打赢疫情防控阻击战的同时，推动全市经济在高质量发展轨道上行稳致远。', '会议要求，要强化政治担当，毫不放松抓好疫情防控重点工作。要抓好外防输入，在防控措施的精准性、有效性上下功夫，建立复工复产复学与机关、企事业单位、社区、农村核查人员台账复核机制、包联机制，确保流动人员可查可防可追溯，坚决阻断病毒传播的渠道。要创新方式方法，充分利用大数据等科技手段做足精准摸排、有效防控工作。要高度重视乡镇卫生院、农村（社区）卫生室的管理检测工作，建立健全信息反馈机制，发现发热人员要第一时间向上反馈、第一时间处置。', '会议强调，要坚持“两手抓、两不误”，扎实做好复工复产和援企稳岗工作。要加快建立与疫情防控相适应的经济社会运行秩序，严格按照有关标准和要求，有序推进复工复产复市复学，使人流、物流、资金流有序流动起来。要坚决落实国家、省关于恢复交通秩序的安排部署，按照“科学有序、依法依规”原则，调整优化公路交通管控措施，有序恢复城际客运、城市公共交通、出租车等公路运输服务。要加大援企稳岗力度，精细落实纾困减负政策，完善就业支持政策，使中央省市出台的各项政策红利真正惠及企业、促进发展，确保就业和社会大局稳定。', '会议要求，要强化系统思维，统筹推进改革发展稳定各项工作。要锚定全年目标任务不动摇，坚定信心，迎难而上，全力以赴把自己的事情办好。要强化经济运行调度，逐月确定科学可行、积极进取的目标任务，尽快把损失的补回来，确保一季度经济社会发展开好局、起好步。要坚定不移打好三大攻坚战，特别是抓好涉及决胜全面建成小康社会、决战脱贫攻坚的重点任务。要加快组织企业提升产能，统筹抓好春季农业生产、产业转型升级、扩大消费、信访稳定等工作，为实现各项目标任务打下坚实基础。', '会议要求，要增强斗争精神，为夺取疫情防控与经济社会发展双胜利提供坚强保障。各级领导干部要带头深入一线、推动工作，充分发挥好“跟我们上”的“头雁效应”。要坚决克服形式主义、官僚主义，把全部精力投入到工作中去，以“越是艰险越向前”的斗争精神，奋力夺取疫情防控和经济社会发展双胜利。', '会议强调，各级政法部门要进一步提高思想认识，强化责任担当，坚决落实中央、全省政法系统疫情防控工作电视电话会议和省委书记王东峰批示精神，在疫情防控中继续冲在前、干在前，把疫情防控各项措施抓细、抓实、抓落地。要忠实履行职责，全力维护政治安全，严厉打击各类违法犯罪，加强社会面管控，坚决扛起战疫情、保稳定的政治责任。要严密自身防控，强化装备物资保障，科学安排勤务，加大关心关爱力度，切实解决一线干警后顾之忧。要加强组织领导，注重在防疫一线锤炼政法队伍，考察、识别、评价、使用政法干部，树立政法铁军良好形象。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>13</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>衡水市与北京新发地集团签署战略合作协议</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020-12-17</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2020%2F12%2F17%2Fart_47_288579.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_288579</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['12月12日，我市与北京新发地集团在衡签署战略合作协议。市委书记赵革出席签约仪式并致辞。市长吴晓华，北京市丰台区花乡党委书记王世义，北京市丰台区花乡政府副乡长杨继军，北京新发地农产品批发市场董事长张玉玺，《中国扶贫》杂志社总编文炜，北京衡水商会会长骆爱国以及北京新发地10位单品销售大王、经营大户等出席签约仪式。市委副书记邸义主持签约仪式。副市长刘玉华代表市政府与北京市丰台区新发地农工商联合公司签订战略合作协议。', '赵革代表市委、市政府向王世义、张玉玺一行表示诚挚欢迎，向北京市丰台区花乡党委政府和北京新发地集团长期以来对衡水的支持帮助表示衷心感谢。赵革说，众所周知，新发地市场是中国乃至亚洲范围内农产品批发行业的翘楚，2019年交易量1749万吨、交易额1319亿元，在全国农产品批发市场中，新发地市场交易量、交易额已连续十七年双居全国第一，新发地市场的农产品价格指数已经成为引领中国农产品市场价格的“风向标”和“晴雨表”。衡水是传统的农业大市，农业有规模、有基础、有品质，农副产品非常丰富。当前，我们深入学习习近平总书记重要讲话和党的十九届五中全会精神，全面落实省委、省政府部署要求，围绕农民增收致富，大力度推进农业结构调整，促进农业规模化经营、产业化发展、品牌化建设，推动衡水现代农业向品牌化、质量化、绿色化、市场化、产业化的道路阔步迈进。这都离不开像新发地这样具有市场号召力、具有风向标指向、具有种——收——销全产业链品牌优势的企业的大力支持。这次借助京津冀协同发展的东风，双方成功“牵手”、“喜结连理”是天作之合，开启了衡水市现代农业与新发地市场战略合作的新征程。合作是心灵的沟通、彼此的信任，承载的是对未来的期许。希望北京新发地集团充分发挥市场、品牌等资源优势，帮助我们强产业、建基地，大力支持衡水的高质量农产品进入北京销售网络。市委、市政府将以这次签约为契机，举全市之力推动合作事项落地落实。各县（市、区）要紧紧抓住难得的机遇，抓紧成立工作专班，把对接北京新发地作为“一把手”工程，进一步创新举措、拓展思路，注重在“量”的扩容和“质”的提升上下功夫，与花乡党委、政府深入交流，与新发地洽谈沟通，推动双方合作更深入、更持久、更绵长、更务实，真正成为京津冀协同发展的一项有效成果，成为助力衡水农民增收致富的一个有力抓手，成为衡水与花乡新发地友谊的纽带、共赢的基石。', '王世义表示，衡水人杰地灵、生态良好，农产品种类丰富、品质优良，发展现代农业有着明显的产业优势、区位优势、环境优势。通过考察交流，我们切身感受到衡水市委、市政府对农业工作高度重视，对加快农业结构调整、推动农业转型升级决心大、力度大，全市上下抓经济、抓招商、抓项目的氛围十分浓厚，各级干部真抓实干的作风、衡水人民朴实诚信的品质令人十分敬佩。希望双方以此次深化合作为契机，进一步深入交流，拓展合作领域，探索绿色农产品产销衔接新模式，助推衡水绿色优质农产品走进北京市场，造福两地百姓。', '签约仪式前，王世义、张玉玺一行饶有兴致地参观了我市优质农产品展示。签约仪式后，张玉玺就“推进农业高质量发展”为与会人员作了专题讲座。各县（市、区）组织与会新型经营主体负责人与北京新发地10位单品销售大王、经营大户进行了对接交流，就建设生产基地、加大产销对接等事宜进行了深入商谈。武邑县政府与北京衡水企业商会、北京新发地农副产品批发市场中心，当场签订了投资1亿元的项目合作协议，助力武邑县建设“北京新发地优质农产品生产基地”和“新发地物流专线基地”。', '在衡期间，王世义、张玉玺一行到我市枣强县、武邑县、安平县部分农业园区、企业、种养基地等进行了实地参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>13</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>第三届世界冀商大会在我市举行</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019-11-11</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2019%2F11%2F11%2Fart_47_186377.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_186377</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['11月8日，第三届世界冀商大会在我市举行。全国政协副主席、全国工商联主席高云龙，省委书记、省人大常委会主任王东峰出席开幕式并讲话。省委副书记、省长许勤主持开幕式。', '高云龙代表全国工商联对第三届世界冀商大会召开表示热烈祝贺，向海内外冀商表示诚挚问候。他指出，刚刚胜利闭幕的党的十九届四中全会是一次具有开创性、里程碑意义的重要会议，习近平总书记的重要讲话系统总结了十九届三中全会以来党和国家各项事业取得的新的重大成就，全面回答了我国国家制度和国家治理应该“坚持和巩固什么、完善和发展什么”这个重大政治问题，是指导全党全国人民推进新时代中国特色社会主义伟大事业的纲领性文献，必将开辟“中国之治”的新境界，开启“中国之治”的新征程。民营经济是在党的改革开放政策指引下发展起来的，民营企业家是改革开放政策的受益者，也是中国特色社会主义制度优越性的见证者，必将在坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化进程中作出更大贡献、获得更大发展。', '高云龙向广大冀商提出三点希望。一要发挥制度优势，坚定发展信心。要深入学习贯彻习近平新时代中国特色社会主义思想和党的十九届四中全会精神，增强“四个意识”，坚定“四个自信”，做到“两个维护”，保持发展定力，努力实现高质量发展。二要练好企业内功，提升发展能力。要抢抓新一轮产业结构转型机遇，努力创造新技术、新模式、新需求、新市场，积极发展新动能，占据竞争新优势。要把制度建设落实到企业生产经营的各环节，浸润到企业文化建设的全过程，以企业的制度优化和组织完善，带动管理水平和发展能力的提升。三要增进家国情怀，助力发展故乡。要紧紧抓住京津冀协同发展、雄安新区规划建设和筹办2022北京冬奥会等重大机遇，顺势而为、应时而动，让企业发展与国家战略、区域协调发展同步合拍。各级工商联组织要坚持政治建会、团结立会、服务兴会、改革强会，发挥桥梁纽带和政府助手作用，推动民营经济不断发展壮大，切实增强凝聚力影响力执行力。', '王东峰代表河北省委、省人大常委会、省政府、省政协，向大会召开表示热烈祝贺，向出席大会的领导和嘉宾表示热烈欢迎。他说，在全国上下深入学习宣传贯彻习近平总书记重要讲话和党的十九届四中全会精神之际，第三届世界冀商大会开幕，具有十分重要的意义。党的十八大以来，在以习近平同志为核心的党中央坚强领导下，广大冀商抓住全面深化改革扩大开放机遇，埋头苦干，创新创业，拼搏竞进，为推动全省经济社会发展及服从服务党和国家大局作出了重要贡献。民营经济发展彰显了改革开放活力，广大冀商在推进河北经济社会发展中功不可没。当前，河北正处在历史性窗口期和战略性机遇期，为广大冀商投资发展提供了广阔空间。特别是习近平总书记亲自谋划推动的京津冀协同发展、雄安新区规划建设、北京冬奥会筹办“三件大事”，为河北发展带来千载难逢的历史机遇，也为广大冀商提供了无限商机。加快新时代全面建设经济强省、美丽河北进程，广大冀商大有可为大有作为。希望大家以本届冀商大会为新的起点，积极参与大会项目推介、产业对接、参观考察等活动，深化沟通交流，加强对接合作，推进项目签约和落地。要积极宣传河北、推介河北，当好河北联系世界的桥梁和纽带。河北省委、省政府将一如既往地重视冀商、支持冀商、服务冀商，持续开展“三深化、三提升”活动，积极构建亲清新型政商关系，着力打造国际化、法治化、便利化的营商环境，为冀商投资发展提供坚实保障。', '全国政协常委、全国工商联副主席，北京叶氏企业集团有限公司董事长叶青，全国政协委员、春秋航空股份有限公司董事长王煜，江苏省苏中建设集团股份有限公司董事长笪鸿鹄，富通集团有限公司首席执行官肖玮，全国工商联党组成员、秘书长赵德江；省领导冉万祥、葛海蛟，省政府秘书长朱浩文等出席开幕式。', '本届世界冀商大会以“同怀燕赵情聚力高质量”为主题，为广大冀商共叙燕赵乡情、共商合作大计搭建了广阔平台。会议期间，还举行了项目发布和推介、实地参观考察等一系列活动。当天在现场签约的项目达到45个，协议总投资1490.3亿元。其中，我市共签约28个项目（含3个框架协议），总投资额995.8亿元。', '海内外河北商会会长、秘书长，知名冀商企业和民营企业负责人；我省各地各有关部门主要负责同志等800余人参加开幕式。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>13</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017-07-13</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2017%2F7%2F13%2Fart_34_10819.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_34_10819</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['7月12日，市政府召开第六次常务会议。市长王景武主持会议。 会议传达学习了河北省水污染防治工作方案及相关政策。会议强调，确保水环境安全是政府义不容辞的责任。各级各部门要从践行绿色发展理念出发，深刻认识做好水污染防治工作的重要意义，全面贯彻实施省水污染防治工作方案，下大力做好我市水污染防治工作，确保水环境治理与保护目标如期实现。会议要求，要全力保障我市水生态环境安全，坚决打好水污染防治百日攻坚战，扎实做好城市黑臭水体治理和“一湖九河九渠”综合整治，扎实推进衡水湖西湖湿地恢复和北湖退田还湖、滏阳河生态修复、胡堂排干、班曹店排干、闸西干渠等重点生态修复工程。要全力保障饮用水水源安全，加强南水北调水源切换安全和应急管理，加快城镇应急备用水源工程建设，强化饮用水水质监测，实现从水源到水龙头全过程监管。要着力提高水资源、水环境承载能力，坚持“以水定城、以水定地、以水定人、以水定产”，积极调整产业结构，优化空间布局，严控新上或扩建高耗水、高污染项目，加强城市节水管理和中水利用，积极推进应急供水工程建设。要落实最严格的水资源管理制度，全面推行市县乡村四级河长制，构建责任明确、分级管理、监管严格、保护有力的管理保护机制。要强化公众参与和社会监督，引导全社会不断增强水资源节约保护意识，以高效的水资源利用支撑经济社会可持续发展。 会议听取了中德项目专题考察组赴德国、奥地利考察情况的报告。会议指出，衡水湖生态保护是一项长期复杂的系统性工程，要大力推进衡水湖水体水质改善和湖区生态修复，为子孙后代保护好这片湿地。要抓好后续对接和跟踪盯办，尽快将各项考察成果落到实处、见到实效。要继续实施好中德财政合作衡水湖湿地保护与恢复项目，汲取国际先进理念，推动衡水湖保护工作与国际接轨，加快推进衡水湖申报国际重要湿地相关工作，打造京津冀乃至全国湿地保护可持续发展的范本。 会议研究并原则通过了关于进一步加快房地产市场专项整治解决房地产开发遗留问题的指导意见。会议强调，妥善解决好房地产开发遗留问题，既是促进房地产市场平稳健康发展的内在需要，也是解决群众诉求、化解群众积怨，维护社会大局和谐稳定的重要举措。各级各部门要切实统一思想，提高认识，抢抓政策窗口期，借大势推动工作，坚决打赢这场攻坚战。要进一步加大工作力度，对停滞项目，要尽快启动盘活；对手续不完备项目，要抓紧完善手续消除违法状态；对已整体入住、未登记办证的项目，要尽快登记办证。要依法依规分类施策，对违法用地和违法建设，要学习先进经验，尽快启动拆违攻坚战；对重点“骨头”案件，实行市级领导包案，成立工作专班，严格政策、分清责任，坚持“一事一议”，集中力量打好重点案件攻坚战。要强化督导检查，加强舆论引导，在正面宣传的同时加大反面典型曝光力度，对责任不落实、监管不到位的严肃问责。要加强房地产市场即时调控和政策储备，加快形成促进房地产市场稳定发展的长效机制，确保还清旧账、不欠新账。 会议研究并原则通过了关于进一步完善见义勇为确认和保障工作机制的实施意见。会议强调，要充分认识加强见义勇为确认和保障工作的重要性，切实加强领导，强化举措，全力推进，努力形成政府主导、综治协调、部门负责、社会参与的工作格局。要严格政策落实，健全完善见义勇为各项权益保障措施。要加强宣传引导，大张旗鼓地宣传见义勇为事迹，共同传递与汇聚向善尚美的强大正能量，让大胆做好事成为社会主旋律。 会议还研究了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>13</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>关于衡水市电动自行车消防安全管理办法政策解读</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F5%2F17%2Fart_101_544687.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_101_544687</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['衡水市人民政府 - 政 策 解 读 关于《衡水市电动自行车消防安全管理办法》政策解读', '23”电动自行车火灾，造成15人遇难44人受伤，引起了全国人民的高度关注。按照市政府安排，市消防救援支队对我市2', '年出台的《衡水市电动车消防安全管理办法（试行）》（衡政规〔2019〕7号）进行修订完善。现就有关修订情况说明如下。', '衡水市人民政府办公室《关于开展政府规章和行政规范性文件清理工作的通知》（衡政办字〔2023〕33号），将《衡水市电动车消防安全管理办法（试行）》（衡政规〔2019〕7号）列入修订计划。', '衡水市人民政府办公室《关于开展政府规章和行政规范性文件清理工作的通知》（衡政办字〔', '年施行的《高层民用建筑消防安全管理规定》《河北省电动自行车管理条例》等两部上位法均对电动自行车停放充电明确规范要求，均设立了处罚条款。', '近年来，随着快递、外卖行业的迅猛发展和共享电动自行车、换电柜等事物的兴起，电动自行车及其蓄电池火灾事故进一步增多，有必要进一步明确快递、外卖、共享电动自行车、换电柜等企业消防安全职责。', '吴波常务副市长安排部署，成立修订专班，多次调度研究，精准分析我市形势，梳理总结经验做法，形成文件初稿。', '吴波常务副市长、周峰副市长多次带队调研考察，研究政策措施。市政协组织消防、住建部门赴福建省考察学习，', '市政府组织召开2次部门商讨会，深入研究法律法规、政策文件和先进地区经验做法，市消防安全委员会组织有关部门、管理对象等召开3次研讨论证会、进一步明晰责任，加强电动自行车消防安全全链条管理。', '次部门商讨会，深入研究法律法规、政策文件和先进地区经验做法，市消防安全委员会组织有关部门、管理对象等召开', '市消防救援支队书面征求了有关市直单位、各县市区及部分管理对象的意见建议，在衡水日报等向社会公众公开征求意见，组织物业服务企业、社会单位代表召开座谈会。共收到建议意见17条，采纳12条，未采纳5条，未采纳意见均已沟通一致。', '市消防救援支队书面征求了有关市直单位、各县市区及部分管理对象的意见建议，在衡水日报等向社会公众公开征求意见，组织物业服务企业、社会单位代表召开座谈会。共收到建议意见', '根据审核意见、专题会议要求以及市领导要求，进行修改完善。4月29日经市政府第52次常务会', '新增《高层民用建筑消防安全管理规定》《河北省电动自行车管理条例》等两部上位法的有关内容。', '细化各级各部门电动自行车消防安全管理职责，明确乡镇（街道）、村（居）民委会开展电动自行车消防安全检查的频次和内容，增强可操作性。', '明确机关、团体、企业、事业等单位消防安全管理职责，新增充电设施运营方、快递外卖企业、互联网租赁电动自行车企业等单位消防安全管理职责。', '明确将电动自行车集中停放场所和充电设施建设工作纳入乡村振兴、城市更新、老旧小区改造、为民办实事等工作。住宅小区内无法满足电动自行车停放充电要求的，可在城市公共停车场、广场、城市道路两侧等公共场所增设电动自行车停放场所和充电设施。国家机关、企业事业单位等应当因地制宜，合理设置电动自行车停放场所和充电设施，满足职工充电需求，“满电回家”缓解组织小区充电压力。', '明确将电动自行车集中停放场所和充电设施建设工作纳入乡村振兴、城市更新、老旧小区改造、为民办实事等工作。住宅小区内无法满足电动自行车停放充电要求的，可在城市公共停车场、广场、城市道路两侧等公共场所增设电动自行车停放场所和充电设施。国家机关、企业事业单位等应当因地制宜，合理设置电动自行车停放场所和充电设施，满足职工充电需求，', '功能。新建住宅小区的乘客电梯，建设单位应当配备智能阻车系统。既有住宅小区新更、安装电梯同步配置智能阻车系统。', '《办法》共24条，主要分为明确各级各部门职责、全链条管理、社会协同治理、法律责任和附则等五部分。', '条，主要分为明确各级各部门职责、全链条管理、社会协同治理、法律责任和附则等五部分。', '规定并细化了各级各部门电动自行车消防安全管理职责，提出建立工作协调和数据共享机制。', '从电动自行车的生产、销售、使用、维修、回收、停放、充电等各个环节进行规范，明确了各环节责任主体应当履行的职责，为全链条落实消防安全保障责任提供了依据。', '对社会单位、物业服务企业、充电设施运营方、快递外卖企业、互联网租赁电动自行车企业等在电动自行车消防安全管理方面的职责进行明确和细化。', '除了上位法已经规定的法律责任外，重复强调电动自行车违规停放充电以及引发火灾的法律责任，促使公众提高对电动自行车消防安全责任的重视。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>13</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>宣传阐释习近平新时代中国特色社会主义思想书写基层治理中国方案新篇章</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F11%2F9%2Fart_10731_514289.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10731_514289</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['衡水市人民政府 宣传阐释习近平新时代中国特色社会主义思想 宣传阐释习近平新时代中国特色社会主义思想-书写基层治理“中国方案”新篇章', '60年前，浙江枫桥干部群众创造了“依靠群众就地化解矛盾”的“枫桥经验”。从这个小镇中生发出的中国智慧、东方经验，扎根于广袤中华大地的火热社会实践中，经过时间的淬炼，愈发显示出历久弥新的丰富内涵，超越时代的蓬勃生机。', '今年是毛泽东同志批示学习推广“枫桥经验”60周年，是习近平总书记指示坚持和发展“枫桥经验”20周年。“枫桥经验”已成为高高飘扬在全国政法战线的一面旗帜，是我国推进基层社会治理的一个“金字招牌”。', '2023年9月20日，习近平总书记在浙江省诸暨市枫桥镇考察时强调，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '写入党的十九届四中全会决定、中共中央关于党的百年奋斗重大成就和历史经验的决议、党的二十大报告……在全面建设社会主义现代化国家、以中国式现代化全面推进中华民族伟大复兴进程中，“枫桥经验”被赋予了新的时代使命。', '不论社会如何变迁，坚持党的领导始终是“枫桥经验”的根本保证，以人民为中心始终是“枫桥经验”的根本立场。', '南京市栖霞区仙林街道曾经信访不断、矛盾频发，如今居民们却感叹：“生活在仙林街道，是非常幸福的事情！”', '2010年起，仙林街道就以党建为引领，完善网格化组织体系，推行一线工作法，街道社区干部全部下沉到网格中。近年来，由于购物方式转变等原因，这里一度商铺租赁纠纷突出。街道“一站式”矛调中心快速反应，统筹入驻中心的住建、市场等力量，在现场设立24小时接待室，倾听诉求，查明责任，高效处置。仙林街道的工作方法被誉为“城市版‘枫桥经验’”，居民对街道的治理工作赞不绝口。', '近年来，各个地方积极探索党员干部下沉的常态长效机制，党员干部扑下身子了解辖区群众的实际需求，党的政治优势、组织优势、密切联系群众优势不断转化为基层治理效能。', '随着全面依法治国深入推进，法治在矛盾纠纷预防化解中的地位和作用越来越凸显。运用法治思维和法治方式解决矛盾纠纷，是新时代“枫桥经验”的鲜明特征。', '土地是农民的“命根子”，事关农民最根本的利益。在吉林省四平市梨树县林海镇，村民之间曾因土地边界不清问题产生不少纠纷。镇党委主动与县法院联系，在规模较大合作社设立“签约法官”，开展“点对点”法律服务。每年年初，都由法律服务工作者到农民合作社和家庭农场，对土地流转合同进行一次“法治体检”。', '劳动争议案件近年来时常引起社会关注。2019年湖北省武汉市武昌区人民法院挂牌成立“武昌区人民法院、武昌区总工会劳动争议诉调对接工作室”，开创“1+1+N”劳动争议诉调对接工作新模式。2021年以来，工作室在武昌区职工之家等建成多个工作站，派法官现场办公，指导企业工会依法维护员工合法权益，为还没有建立工会的企业员工提供法律支持。', '虹口区是上海市人口密度最高的城区之一，是城市中央活动核心区。近年来，纠纷警情约占总警情25%。虹口公安分局会同司法局在凉城新村派出所试点，建立街道领导下的派出所、司法所、律师事务所“三所联动”机制，推动纠纷在法治轨道上实现源头化解。', '近年来，医疗、劳务、知识产权等领域纠纷增多。面对这样的趋势，四川省创新发展行业性专业性调解，成立行业性专业性人民调解委员会2594个、调解室2806个，专业人解专业事，年均化解矛盾纠纷6万余件；同时，出台《四川省行政调解工作暂行办法》，组建起2.9万余名行政调解员队伍。', '“仙侠湖红星坪村流域疑似有200余平方米的违章建筑，请立即前往核对。”日前，浙江省丽水市遂昌县湖山乡综合行政执法队队员收到美丽河湖治理“一件事”场景应用系统派件后，第一时间赶到现场，组织开展实情核查。这是浙江以数字化为牵引全力推进“大综合一体化”行政执法改革的生动实践。', '面对预付式消费纠纷呈逐年上升趋势，北京市石景山区通过建立智能化协同监管新模式，研发预付式消费信用监管和服务平台，向政府、企业、消费者提供端口，让消费过程“透明化”，规范预付消费流程，有效预防了“退费难”“卷款跑路”等问题。', '从乡村“枫桥经验”到城市“枫桥经验”、海上“枫桥经验”、网上“枫桥经验”……一枝独秀不是春，百花齐放春满园。一个个基层治理的鲜活故事，铺就一座座沟通党心民心的连心桥，为续写经济快速发展、社会长期稳定新篇章提供了强大助力。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>13</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F2%2F6%2Fart_46_530078.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_530078</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开', '新华社北京2月4日电 学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议4日在京召开。', '日前，中共中央总书记、国家主席、中央军委主席习近平在主持中央政治局会议审议主题教育总结报告和关于巩固拓展主题教育成果的意见时发表了重要讲话。他指出，主题教育启动以来，全党紧扣“学思想、强党性、重实践、建新功”总要求，聚焦主题主线，明确目标任务，突出以学铸魂、以学增智、以学正风、以学促干，与做好开局之年工作紧密结合，特别是着力解决制约高质量发展问题、群众急难愁盼问题、党的建设突出问题，达到预期目的，取得明显成效。', '习近平强调，要巩固拓展主题教育成果，抓好意见落实，形成长效机制。要持续加强理论武装，教育引导党员干部通过坚持学习党的创新理论，悟规律、明方向、学方法、增智慧，固本培元、凝心铸魂，进一步打牢党的团结统一的思想基础。要持续推动解决问题，继续抓好整改整治、建章立制，让人民群众切实感受到解决问题的实际成效，让人民群众有获得感。要持续改进作风，落实“四下基层”，坚持和发展新时代“枫桥经验”，走好新时代群众路线，纠治形式主义、官僚主义，切实抓好整治形式主义为基层减负工作。要大兴务实之风、清廉之风、俭朴之风，发扬自我革命精神，在全党组织开展好集中性纪律教育。要持续夯实基层基础，推进以党建引领基层治理，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，推进基层治理体系和治理能力现代化。要持续抓好落实，树牢正确政绩观，坚持问题导向，实事求是、因地制宜，重实干、做实功、求实效，更好将主题教育成果转化为推动高质量发展的成效。各级党委（党组）要把巩固拓展主题教育成果作为重大政治任务，扛起主体责任，不折不扣抓好落实。', '2月4日，学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在北京召开。中共中央政治局常委、中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组组长蔡奇出席会议并讲话。新华社记者 庞兴雷 摄', '中共中央政治局常委、中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组组长蔡奇出席会议并讲话。他强调，习近平总书记的重要讲话，充分肯定主题教育取得的明显成效，对巩固拓展主题教育成果提出明确要求。我们要深刻领会，认真贯彻落实。', '蔡奇指出，这次主题教育之所以能够取得明显成效，根本在于党中央的坚强领导，在于习近平总书记亲自谋划、直接领导、全程指导、示范引领。习近平总书记出席主题教育工作会议并作动员部署，主持召开中央政治局常委会会议、中央政治局会议审议相关文件，围绕主题教育主持中央政治局集体学习和专题民主生活会，并多次实地考察调研，对主题教育提出要求、作出一系列重要论述，为主题教育高质量开展指明了方向、提供了重要遵循。', '蔡奇强调，这次主题教育为新时代开展党内集中教育积累了新经验，主要包括：坚持把理论学习贯穿始终、突出问题导向、服务中心任务、力戒形式主义、以上率下示范引领等，要注意总结好、运用好。', '蔡奇指出，要不断巩固拓展主题教育成果，坚定不移全面从严治党，全面推进党的自我净化、自我完善、自我革新、自我提高。要夯实全党团结统一的思想基础，坚持不懈抓好党的创新理论武装，推动广大党员、干部真正把马克思主义看家本领学到手。要激发全党创造活力，把全党的智慧和力量凝聚到新时代新征程党的中心任务上来。要走好新时代群众路线，运用好“四下基层”经验，把我们党密切联系群众的优良作风发扬光大。要严明党的纪律，在全党开展集中性纪律教育，推动广大党员、干部自觉把铁的纪律转化为日常习惯和行动准绳。要提高制度治党、依规治党水平。要把学习贯彻习近平新时代中国特色社会主义思想不断引向深入，为以中国式现代化全面推进强国建设、民族复兴伟业而不懈奋斗。', '中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组成员及办公室负责同志，各省区市和副省级城市、新疆生产建设兵团党委组织部部长，中央和国家机关各部门、各人民团体，中央管理的金融机构、部分企业和高校，中央军委机关有关部门负责同志，中央巡回指导组和省级巡回督导组组长、副组长等参加会议。会议以电视电话会议形式召开，各省区市和新疆生产建设兵团设分会场。', '学习贯彻习近平新时代中国特色社会主义思想主题教育从去年4月开始，自上而下分两批进行，目前已基本结束。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>13</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>宣传阐释习近平新时代中国特色社会主义思想中国式现代化是赓续古老文明的现代化人民观点</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F9%2F1%2Fart_10731_502580.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10731_502580</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['衡水市人民政府 宣传阐释习近平新时代中国特色社会主义思想 宣传阐释习近平新时代中国特色社会主义思想-中国式现代化是赓续古老文明的现代化（人民观点）', '宣传阐释习近平新时代中国特色社会主义思想-中国式现代化是赓续古老文明的现代化（人民观点）', '怎样对待本国历史？怎样对待本国传统文化？这是任何国家在实现现代化过程中都必须解决好的问题。在文化传承发展座谈会上，习近平总书记精辟阐释了中国式现代化赋予中华文明以现代力量、中华文明赋予中国式现代化以深厚底蕴的道理所在，作出了中国式现代化是中华民族的旧邦新命、必将推动中华文明重焕荣光的重大论断。本版今起推出系列评论，与广大读者一起深入学习领会，坚定文化自信自强，更好担负起新时代新的文化使命。', '中国式现代化的推进和拓展不是偶然的，而是由我国历史传承和文化传统决定的，它深深植根于中华优秀传统文化', '出土于金沙遗址的“太阳神鸟”、以蜀锦蜀绣为意象的“锦绣之路”，宋代名画《蜀川胜概图》、东方蜀派古琴……第三十一届世界大学生夏季运动会的开闭幕式上，传统与现代握手，历史与今天交融，让世界看到中华文明源远流长的独特魅力，也让人们感受到中国式现代化深厚的文化底蕴。', '中华文明积淀着中华民族最深沉的精神追求，是中华民族生生不息、发展壮大的丰厚滋养。习近平总书记在文化传承发展座谈会上强调：“中国式现代化是赓续古老文明的现代化，而不是消灭古老文明的现代化”。新征程上，我们坚持走好自己的路，就要以高度的文化自信实现精神上的独立自主，就要深刻认识到我们正在建设的中华民族现代文明必然延续着这个国家和民族的精神血脉，需要薪火相传、代代守护，需要与时俱进、勇于创新。', '凡树有根，方能生发；凡水有源，方能奔涌。每个国家和民族的历史传统、文化积淀、基本国情不同，其发展道路必然有着自己的特色。在漫长的历史进程中，中华民族以自强不息的决心和意志，筚路蓝缕，跋山涉水，走过了不同于世界其他文明体的发展历程，创造了独树一帜的灿烂文化。浙江余杭良渚、山西襄汾陶寺、陕西神木石峁、河南偃师二里头等遗址，青铜器、玉器、甲骨文等出土文物，四书五经、《史记》《汉书》等古代典籍……广袤土地上、城市文脉中、历史典籍里、日常生活中，中华文化源远流长、绵延至今，也让人认识到，中华民族是有独特品格的民族，中华文明是自成体系的文明。独特的文化传统，独特的历史命运，独特的基本国情，注定了我们必然要走适合自己特点的发展道路。中国式现代化的推进和拓展不是偶然的，而是由我国历史传承和文化传统决定的，它深深植根于中华优秀传统文化，具有深厚历史渊源、文明底蕴，彰显中华文明突出的连续性。', '不忘本来才能开辟未来，善于继承才能更好创新。习近平总书记强调“中华优秀传统文化是中华民族的突出优势，是我们最深厚的文化软实力”，提出“只有坚持从历史走向未来，从延续民族文化血脉中开拓前进，我们才能做好今天的事业”，指出“要善于从中华优秀传统文化中汲取治国理政的理念和思维”……党的十八大以来，习近平总书记坚持“两个结合”，把中华文化传承发展与中华民族伟大复兴联系起来，推动中华优秀传统文化精华融入中国式现代化的伟大实践中，铸就了中国式现代化的文化形态。', '今天，中华优秀传统文化的精华已深深融入中国式现代化的中国特色之中。人口规模巨大的现代化，从“天地之大，黎元为先”“民为贵”中汲取文化启示；全体人民共同富裕的现代化，体现“治国之道，富民为始”“不患寡而患不均，不患贫而患不安”的政治理想；物质文明和精神文明相协调的现代化，彰显“仓廪实而知礼节，衣食足而知荣辱”的精神追求；人与自然和谐共生的现代化，蕴含“道法自然”“天人合一”的古老智慧；走和平发展道路的现代化，与“天下大同”“协和万邦”的天下观一脉相承。在古今交融中，中国式现代化成功赓续了古老文明，让我们在解决人类共同面临的现代化难题时，既能运用人类今天的智慧和力量，也能运用中华民族历史上积累和储存的智慧和力量。博大精深、辉煌灿烂的中华优秀传统文化，为马克思主义中国化时代化提供了肥沃土壤，为中国式现代化提供了深厚的思想资源和精神动力。实践告诉我们，在五千多年中华文明深厚基础上开辟和发展中国特色社会主义，“两个结合”是必由之路。', '党的二十大擘画了全面建设社会主义现代化国家、以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图。经过长期奋斗，我们党对中国式现代化的规律性认识日益深化，不仅初步构建起中国式现代化的理论体系，也使中国式现代化变得“更加清晰、更加科学、更加可感可行”。同时应该看到，推进中国式现代化是一项前无古人的开创性事业，艰巨性和复杂性前所未有，对以文弘业、以文培元，以文立心、以文铸魂提出了更高要求。站在新的历史起点，我们必须坚持“两个结合”，坚定历史自信、文化自信，坚持古为今用、推陈出新，用马克思主义激活中华优秀传统文化中富有生命力的优秀因子并赋予新的时代内涵，将中华民族的伟大精神和丰富智慧更深层次地注入马克思主义，有效把马克思主义思想精髓同中华优秀传统文化精华贯通起来。', '历史长河奔流不息，中华文脉绵延不绝。2022年10月，习近平总书记来到河南安阳，考察殷墟遗址。刀笔留痕，甲骨呈奇，徜徉其间，总书记感慨万千：“中华文明源远流长，从未中断，塑造了我们伟大的民族，这个民族还会伟大下去的。”吸吮着中华民族漫长奋斗积累的文化养分，沿着“强国建设、民族复兴的唯一正确道路”坚定向前，新时代中国共产党和中国人民一定能够担负起新的文化使命，在推进中国式现代化进程中建设中华民族现代文明。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>13</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>衡水市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2017-09-19</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2017%2F9%2F19%2Fart_34_13194.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_34_13194</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['9月18日，市政府召开第十次常务会议。市委副书记、市政府党组书记吕志成主持会议。 近日，许勤省长等省领导就省首届园博会作出批示指示，对我市给予充分肯定，对做好下一步工作提出明确要求。会议传达学习了省领导批示指示精神，对贯彻落实省领导批示指示精神，进一步做好园博园养护管理运营等各项工作进行了研究。会议强调，省首届园博会的举办是我市的一件大事，提升了城市知名度和美誉度，展示了我市干部队伍敢担当、承重担、讲奉献的精神面貌，提升了全民绿色发展意识和全市园林建设水平，为群众休闲娱乐创造了良好环境，也为发展旅游产业和第三产业打造了新亮点。会议要求，要以省领导批示指示精神为指引，树牢绿色发展理念，进一步发挥园博园的效能和作用，努力展示园林建设的新理念、新成就。要做好"后园博时代"工作谋划，认真学习借鉴外地办园办会成功经验，加强园博园的后期运营、维护和管理，努力打造生态文明建设的示范区。 会议传达学习了全省秋冬季大气污染综合治理攻坚行动电视电话会议精神和省"1+5"攻坚行动方案，研究了我市贯彻落实意见，原则通过了我市2017-2018年秋冬季大气污染综合治理攻坚行动方案及4个配套方案，原则通过了我市生态环境保护"十三五"规划。会议要求，各级各部门要以实施生态环境保护"十三五"规划为抓手，高度重视生态环保工作，自觉把环保和生态文明理念融入经济社会发展的各个方面，贯穿于各项工作的全过程。要把"十三五"规划总体目标细化分解到各年度，制定并实施好年度工作方案。相关部门要主动认领任务，领导干部要亲自调度、亲自推进，形成常态化机制。会议指出，秋冬季是重污染天气的高发期，是大气污染综合治理的关键阶段。今年的大气污染防治工作任务空前繁重、措施空前强化、督导空前密集、问责空前严厉。各级各部门要切实统一思想，痛下决心，按照省市安排部署特别是秋冬季大气污染综合治理攻坚行动方案，进一步明确任务，强化措施，落实责任，加大监督检查和督导问责力度，全力打好秋冬季大气污染综合治理攻坚战。 会议研究并原则通过了关于加快现代农业园区建设的指导意见。会议指出，现代农业园区是发展现代农业的重要平台，是推进农业供给侧结构性改革的有力抓手，要切实把加快建设现代农业园区摆到重要位置来抓。一要科学制定园区发展规划，统筹布局种植、养殖、加工、生产等功能板块，结合区域特点，打造有侧重、有特色的现代农业园区。要完善园区内部功能，搞好路网、电网等基础设施建设和配套服务体系。二要建立先进的生产方式、组织方式和评价标准，将现代农业园区打造成为先进要素的集中承载平台。三要加强对现代农业园区的支持力度，整合相关资金，制定优惠政策，加大财政支持，努力打造农业发展的示范引领区。 会议听取了赴浙江省桐庐县和龙游县考察学习畜禽养殖废弃物资源化利用情况的汇报。会议指出，抓好畜禽粪污资源化利用是推进农业现代化的重要方面，也是改善环境污染的重要举措。要结合不同养殖模式，制定出台有力措施，加强对各类养殖场的管理，努力实现养殖场监管全覆盖。要以畜禽养殖废弃物减量化产生、无害化处理、资源化利用为重点，选取2-3个县作为试点，整县推进畜禽养殖废弃物综合利用。 会议听取了全市安全生产工作汇报。会议要求，要认真贯彻落实全省做好党的十九大期间信访稳定安全生产工作会议精神，严格落实任务要求，扎实做好安全生产各项工作。要按照国家和省安全生产大检查工作要求，高标准、高质量做好迎查准备工作，不折不扣完成好问题整改，确保不出纰漏。领导干部要带头深入安全生产的薄弱环节和重大隐患集中部位进行重点督查，要敢于动真碰硬，进行挂牌督办。要加强督导问责，对落实安全生产责任不力的县市区和部门要进行约谈，严格追究责任，努力为党的十九大营造安全稳定的良好环境。 会议研究并原则通过了全市推进投资和项目建设政策性文件。会议强调，要进一步强化投资意识，聚焦重点项目建设，努力推动一批产业项目、城建项目建设，着力扩大有效投资。要进一步优化营商环境，理清服务与管理的关系，提高政务服务水平，全力打造投资环境高地。要加强督导问责，对项目建设进展缓慢的县市区及有关部门负责同志要进行约谈，切实推动政策文件落实落地见效。 会议听取了全市"双违"整治工作的汇报。会议要求，领导干部要深入"双违"整治一线，亲自指挥督导，层层传导压力。要对标先进地区，学习"双违"整治的成功经验，进一步拓宽思路、创新举措。主城区要发挥带头作用，为全市"双违"整治工作作出表率。要加大宣传力度，努力提升群众的知晓率、参与率、支持率，坚决打赢"双违"集中整治攻坚战。 会议研究并原则通过了投资审批中介服务市场管理暂行办法、衡水市市本级实施的行政许可事项目录（2017年版）、县级实施的行政许可事项通用目录（2017年版）。会议还研究了城市管理执法体制改革等其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>13</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>习近平在重庆考察时强调进一步全面深化改革开放不断谱写中国式现代化重庆篇章</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F4%2F25%2Fart_46_541775.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_541775</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 习近平在重庆考察时强调 进一步全面深化改革开放 不断谱写中国式现代化重庆篇章', '新华社重庆4月24日电 中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。 4月22日至24日，习近平在中共中央政治局委员、重庆市委书记袁家军和市长胡衡华陪同下，深入物流园区、城市社区、数字化城市运行和治理中心等进行考察调研。 22日下午，习近平首先考察了重庆国际物流枢纽园区。他来到西部陆海新通道重庆无水港运营调度中心，听取新通道建设情况汇报。习近平强调，物流是实体经济的“筋络”。建设西部陆海新通道，对于推动形成“陆海内外联动、东西双向互济”的对外开放格局具有重要意义。各有关方面要齐心协力，把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。物流园区要积极运用先进技术，不断创新联运模式，提高科学管理水平，在建设现代物流体系中发挥更大作用。 随后，习近平来到重庆铁路集装箱中心站，听取货物集散、运输路径、运营成本和效益等介绍，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流，询问他们的工作强度、劳动保护、节假日休息和收入情况。习近平说，大家在物流一线，也是在对外开放一线，通过你们的辛勤劳动，很多商品跨越山海、走向世界，你们的工作很有意义。推动西部大开放、促进西部大开发，物流很重要，大家要继续努力，不断创造新的业绩，作出新的贡献。 习近平还听取了重庆推动成渝地区双城经济圈建设情况汇报，参观了重庆科技创新和产业发展成果展示。习近平表示，建设成渝地区双城经济圈是党中央作出的重大战略决策。重庆、四川两地要紧密合作，不断提升发展能级，共同唱好新时代西部“双城记”。支柱产业是发展新质生产力的主阵地。重庆的制造业有自身的结构特点、有相应的优势，希望重庆牢牢抓住科技创新这个“牛鼻子”，扬优势、补短板，抓当前、谋未来，坚定不移、久久为功，奋力推动制造业高质量发展。 九龙坡区谢家湾街道民主村社区是一个老小区，2022年初启动更新改造项目并纳入全国有关试点。习近平来到这里，察看小区改造和便民服务情况，听取提升基层治理效能、为基层减负情况介绍。他还走进社区食堂，同正在就餐的群众亲切交流，鼓励社区食堂实现可持续发展。习近平指出，老旧小区改造是城市更新的一个重点，也是一项民生工程，既要保留历史记忆和特色风貌，又要解决居民关切的实际问题。要总结推广这方面的成功经验，更好惠及广大社区居民。城市治理的很多工作要靠基层党组织这个战斗堡垒和社区这个平台去落实，要厘清城市社区职责事项，继续推动资源下沉、完善服务设施，强化网格化管理、信息化支撑，提高社区精细化治理、精准化服务水平。 离开时，社区居民纷纷围拢过来欢送总书记。习近平对大家说，中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。 23日上午，习近平考察了重庆市数字化城市运行和治理中心，听取当地加快城市数字化转型、探索超大城市治理新路等情况汇报，观看系统应用演示。习近平指出，治理体系和治理能力现代化是中国式现代化的应有之义。强化数字赋能、推进城市治理现代化，要科学规划建设大数据平台和网络系统，强化联合指挥和各方协同，切实提高执行力。城市治理涉及方方面面，首要的是以“时时放心不下”的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。希望你们不断探索，积累新的经验。 24日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定。 习近平指出，重庆制造业基础较好，科教人才资源丰富，要着力构建以先进制造业为骨干的现代化产业体系。深入实施制造业重大技术改造升级和大规模设备更新工程，加快传统产业转型升级，积极培育具有国际先进水平和竞争力的战略性新兴产业。加强重大科技攻关，强化科技创新和产业创新深度融合，积极培育新业态新模式新动能，因地制宜发展新质生产力。积极推进成渝地区双城经济圈建设，更好发挥全国高质量发展的重要增长极和新的动力源作用。大力推动绿色发展，建设美丽重庆，筑牢长江上游重要生态屏障。 习近平强调，重庆要以敢为人先的勇气，全面深化改革，扩大高水平对外开放。坚持和落实“两个毫不动摇”，一手抓深化国企改革、培育一批核心竞争力强的国有企业，一手抓促进民营经济发展壮大、激发各类经营主体活力。积极融入全国统一大市场建设，主动融入和服务国家重大战略，在推动共建“一带一路”、长江经济带、西部陆海新通道联动发展中发挥更大作用。主动对接高标准国际经贸规则，营造市场化法治化国际化一流营商环境。 习近平指出，重庆是我国辖区面积和人口规模最大的城市，要深入践行人民城市理念，积极探索超大城市现代化治理新路子。加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全“大综合一体化”城市综合治理体制机制，让城市治理更智能、更高效、更精准。扎实推进党建引领基层治理，坚持和发展新时代“枫桥经验”，深化城乡精神文明建设，推进移风易俗，提高全社会文明程度。全面推进韧性城市建设，有效提升防灾减灾救灾能力。 习近平强调，重庆集大城市、大农村、大山区、大库区于一体，要大力推进城乡融合发展。积极推进以县（区）城为重要载体的新型城镇化建设，有序引导、依法规范城市工商资本和科技、人才下乡，助力乡村全面振兴。抓牢抓实粮食生产，依山就势发展生态特色农业。学好用好“千万工程”经验，因地制宜开展乡村建设，聚焦现阶段农民群众需求强烈、能抓得住、抓几年就能见到成效的重点实事，抓一件成一件，让农民群众可感可及、得到实惠。巩固拓展脱贫攻坚成果，确保不发生规模性返贫。 习近平指出，要毫不放松坚持党的领导、加强党的建设。巩固拓展主题教育成果，建立健全长效机制，推动党员、干部特别是领导干部增强政治能力、提高工作水平，真抓实干、积极进取、担当作为。持续深化整治形式主义为基层减负，为基层干部干事创业创造良好条件。扎实开展党纪学习教育，引导党员、干部真正把纪律规矩转化为政治自觉、思想自觉、行动自觉。一以贯之反对和惩治腐败，不断铲除腐败滋生的土壤和条件，营造风清气正的政治生态。 中共中央政治局常委、中央办公厅主任蔡奇陪同考察。 李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察。', '董晓航在一季度经济运行分析专题会上强调 坚定信心 精准发力 巩固增强经济回升向好态势']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>13</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开衡水市人口生育保障工程新闻发布会</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F1%2F9%2Fart_96_104.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_104</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“衡水市人口生育保障工程”新闻发布会', '12月27日上午，衡水市人民政府新闻办公室就“衡水市人口生育保障工程”召开新闻发布会，衡水市卫生健康委员会新闻发言人、副主任贾春青介绍有关情况并回答记者提问。中共衡水市委宣传部陈丽琳主持发布会。全程实录如下：', '“人口生育保障工程”是衡水市2023年20项民生实事之一。截至目前，经过各级的共同努力，完成了省定民生工程，按时完成了市级民生实事。为此，我们今天邀请到了衡水市卫生健康委员会新闻发言人、副主任贾春青同志，他将就相关工作情况进行发布并回答记者提问。', '参加本场新闻发布会的媒体有：衡水日报、衡水晚报、衡水新闻网、衡水电台、衡水电视台、衡水广播电视台融媒体中心等市直媒体；衡水发布、衡水微讯等市政新媒体；河北日报、河北广播电视台、长城新媒体，及河北工人报、河北法制报、燕赵农村报、河北新闻网、河工新闻网、河北共产党员网、冀农融媒体中心·河北农网；中国新闻社、凤凰网、中国经济网、网易衡水等驻衡在衡媒体。', '首先，我代表衡水市卫生健康委，向出席今天新闻发布会的各位新闻界的朋友们，表示热烈欢迎！向长期关心支持衡水卫生健康事业发展的各界朋友，表示衷心的感谢!', '2023年，为深入贯彻落实党的二十大精神，根据省委、省人民政府《优化生育政策促进人口长期均衡发展的实施方案》和市委、市人民政府《优化生育政策促进人口长期均衡发展的支持措施（试行）》等文件要求，切实提升婴幼儿照护服务质量和水平，促进婴幼儿照护服务健康发展，提振生育水平，落实生育、入托补贴，市委、市人民政府将“人口生育保障工程”列入衡水市2023年20项民生实事。截至目前，经过各级共同努力，完成市级民生实事工作安排，完成省定民生工程目标要求。', '（一）标准化升级。落实生育支持措施，创建标准化示范性托育机构32家，增加受益托位1366个。', '（二）落实生育、入托补贴。对女方年满35周岁且夫妻双方均未生育过的，在有资质的医疗机构辅助怀孕并成功生育第一胎的，给予不高于1万元的补贴；对符合政策生育第三个子女的产妇给予5000元分娩补贴；对在市域内登记备案的托育机构入托的符合政策生育的3岁以下婴幼儿，给予托育机构补贴，冲抵托育费用，第一个婴幼儿每人每月300元，第二个500元，第三个800-1200元。', '（一）完成2023年托育机构示范创建工作。联合财政部门下发《关于进一步做好省级托育机构示范创建工作的通知》，组织托育机构进行示范创建，并顺利通过省级抽查验收，圆满完成2023年托育机构示范创建省级民生工程目标要求，创建32家，增加受益托位1366个，获得省级补贴资金205万元。', '1.“母亲圆梦”生育补贴：对女方年满35周岁且夫妻双方均未生育过的，在有资质的医疗机构辅助怀孕并成功生育第一胎的，给予不高于1万元的补贴。已发放圆梦补贴23万元，受益家庭23个。', '2.三孩住院分娩补贴：在全面落实基本医疗保险和生育保险规定的生育医疗费待遇基础上，对符合政策生育第三个子女的产妇给予5000元分娩补贴。已发放分娩补贴492.5万元，受益家庭985个。', '3.入托补贴：对在市域内登记备案的托育机构入托的符合政策生育的3岁以下婴幼儿，给予入托托育机构补贴，冲抵托育费用，第一个婴幼儿每人每月300元，第二个500元，第三个800-1200元。已发放入托补贴562.8万元，受益家庭3795个。', '截至目前，全市千人口托位5.4个，提前三年完成“十四五”建设任务，22518个托位均为普惠性，累计获评省级试点26家，市级试点39家。获评国家级荣誉两个：一个是衡水市获评“第一批全国婴幼儿照护服务示范城市”，一个是衡水市妇幼保健院获评“2022年全国爱心托育用人单位”。市、县两级均建成婴幼儿照护服务指导中心；市人民政府专门划拨土地，建设市级托育综合服务中心；搭建衡水市婴幼儿照护服务管理信息平台，实现“互联网+托育”；全省托育工作推进会在我市召开，我市作典型发言；多次接受国家、省卫健委领导及兄弟地市考察指导，并在国家卫健委举办优化生育政策交流会上和河北省政协专题协商视频会议上作交流发言；我市通过“中央财政支持普惠托育服务发展示范项目”竞争性评选，将获得中央财政补助1亿元，省级财政配套资金3500万元；我市被国家卫健委定为“全国托育服务从业人员培训管理信息系统”试点市；入托补贴刺激了各类资本参与托育的积极性，促进了入托率的提升，2023年，全国入托率为5.5%，我市入托率为7.8%。', '现在进入记者提问环节，大家如有提问，请举手示意，提问之前，请先通报一下自己所在媒体的名称。为让更多的媒体获得提问机会，请每次只提问一个问题。', '一、衡水广播电视台：衡水市域内跨区域如何领取入托补贴？比如说婴幼儿户口是安平县，但是在桃城区上托育机构。', '答：针对这个问题，我市以人口与生育保障领导小组办公室名义下发了关于《优化生育政策促进人口长期均衡发展的支持措施（试行）》统一口径的通知，婴幼儿入托地和户籍地跨县市区的，由入托地负责发放补贴。', '二、河北广播电视台：孩子家长对托育机构存在顾虑，很多家长对托育机构不放心，担心孩子会出现安全事故问题。这个问题如何解决？', '答：1.市县两级均建立了婴幼儿照护服务指导中心，利用指导中心定期对托育从业人员进行培训。针对托育机构日常卫生保健工作、规范办托、科学管理、照护能力和水平以及保障婴幼儿的身心健康等方面进行培训，提升托育机构从业人员职业能力。', '2.市卫健委借助互联网、大数据、物联网、人工智能等技术，搭建了“衡水市婴幼儿照护管理系统”平台，经过培训、系统升级等环节，已部署完毕，现已正式启用。家长可多途径、随时随地查看宣传科普信息、考勤打卡、补贴申领、政策文件，快速了解托育机构、指导中心位置，享受机构托位预订、学习保育知识、预约指导中心医生、查看托育机构师资及班级信息。', '3.建立了多部门共同协作机制，由卫健牵头，进一步细化发展和改革、教育、公安、民政、消防等部门职责，加强对婴幼儿照护服务的指导、监督和管理，常态化对托育机构开展安全监管，确保婴幼儿照护服务机构的规范发展、安全运行。', '答：市县两级财政均把民生支出摆在首位，全力保障民生工程资金需求。我市多次以衡水市人口与生育保障领导小组办公室名义发文，通报各县市区工作进度；市人民政府崔海霞副市长进行专项督导。市级财政对四个区已按事权责任划分，按预算拨付了年度补贴资金；各县市区按市级《支持措施》要求，出台县级《优化生育政策促进人口长期均衡发展的实施细则》，明确发放程序，积极协调筹措资金，及时发放补贴资金。', '好的，由于时间关系，提问环节就到这里。如有媒体需要深入采访，会后可与市卫健委联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>13</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章返京途中在陕西汉中考察</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F7%2F31%2Fart_46_497188.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_497188</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>13</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>宣传阐释习近平新时代中国特色社会主义思想把学习贯彻习近平新时代中国特色社会主义思想不断引向深入</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F3%2F6%2Fart_10731_534420.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10731_534420</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['衡水市人民政府 宣传阐释习近平新时代中国特色社会主义思想 宣传阐释习近平新时代中国特色社会主义思想-把学习贯彻习近平新时代中国特色社会主义思想不断引向深入', '宣传阐释习近平新时代中国特色社会主义思想-把学习贯彻习近平新时代中国特色社会主义思想不断引向深入', '2024年2月4日，学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在北京召开。会议传达了习近平总书记日前在主持中央政治局会议审议主题教育总结报告和关于巩固拓展主题教育成果的意见时发表的重要讲话，对学习贯彻讲话精神作出部署。', '在重要讲话中，习近平总书记指出，主题教育启动以来，全党紧扣“学思想、强党性、重实践、建新功”总要求，聚焦主题主线，明确目标任务，突出以学铸魂、以学增智、以学正风、以学促干，与做好开局之年工作紧密结合，特别是着力解决制约高质量发展问题、群众急难愁盼问题、党的建设突出问题，达到预期目的，取得明显成效；强调要巩固拓展主题教育成果，抓好意见落实，形成长效机制，并提出“五个持续”的明确要求。', '党的二十大报告指出，“从现在起，中国共产党的中心任务就是团结带领全国各族人民全面建成社会主义现代化强国、实现第二个百年奋斗目标，以中国式现代化全面推进中华民族伟大复兴”。面对加速演进的百年变局，要更好肩负起新时代新征程党的使命任务，推进中国式现代化这项前无古人的开创性事业，唯有坚持以科学理论武装，才能坚定信念信仰、牢牢掌握历史主动；唯有凝聚在真理的旗帜下，才能不惧惊涛骇浪，保持定力勇毅前行。按照党中央的部署，从2023年4月起，一场正当其时、正当其势的理论大学习、思想大武装——学习贯彻习近平新时代中国特色社会主义思想主题教育，在全党如火如荼开展。', '近一年来，全党坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，坚决做到“两个维护”的坚定性自觉性有了新提高，思想的伟力进一步激发出干事创业的澎湃动力、旺盛活力，转化为推动高质量发展的生动实践、显著实绩，人民群众的获得感、幸福感、安全感不断增强，强国建设、民族复兴伟业呈现出勃勃生机、万千气象。', '这次主题教育之所以能够取得明显成效，根本在于以习近平同志为核心的党中央的坚强领导，在于习近平总书记亲自谋划、直接领导、全程指导、示范引领。主题教育启动以来，总书记出席主题教育工作会议并作动员部署，主持召开中央政治局常委会会议、中央政治局会议审议相关文件，围绕主题教育主持中央政治局集体学习和专题民主生活会，并多次实地考察调研，对主题教育提出要求、作出一系列重要论述，为主题教育高质量开展指明了方向、提供了重要遵循。', '2023年3月30日，习近平总书记主持召开中央政治局会议，明确主题教育的总要求是“学思想、强党性、重实践、建新功”，根本任务是坚持学思用贯通、知信行统一，把习近平新时代中国特色社会主义思想转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量，使全党始终保持统一的思想、坚定的意志、协调的行动、强大的战斗力，努力在以学铸魂、以学增智、以学正风、以学促干方面取得实实在在的成效。当天下午，中央政治局就学习贯彻习近平新时代中国特色社会主义思想进行第四次集体学习。总书记在主持学习时发表重要讲话，深刻阐发在全党开展主题教育的一系列重大问题，为全党上了一堂生动而深刻的党课。', '4月3日，学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议在北京召开，习近平总书记从新时代新征程党和国家事业发展全局的战略高度，深刻阐述开展主题教育的重大意义和目标要求，对主题教育各项工作作出全面部署。', '4月10日至13日，主题教育启动后一周，习近平总书记来到改革开放前沿广东考察。4天时间里，在南粤大地，一路把脉问诊、解剖麻雀，为全党深入开展调查研究作出表率。在这次考察中，总书记强调，“以学铸魂”就是要“做好学习贯彻新时代中国特色社会主义思想的深化、内化、转化工作，从思想上正本清源、固本培元，筑牢信仰之基、补足精神之钙、把稳思想之舵”，要求全党坚定理想信念，铸牢对党忠诚，站稳人民立场。', '5月17日，在西安听取陕西省委和省政府工作汇报时，习近平总书记强调，“以学增智”就是要“从党的科学理论中悟规律、明方向、学方法、增智慧，把看家本领、兴党本领、强国本领学到手”，要求全党提升政治能力、思维能力、实践能力。', '6月7日至8日，在内蒙古考察期间，习近平总书记强调，“以学正风”就是要“坚持目标导向和问题导向相结合、学查改相贯通，对标党风要求找差距、对表党性要求查根源、对照党纪要求明举措，增强检视整改实效”，要求全党大兴务实之风，弘扬清廉之风，养成俭朴之风。', '7月5日至7日，在江苏考察期间，习近平总书记强调，“以学促干”就是要“坚持学思用贯通、知信行统一，匡正干的导向，增强干的动力，形成干的合力”，要求全党树牢造福人民的政绩观，鼓足干事创业的精气神，形成狠抓落实的好局面。', '7月25日至27日，在四川考察期间，习近平总书记指出，要对主题教育的实效进行科学、客观评估，并提出评估的重要标准；特别要求“对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效”。', '8月30日，习近平总书记主持召开中央政治局常委会会议，充分肯定第一批主题教育成果，对第二批主题教育提出“更加注重理论武装、更加注重分类指导、更加注重强基固本、更加注重统筹协调、更加注重领导指导”的明确要求。', '9月6日至8日，在黑龙江考察期间，习近平总书记强调，要注重抓好第一批、第二批主题教育的衔接联动。针对第二批主题教育参加单位人员范围广、类型多、数量大等情况，强调“坚持科学谋划、统筹安排、分类指导，确保取得实效”。', '10月10日至13日，在江西考察期间，习近平总书记强调，要把实的要求贯穿主题教育全过程，“实实在在抓好理论学习和调查研究，实实在在检视整改突出问题，实实在在办好惠民利民实事，用实干推动发展、取信于民”。', '11月28日至12月2日，在上海考察期间，习近平总书记强调，“要坚持标准不降、劲头不松，把主题教育同各方面工作结合起来，做到两手抓、两不误、两促进”。', '12月14日至15日，在广西考察期间，习近平总书记强调，“要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制”。', '12月21日至22日，中央政治局召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。习近平总书记指出，这次主题教育主题主线突出，目标任务明确，在以学铸魂、以学增智、以学正风、以学促干上取得了明显成效，要求中央政治局带头巩固拓展主题教育成果，建立长效机制，加强自身建设，在全党发挥示范带头作用。', '2024年2月1日至2日，农历甲辰年春节前夕，习近平总书记赴天津看望慰问基层干部群众。时值主题教育即将收官，总书记谆谆嘱咐：“要健全长效机制，巩固拓展主题教育成果，引导党员干部持续深入学习党的创新理论。”', '习近平总书记作出的一项项科学部署、一次次精准指导、一场场身先示范，从理论与实践的结合上深刻回答了“为什么学、学什么、怎么学、学出什么效果”等一系列重大问题，推动全党将主题教育不断引向深入。广大党员、干部闻令而动、听令而行，把自己的思想摆进去、把工作摆进去、把职责摆进去，坚持学思用贯通、知信行统一，更加真切感悟到党的创新理论的真理力量和实践伟力。这次主题教育为新时代开展党内集中教育积累了新经验，主要包括坚持把理论学习贯穿始终、突出问题导向、服务中心任务、力戒形式主义、以上率下示范引领等，要注意总结好、运用好。', '学习贯彻习近平新时代中国特色社会主义思想是一个纵深推进、不断深化的过程，必须持之以恒深学细悟、真信笃行。要持续加强理论武装，教育引导党员干部通过坚持学习党的创新理论，悟规律、明方向、学方法、增智慧，固本培元、凝心铸魂，进一步打牢党的团结统一的思想基础。要持续推动解决问题，继续抓好整改整治、建章立制，让人民群众切实感受到解决问题的实际成效，让人民群众有获得感。要持续改进作风，落实“四下基层”，坚持和发展新时代“枫桥经验”，走好新时代群众路线，纠治形式主义、官僚主义，切实抓好整治形式主义为基层减负工作。要大兴务实之风、清廉之风、俭朴之风，发扬自我革命精神，在全党组织开展好集中性纪律教育。要持续夯实基层基础，推进以党建引领基层治理，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，推进基层治理体系和治理能力现代化。要持续抓好落实，树牢正确政绩观，坚持问题导向，实事求是、因地制宜，重实干、做实功、求实效，更好将主题教育成果转化为推动高质量发展的成效。各级党委（党组）要把巩固拓展主题教育成果作为重大政治任务，扛起主体责任，不折不扣抓好落实。', '理论创新没有终点，理论武装永无止境。新征程上，全党要紧密团结在以习近平同志为核心的党中央周围，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，在新的赶考之路上书写出不负时代、不负人民的优异答卷！']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>13</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>习近平在广西考察时强调解放思想创新求变向海图强开放发展奋力谱写中国式现代化广西篇章</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F12%2F18%2Fart_46_521491.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_521491</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章', '习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，广西要完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，发挥自身优势，以铸牢中华民族共同体意识为主线，解放思想、创新求变，向海图强、开放发展，努力在推动边疆民族地区高质量发展上展现更大作为，在建设新时代中国特色社会主义壮美广西上不断取得新进展，奋力谱写中国式现代化广西篇章。', '12月13日，习近平结束对越南的国事访问回到国内。14日至15日，在广西壮族自治区党委书记刘宁和自治区政府主席蓝天立陪同下，先后到南宁、来宾等地，深入对外开放项目、社区、农村、企业等进行调研。', '14日上午，习近平首先考察了位于南宁市的中国－东盟信息港股份有限公司。习近平详细了解中国－东盟信息港建设运营、中国－东盟经贸合作等情况，结合平陆运河沙盘听取西部陆海新通道骨干工程建设汇报。习近平指出，建设中国－东盟信息港，是推动共建“一带一路”、加强我国与东盟国家互联互通的一项重要举措。广西要主动作为、发挥支点作用，加强信息化建设和应用，为推进高水平对外开放、促进同东盟合作不断注入新动力。', '南宁市良庆区蟠龙社区是一个多民族聚居社区。习近平来到社区党群服务中心，听取现场工作人员关于开展主题教育、促进便民惠企、举办民族特色活动等情况介绍，对他们坚持党建引领聚合力、服务为本促发展的做法表示肯定。在文体活动室，他饶有兴致地观看社区居民习练书法、合唱民歌，同大家亲切交流，鼓励社区充分利用人才、场地等资源，开展更多健康有益、启智润心的文化活动，以此激发更大的正能量。习近平指出，社区是基层自治的基本单元，是国家治理体系的基层基础。通过社区这个平台，办好“一老一小”等民生实事和公共事务，积极回应群众关切，是中国特色基层治理的显著优势，要把这一优势发挥好。建设多民族群众互嵌式社区，是促进各族群众交往交流交融的重要途径。广西建设铸牢中华民族共同体意识示范区，要从基层社区抓起，通过扎实的社区建设、有效的社区服务、丰富的社区活动，营造各族人民一家亲的浓厚氛围，把民族团结搞得更好。', '离开社区时，各族群众热情欢送总书记。习近平亲切地对大家说，我昨天结束对越南的国事访问，直接来广西考察调研。构建具有战略意义的中越命运共同体，将更有利于广西的开放发展，壮美广西前景光明。广西作为我国少数民族人口最多的自治区，各族人民同顶一片天、同耕一垌田、同饮一江水、同建一家园。全面建设社会主义现代化国家，一个民族都不能少。希望社区各族群众多来往，大家互帮互助，交知心朋友，做和睦邻居，共同建设幸福家园。', '14日下午，习近平到来宾市考察调研。在国家现代农业产业园黄安优质“双高”糖料蔗基地，习近平察看万亩甘蔗林和机械化作业收割场景，听取基地情况介绍。他走进甘蔗林，详细了解甘蔗良种繁育技术要领，同蔗农、农机手和农技人员亲切交流。习近平指出，广西是我国蔗糖主产区，要把这一特色优势产业做强做大，为保障国家糖业安全、促进蔗农增收致富发挥更大作用。要积极培育和推广良种、提高机械化作业水平，建设好现代农业产业园。要探索建立更加稳定的利益联结机制，让广大农民共享农村改革和发展成果。他祝愿乡亲们的生活像甘蔗一样甜蜜。', '随后，习近平到来宾东糖凤凰有限公司考察。他进入生产车间察看制糖工艺和作业流程，在公司展厅了解糖业产品种类及市场份额和发展趋势。他强调，我国糖业面临激烈的国际竞争，要按照高端化、智能化、绿色化要求，加大科技创新力度，延伸产业链、提高附加值，不断提质、降本、增效，推动高质量发展。离开企业时，习近平热情地对前来欢送的员工们说，食糖是重要的副食品，大家为此辛勤劳动，为千家万户送去了“甜蜜”。希望大家不断学习新技术、采用新工艺，为糖业发展作出新贡献。', '15日上午，习近平听取广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定。', '习近平指出，推动广西高质量发展，必须做好强产业的文章，加快构建现代化产业体系。要立足资源禀赋和产业基础，聚焦优势产业，集中优势资源，打造若干体现广西特色和优势、具有较大规模和较强带动力的支柱产业。把科技创新摆到更加突出的位置，深化教育科技人才综合改革，加强科教创新和产业创新融合，加强关键核心技术攻关，加大技术改造和产品升级力度。充分利用沿海沿江的优势，大力发展海洋经济、临港产业。加快产业结构优化调整，推动产业体系绿色转型，发展壮大林业产业、文旅产业、养老产业、大健康产业，让生态优势不断转化为发展优势。', '习近平强调，广西要持续扩大对内对外开放。要增强内外联动，构建更有活力的开放型经济体系。主动服务国家重大战略，对接沿海发达地区产业新布局，有序承接产业梯度转移，加快北部湾经济区和珠江－西江经济带开发开放，把广西打造成为粤港澳大湾区的重要战略腹地。要共建西部陆海新通道，实施一批重大交通基础设施项目，高标准、高质量建设平陆运河，高水平打造北部湾国际门户港，提高江铁海多式联运能力和自动化水平。积极服务建设中国－东盟命运共同体，深化拓展与东盟国家在商贸、劳务、产业、科技、教育等领域合作，打造国内国际双循环市场经营便利地，深度融入共建“一带一路”。', '习近平指出，乡村振兴是建设农业强国的基础性工程，要落实规划、扎实推进。要全面落实粮食安全党政同责，坚持稳面积、增单产两手发力，实现粮食均衡增产。发挥广西林果蔬畜糖等特色资源丰富的优势，大力发展现代特色农业产业，让更多“桂字号”农业品牌叫响大江南北。既要鼓励工商资本下乡，又要把住底线，防止占用耕地搞非农化、非粮化经营。加快完善乡村治理体系，改善农村基础设施、公共服务、人居环境，提升村庄整体风貌和农民生活品质。巩固拓展脱贫攻坚成果，建立农村低收入人口常态化帮扶机制，防止出现规模性返贫。', '习近平强调，广西要把铸牢中华民族共同体意识作为自治区各项工作的主线，作为推进民族团结进步创建工作的根本方向，巩固发展各族人民团结奋斗的良好局面。要把持续扎根铸牢共同体意识落实到经济、教育、就业、社区建设、文化建设和干部队伍建设等各项工作中，继续在民族团结进步上走在全国前列。要尽力而为、量力而行、久久为功，着力解决好就业、教育、医疗、住房、养老、托幼等民生问题，逐步缩小城乡差距、区域差距、民族差距，扎实推进共同富裕。持续推进新时代兴边富民行动。', '习近平指出，坚持和加强党的全面领导，是做好各项工作的根本保证。要坚决贯彻落实党中央决策部署，加强领导班子建设，不断提高干部队伍素质和能力，激励党员干部廉洁从政、干净干事。第二批主题教育处于尾声，要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制。', '习近平强调，岁末年初，各级党委和政府要切实做好市场供应、民生保障，精细化抓好安全生产，注意解决农民工欠薪问题，确保人民群众节日欢乐祥和。近几天，我国华北、黄淮等地区普遍出现中到大雪，对人民群众生产生活秩序造成一定影响，各地、各有关部门要密切关注，采取有力措施，努力把灾害带来的影响降到最低。', '王毅、李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十一巡回指导组负责同志参加汇报会。', '12月15日上午，习近平在南宁亲切接见驻南宁部队上校以上领导干部，代表党中央和中央军委向驻南宁部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>13</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>习近平主持中共中央政治局第三十一次集体学习并发表重要讲话</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F6%2F28%2Fart_46_337746.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_337746</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 习近平主持中共中央政治局第三十一次集体学习并发表重要讲话', '新华社北京6月26日电 在庆祝中国共产党成立100周年之际，中共中央政治局6月25日下午就用好红色资源、赓续红色血脉进行第三十一次集体学习。中共中央总书记习近平在主持学习时强调，红色资源是我们党艰辛而辉煌奋斗历程的见证，是最宝贵的精神财富。红色血脉是中国共产党政治本色的集中体现，是新时代中国共产党人的精神力量源泉。回望过往历程，眺望前方征途，我们必须始终赓续红色血脉，用党的奋斗历程和伟大成就鼓舞斗志、指引方向，用党的光荣传统和优良作风坚定信念、凝聚力量，用党的历史经验和实践创造启迪智慧、砥砺品格，继往开来，开拓前进，把革命先烈流血牺牲打下的红色江山守护好、建设好，努力创造不负革命先辈期望、无愧于历史和人民的新业绩。', '这次集体学习是中央政治局带头开展党史学习教育的一项重要安排，采取参观和讨论相结合的形式进行。', '6月25日，中共中央政治局就用好红色资源、赓续红色血脉举行第三十一次集体学习。这次集体学习采取参观和讨论相结合的形式，这是习近平、李克强、栗战书、汪洋、王沪宁、赵乐际、韩正等在北大红楼参观“光辉伟业 红色序章——北大红楼与中国共产党早期北京革命活动主题展”。新华社记者 谢环驰 摄', '25日下午，习近平带领中央政治局同志来到北大红楼，参观“光辉伟业 红色序章——北大红楼与中国共产党早期北京革命活动主题展”，重温李大钊、陈独秀等开展革命活动、推动马克思主义在中国早期传播、酝酿和筹建中国共产党等革命历史。展厅内，一张张图片、一件件文物，全面展现了那个时期的光辉历史。习近平不时停下脚步，询问相关细节。他指出，北大是新文化运动的中心和五四运动的策源地，最早在我国传播马克思主义思想，也是我们党在北京早期革命活动的历史见证地，在建党过程中具有重要地位。要加强红色资源保护和利用，尊重历史事实，准确评价历史，正确学史用史。', '6月25日，中共中央政治局就用好红色资源、赓续红色血脉举行第三十一次集体学习。这次集体学习采取参观和讨论相结合的形式，这是习近平、李克强、栗战书、汪洋、王沪宁、赵乐际、韩正等在中南海丰泽园参观毛泽东同志故居。新华社记者 鞠鹏 摄', '丰泽园毛泽东同志故居，是毛泽东同志从1949年9月21日开始工作和生活了17年的地方。毛泽东同志在这里筹划了新中国建立和建设的一系列大政方略。习近平带领中央政治局同志来到这里参观瞻仰，察看颐年堂大厅现场展陈，观看毛泽东同志在丰泽园工作生活的影像短片，回顾毛泽东同志在这里主持召开的重要会议、作出的重大决策、会见的重要外宾，参观毛泽东同志办公区、会议室和藏书室，仔细察看毛泽东同志批改过的重要文件、阅读过的书籍、穿过的衣物、使用过的日常用品和书信、手稿、照片等，追忆毛泽东同志的卓越功勋和崇高风范。习近平强调，北大红楼和丰泽园在党的历史上都具有标志性意义，生动诠释了中国共产党是怎么来的、中华人民共和国是怎么来的，给我们上了一堂鲜活而又生动的党史课。', '6月25日，中共中央政治局就用好红色资源、赓续红色血脉举行第三十一次集体学习。这次集体学习采取参观和讨论相结合的形式，这是习近平、李克强、栗战书、汪洋、王沪宁、赵乐际、韩正等在中南海丰泽园参观毛泽东同志故居。新华社记者 李学仁 摄', '参观结束后，习近平等回到中南海怀仁堂，围绕主题进一步开展学习。习近平在主持学习时发表了重要讲话。他指出，红色是中国共产党、中华人民共和国最鲜亮的底色，在我国960多万平方公里的广袤大地上红色资源星罗棋布，在我们党团结带领中国人民进行百年奋斗的伟大历程中红色血脉代代相传。每一个历史事件、每一位革命英雄、每一种革命精神、每一件革命文物，都代表着我们党走过的光辉历程、取得的重大成就，展现了我们党的梦想和追求、情怀和担当、牺牲和奉献，汇聚成我们党的红色血脉。', '习近平表示，党的十八大以来，我到地方考察，都要瞻仰对我们党具有重大历史意义的革命圣地、红色旧址、革命历史纪念场所，主要的基本上都走到了。每到一地，重温那一段段峥嵘岁月，回顾党一路走过的艰难历程，灵魂都受到一次震撼，精神都受到一次洗礼。每次都是怀着崇敬之心去，带着许多感悟回。', '习近平强调，要教育引导全党始终坚持科学理论指导。马克思主义在中国的广泛传播催生了中国共产党，马克思主义使我们党拥有了科学的世界观和方法论，拥有了认识世界、改造世界的强大思想武器。一百年来，我们党坚持把马克思主义基本原理同中国具体实际相结合，创立了毛泽东思想、邓小平理论，形成了“三个代表”重要思想、科学发展观，创立了新时代中国特色社会主义思想，指导党和人民事业不断开创新局。中国共产党为什么能，中国特色社会主义为什么好，从根本上说，是因为马克思主义行。我们要从党的百年奋斗史中感悟真理的力量，不断深化对共产党执政规律、社会主义建设规律、人类社会发展规律的认识，用马克思主义的真理光芒照耀我们的前行之路。', '习近平指出，要教育引导全党始终坚持理想信念。革命理想高于天，回望百年党史，千千万万共产党人为了理想信念不惜抛头颅、洒鲜血。共产主义是我们党的远大理想，为了实现这个远大理想，就必须坚定中国特色社会主义信念。全党同志要增强“四个意识”、坚定“四个自信”，在全面建设社会主义现代化国家新征程上披荆斩棘、奋力前行，不断夺取新时代中国特色社会主义新胜利。', '习近平强调，要教育引导全党始终坚持初心使命。牢记和践行为中国人民谋幸福、为中华民族谋复兴的初心使命，是贯穿我们党百年奋斗史的一条红线。江山就是人民，人民就是江山，打江山、守江山，守的是人民的心，对我们这样一个长期执政的党而言，没有比忘记初心使命、脱离群众更大的危险。全党同志要从党的百年奋斗史中不断体悟初心使命，贯彻好以人民为中心的发展思想，矢志不渝为实现中华民族伟大复兴而奋斗。', '习近平指出，要教育引导全党始终坚持光荣革命传统。党的伟大精神和光荣传统是我们的宝贵精神财富，是激励我们奋勇前进的强大精神动力。当今中国正处于实现中华民族伟大复兴关键时期，国家强盛、民族复兴需要物质文明的积累，更需要精神文明的升华，决不能丢掉革命加拼命的精神，决不能丢掉谦虚谨慎、戒骄戒躁、艰苦奋斗、勤俭节约的传统，决不能丢掉不畏强敌、不惧风险、敢于斗争、敢于胜利的勇气。全党同志要用党在百年奋斗中形成的伟大精神滋养自己、激励自己，以昂扬的精神状态做好党和国家各项工作。', '习近平强调，要教育引导全党始终坚持推进自我革命。我们党历经百年沧桑依然风华正茂，其奥秘就在于具有自我净化、自我完善、自我革新、自我提高的强大能力，自我革命精神是党的执政能力的强大支撑。全党同志要增强忧患意识，以永远在路上的坚定执着将全面从严治党向纵深推进，严于律己，不断提高政治判断力、政治领悟力、政治执行力，始终做一名合格的共产党员，为把党建设得更加坚强有力作出应有的努力。', '习近平指出，要用心用情用力保护好、管理好、运用好红色资源。要深入开展红色资源专项调查，加强科学保护。要开展系统研究，准确把握党的历史发展的主题主线、主流本质，旗帜鲜明反对和抵制历史虚无主义。要打造精品展陈，坚持政治性、思想性、艺术性相统一，用史实说话，增强表现力、传播力、影响力，生动传播红色文化。要强化教育功能，围绕革命、建设、改革各个历史时期的重大事件、重大节点，研究确定一批重要标识地，讲好党的故事、革命的故事、英雄的故事，设计符合青少年认知特点的教育活动，建设富有特色的革命传统教育、爱国主义教育、青少年思想道德教育基地，引导他们从小在心里树立红色理想。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>13</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>衡水市林业发展年回眸春潮涌动绿意浓</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2018-06-19</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2018%2F6%2F19%2Fart_47_4331.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_4331</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['从1978到2018,中国的改革开放已经走过了40年的辉煌历程。40年风雷激荡，春风化雨，中国在经济、民生、军事、文化等领域都发生了深刻的变化，取得了令世界瞩目的巨大成就。', '沐浴改革开放的阳光雨露，衡水也焕发出前所未有的蓬勃生机，发生了翻天覆地的历史巨变。今起，本报推出“壮阔东方潮 奋进新时代??庆祝改革开放40年”大型主题报道，讲述精彩故事，描画难忘回忆，生动展现衡水改革开放的奋斗历程、伟大成就和宝贵经验，激励广大干部群众在新一轮改革开放大潮中，为奋力开创新时代全面建设经济强市、美丽衡水新局面作出新的贡献！敬请关注。', '是改革开放催生出的蓬勃活力！40年来，衡水人接力播绿，使得林业建设的内涵不断丰富、功能不断拓展、效用不断延伸，实现了“地更绿、人更富”。', '“插杨树条儿、楔柳木橛儿、种榆钱儿……”回想40年前种树的情景，老林业人李德信很是感慨。由于认识、技术和苗木等问题，当时衡水虽也种树，但树木成活率低，不少地方出现了“栽树不见树,造林不见林”的现象。', '转变发生在上世纪80年代。随着改革开放的春风吹遍祖国大地，衡水林业迎来了发展春天。', '1981年，衡水积极落实“林业三定”（稳定山权林权、划定自留山和确定林业生产责任制）有关政策，将原有林和河、渠、路、荒地绿化承包给农户，建立了责权利相统一的林业经营体制，调动和激活了群众造林护林的积极性，林业生产力得到解放和发展。到1985年，全市基本实现农田林网化，林网和林带造林保存成活率在75%以上，小侯乡方田林网整齐美观、防护效益好，被评为“省级林网建设先进单位”。', '绿化的脚步坚实有力。此后的20余年间，衡水人民在改革开放的奋进强音中，因地制宜，大胆探索，用责任和情感播绿、植绿、爱绿、护绿，城乡绿意越来越浓。1992年实现了平原绿化达标；1996年底，初步形成了以主干公路、河渠为主体，乡级公路为纽带，网、带、片、点相结合的综合农田防护林体系；2003年和2005年，我市以退耕还林工程等国家重点项目为载体，推动造林绿化向规模化大步迈进，“十一五”末,全市造林绿化总面积已达370万亩。', '有树荫纳凉，有绿云赏景，有果香怡人，造林步伐可以放缓了吗？“大家的积极性更高了。”市林业局副局长王彦春说。', '党的十八大吹响了生态文明建设的号角。以林业园区建设、绿美廊道建设、环湖环城绿化、乡镇村庄绿化、农田林网建设等工程为重点，湖城大地掀起了新一轮造林绿化的高潮。“挖大坑,栽大苗,夯实土。”王彦春说，随着认识提高和技术成熟，无论是成活率还是造林质量均大幅提升，特别是大力实施的地下水压采林业项目，加快了林业园区建设步伐，全市营造林面积持续增加。2014年底，我市提前一年实现“一人一亩林”奋斗目标，继2013年全省森林覆盖率净增量目标考核全省第一后，再获此殊荣；2015年底，全市森林覆盖率达到29.2%；2016年底，全市造林绿化总面积达到480万亩，千亩以上林业园区达到120个，用材林蓄积增加到413.2万立方米，基本形成了以城镇、乡村绿化为基点，道路、河渠绿化为主脉，衡水湖区域绿化、林业园区建设为重点，点、线、面相结合的平原林业生态体系。', '苹果甘美，桃子脆甜，葡萄多汁……看着各种水果，你有没有“生活水平真提高了”的感叹？', '拎着一袋又大又红的红富士，43岁的李琳想起小时候亲戚给了一个苹果，自己舍不得一下子吃完，让姥姥给切成了八瓣。', '对比40年后的今天，我市林果业无论是种植面积、产值还是种类，均实现了“甜蜜”飞跃：2017年底，全市果树种植面积111万亩，总产量173万吨；种类也扩展到苹果、梨、桃、葡萄、山楂……饶阳设施葡萄成为闻名全国的优势果品产业，深州蜜桃获中国国家地理标志产品保护。', '近日，廊坊考察团来衡学习考察林果产业发展经验。这并非首例，近年来，随着衡水林果“质”“量”齐升，越来越多的考察团来我市参观学习。', '党的十一届三中全会以后，我市林果业进入快速发展期，种植面积不断扩大，品种逐渐增多。1980年至1988年，苹果种植面积比1978年前增加1倍多，恢复和新增种植桃、山楂、葡萄、杏等；1990年，全市果品总产量3251吨，是1978年的6倍多；1996年，果品产量达到3.4亿公斤，林果产值4.9亿元。目前，果品已成为我市农业三大优势产业之一，成为全市经济发展的亮点和农民致富奔小康的支柱产业。', '除此之外，我市还积极推广应用了宽行密植栽培、网状立架栽培、起垄栽培、设施栽培模式和技术，并配套应用了滴灌、水肥一体化节水灌溉技术、果园生草技术及机械化、信息化技术，着力打造一县一业、一乡一品的特色产业，形成了以深州、枣强、冀州为主的优质苹果基地，深州为主的优质桃基地，深州、阜城、冀州为主的优质梨基地，饶阳为主的设施葡萄基地，阜城小杂果基地五大果品基地。本土企业养元智汇六个核桃享誉全国，国内最大的果品加工企业汇源果汁在衡投资建厂。', '40年春华秋实，林果满园飘香，其它产业也日益壮大。坚持增绿与增收相结合，我市大力推进林业产业化进程，“十二五”期间，我市木材年加工量39.27万立方米，巴迈隆年产20万立方米的生产线建成投产，长城木业、森和板业生产能力达到10万立方米，武邑仿古雕刻家具产业也日益壮大，有力拉动了经济发展和群众增收。', '“到了！”沿着绿意盎然的中湖大道畅快行走，随着树木越来越多，“华北明珠”衡水湖到了：各种树木，仿佛撑开的大小“绿伞”，映衬得湖水更蓝、湖区更美。', '衡水湖是衡水人民的宝贵财富。致力于有效保护，我市把这里作为植树造林的重点区域，在环湖地区建起了10万多亩生态林海，景区知名度、美誉度持续提升，2017年接待游客180多万人次，生态效益、经济效益、社会效益同步提高。', '环境是吸引力，也是竞争力。近年来，我市坚持用绿色“绘美”生态，积极探索做好“林业+旅游”文章,打造绿色发展新引擎。', '衡水境内水网复杂，水系发达。如何让“水”更美？我市对滹沱河、大运河等市域内河流进行整治绿化，林地、湿地、河流等生态资源得到有效保护，水岸林木绿化率达到82%。', '按照“三季有花、四季常绿”和“绿化、美化、香化”总要求，我市积极推进环主城区、环县城、环村庄绿化，扎实开展现代果园建设、林业园区建设、绿美廊道建设等造林工程。2017年以来，衡水全面提升了邢衡高速、307国道、中湖大道等交通干线的绿化美化水平；打造了景县景州森林公园、武邑县红梨基地、饶阳县设施葡萄基地、深州市桃树园区等多个万亩林业示范园区；桃城、冀州、高新、滨湖、武邑、枣强、深州积极开展森林围城行动，实施城市组团之间绿化，完成造林绿化面积近6万亩。', '水清岸绿的生态河道、独具特色的果园，绿树成荫的城市，吸引着越来越多游客前去赏景采摘，助推着衡水旅游业走上发展“快车道”。', '“绿水青山就是金山银山！我们将积极抢抓京津冀协同发展和雄安新区建设新机遇，围绕构建‘京津冀生态环境支撑区’，快马加鞭推进国家森林城市创建，让绿色成为衡水高质量发展的最美底色。”市林业局局长吕继武说。', '持续厚植绿色发展优势，今年以来，我市向创建国家森林城市发起了冲刺，并将在环衡水湖、主要城镇周边、主干道路沿线等区域，打造以休闲康养、观光采摘为特色的多层次、立体精品景观区和标准化体验采摘区，持续增强城市吸引力，不断提升旅游业发展后劲。广大干部群众抢时抢墒、挥锨造林，一个春季种下了21万亩树，占省下达年度任务的210%。湖城大地，更加多姿多彩、秀美怡人。', '党员先锋林、青年林、碳汇林、双拥林、纪念林、风景林......改革开放40年，衡水大地春潮涌动绿意浓，林业建设留下了串串闪光足迹，影响着今天，更启迪着未来……']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>13</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>优化营商环境护航高质量发展系列主题新闻发布会第三场</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F7%2F5%2Fart_96_90.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_90</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 “优化营商环境 护航高质量发展”系列主题新闻发布会第三场', '6月26日，为加大衡水市“找差距、补短板、提位次”优化营商环境专项行动宣传力度，充分发挥新闻发布围绕中心、服务大局作用，积极营造衡水市推进营商环境持续优化的浓厚氛围，衡水市人民政府新闻办公室召开“优化营商环境 护航高质量发展”系列主题新闻发布会。系列主题新闻发布会第三场——公安专场。中共衡水市委宣传部张洪静主持发布会。全程实录如下：', '本场新闻发布会是我市“优化营商环境 护航高质量发展”系列主题新闻发布会的第三场——公安专场，发布人是衡水市公安局新闻发言人、党委委员、政治部主任孙志杰，他将就公安系统优化营商环境、提升服务效能、护航经济社会高质量发展相关情况进行发布。', '参加本场新闻发布会的媒体有：衡水日报、衡水广播电视台等市直媒体；衡水发布、衡水微讯等市政新媒体；河北日报、河北广播电视台、长城新媒体，及河北工人报、河北法制报、燕赵农村报、河北新闻网、河工新闻网、河北共产党员网、冀农融媒体中心·河北农网；中国新闻社、中国经济网、网易衡水等驻衡在衡媒体。', '大家好！非常高兴今天能够参加这次新闻发布会。我是今年2月份担任市公安局党委委员、政治部主任兼新闻发言人，感谢各位媒体朋友出席衡水市公安局“优化营商环境 提升服务效能 护航经济社会高质量发展”新闻发布会。多年来，在各位媒体、记者朋友们的大力支持下，衡水公安外宣工作取得了长足进步，今后，在各位的帮助和支持下，相信我们的外宣工作会更上一层楼。', '今天发布会的主题是，通报全市公安机关深入贯彻落实习近平总书记重要指示和重要讲话精神，部署开展牢固树立新发展理念，扎实推进高质量发展，深化公安服务效能提升，助力营商环境，优化公安工作方面取得的成效。', '今年以来，衡水市公安局坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记在河北考察时的重要指示和重要讲话精神，在市委、市政府和省公安厅的坚强领导下，聚焦服务高质量发展，深入推进公安“放管服”改革，出台《衡水市公安机关优化营商环境提升服务效能若干措施》，努力为打造市场化、法治化、国际化一流营商环境贡献公安力量。', '市公安局深刻认识优化营商环境是贯彻新发展理念、推进高质量发展的重要举措，忠诚履职尽责，全力担当作为，努力在优化营商环境专项行动中走在前列。一是党委高度重视。把优化营商环境作为党委工程，采取党委理论学习中心组学习、党委会“第一议题”、专题会等形式，深入学习习近平总书记关于优化营商环境的系列重要论述，学习省委、省政府和市委、市政府优化营商环境的有关部署要求，结合公安工作，研究贯彻落实意见，切实扛起优化营商环境的重大政治责任。副市长、市公安局党委书记、局长靳宏亮多次作出指示批示，要求全市公安机关转变工作作风，提升执法温度，切实增强公安机关服务效能。二是严密组织领导。市县两级公安机关全部成立由公安机关主要负责同志为组长，治安、户政、经侦、刑侦、交警、行政审批等相关警种部门负责人为成员的优化营商环境工作专班，建立了市县一体上下贯通的组织架构，建立健全领导干部包联帮扶企业机制，为推动工作落实提供强有力的组织保障。三是坚持问需于企。大兴调查研究之风，加强警企互动，围绕破解“急难愁盼”问题，组织开展针对性调研，市县两级公安机关召开企业家座谈会14次，听取企业家代表对公安机关的意见建议，逐项研究改进措施，找准公安工作与企业需求和经济社会发展的最佳结合点，让服务措施更加精准、更加便利、更具含金量。', '坚持解放思想、大力推进改革，加快推进“互联网+公安政务服务”，持续凸显便民利企的速度和温度。一是对标先进补短板。着眼对标先进、补齐短板，开展优化营商环境“学、赶、超”行动，组织改革办、交警、治安、户政等警种部门组成考察组，赴南京、聊城、德州、定州、雄安新区等地，通过实地观摩、跟班作业等方式，深入学习公安政务“一窗通办”、智慧警务、基层社会治理、派出所标准化建设等先进经验，进一步解放思想，开阔眼界，更新观念，激发活力，积极推动把外地先进经验转变为本地工作实践。二是立足本职强措施。在充分开展调研、广泛征求社会意见建议的基础上，围绕提升社会治安防控效能、加大涉企违法犯罪打击力度、提升交通管理服务质效、深化公安“放管服”改革、常态化联系服务企业等5个方面，制定出台《衡水市公安机关优化营商环境提升服务效能若干措施》，全方位服务保障经济社会发展。三是优化服务提效能。按照“最多跑一次”原则，推动公安机关39项政务服务事项进驻市政务服务大厅；以桃城分局何庄派出所为试点，推动交管、治安、户政等185项公安业务陆续入驻派出所警务服务中心，做到前台综合收件、后台分类审批、统一窗口出件。今年以来，市政务服务大厅公安窗口共办理各类业务15361件，其中13825件全程网办，全程网办率达90%。以安平县公安局为例，旅馆业、娱乐场所、港澳通行证签注等公安行政审批事项办结时限平均缩短2-3天，办事效率提升60%，以办事的速度彰显公安服务的温度。', '牢树“法治是最好的营商环境”工作理念，聚焦公安主责主业，严格公正规范文明执法，全力为经济社会发展创造安全稳定的社会治安环境。一是健全警企协作机制。按照“属地辖区、分级负责”的原则，完善“一项目一民警”包联走访制度，动态收集企业需求，积极帮助企业纾困解难，协助企业提升安防意识、预防内部职务犯罪和外部经济犯罪侵害等能力。市域内在重点园区、重大项目、龙头企业等，设立警务站（室）37个，建立“15分钟警务圈”，为企业及群众提供“一站式”服务。二是提升涉企违法犯罪打击质效。建立健全重大涉企案件快速响应机制，实行“首接负责制”，高效处置企业报警求助，规范涉企案件侦办程序，追赃挽损与打击破案并重，最大限度保护企业合法利益。严格落实公安部异地办案“六个严禁”和禁止逐利性执法“七项规定”，开展涉企“挂案”专项清理行动，动态调整涉企执法“首违不罚”事项清单，提高办案效率，实现政治、法律、社会、经济效果相统一。三是优化公安行政监管方式。统筹服务和监管，深入推进公安机关“双随机、一公开”跨部门联合监管，避免交叉检查、重复检查，推动公安行政执法从“以罚代管”向柔性监管转变，逐步实现“无感式”非现场监管，真正做到“有事必到、无事不扰”。', '提升公安机关服务效能是一项系统性工程，下一步，全市公安机关将继续坚持以人民为中心的发展理念，持续提升公安政务服务整体效能，积极回应人民群众的新期待、新要求，为营造更加稳定、公平、透明的营商环境做出更大的公安贡献。同时，也希望全社会共同参与到公安机关服务效能提升的过程中来，多提宝贵意见建议，多多支持和关注衡水公安工作。', '现在进入记者提问环节，大家如有提问，请举手示意，提问之前，请先通报一下自己所在媒体的名称。', '一、衡水电视台：公安服务窗口是群众与公安机关接触的第一站，请简要介绍一下公安窗口目前的建设情况。', '答：市公安局党委高度重视公安机关窗口建设，今年以来主要开展了以下几方面工作。一是通过到先进地区考察学习、跟班作业，提升自身政务服务水平，这在刚才的通报中已进行详细说明，不再赘述。二是在市政服务中心设立公安机关主要业务“一窗受理”综合业务窗口，112项政务服务事项全部在“河北政务服务网”开通了网上办理，8项业务实现了全流程网办。三是主城区以桃城分局何庄派出所为试点，设置综合办理窗口，开设以来共受理业务2760笔，极大方便了人民群众。武强县公安局以周窝派出所设为试点，开设一窗通办大厅，在原有132项户籍业务基础上，增加了交管、治安等其他警种业务。故城县公安局以城区五个社区警务室为切入点，打造“家门口的政务服务”，居住证、无违法犯罪记录证明均可在社区办理。其他分县局也正在积极协调相关工作，整合优化场地、设备、人员等服务资源，不断加强公安机关窗口建设。', '二、衡水广播电视台：在涉企犯罪方面，预防要先于打击，请介绍一下公安机关是如何帮助企业防范化解风险的。', '答：全市公安机关首先坚持把“防范”置于先导性地位，帮助企业过滤风险，少受、免受不法侵害。一是坚持不断加强涉企犯罪预警防范宣传，不断提升企业及员工安防意识，提升企业预防内部职务犯罪和外部经济犯罪侵害的能力。多次组织公安机关公职律师企业服务队，为企业在市场交易、企业管理、经营创新等活动中提供刑事法律咨询和风险隐患预警服务，帮助企业合法经营，防范风险。二是增设视频前端、优化监控布局、实现动态布防，深入排查化解涉企矛盾纠纷。截至目前，全市共建成智慧安防小区1659个，最大限度净化企业周边社会治安环境。三是坚持加强工业园区、商品市场、建筑工地、交通枢纽等重点部位夜间治安巡逻，强化警企联动和群防群治。以今年5月份为例，全市共出动巡逻警力2152人次，巡逻车辆554辆次，接处警295起，抓获违法行为人4名，网上逃犯19名，收到锦旗、表扬信20余件。', '三、长城新媒体：请介绍一下公安机关在制售伪劣商品、合同诈骗、非法经营等涉企重点违法犯罪行为方面的情况。', '请介绍一下公安机关在制售伪劣商品、合同诈骗、非法经营等涉企重点违法犯罪行为方面的情况。', '答：今年以来，我们全市公安机关持续开展“昆仑”专项行动，紧盯企业反映强烈的合同诈骗、非法经营、“套路贷”、侵犯知识产权等突出问题，及时开展专项打击整治，坚决保护企业及经营者的合法权益。截至目前，我们共侦破制售伪劣商品等破坏社会主义经济秩序违法犯罪案件39起，较去年上升14.7%；抓获犯罪嫌疑人151人，较去年上升104%；移送审查起诉49人，较去年同比增长113%。侦破合同诈骗、挪用资金、职务侵占、串通投标、非法经营、非国家工作人员受贿罪和对非国家工作人员行贿罪等7类涉企犯罪案件4起，涉案金额5729.9万元，抓获犯罪嫌疑人16名。', '四、衡水广播电视台：公安机关服务效能最终需要通过民警执法质效来体现，我们会用什么方法来规范监督民警执法呢？', '公安机关服务效能最终需要通过民警执法质效来体现，我们会用什么方法来规范监督民警执法呢？', '答：我们主要通过以下三个方面对民警执法工作进行监督管理。一是树牢“法治是最好的营商环境”工作理念，严格规范公正文明执法，建立完善以专业打击警种为主、跨警种协作办案的新型办案机制，把握好打击数量和办案质量的关系，积极推动首违不罚等人性化执法、柔性执法，努力让人民群众在每一起案件中感受到公平正义。二是在集约化办案、规范化执法上持续发力，高标准推进案件监督管理中心建设，构建纵向到底、横向到边的执法责任体系，全面推动执法办案质效提档升级。三是我们依托互联网“企业诉求平台”和“12389”专用举报电话广泛接受企业涉警举报投诉。对公安机关执法服务过程中侵害企业合法权益的举报投诉，第一时间受理核查、监督整改，及时回应企业诉求；对超权限、超范围、超数额、超时限查封、扣押、冻结财产和乱收费、乱罚款、乱摊派、“吃拿卡要”等突出问题，市局直接组织核查，责令办案单位整改整顿。', '好的，如有媒体需要深入采访，会后可与市公安局联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>13</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>衡水市人民政府办公室关于完善科技成果评价机制的实施意见</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F2%2F10%2Fart_10443_464739.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10443_464739</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为深入贯彻落实《国务院办公厅关于完善科技成果评价机制的指导意见》（国办发〔2021〕26号）和《河北省人民政府办公厅关于完善科技成果评价机制的实施意见》（冀政办字〔2021〕161号）精神，健全完善科技成果评价体系，促进我市科技与经济社会发展更加紧密结合，加快推动科技成果转化为现实生产力，依据《河北省科学技术厅关于印发〈河北省科技成果评价工作指引（试行）〉开展评价改革试点工作的通知》（冀科成市函〔2022〕3号），结合我市实际，提出如下实施意见。', '以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和十九届历次全会精神，深入实施创新驱动发展战略，深化科技体制改革，创新科技成果评价方式，营造良好科技创新生态，持续提升科技创新能力，为建设“六个新衡水”提供科技支撑。', '坚持科技创新质量、绩效、贡献为核心的科技成果评价导向，激发创新主体和科技人员积极性；尊重科技创新规律，健全科学分类、多维度的科技成果评价体系；充分发挥市场在资源配置中的决定性作用，更好发挥政府作用，营造公平竞争、规范有序的科技成果评价生态。', '（一）健全以价值为核心的科技成果评价标准。坚持多维度评价科技成果价值，准确反映科技成果的创新水平、转化应用绩效和对经济社会发展的实际贡献，针对项目特点和评价目的，评价科技成果的科学、技术、经济、社会、文化价值。科学价值重点评价在新发现、新原理、新方法方面的独创性贡献。技术价值重点评价重大技术发明在解决产业关键共性技术问题、企业重大技术创新难题，特别是关键核心技术问题等方面的成效。经济价值重点评价科技成果的推广前景、预期效益、潜在风险等对经济和产业发展的影响。社会价值重点评价在解决人民健康、国防与公共安全、生态环境等重大瓶颈问题方面的成效。文化价值重点评价在倡导科学家精神、营造创新文化、弘扬社会主义核心价值观等方面的影响和贡献。（牵头单位：市科学技术局）', '（二）健全科技成果分类评价指标体系。科技成果评价分为基础研究、应用研究、技术开发和产业化三类。基础研究成果以同行评议为主，推行代表作制度，把新发现、新原理、新方法作为主要评价指标。应用研究成果以行业用户和社会评价为主，注重高质量知识产权产出，把新技术、新材料、新工艺、新产品、新设备样机性能等作为主要评价指标。技术开发和产业化成果以用户评价和市场检验为主，把技术合同交易额、市场估值、市场占有率、重大工程或重点企业应用情况等作为主要评价指标。（牵头单位：市科学技术局）', '（三）强化科技成果评价绩效导向。全面纠正科技成果评价中的“唯论文、唯职称、唯学历、唯奖项”问题和单纯注重数量指标、轻质量贡献等不良倾向。不把论文数量、代表作数量、影响因子作为唯一的量化考核评价指标；不把成果完成人的职称、学历、头衔、获奖情况、行政职务、承担科研项目数量等作为科技成果评价的参考依据。对具有重大学术影响、取得显著应用效果、为经济社会发展和国家安全作出突出贡献的高质量成果，提高其考核评价权重。杜绝简单以专利申请量、授权量为评价指标，加大高价值专利的评价权重。根据项目的组织管理、成果产出、专业领域影响，项目组成员科研诚信、研发贡献，科学确定个人、团队和单位在科技成果产出中的贡献。（牵头单位：市科学技术局、市教育局、市市场监督管理局）', '（四）强化科技成果转化和产业化导向。推动科技成果转化和产业化纳入高校、科研机构、科技型企业创新能力评价，重点突出科技成果的工程化、产业化、市场化水平和影响力。发挥科技成果评价报告的增信作用，将科技成果评价结果作为重大科技项目建设、人才计划评审的重要参考。推动科技成果转化为标准，以标准化促进科技成果转化及产业化。探索建立重大科技专项项目立项前评估制度，围绕市域主导产业发展，重点评估项目的产业发展需求度、技术先进性与可行性、预期成效和潜在价值，根据评估结果，合理配置财政科技资金，引导社会资本投入科技创新。（牵头单位：市科学技术局、市教育局、市人力资源社会保障局、市市场监督管理局）', '（五）建设科技成果评价公共服务平台。依托河北·京南国家科技成果转移转化示范区建设，争取省科技厅支持，建设河北省科技成果展示交易中心衡水分中心，全面融入河北省科技成果转化网，积极对接省科技成果评价公共服务平台，利用省科技成果评价公共服务平台开展评价工作，并按照相关规定公开科技成果评价信息，提高评价活动公信力。（牵头单位：市科学技术局）', '（六）支持科技成果第三方评价。支持依法注册或者登记的企事业单位、行业协会和科技服务机构等设立科技成果评价机构，开展市场化科技成果评价活动。一是明确科技成果评价机构基本条件。运营主体应当在衡水市注册，是具有独立法人资格的社团法人、事业法人、企业法人或民政部门登记的民办科技咨询机构；从事科技咨询、技术转移、科技成果评价等相关工作；具有相应专职人员和评价人员，具备相应专业领域的技术专家库；有健全的内部管理制度，包括明确的从事科技成果评价服务的制度、规范的科技成果评价工作流程和质量控制规范等；有固定的办公场所、必需的基础设施和工作条件；无诚信方面的不良记录；确定1名负责人专职履行相关职责。二是严格科技成果评价流程。科技成果评价机构应当按照评价委托、论证与审核、受理委托并签订合同或协议、确定科技成果评价技术负责人、选聘评价咨询专家、实施评价、形成评价报告、交付评价报告、评价服务、服务改进、资料移交归档的程序进行。（牵头单位：市科学技术局）', '（七）鼓励投融资机构参与科技成果评价。支持金融机构、投融资企业参与科技成果评价，从成果研发投入、成熟程度、市场需求、市场规模、市场竞争力以及潜在风险等方面，对科技成果潜在经济价值、市场估值、发展前景等进行商业化评价，提早介入科技成果研发、转化活动。探索和完善知识产权质押融资、知识产权与股权及相关实体资产组合式质押贷款等融资机制，推动科技与金融协同创新。（牵头单位：市科学技术局、市地方金融监管局、市市场监督管理局、人行衡水市中心支行、衡水银保监分局）', '（八）支持技术转移机构参与科技成果评价。持续推进技术转移机构建设，加快技术转移机构专业化、市场化、规范化发展，充分发挥衡水高新区技术转移人才培养基地作用，加强以技术经理人为主体的评价人员岗位培训，壮大科技成果评价人才队伍。支持技术转移机构与高校、科研院所、科技型企业建立战略合作关系，全程参与科技成果披露、评估、对接谈判，面向市场开展科技成果专业化评价活动。（牵头单位：市科学技术局）', '（九）支持创新主体参与科技成果评价。充分发挥企业创新主体作用，鼓励企业积极参加创新创业大赛、创新挑战赛、科技成果直通车、企业家进高校和科研院所、知名高校和科研院所进衡水等活动，通过对接交流、双向考察，评估科技成果需求价值、市场价值、承接能力，促进重大科技成果在我市落地转化。（牵头单位：市科学技术局）', '（十）推动科技成果评价标准化。支持科技成果评价机构积极学习借鉴省科技成果评价改革试点单位经验，充分利用省科技成果评价信息服务平台，引入科技成果评价方法工具和模型，按照科技成果的属性特点、所处阶段、应用范围和评价目的，完善相关制度、相应的评价规范、流程，形成具有我市特点的可操作的评价方法、标准规范及质控体系。（牵头单位：市科学技术局、市市场监督管理局）', '（十一）综合运用科技成果评价结果。充分发挥河北省科技成果展示交易中心衡水分中心平台作用，科技成果评价流程结束且科技成果评价报告出具后，鼓励委托方在30个工作日内进行成果登记，并优先纳入河北省科技成果转化网科技成果供给库，定期发布推荐目录，推动科技成果快速交易转化和市场化融资。支持高校、科研机构和企业科技成果进场展示交易，通过各类推介、对接、路演活动，推动科技成果转化应用。优先推荐我市成果评价优秀项目申报省科学技术奖，加大对获得国家和省科技奖励的项目单位和科技人员的奖励和支持力度。（牵头单位：市科学技术局）', '（十二）推进科技成果熟化和示范运用。支持省级以上高新技术产业开发区、经济开发区和国家级科技企业孵化器等围绕主导产业创新发展，建设科技成果中试熟化基地，运用评价结果，向企业筛选推送定制化高质量科技成果。围绕“3+2”主导产业和“9+5”特色产业，打造应用场景试点示范工程，运用评价结果，发布新应用场景目录，推动科技成果在重大工程建设、城市精细管理、产业转型升级、服务民生需求等方面的应用。（牵头单位：市科学技术局）', '（十三）推进知识产权金融创新。优化知识产权质押融资体系，健全知识产权质押融资风险管理机制，落实专利保险、专利权质押贷款等相关支持政策，激发企业参与知识产权金融创新积极性。鼓励金融机构开展与知识产权质押融资相关的保证保险业务，在风险可控的基础上扩大知识产权质押融资规模。（牵头单位：市市场监督管理局、市地方金融监管局、人行衡水市中心支行、衡水银保监分局）', '（十四）推动科技成果与标准化互动融合。以科技创新促进标准提升，探索研究建立重大科技项目与标准化工作联动机制，将形成标准作为应用类科技项目立项、验收的重要依据。支持企业围绕重要标准的关键技术指标、核心参数等开展研究，提升技术标准的科技含量。以标准化促进科技成果转化应用，探索建立专利与标准联动实施机制，落实标准必要专利制度，加强知识产权保护。研究构建科技成果转化为标准的评价和服务体系，及时将先进适用技术融入标准，推动创新成果产业化应用，缩短新技术、新工艺、新材料、新方法标准研制周期，加快成果转化应用步伐。（牵头单位：市科学技术局、市市场监督管理局）', '（十五）强化科技成果评价的监督管理。科技成果评价机构要强化自律，接受管理部门的业务监督，健全利益关联回避制度，提升评价活动的公开透明度。科技成果评价机构不按照规定开展评价工作，提供虚假评价结果、泄露技术和商业秘密、存在影响或干涉评价公平公正等行为的，列入科研诚信管理信息系统失信行为。对科技成果评价机构实施动态管理，科技成果评价机构应于每年12月31日前向市科学技术局提交科技成果评价年度工作报告，年度内无违法、违规记录和不良社会影响的，推荐参与省科技厅组织的科技成果评价机构遴选。从严惩处弄虚作假、协助他人骗取评价、搞利益输送等违法违规行为。支持高校、科研机构、科技型企业完善科技成果评价、转化和应用的容错纠错机制，建立健全科技成果评价、科技成果转化活动尽职免责和风险防控制度。加强政策宣传解读，组织经验交流学习活动，对可复制、可推广的经验和模式及时总结推广。（牵头单位：市科学技术局、市教育局）', '（十六）市科学技术局牵头全市科技成果评价的监督管理工作，落实科技成果评价有关政策法规，组织科技成果评价相关人员的业务培训。市教育局、市市场监督管理局、市人力资源社会保障局、市地方金融监管局等有关部门按照部门职能，加大推进力度，做好监督服务工作。', '（十七）以衡水市生产力促进中心为重点开展科技成果评价改革试点工作，推动科技成果评价方式方法创新，利用2年左右时间探索建立简化实用的制度、规范和流程，并在全市推广，促进我市高质量科技成果供给和科技成果转化。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>13</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>习近平在湖南考察时强调坚持改革创新求真务实奋力谱写中国式现代化湖南篇章</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F3%2F25%2Fart_47_537305.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_537305</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['衡水市人民政府 图片新闻 习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察。新华社记者 谢环驰 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察时，同师生代表亲切交流。新华社记者 王晔 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察时，同师生代表亲切交流。新华社记者 鞠鹏 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察。新华社记者 鞠鹏 摄', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在中德合资企业巴斯夫杉杉电池材料有限公司考察。新华社记者 燕雁 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在中德合资企业巴斯夫杉杉电池材料有限公司考察。新华社记者 谢环驰 摄', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察时，同店主和游客亲切交流。新华社记者 王晔 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察。新华社记者 谢环驰 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察。新华社记者 鞠鹏 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察。新华社记者 王晔 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察时，同店主和游客亲切交流。新华社记者 谢环驰 摄', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村，同种粮大户、农技人员、基层干部亲切交流。新华社记者 鞠鹏 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村走进田间，察看秧苗培育和春耕备耕进展。新华社记者 王晔 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村考察。新华社记者 燕雁 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村走进田间，察看秧苗培育和春耕备耕进展。新华社记者 燕雁 摄', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村党群服务中心了解当地为基层减负、提升基层治理效能等情况。新华社记者 燕雁 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。', '李强主持召开国务院第四次全体会议 深入学习贯彻习近平总书记在全国“两会”期间的重要讲话精神 对落...']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>13</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>专访衡水市市长董晓航衡水加快建设京津冀科技创新支点城市</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F2%2F28%2Fart_46_532776.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_532776</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 专访衡水市市长董晓航：衡水加快建设京津冀科技创新支点城市', '衡水将加快建设北方最具吸引力的科技成果试验转化基地、京津冀绿色农产品基地、京津周末休闲重要目的地，在对接京津、服务京津中实现争先进位、勇闯新路。 2014年2月，京津冀协同发展上升为国家战略。十年来，京津冀牢牢牵住疏解北京非首都功能这个“牛鼻子”，一张图规划、一盘棋建设、一体化发展，让资源合理流动和配置，并通过协同创新实现生产力再造。 政事儿工作室推出“京津冀协同发展十年成效访谈录”，全景展示京津冀新发展、新变化。 衡水位于河北东南部，处于环京津、环渤海的重要位置，被著名社会学家费孝通称为“黄金十字交叉处”。 近日，衡水市市长董晓航接受新京报记者专访。他表示，衡水将深入学习贯彻习近平总书记视察河北重要讲话精神，牢记习近平总书记“两区、五新”的殷殷嘱托，抢抓深入推进京津冀协同发展、高标准高质量建设雄安新区重大机遇，加强重点承接平台建设，加快建设北方最具吸引力的科技成果试验转化基地、京津冀绿色农产品基地、京津周末休闲重要目的地，在对接京津、服务京津中实现争先进位、勇闯新路。 谈衡水十年变化 “加速融入京津冀世界级城市群” 新京报：你如何评价十年来衡水在融入京津冀协同发展中的变化？ 董晓航：回首十年历程，京津冀协同发展对衡水的影响是全方位、深层次、实质性的，推动经济社会发展在全省进了一个位次，我们的生产总值由2014年的1025.8亿元增长到2023年的1888.1亿元。交通一体化、生态环境保护、产业转移升级等重点领域不断取得新突破，真正把机遇优势变成了实实在在的发展成果。 区域交通更加便捷。十年来，我们打通大动脉、畅通微循环，石济客专开通运行，邢衡高速、石衡高速以及一批国省干线公路先后建成通车，到2023年，我市公路里程达到14086公里，公路网综合密度达到7.4，全省排名第2。当前，雄商高铁、石衡沧港城际等项目也正在加紧实施。越织越密的一体化交通网络，让衡水逐步与雄安新区及北京、天津、济南、石家庄四大城市形成1小时通勤圈，衡水正加速融入京津冀世界级城市群。 生态环境持续改善。十年来，我们聚焦建设京津冀生态环境支撑区，坚持与京津“一盘棋”，联手减污降碳，共同守护碧水蓝天。2023年我市PM2.5浓度44微克/立方米，较2014年（103微克/立方米）下降57.3%，2018年我市在全省重污染城市中率先退出全国“后十”。我们认真贯彻习近平总书记关于治理华北地区大漏斗的重要指示精神，坚持“稳粮食、调结构、减用水、促增收”多目标统筹，深入实施地下水超采综合治理，2021年开始连续三年开展河湖水系连通整治大会战，大力度引水蓄水，深层地下水位平均埋深由2014年的73.40米回升到2023年的66.98米。加强生物多样性保护，衡水湖成为名副其实的“候鸟驿站”，截至2023年，新增鸟类、鱼类、昆虫类、两栖类等232个物种记录，世界极危物种青头潜鸭成为这里的“常住居民”。 产业协同蹄疾步稳。十年来，我们贯彻落实习近平总书记“坚决去、主动调、加快转”的重要指示精神，聚焦培育壮大先进装备制造、新材料、食品及生物制品三大主导产业，谋划布局服务机器人和数字产业两大未来产业，充分发挥各县市区比较优势，以重点承接平台为抓手，精心塑造错位发展、协同发展产业格局，促进产业转型升级、提质增效，培育战略性新兴产业，实现产业的“存量绿色化，增量高端化”。威克多、上好佳等京津名企整体搬迁我市，顾家、博洛尼、稻香村、东来顺、王致和等耳熟能详的品牌在这里落地生根，去年衡水引进央企三级子公司21家。 民生福祉不断增进。十年来，我们践行以人民为中心的发展思想，全面加快与京津公共服务标准对接，持续深化与京津在教育、医疗、养老等领域的合作，促进优质公共服务资源均衡配置，越来越多的协同发展成果转化为百姓实实在在的获得感。京津冀三地异地就医实现“一卡通行”，我市医保参保人员到京津异地就医实现“不降比例”直接结算。“这么近，那么美，周末到河北”让衡水湖成为越来越多京津游客的“打卡地”。 谈建设京津冀科技创新支点城市 “让京津科技成果愿意来、留得住、转化得好” 新京报：衡水市“十四五”规划指出，将加快建设京津冀科技创新支点城市。时间过半，这一目标进展如何？ 董晓航：创新是京津冀协同发展的根本动力，北京是全国科技创新中心，创新人才聚集、创新资源密集、创新成果富集，有着强大的创新辐射能力和科技成果转化需求。 近年来，我市发挥区位优势，聚焦加快建设京津冀科技创新支点城市，深入实施创新驱动发展战略，抓主体、建平台、促合作、优生态，推动产业链和创新链深度融合，加速重大科技成果转化落地，努力建设北方最具吸引力的科技成果试验转化基地。 着力培育创新主体，科技型企业集群不断壮大。深入实施“国家科技型中小企业—高新技术企业—科技领军企业”梯度培育计划。2021年至2023年，我市国家高新技术企业由636家发展到816家，专精特新企业由67家发展到303家，专精特新小巨人企业由6家发展到31家，国家科技型中小企业由89家发展到911家。举办衡水市创新创业大赛，以赛为媒推进政策、人才、资金、技术等创新资源向企业汇聚，河北奥冠电源有限公司成为全省11年来第一个晋级全国总决赛的企业。 深化产学研合作，全力推进河北·京南国家科技成果转移转化示范区建设，引导企业与北京科技大学、北京理工大学、南开大学、天津工业大学等京津大学、科研院所合作，引进京津科技成果12项。实施重点项目“以赛代评”“揭榜挂帅”制度，连续四年承办中国创新挑战赛（河北·衡水），前三年累计服务企业500余家次，精准挖掘企业技术需求550项，签订技术合同113项，技术合同成交额1.64亿元。 在衡水高新区，我们与中国科学院过程工程研究所、工程热物理研究所、地质与地球物理研究所等院所共建投资28亿元、总建筑面积83万平方米的衡水科技谷，围绕京津创新链布局本地产业链，构建“研发中心—中试基地—产业园”全链条科技成果转移转化体系。配套设立科技成果转化引导基金，为产业发展插上了“科技+金融”的翅膀。目前多项科技成果正在这里孵化转化，其中过硫酸铵工业结晶、绿色智能防腐涂装体系、合成甘氨酸绿色新过程等16项产学研合作关键技术全部实现应用投产。中科衡发超临界二氧化碳发电装备项目进入产业化阶段，中科院智能导钻国家专项通过验收，雄安（衡水）超算中心投入运营。 今年我们将坚持不懈抓创新，以科技创新推动产业创新，加快形成新质生产力。继续引导企业争创国家级省级创新平台，引育更多创新人才，进一步优化创新生态，构建科技与产业、金融、人才协同的“大科创”工作格局，让京津科技成果愿意来、留得住、转化得好。 谈建成京津冀绿色农产品基地 “让衡水净菜成为京津市民餐桌上的‘香饽饽’” 新京报：“河北净菜”进京是河北贯彻落实京津冀协同发展战略的一项重要举措。作为农业大市，衡水将如何向首都“菜篮子”提供更丰富的净菜产品？ 董晓航：“河北净菜”进京行动，京冀两地领导高度重视、高位推进，相关部门和企业密切沟通、积极对接。衡水以创建高品质果蔬产业示范区为契机，落实“1+1+30”产业布局，实施基地建设、品质提升、科技助力、品牌塑造、园区培育、平台建设六大工程，推进优质品牌农产品“六进”行动，加快推进果蔬进京入津，不断拓展“河北净菜”在京津等地销售网络，深入打造优质、绿色、安全、放心“河北净菜”品牌。 2023年以来，衡水新建和改造提升设施果蔬3.2万亩，在京累计销售农产品50余万吨，衡水蔬菜在北京市场的占有率提高到7%，并成功进入天津5大农产品批发市场。全力推进果蔬质量监管体系建设，全市蔬菜抽检合格率99.6%，让更多“河北净菜”成为了“北京好菜”。 去年，我市承办了第六届京津冀蔬菜产业发展大会暨招商对接活动，举办“河北净菜”进京直通车首发仪式，在北京市丰台区建立了全省首家“河北净菜”共享仓储统配中心，与北京新发地签约，投资16亿元建设衡水（冀州）农副产品智慧物流园及城市安全保供仓项目，项目建成投产后，将构建起京衡（冀）农产品双向流通快速通道，借由“产地直采+商超直供”模式，越来越多来自衡水的高品质净菜将端上京津市民的餐桌。 今年，我市将新建和改造提升设施果蔬3万亩，抓好饶阳县“三基地四园区一中心”、冀州恒蔬无疆现代农业示范园建设，全面提升果蔬基地设施、装备、产业链水平，打造全国一流、全省领先的高品质果蔬产业示范区。积极培育净菜加工业集群，扶持一批技术水平高、产业关联度大、带动能力强的大型精深净菜加工骨干企业。争创全国名特优新高品质农产品全程质量控制试点市，进一步深化与北京新发地、天津海吉星市场等合作，力争蔬菜在首都市场占有率提升至8%，积极开拓天津、上海等市场，让衡水净菜成为京津市民餐桌上的“香饽饽”。 谈雄安衡水协作区建设 “打造服务雄安建设的桥头堡、衡水高质量发展新的增长极” 新京报：雄安衡水协作区的定位是什么？在产业承接、特色化服务方面如何发力？ 董晓航：我们把雄安衡水协作区建设作为全市抢抓雄安机遇的头等大事，围绕近期“雄安建设、衡水配套”和远期“雄安研发、衡水制造”，打造深州市、饶阳县、安平县三个片区，旨在把雄安衡水协作区打造成为服务雄安建设的桥头堡、经济发展新的增长极。 结合雄安新区建设需求，雄安衡水协作区明确了产业布局，即“三区五园”。安平片区主要布局绿色建材产业园，饶阳片区主要布局装配式建筑产业园、绿色食品产业园，深州片区主要布局智能家居产业园、农副产品加工产业园。其中，深州智能家居产业园3000亩起步区已初具规模，吸引了顾家家居、北京黎明、时代文仪、博洛尼、浙江圣奥等一批家居行业龙头企业落地，上下游家居企业达到68家，年生产各类智能家居产品超100万套，年产值25亿元。 持续发力，服务雄安。自2022年以来，衡水市代表团多次到雄安新区进行考察对接，三个片区还分别在雄安新区设立了“雄安衡水协作区深州服务中心”“雄安·衡水安平协作中心”“雄安·衡水饶阳经济协作中心”三个对接点，利用三个对接点实现与雄安新区对接常态化。目前，雄安衡水协作区基础设施更加完善，招商引资持续开展，园区项目建设力度不断加大，服务配套雄安建设能力不断增强。衡水市代表团多次到雄安新区进行考察对接。2023年共谋划和实施服务雄安新区建设项目124个，总投资581.32亿元；供应雄安产品实现营业收入7.19亿元。 下一步，我们将坚持定位，继续完善政府、园区、企业3个层面常态化对接机制，争取更多产品纳入雄安新区采购目录。推进深州菜鸟智慧物流园等39个在谈项目尽快签约，四川新雅轩预制菜北方基地等36个前期项目加快落地，北京敬业达新型建材等49个在建项目早日投产。 谈京衡中医药协同发展 “患者在家门口就能享受北京知名专家优质医疗服务” 新京报：近年来京衡中医药协同发展“名片”工程取得了哪些成效？接下来衡水市将如何继续深化合作？ 董晓航：十年间，京津冀三地携手同行，不断扩展公共服务共建共享，特别是在看病就医方面，优质医疗资源随着协同发展的步伐“流动”起来。 2018年10月，衡水与北京中医管理局启动了京衡中医药协同发展“名片”工程。5年来，北京全要素、全覆盖、全环节支持衡水中医药事业发展，京衡双方携手成立京城名医馆衡水分馆，建立10家互联网联合门诊、12家中医综合医联体、20个协同重点专科，建成20个首都名师传承工作站衡水分站，北京到衡专家团队累计门诊接诊13.3万人次，收治住院患者5.6万人次，会诊疑难病例1.3万例，举办了京衡线上培训讲座260期，参训2.86万人次，服务群众26万人次，让广大患者在家门口就能享受到北京知名专家的优质医疗服务。 去年，我们又与北京市中医管理局签订了3.0版框架协议，进一步深化沟通对接，强化服务保障，巩固拓展“互联网+医疗健康”服务模式，积极推进中医药科研和创新，大力弘扬优秀中医药文化，推动京衡中医药协同发展取得新成效。 下一步，我们将在精准协同上求突破，加强京衡高规格高频率沟通协调，实施京衡中医药协同全面绩效评价、中医药三建示范标杆、衡水区域中西协同示范发展等“八张新名片”建设。建立环衡水湖中医健康养生带，探索环湖徒步行走专用通道建设。持续推动京衡中医医联体、协同中医重点专科、京衡互联网联合门诊、京衡名医馆衡水分馆建设，让协同“红利”惠及更多百姓。（转自《新京报》）', '董晓航在全市安全生产视频会议上强调 思想再重视 排查再深入 责任再压实 以高水平安全保障高质量发...']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>13</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>习近平在辽宁考察时强调在新时代东北振兴上展现更大担当和作为奋力开创辽宁振兴发展新局面</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F8%2F22%2Fart_47_435559.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_435559</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['衡水市人民政府 图片新闻 习近平在辽宁考察时强调 在新时代东北振兴上展现更大担当和作为 奋力开创辽宁振兴发展新局面', '习近平在辽宁考察时强调 在新时代东北振兴上展现更大担当和作为 奋力开创辽宁振兴发展新局面', '新华社沈阳8月18日电 中共中央总书记、国家主席、中央军委主席习近平近日在辽宁考察时强调，要贯彻党中央决策部署，坚持稳中求进工作总基调，统筹疫情防控和经济社会发展工作，统筹发展和安全，完整、准确、全面贯彻新发展理念，坚定不移推动高质量发展，扎实推进共同富裕，加快推进治理体系和治理能力现代化，深入推进全面从严治党，在新时代东北振兴上展现更大担当和作为，奋力开创辽宁振兴发展新局面，以实际行动迎接党的二十大胜利召开。', '8月16日至17日，习近平在辽宁省委书记张国清、省长李乐成陪同下，先后来到锦州、沈阳等地，深入革命纪念馆、河湖治理工程、企业、社区等进行调研。', '16日下午，习近平在锦州市首先考察了辽沈战役纪念馆。70多年前，中国共产党指挥人民军队取得辽沈战役胜利。习近平依次参观序厅、战史馆、支前馆、英烈馆，回顾东北解放战争历史和辽沈战役胜利进程，追忆广大人民群众支援前线的感人事迹和革命先烈不畏牺牲的英雄事迹。习近平指出，辽沈战役的胜利，充分体现了毛泽东同志等老一辈革命家高超的战略眼光和战略谋划。解放战争时期我们党同国民党的大决战，既是兵力火力之战，更是民心向背之争。辽沈战役胜利是东北人民全力支援拼出来的，淮海战役胜利是老百姓用小车推出来的，渡江战役胜利是老百姓用小船划出来的。民心是最大的政治，决定事业兴衰成败。只要我们党始终保持同人民群众的血肉联系，始终与人民同呼吸、共命运、心连心，就能拥有战胜一切艰难险阻的强大力量。习近平强调，学习党史是每一位党员的义务。要推动党史学习教育常态化长效化，引导广大党员、干部把学习党史作为必修课和常修课。', '这是16日下午，习近平在锦州市考察辽沈战役纪念馆时，亲切会见老战士老同志和革命烈士亲属代表。新华社记者 鞠鹏 摄', '习近平亲切会见了老战士老同志和革命烈士亲属代表，向他们表示诚挚慰问。习近平指出，东北人民不仅为辽沈战役胜利和东北解放付出了巨大牺牲，也为新中国建设和抗美援朝战争胜利作出了巨大贡献，党和人民永远不会忘记。我们的红色江山是千千万万革命烈士用鲜血和生命换来的。江山就是人民，人民就是江山。我们决不允许江山变色，人民也绝不答应。吃水不忘挖井人。新中国成立70多年来，经过一代又一代人艰苦奋斗，我们的国家发生了翻天覆地的变化，人民过上了全面小康生活，中华民族屹立于世界民族之林。我们要继续向前走，努力实现中华民族伟大复兴，以告慰革命先辈和先烈。各级党委和政府要关心老战士老同志和革命烈士亲属，让老战士老同志享有幸福晚年，让烈士亲属体会到党的关怀和温暖。红色江山来之不易，守好江山责任重大。要讲好党的故事、革命的故事、英雄的故事，把红色基因传承下去，确保红色江山后继有人、代代相传。习近平祝愿老战士老同志健康长寿、生活幸福、事事如意！', '随后，习近平来到锦州东湖森林公园，考察当地加强生态环境修复情况。公园位于小凌河和女儿河交汇处北侧。2014年起，锦州市对两河进行环境综合整治，并沿河修建了10余公里绿化带，形成了滨河健身休闲带状公园。习近平察看小凌河沿岸生态环境。他强调，良好生态环境是东北地区经济社会发展的宝贵资源，也是振兴东北的一个优势。要把绿色发展理念贯穿到生态保护、环境建设、生产制造、城市发展、人民生活等各个方面，加快建设美丽中国。生态文明建设能够明显提升老百姓获得感，老百姓体会也最深刻。要坚持治山、治水、治城一体推进，科学合理规划城市的生产空间、生活空间、生态空间，多为老百姓建设休闲、健身、娱乐的公共场所。', '这是16日下午，习近平在锦州市东湖森林公园察看小凌河沿岸生态环境时，同正在休闲、进行文化活动的群众亲切交流。新华社记者 燕雁 摄', '习近平现场听取了辽宁省防汛工作汇报。今年北方雨水偏多，辽宁入汛以来出现多轮强降雨过程，导致农作物受损、群众财产损失。辽宁省委和省政府在中央有关部门支持下，全力做好各项救灾救助工作，及时转移受灾群众近20万人，保证受灾群众有饭吃、有衣穿、有干净水喝、有临时安全住处、有病能及时就医，保持了社会大局稳定。习近平十分关心受灾群众的救援安置情况。他指出，8月仍是北方地区防汛关键期。各级党委和政府要坚持人民至上、生命至上，加强汛情监测，及时排查风险隐患，抓细抓实各项防汛救灾措施，妥善安置受灾群众，确保人民群众生命安全。要做好灾后恢复重建规划，帮助受灾群众尽早恢复正常生产生活。要健全体制机制，完善应对预案，加强对极端天气的预警和防范，提高洪涝地质灾害防御和应急抢险救援能力。当前，一些地方遇到严重干旱，要切实做好抗旱工作。', '这是16日下午，习近平在锦州市考察小凌河和女儿河环境综合整治情况，听取辽宁省防汛工作情况汇报，并就做好防汛工作、提高灾害防御能力作出重要指示。 新华社记者 燕雁 摄', '东湖文化广场上，正在休闲、进行文化活动的群众看到总书记来了，纷纷向总书记问好。习近平亲切地对大家说，中国式现代化是全体人民共同富裕的现代化，不能只是少数人富裕，而是要全体人民共同富裕；中国式现代化是物质文明和精神文明相协调的现代化，要弘扬中华优秀传统文化，用好红色文化，发展社会主义先进文化，丰富人民精神文化生活。党中央高度重视东北振兴。党的十八大以来，党中央实施深入推进东北振兴战略，我们对新时代东北全面振兴充满信心、也充满期待。锦州是一座英雄的城市，也是一座具有独特文化气质和深厚历史文化底蕴的城市。看到这里经过整治，生态环境、人居环境发生了巨大变化，感到很欣慰。希望大家增强保护生态、爱护环境的意识，共同守护好自己的家园。祝愿乡亲们今后生活更幸福更美好！', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司展厅，察看辽宁先进科技产品集中展示。新华社记者 鞠鹏 摄', '习近平17日在沈阳市考察调研。当天下午，他来到沈阳新松机器人自动化股份有限公司。在企业展厅，习近平听取辽宁新时代东北振兴整体情况介绍，察看辽宁先进科技产品集中展示，并考察了新松公司生产经营、自主创新情况。企业生产车间内，工业机器人、协作机器人、特种机器人等正在进行测试。习近平向技术人员和企业职工询问企业开展核心技术攻关等情况，对企业自主创新和产业化发展取得的成绩予以肯定，表示新松公司体现了中国速度、中国水平。', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司展厅，了解公司生产经营、自主创新情况。新华社记者 鞠鹏 摄', '车间外，企业员工代表围拢在一起，习近平向大家挥手致意。习近平强调，党中央实施创新驱动发展战略，格外重视自主创新，格外重视创新环境建设，努力提升我国产业水平和实力，推动我国从经济大国向经济强国、制造强国转变。当前，经济全球化遭遇逆流，保护主义抬头，但我们要坚持敞开大门搞建设。我国发展既要扎扎实实、步步为营，又要开放包容、互利共赢，积极构建以国内大循环为主体、国内国际双循环相互促进的新发展格局。要坚持自力更生，把国家和民族发展放在自己力量的基点上，牢牢掌握发展主动权。全面建设社会主义现代化强国，实现第二个百年奋斗目标，必须走自主创新之路。要时不我待推进科技自立自强，只争朝夕突破“卡脖子”问题，努力把关键核心技术和装备制造业掌握在我们自己手里。青年人朝气蓬勃、充满活力，是企业发展希望所在。各级党委和政府要营造良好环境，充分激发青年人创新创造活力，鼓励他们在各领域勇于创新、勇攀高峰，为推动新时代东北振兴作出更大贡献。', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司生产车间考察。新华社记者 鞠鹏 摄', '习近平随后来到皇姑区三台子街道牡丹社区。该社区建于上世纪80年代，共有3000多户居民，近年来经过基础设施改造和服务改善，成为基层治理示范社区。习近平先后走进社区党群服务中心、群众活动中心和养老服务中心，向社区工作者、幸福教育课堂的师生和老年志愿者了解当地加强基层党建、改善人居环境、开展为民服务等情况。在老年餐厅，习近平向正在用餐的老人们询问饭菜价格贵不贵、社区服务好不好、生活上还有什么困难。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区养老服务中心，向老年志愿者了解社区开展为民服务情况。新华社记者 申宏 摄', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区群众活动中心，同幸福教育课堂的孩子们亲切交流。新华社记者 申宏 摄', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区老年餐厅，同正在用餐的老人们亲切交流。新华社记者 鞠鹏 摄', '习近平走进居民李水家中，察看厨房、卫生间、卧室等，之后在客厅落座并同一家人亲切交谈。大家告诉总书记，社区经过改造，冬天屋里暖和多了，道路积水的问题也解决了，环境好，心情也好。现在孩子上学有着落，老人看病有托底，邻里和睦就像一家人。看到他们日子和美兴旺，习近平十分欣慰。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区，同居民李水一家拉家常。新华社记者 鞠鹏 摄', '离开社区时，居民们热情欢送总书记。习近平对大家说，小康梦、强国梦、中国梦，归根到底是老百姓的“幸福梦”。中国共产党的一切奋斗都是为人民谋幸福。他指出，老旧小区改造是提升老百姓获得感的重要工作，也是实施城市更新行动的重要内容。要聚焦为民、便民、安民，尽可能改善人居环境，改造水、电、气等生活设施，更好满足居民日常生活需求，确保安全。要加强社区服务，提升服务功能。老人和小孩是社区最常住的居民，“一老一幼”是大多数家庭的主要关切。我国已经进入老龄化社会。要大力发展老龄事业和老龄产业，有条件的地方要加强养老设施建设，积极开展养老服务。未成年人健康成长事关国家和民族未来，事关千千万万家庭幸福安康。社区要积极开展各种公益性课外实践活动，促进未成年人身体健康、心理健康、心灵健康。要加强社区基层党组织建设，加强和改进社区工作，推动更多资源向社区倾斜，让老百姓体会到我们党是全心全意为人民服务的，党始终在人民群众身边。习近平祝愿大家在新时代东北全面振兴发展中生活一天比一天好。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区考察时，同社区居民群众亲切交流。新华社记者 鞠鹏 摄', '这是17日上午，习近平在沈阳亲切接见驻沈阳部队大校以上领导干部和团级单位主官，代表党中央和中央军委，向驻沈阳部队全体官兵致以诚挚问候，并同大家合影留念。新华社记者 李刚 摄', '8月17日上午，习近平在沈阳亲切接见驻沈阳部队大校以上领导干部和团级单位主官，代表党中央和中央军委，向驻沈阳部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>13</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>衡水市人民政府办公室关于认真办理衡水市六届人大六次会议代表建议和政协六届五次会议提案的通知</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F8%2F3%2Fart_10295_347779.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10295_347779</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['衡水市人民政府 第一期 衡水市人民政府办公室关于认真办理衡水市六届人大六次会议代表建议和政协六届五次会议提案的通知', '衡水市人民政府办公室关于认真办理衡水市六届人大六次会议代表建议和政协六届五次会议提案的通知', '衡水市六届人大六次会议和政协六届五次会议期间，人大代表、政协委员及政协参加单位紧紧围绕“十四五”开好局、起好步等重点热点焦点难点问题，积极参政议政，建言献策，提出大量有价值的意见、建议和提案。为严肃认真地做好2021年人大代表建议、政协提案（以下简称代表建议政协提案或建议提案）办理工作，进一步提高承办工作质量和水平，根据《衡水市承办人大代表建议和政协提案工作规定》（衡水市人民政府令〔2012〕第1号），提出如下要求，请认真贯彻落实。', '衡水市六届人大六次会议和政协六届五次会议期间，人大代表、政协委员及政协参加单位紧紧围绕', '年人大代表建议、政协提案（以下简称代表建议政协提案或建议提案）办理工作，进一步提高承办工作质量和水平，根据《衡水市承办人大代表建议和政协提案工作规定》（衡水市人民政府令〔', '各承办单位要落实好主要负责同志负总责、分管负责同志直接抓、承办科室和承办人员具体办、办公室总协调的“3+1”承办工作责任机制。主要负责同志要对单位承办工作牵头负责，做好工作指导。分管负责同志要主动抓好组织和落实。承办科室和承办人员要认真研究办理，妥善解决处理好每一件建议提案。实行领导班子全员抓办理和领导包案办理制度，增强协调效果，推动建议提案落地落实。要完善办理制度，建立工作台账，做到领导责任到位，办理步骤到位，完成时限到位，确保高质量完成建议提案办理工作任务。各承办单位务于4月16日之前，将《领导全员办理建议提案情况登记表》《承办工作三级责任制人员登记表》报至市政府办公室督查室（提案）。', '各承办单位要落实好主要负责同志负总责、分管负责同志直接抓、承办科室和承办人员具体办、办公室总协调的', '日之前，将《领导全员办理建议提案情况登记表》《承办工作三级责任制人员登记表》报至市政府办公室督查室（提案）。', '（一）坚决依法办理。各承办单位要按照法律、法规、规章和政策办理建议提案。凡能够解决的，要采取措施尽快解决；前瞻性、改革性较强的，要加强研究，充分论证，积极吸纳科学合理的意见和建议，并转化为改进工作的具体措施；因条件限制短期内难以解决的，要列入规划、计划，并及时向代表委员反馈工作进展情况；确因政策、条件制约不能解决的，实事求是作出说明解释，取得代表委员理解。办理过程中遇有问题需请示时，要边办理边请示，先请示后答复，不能以请示代替答复，也不能借请示转移办理责任。承办工作中涉及党和国家秘密的，要严格按照保密工作规定处理。', '（二）做好调查研究。各承办单位在办理建议提案过程中，要对建议提案中有关经济社会发展中的重点问题，反映民生的热点难点问题，以及涉及面广、综合性强的问题，深入调查研究，认真梳理分析，了解每件建议提案的初衷，找出解决问题的关键所在，制定可行性、操作性强的办理方案，推动建议提案落地生根。', '（三）突出承办重点。市政府办公室将遴选事关全市中心任务和重项工作以及代表委员关心关注的热点难点问题，作为承办工作重点，专题部署，精准发力，联动攻坚，限期完成。各承办单位要根据建议提案内容，结合本部门工作实际，研究确定与本单位本系统重点工作相关、反映全市民生实际的建议提案作为重点工作专项办理。对重点建议提案的办理，主管领导要按照包案责任制的要求，亲自部署办理工作，亲自办理建议提案，亲自走访代表委员。各承办单位要将《办理重大和重要问题情况登记表》《领导全员办理情况登记表》《办理“老案”情况登记表》于4月16日之前报送市政府办公室督查室（提案）备案。', '（三）突出承办重点。市政府办公室将遴选事关全市中心任务和重项工作以及代表委员关心关注的热点难点问题，作为承办工作重点，专题部署，精准发力，联动攻坚，限期完成。各承办单位要根据建议提案内容，结合本部门工作实际，研究确定与本单位本系统重点工作相关、反映全市民生实际的建议提案作为重点工作专项办理。对重点建议提案的办理，主管领导要按照包案责任制的要求，亲自部署办理工作，亲自办理建议提案，亲自走访代表委员。各承办单位要将《办理重大和重要问题情况登记表》《领导全员办理情况登记表》《办理', '（四）搞好“开门办案”。“开门办案”是办理建议提案的有效形式和重要步骤。承办单位要一丝不苟地开展好。可邀请代表委员和市人大、市政协相关部门负责同志，通过召开座谈会、现场会、评议会、实地考察等形式，面对面与代表委员沟通交流，深入了解代表委员的意见和建议。承办单位办理建议提案时，要“先协商，后办理”，实行“开门办案”。并撰写工作汇报，报市政府办公室督查室（提案）。', '（一）精准审核改办。各承办单位收到建议提案后，要认真清点，逐件核实，建立台账（提案在政协提案管理系统网上查询。网址：http://121.17.30.229）。市“两会”确定的建议提案承办单位一般情况不予更改。对于确实不属于本单位职责范围需改变承办单位或增减会办单位的，要在收到建议提案后6个工作日内填写报送《建议提案承办单位调整卡》。市政府办公室与市人大、市政协相关部门审核《调整卡》确认无误后，再印发《改办通知》进行调整。', '（一）精准审核改办。各承办单位收到建议提案后，要认真清点，逐件核实，建立台账（提案在政协提案管理系统网上查询。网址：', '个工作日内填写报送《建议提案承办单位调整卡》。市政府办公室与市人大、市政协相关部门审核《调整卡》确认无误后，再印发《改办通知》进行调整。', '（二）严明办理时限。各承办单位收到承办件后，要认真研究，抓紧部署，及时呈办、批办、分办、交办、承办，避免拖延和遗漏，确保在规定时限内完成各项承办工作任务。市“两会”期间提出的代表建议和政协提案，主办任务在5件（含5件）以内的，承办单位要在5月31日之前办复；主办任务在5件以上的，6月30日之前办复；各会办单位要在5月10日之前将会办意见送达主办单位。', '（三）内容言简意赅。答复函要客观全面，解决意见要明确具体，落实措施切实可行，文字精练，语气谦和。对代表委员所提出的问题和要求，要抓住关键，逐条答复，交待清楚。切忌答非所问，说大话、空话、套话和介绍式、总结式答复，做到具体问题具体回答。', '（五）答复过程严谨细致。对人大代表联名提出的建议，要分别答复联名的各位代表；对政协委员联名提出的政协提案，只答复领衔的委员。答复函可以采用“机要”或“挂号”的形式邮寄；与代表委员同城同地的，承办单位要派人直接送达，以提升办理效率。在给代表或委员寄发送交书面答复函的同时，要将《办理情况征询意见表》和贴有邮票的《反馈意见专用信封》一并交给代表或委员；属于联名提出的建议提案，《办理情况征询意见表》和《反馈意见专用信封》只寄给领衔的代表或委员。代表建议答复函要分别抄报市人大常委会选举任免代表工作委员会2份和市政府办公室2份；政协提案答复函分别抄报市政府办公室2份和市政协提案委员会2份，并向提案在线管理系统进行网上答复。同时，将所有答复函电子版（word形式），按上述抄报类别分别发送市人大常委会选举任免代表工作委员会（邮箱hsrd622@126.com）、市政府办公室（邮箱h2038819@126.com）、市政协提案委员会（邮箱hszxtaw@126.com）电子邮箱。', '（五）答复过程严谨细致。对人大代表联名提出的建议，要分别答复联名的各位代表；对政协委员联名提出的政协提案，只答复领衔的委员。答复函可以采用', '（六）合理并案答复。建议提案一般要专题单独答复。对内容相同或相近的代表建议、政协提案，可以并案办理。但只能建议与建议、提案与提案并案答复，不能建议提案并案答复。并案答复时要标明各件建议或提案的编号（格式附后）。', '（一）积极诚恳走访。各承办单位答复工作结束后，要积极与代表委员沟通联系，虚心征求代表委员意见建议，积极改进承办工作。根据代表委员的意愿，可采取面对面、电话、微信等多种方式走访。争取做到100%与代表委员沟通联系。走访要诚恳热情，不得敷衍应付。其中建议提案主办件少于10件的，面对面走访率要达到100%；11件以上的，面对面走访率至少达到50%。坚决杜绝委托走访。代表委员明确表示不满意或提出异议的要弄清原委，审慎研究，再次走访，争取代表委员的支持、谅解和满意。走访工作要在7月底之前全部完成。并将《走访代表委员专用卡》和《走访代表委员情况统计表》在7月底前报送市政府办公室督查室（提案）。', '（一）积极诚恳走访。各承办单位答复工作结束后，要积极与代表委员沟通联系，虚心征求代表委员意见建议，积极改进承办工作。根据代表委员的意愿，可采取面对面、电话、微信等多种方式走访。争取做到', '。坚决杜绝委托走访。代表委员明确表示不满意或提出异议的要弄清原委，审慎研究，再次走访，争取代表委员的支持、谅解和满意。走访工作要在', '（三）做好协同合作。代表建议、政协提案凡涉及两个或两个以上承办单位的，主办单位要强化政治意识，主动担当，发挥牵头和主导作用，主动征求、分析、汇总会办单位的意见；会办单位要强化大局意识，积极参与，全力配合主办单位办理。会办单位要按时将会办意见送达主办单位，同时分别抄报市人大常委会选举任免代表工作委员会、市政府办公室和市政协提案委员会各2份。', '（三）做好协同合作。代表建议、政协提案凡涉及两个或两个以上承办单位的，主办单位要强化政治意识，主动担当，发挥牵头和主导作用，主动征求、分析、汇总会办单位的意见；会办单位要强化大局意识，积极参与，全力配合主办单位办理。会办单位要按时将会办意见送达主办单位，同时分别抄报市人大常委会选举任免代表工作委员会、市政府办公室和市政协提案委员会各', '（一）强化督导检查。各承办单位要及时掌握承办工作进度，加强各个阶段的督查，解决承办工作中的问题。对重点问题、关键环节实行专项督查；对情况复杂、涉及面较广的建议提案，加强协调督导；对代表委员反馈不满意的建议提案，实行个案追踪、挂账督办。实行全面督办与专项督办、定期督办与随机督办、实地督办与电话督办相结合的方式，形成层层抓督导、全面抓落实的督查机制，确保建议提案办理取得实效。', '（二）开展复查落实。答复工作完成后，各承办单位要对建议提案办理情况进行复查，逐件梳理检查答复意见落实情况。对答复给予解决的问题，切实落实见效；对答复列入计划逐条解决的问题，加大工作力度，力争破解难题，积极推进按计划落实；对因客观原因确实不能解决的，耐心做好解释工作，取得代表委员的理解与支持。同时，要对本届市人大、市政协一次会议以来办理的建议提案进行“回头看”，为本届承办工作划上圆满句号。复查工作完成后，要在7月底之前将《办理建议提案复查情况登记表》报送市政府办公室督查室（提案）。', '（二）开展复查落实。答复工作完成后，各承办单位要对建议提案办理情况进行复查，逐件梳理检查答复意见落实情况。对答复给予解决的问题，切实落实见效；对答复列入计划逐条解决的问题，加大工作力度，力争破解难题，积极推进按计划落实；对因客观原因确实不能解决的，耐心做好解释工作，取得代表委员的理解与支持。同时，要对本届市人大、市政协一次会议以来办理的建议提案进行', '（三）跟进反馈意见。代表委员在反馈意见中，明确表示不满意和提出异议的，承办单位自接到反馈意见之日起，1个月内再次研究办理，当面走访沟通，争取代表委员满意。并将研究办理情况书面反馈代表委员和相关单位。', '（三）跟进反馈意见。代表委员在反馈意见中，明确表示不满意和提出异议的，承办单位自接到反馈意见之日起，', '个月内再次研究办理，当面走访沟通，争取代表委员满意。并将研究办理情况书面反馈代表委员和相关单位。', '各承办单位要对涉及民生实事和民众关注的热点难点问题，采取网络公开、媒体跟踪等形式，全方位、多视角反映办理成果，扩大承办工作影响力。利用省政府《承办工作通报》、省政协《河北提案工作》等刊物和各种新闻媒体作为交流平台，宣传成果，学习业务，进一步提升承办工作水平。承办工作任务完成后，要认真做好年度承办工作总结，突出特色，提炼亮点，查找不足，谋划明年工作，务于11月底之前形成书面材料报送市政府办公室督查室（提案）。', '各承办单位要对涉及民生实事和民众关注的热点难点问题，采取网络公开、媒体跟踪等形式，全方位、多视角反映办理成果，扩大承办工作影响力。利用省政府《承办工作通报》、省政协《河北提案工作》等刊物和各种新闻媒体作为交流平台，宣传成果，学习业务，进一步提升承办工作水平。承办工作任务完成后，要认真做好年度承办工作总结，突出特色，提炼亮点，查找不足，谋划明年工作，务于']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>13</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>衡水市人民政府办公室关于优化金融环境的实施意见</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F11%2F7%2Fart_10442_449476.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10442_449476</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['为进一步加快打造市场化、法治化、便利化的金融营商环境，切实增强金融活力，提升金融服务实体经济的质量和效率，现就优化我市金融环境提出如下意见。', '（一）指导思想。以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届历次全会精神，深入落实习近平总书记关于金融工作的重要论述和省委省政府、市委市政府各项部署要求，立足新发展阶段，贯彻新发展理念，以优化金融机构经营发展环境和实体经济融资服务环境为主线，促进经济与金融良性循环、健康发展，为全面建设经济强市、美丽衡水提供强有力的金融支撑。', '（二）总体目标。通过持续深化金融供给侧结构性改革，力争到2025年末，使全市社会信用环境更加良好，政策服务环境更加优化，金融市场秩序更加规范，金融服务体系更加健全，逐步构建健康顺畅、规范有序、富有衡水特色的金融生态体系，有效推动全市经济高质量发展。', '（一）加快全市信用体系建设。扎实推进政务诚信、商务诚信、社会诚信建设，营造良好的信用导向。建立政府守信践诺制度，各级政府在债务融资、政府采购、招标投标等市场交易领域要诚实守信，严格履行各项约定义务。加强金融机构自控管理与自律管理，规范业务发展，保障金融消费者合法权益。引导企业诚信经营，珍惜商业信誉和信用记录，严格按照规定用途使用资金，做到按期还债。加大诚信宣传教育，努力提高全社会的诚信意识和信用水平，为经济金融发展营造良好的信用环境。（责任单位：市社会信用体系建设领导小组成员单位，各县市区政府，衡水高新区和滨湖新区管委会）', '（二）开展金融失信联合惩戒。市县法院定期向政府相关部门、金融管理部门、金融机构等通报涉金融领域严重失信被执行人名单，相关职能部门在政府采购、行政审批、市场准入、融资信贷、债券发行等方面依法依规予以信用惩戒。保持打击恶意逃废银行债务行为高压态势，金融管理部门定期汇总金融机构报送的涉嫌骗贷、转移资产等恶意逃废债务行为的企业名单及相关证据，转交公安、司法部门进行认定并依法打击。推动银行业金融机构与小额贷款公司、融资担保机构、典当行等地方金融从业机构良性合作，引导合作各方遵守合同约定，依法依规履行放款、代偿、债务追偿等义务和责任。加强对会计、审计等金融中介机构的诚信约束，依法加大对失信行为的查处力度。（责任单位：市法院、市地方金融监管局、人行衡水市中心支行、衡水银保监分局、市公安局，各县市区政府，衡水高新区和滨湖新区管委会，各金融机构）', '（三）构建金融信用信息服务平台。充分发挥金融科技和大数据平台支撑作用，持续优化完善衡水市金融服务中心、智慧金融平台和首贷服务平台。通过对接整合、共享应用企业信用信息资源，打破中小微企业信用融资瓶颈，为金融机构提供全方位、多角度的企业信用信息支撑，有效缓解中小微企业融资信息不对称、信用信息不透明和金融机构信心不足等问题。（责任单位：市地方金融监管局、人行衡水市中心支行、衡水银保监分局、市行政审批局、市发展改革委、市工业和信息化局、市科学技术局、市商务局、市农业农村局，各县市区政府，衡水高新区和滨湖新区管委会）', '（四）加快金融案件的审判和执行。各级法院要设立金融审判庭或专业金融审判团队，加大简易程序适用力度，实行快立、快审。建立金融债权案件“执行绿色通道”机制，对金融案件集中协调执行，依法采取查封、扣押、冻结、拍卖等强制执行措施，提高金融案件执结率。探索设立金融法庭，实现对涉金融案件的专门集中管辖以及金融案件的专业化审判。（责任单位：市法院，各县市区政府，衡水高新区和滨湖新区管委会）', '（五）依法保护金融债权人在企业破产重整过程中的合法权益。司法部门依法维护金融债权人在企业破产重整过程中的知情权，以及对债务人重大财产处置的决定权和监督权；在制定重整方案中，引导破产管理人充分考虑债权人合法权益；按照“先损失股权，后损失债权”的原则依法推进破产重整，保障合法金融债权。属地政府要发挥“协调员”作用，推动债务企业与金融债权人充分协商，积极帮助破产管理人、债权人寻找重整方，促进破产重整程序顺利进行。充分发挥破产程序对违法违规企业的“曝光”作用，严厉打击恶意逃废债行为。（责任单位：市法院、市公安局、市检察院，各县市区政府，衡水高新区和滨湖新区管委会）', '（六）拓展政银企对接方式。创新施行“线下+线上”模式，全方位提供资金支持。在全市深入开展“政府陪行长走企业”“政府陪行长走产业”活动，通过“线下”组织“县长+行长+厂长”组队走访企业，搭建银企对接“桥梁”。同时，按照政府引导、金企合作、市场化运作原则，大力推进“一中心两平台”金融服务中小微企业新模式，鼓励银行和市场主体进行“线上”融资对接，全力打造全天候、无死角、精准化“线上”银企对接模式。（责任单位：市地方金融监管局，各县市区政府，衡水高新区和滨湖新区管委会，各金融机构）', '（七）改善抵（质）押融资服务。推进动产抵押登记全程电子化，通过“在线申请、在线审核、在线公示”一次办结。加快知识产权交易平台以及农村产权综合交易平台、评估中心、登记服务中心建设，为金融机构提供产权抵（质）押贷款评估、处置变现等服务。相关职能部门为保险公司、小额贷款公司、融资担保机构、典当行等地方金融从业机构办理房产、土地、股权、车辆、设备抵（质）押登记业务提供便利和支持。（责任单位：市地方金融监管局、市市场监督管理局、市住房城乡建设局、市农业农村局、衡水银保监分局、市公安局、市自然资源和规划局，各县市区政府，衡水高新区和滨湖新区管委会）', '（八）打造高素质金融人才队伍。鼓励国家、省各类政策性银行、商业银行管理人才到衡水市县党政相关机关挂职锻炼，并按照我市有关人才政策，给予住房、交通、通讯等方面补贴。加强金融知识培训，通过专题讲座、实地考察、线上学习等方式，分批次对金融工作人员进行金融知识、金融风险、隐患防范等内容的专题辅导，进一步增强全市金融系统人员政策理论水平，努力提高运用金融服务实体经济的工作能力。（责任单位：市地方金融监管局、市委组织部、市财政局、人行衡水市中心支行、衡水银保监分局，各县市区政府，衡水高新区和滨湖新区管委会）', '（九）完善金融机构体系。构建多层次、广覆盖、有差异的银行体系，大力发展证券、期货、保险等非银行业金融机构。支持地方法人金融机构增资扩股，引进优质战略投资者，实现提质增效。引导小额贷款公司、融资担保机构、典当行等地方金融从业机构专注市场细分，为民营、小微企业和“三农”提供方便、快捷的金融服务。（责任单位：市地方金融监管局、人行衡水市中心支行、衡水银保监分局，各县市区政府，衡水高新区和滨湖新区管委会）', '（十）大力发展直接融资。认真落实省市支持企业上市发展的扶持政策，对在境内和境外主要证券交易所首发上市和新三板、区域性股权交易所挂牌的企业以及在新三板、区域性股权交易所首次融资的企业，按照标准给予费用补助，降低企业上市和发债融资成本。培育和发展各类天使、创业、产业投资基金，争取国家新兴产业创业投资引导基金、河北省产业投资基金等上级基金支持。（责任单位：市地方金融监管局、市发展改革委、市财政局，市企业上市推进工作领导小组成员单位，各县市区政府，衡水高新区和滨湖新区管委会）', '（十一）创新金融产品工具。鼓励金融机构争取总部新产品、新工具优先在衡水市场探索、应用和推广，系统内试点优先在衡水实施。引导金融机构开发个性化、差异化、定制化金融产品，构建更加专业化、多样化的金融服务模式。鼓励金融机构将法律法规不禁止、产权归属清晰的各类不动产、动产、知识产权和其他财产权利作为贷款抵（质）押物为企业提供融资，减轻对传统抵押担保的过度依赖。（责任单位：人行衡水市中心支行、衡水银保监分局、市地方金融监管局，各金融机构）', '（十二）健全企业融资增信。加快政府性融资担保机构发展，坚守政府性融资担保机构准公共定位，降低担保服务门槛，全面贯彻落实中央、省、市降费让利相关政策，充分发挥政府性融资担保作用，坚持支农、支小，不以营利为目的，切实发挥政府性融资担保机构支持实体经济发展的作用，为小微企业和“三农”主体融资增信，尤其在疫情环境下，帮助企业复工复产、渡过难关。同时，努力扩大政府性融资担保机构业务规模，提升服务效率，及时履行代偿责任，协调金融机构不抽贷、不压贷、不断贷，着力缓解小微企业融资难、融资贵。（责任单位：市地方金融监管局、市财政局、衡水银保监分局，各县市区政府，衡水高新区和滨湖新区管委会）', '（十三）规范金融服务收费。督促金融机构减免服务收费、优化服务流程、差异化制定贷款利率下降目标，严禁向企业收取不符合规定的附加费用。规范企业融资相关的担保费、评估费、公证费等附加手续费收费行为，减少企业融资附加费用。（责任单位：衡水银保监分局、市发展改革委，各金融机构）', '（十四）妥善处置金融机构风险。开展金融机构风险排查，摸清风险底数，“一户一策”制定风险化解方案。推进城商行和农合机构深化改革，推动建立健全现代企业管理体制和运营机制。稳妥压降银行不良贷款。鼓励银行机构综合运用清收、盘活、重组、转让、追偿、核销、市场化债转股等手段，加快存量不良资产处置。推动属地政府对金融机构以资抵债、抵债资产变现以及办理资产过户、登记、抵押等事项开辟绿色通道；对金融机构引入战略投资者处置不良资产同等享受招商引资相关政策。司法部门实行不良金融资产处置案件简易审理程序，加大金融债权案件的审结和执行力度。针对债务规模较大、涉及金融机构数量较多的企业，协调组建债权人委员会，集体研究增贷、稳贷、减贷、债务重组等措施，有序开展资产保全。（责任单位：衡水银保监分局、市地方金融监管局、人行衡水市中心支行、市公安局、市法院、市检察院，各县市区政府，衡水高新区和滨湖新区管委会）', '（十五）稳妥应对企业债务风险。完善企业债务风险排查预警机制，加强对高负债企业、企业债券和担保圈链的风险排查，对高风险企业实行“名单制”管理，及时做出风险提示。加强企业债务风险动态监测，“一企一策”科学制定企业债务风险处置方案。对于主业良好、暂时出现流动性紧张的企业，推动银行机构有针对性地运用收回再贷、续贷展期、债务重组等手段，保持企业融资规模；对于扭亏无望、难以协调化解处置的风险企业，充分征求主要债权金融机构意见，稳妥实施企业破产重整或清算。（责任单位：市发展改革委、市工业和信息化局、衡水银保监分局、市地方金融监管局，各县市区政府，衡水高新区和滨湖新区管委会）', '（十六）严厉打击非法金融活动。强化非法金融活动苗头线索排查，全面清理查处企业、个体工商户名称和经营范围中涉“金融”“交易所”“交易中心”“理财”“财富管理”“股权众筹”等字样或者内容。按照属地管理、行业归口的原则，层层压实主体责任，全面排查非法集资等非法金融活动的风险线索和广告资讯，重点聚焦容易滋生非法金融活动的网络借贷、私募基金、养老服务、虚拟货币、区块链、元宇宙、电子商务等领域开展排查整治活动，对排查出的涉嫌非法集资问题线索，依法移交非法集资牵头部门依法处置。涉嫌犯罪的，由公安、司法部门严厉打击。坚持以防为主、防打结合，依法打击、稳妥处置的原则，深入推进防范非法集资宣传和打击处置力度。加快非法集资陈案积案处置化解，研究制定陈案积案化解方案、完善计划，定期报送处置化解进展，持续推动非法集资陈案积案处置化解工作。（责任单位：市地方金融监管局、市公安局、市检察院、市法院、市市场监督管理局、人行衡水市中心支行、衡水银保监分局，市打击和处置非法集资工作领导小组成员单位，各县市区政府，衡水高新区和滨湖新区管委会）', '（十七）促进地方金融从业机构规范经营。加强对小额贷款公司、融资担保机构、典当行等地方金融从业机构的日常监管和现场检查，完善监管制度体系，促进依法合规经营。建立地方金融监管系统和非法集资风险监测预警系统，实现对各类地方金融业态和金融活动的非现场监管。（责任单位：市地方金融监管局、市公安局，各县市区政府，衡水高新区和滨湖新区管委会）', '（十八）加强舆情监测和引导。健全金融舆情监测、研判、报告、处置工作机制，严格执行重大金融信息发布审核制度。对易引发公众质疑、未经证实、影响稳定的金融事件报道，要积极进行正面引导，及时消减负面影响。加大正面宣传力度，重点宣传我市金融营商环境改善情况，弘扬金融行业正能量。（责任单位：市委宣传部、市委网信办、市地方金融监管局，各县市区政府，衡水高新区和滨湖新区管委会）', '（十九）提高思想认识。各级各有关部门要统一思想，深刻认识优化我市金融环境的重要性。按照“政府主导、各方联动、各司其职、齐抓共管”的工作机制，进一步推进金融创新，加强金融监管，营造良好环境，推动全市金融事业高质量发展。', '（二十）强化协同配合。各有关部门要加强沟通，密切配合，认真履行工作职责，强化政策协调与信息共享，针对金融环境建设存在的问题共同研究、共同解决，真正形成合力。', '（二十一）抓好工作落实。各级各有关部门要按照职责分工研究出台实施意见和配套措施，明确工作时限，强化责任担当，确保各项工作任务落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>13</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开衡水市不动产登记规范化建设工作相关情况新闻发布会</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019-12-02</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2019%2F12%2F2%2Fart_96_32.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_32</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“衡水市不动产登记规范化建设工作相关情况”新闻发布会', '建立和实施不动产统一登记制度，是党中央、国务院的重大决策部署。对于保护不动产权利人合法财产权，提高政府治理效率和水平，方便企业、方便群众，进一步健全现代产权制度，夯实社会主义市场经济基础具有重要意义。不动产登记工作与群众关系密切，直接关系群众切身利益。为了满足广大群众对不动产登记服务需求的升级，我市国土资源局积极创新工作方法和手段，利用现代网络新技术，提高服务质量和水平。', '本场新闻发布会的主要内容就是我市不动产登记规范化建设工作相关情况。发布人为衡水市国土资源局党组成员、新闻发言人副局长王忠。', '大家好！首先，我代表衡水市国土资源局全体干部职工，对参加本次新闻发布会的各位新闻界的朋友们表示热烈的欢迎！对大家长期以来关心、关注和支持我市国土资源事业和不动产登记工作表示诚挚的感谢！', '今天就不动产登记规范化建设情况向大家做一下介绍。自2015年11月，我市实施不动产统一登记以来，在省国土资源厅和市委、市政府的正确领导下，在社会各界的大力支持下，我局通过内部机制改革、受理服务前置、科技便民提效等措施，不断推进政策创新，机制创新，服务创新，科技创新，融合“放管服”、“互联网+政务服务”等改革理念,通过不断优化审批流程、全面提速增效，特色便民服务，加强干部队伍建设,不断促进我市不动产登记工作更加规范化、标准化和科学化。不动产统一登记工作得到了原国土资源部、省国土资源厅及其他省市兄弟单位的肯定，多次来我局考察学习、经验交流。', '通过内部机制改革，不断减少环节，优化业务办理流程，实现了业务处室设立与业务办理环节相对应，实行“三个一”的业务办理流程。具体是“一体化办公、一条龙服务、一个工作日办结”。“一体化办公”即我们的登记发证业务办理环节均在市民中心一楼B区一体化运行，任何一种业务在任何一个窗口均能办理；“一条龙”服务，即：任何一种业务，窗口收件、资料传递、处室审核、窗口发证，“流水线”作业； “一个工作日办结”即：当天受理业务当天办结，真正实现业务登记发证立等可取。', '在业务大厅设立受理服务咨询台，将业务受理咨询与表格填写前置，有效缓解窗口受理压力，引导群众有序办理，缓解群众排队等候状况。一是增设“绿色通道”。对重点项目及老、幼、军、病、残、孕，在绿色通道实行特定受理，有专人传递，全程服务。通过对不同办理对象进行分类梳理，实行“正常件即办、特殊件帮办、疑难件会诊”等“差别化服务”。正常件窗口受理；特殊件绿色通道，特定办理；“疑难件会诊”设置有业务综合处，由各业务处处长组成，专门对疑难业务集体研究，坚持政策创新、突破，以最短的时间拿出解决方案。二是提供上门服务。对一些行动不便的登记申请人，中心工作人员主动上门服务，上门进行登记事项问询记录，受理申请材料，拍照取证等。三是开通“EMS”邮寄到家服务。我局不动产登记的证书、证明已纳入“EMS领证助力，最多跑一次”服务，办事企业或群众在市民中心大厅办完不动产交易登记申请后，申请人可以在登记中心工作人员见证下，自愿委托EMS代为领证并快递送达，避免申请人费时费力再来一次大厅领证。四是规范服务市场。对于内外勾结，通过倒号卖号、加急办证、指定调查或中介服务等方式，收取好处费谋取私利和通过“绿色通道”办理人情件等违法违规行为，采取“零容忍”态度，发现一起、查处一起、通报一起，绝不姑息；五是推行延时服务。增设受理窗口，充实窗口人员二十余名，无需预约，业务受理时间每天从早晨八点至下午最后一名群众办结，业务办理时间从每天8小时，延长至每天10多个小时不等。坚持群众不走，我们不休。最晚一次工作人员加班至次日凌晨三点钟，业务办结量显著提升。', '坚持“打造优质服务的软环境，与增设科技便民的硬件设施”两手抓，在抓好软环境建设的同时，采取设施提效，实现便民利民科技化。', '一是坚持窗口发证与自助发证双脚走路。购置省内首台多功能自助发证一体机，接入不动产登记库，自助完成缮证、盖章、缴费、领证等缮证发证业务，将之前需人工完成的四个业务环节缩减为一个环节完成，实现颁证领证过程仅耗时50秒，与窗口发证相比效率显著提升。二是自助查询高效快捷。增设自助查询机，启用不动产信息“自助查询”。群众只需将二代身份证放置在查询机“身份证读卡区”，按照系统界面提示逐步操作，就可以办理包括纳税、入学、贷款、户口迁移等常用的登记查询业务。三是微信平台助力政策信息更新。我们开通了微信公众号，群众足不出户就可以了解对不动产登记相关的政策法规、办事流程、通知公告、收费标准等内容，将办事群众“索取式”的信息查询方式，转变为“推送式”的主动告知。四是推进“互联网+不动产服务”。大力推进“互联网+不动产服务”，让不动产登记服务延伸到“云端”。加强不动产登记信息管理基础平台建设，推动实体大厅向网上大厅延伸，结合我市本级登记工作实际，初步决定将抵押登记、抵押注销登记、预告登记、预告抵押登记、预告抵押注销登记等业务范围实现网上受理。缓解窗口受理压力。适应新形势对不动产登记工作的要求，真正实现了科技提效。', '一是全面推进“减证便民”。清理取消前置环节。不动产登记不设任何前置，只要申请人提交的申请材料符合《不动产登记暂行条例》和《不动产登记暂行条例实施细则》要求，不动产登记机构立即办理。并全面清理了烦扰企业和群众的“奇葩”证明、循环证明、重复证明等各类无谓证明，坚决取消没有法律法规依据的盖章、审核、备案、确认、告知等各种繁琐的手续。 二是推行“一窗受理，集成服务”。加强工作交流与衔接，强化与住建、税务等部门联动协作，理顺办事流程，简化办理程序。设立综合受理窗口，统一受理房屋交易、税收申报和不动产登记联办事项，一次性收取所需全部材料。窗口统一受理后，根据联办业务类型对申报材料进行分类，分别送达交易、税务、登记等部门进行同步并联办理，交易、缴税、登记等相关信息实时互通共享。不需联办的事项由登记部门独立办理。着力“减环节、减时间、减材料、减次数”，变“跑多次”为“跑一次”，力争做到“信息多跑路、群众少跑腿”。', '不动产登记涉及千家万户，直接面向企业和群众，是国土资源部门对外服务重要的窗口，工作作风好不好、服务水平高不高，直接关系到群众的切身利益，关系到党和政府的形象。经过两年来的不断创新、探索、实践，和不动产系统干部职工的不懈努力和付出，不动产登记工作取得了一定成绩，基本实现了“机制创优标准化，咨询服务专业化，业务流程规范化，服务群众差别化，便民利民科技化”。在今后的工作中我们会继续改革创新、大胆实践，创造更多的便民利民制度举措，推动不动产登记事业健康持续发展、不断迈上新的台阶，更好地保护权益、保障交易，使人民群众的获得感、幸福感、安全感更加充实、更有保障、更可持续。', '实现了“机制创优标准化，咨询服务专业化，业务流程规范化，服务群众差别化，便民利民科技化”。在今后的工作中我们会继续', '最后，也恳请在座的各位新闻界的朋友们给予不动产登记事业一如既往的支持、指导和帮助，为促进我市不动产业健康发展做出更大的贡献，谢谢大家！', '下面，进入记者提问环节。各位记者如有提问请举手示意，请在提问之前通报一下所在媒体的名称。为争取更多记者拥有提问机会，请每位记者每次只提问一个问题。', '王忠：按照省政府规定2018年底前一般业务办理时限压缩至7个工作日以内，抵押登记办理时限压缩至5个工作日以内。从衡水不动产登记局成立以来，我们一直坚持所有登记业务办理时间均不超过3个工作日；目前我市已实现业务当日受理、当日办结，即正常业务受理后资料齐全、符合规定的，当天完成审核，当天发证。对出现的疑难问题，调查期限不超过3日。谢谢！', '2.河北新闻网：对群众普遍关心的“办证难“问题，我市不动产登记方面采取了哪些措施呢？谢谢！', '王忠：自2016年8月起，市本级开始实施不动产统一登记，结束了原土地、房屋分别发证的历史。针对群众普遍关心的“办证难”问题，我们主要采取了以下措施：', '三是优化窗口建设、增设自助设备。入驻市民中心后，骨干力量最大限度充实到窗口一线，窗口由入驻前的12个增加到现在的18个。并在全省第一家购置了自助发证机，3台自助发证机同步运行，工作效率明显提高。在业务大厅设置了自助查询机，方便群众办理查询业务。强化了导办处咨询和初审职能，提前为群众检查不动产登记材料是否齐全，并指导群众填写登记要件，缩短正式办理时间，最大限度避免群众来回跑路。', '四是加强政策研究、破解疑难问题。不动产统一登记是一项新生事物，从以前土地、房屋等多个部门分散登记到不动产统一登记，就会出现诸如房地土地权利人不一致、房地用途不一致、房屋或土地信息登记信息缺失等历史遗留问题，造成老百姓“办证难”。对于此类问题，我们也坚持问题导向，通过加强政策研究、借鉴外地经验，主动探索解决方案，并报请市政府协调多部门共同研究，提出处理意见，及时解决悬而未决的历史遗留问题，满足群众的正常办证需求。谢谢！', '3.河北日报：现在全国都在力推“最多跑一次”改革，在衡水市不动产登记方面我们有什么值得期待的呢？', '王忠：“最多跑一次”改革是深化行政改革和推进政府治理现代化的重大创新，衡水市不动产登记局下一步的重点工作，就是全力推进不动产登记“最多跑一次”改革，重点从三个方面推进。', '一是实现一窗受理、并行办理。即一个窗口一次性收取房屋交易、税费缴纳、不动产登记三项业务办理所需申报资料。受理后，三项业务同时办理，三部门间办理信息实时互通共享、内部传递，实现让数据“多跑路”、让群众“少跑腿”。不动产登记结果等，根据当事人自愿申请以快递方式送达。', '二是进一步精简收件材料。按照“依法依规、便民利民”的原则，全面梳理房屋交易、税收、不动产登记所需申请材料，在不重不漏、满足法定所需要件基础上，精简合并相关申请材料，编制统一申请材料目录并向社会公布。', '三是推行“互联网+不动产登记”。开通网上预审、网上查询等服务，实行网上接收申请资料，网上开展资料预审，现场核验办理，形成网上平台、实体大厅和移动端互通，“窗口办”与“网上办”互补。探索在银行设立不动产抵押便民服务点，实现“不见面”办理。谢谢！', '好，如有媒体需要深入采访，会后请与市国土局不动产登记科联系。本场新闻发布会到此结束。谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>13</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开实施企业食品安全提升工程新闻发布会</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2020%2F8%2F3%2Fart_96_39.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_39</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“实施企业食品安全提升工程”新闻发布会', '7月21日上午，衡水市政府新闻办就“实施企业食品安全提升工程”召开新闻发布会，衡水市市场监督管理局党组成员、副局长马增利介绍有关情况并回答记者提问。中共衡水市委宣传部信志锋主持发布会。全程实录如下：', '民以食为安，食品安全是民生工程、民心工程，关系人民群众的身体健康和生命安全，关系社会稳定大局，今年以来，市市场监督管理局坚持以人民为中心，认真落实市委市政府做好民生实事工作的要求，多措并举，确保企业食品安全提升工程取得实效。本场新闻发布会的发布人是衡水市市场监督管理局党组成员、副局长马增利，他将就实施企业食品安全提升工程的相关情况进行发布。', '参加本场新闻发布会的媒体有：衡水日报、衡水晚报、衡水新闻网、衡水电台、衡水电视台、衡水广播电视台融媒体中心等市直媒体：衡水发布、衡水微讯等市政新媒体；河北日报、河北广播电视台、长城新媒体，以及河北工人报、河北法制报、河北新闻网、河工新闻网、河北共产党员网：中国新闻社、中国经济网、中国网、网易衡水等驻衡在衡媒体。', '大家好！“实施企业食品安全提升工程”是今年衡水市委市政府20件民生实事之一。具体内容是：委托有条件的大专院校，为7000家食品生产企业、经营企业、餐饮企业、7000名食品安全管理人员提供免费技能培训和学历提升，有效提升食品经营主体的食品安全管理水平。按照市委、市政府《关于做好2020年民生实事工作的通知》要求，“企业食品安全提升工程”由市市场监督管理局牵头实施，我局高度重视此项工作，努力克服新冠疫情带来的不利影响，和委托单位共同努力，汇集优质资源，搭建了“食品安全大讲堂”培训平台。目前，“食品安全大讲堂”培训平台已正式上线，远程培训工作正在有序开展。', '“实施企业食品安全提升工程”，是深入学习贯彻习近平新时代中国特色社会主义思想，落实市委、市政府工作部署和要求的具体举措，是坚持以人民为中心，进一步提高政治站位，提高食品生产经营者责任意识和管理水平的重要内容。为确保“企业食品安全提升工程”高标准落实到位，我局高度重视，成立了“一把手”为组长的“企业食品安全提升工程”领导小组，坚持主要领导负总责、亲自抓，分管领导具体抓、全程抓，做到责任到人、任务到人、落实到人，各县市区局也建立健全相应的组织工作领导机制。制定下发《2020年企业食品安全提升工程实施方案》，细化、量化工作任务，倒排工作时限，明确工作要求，为民生实事的顺利实施提供组织保障。对全市有条件的大专院校走访调研，协商相关培训事宜。根据疫情防控要求，按照市领导指示，及时将培训方式由线下集中培训，调整为线上和线下教学相结合，以线上视频培训为主的形式。在前期调研考察的基础上，我局委托具有丰富网络教学经验的衡水电视广播大学具体承办相关培训工作。', '我们通过进企业、下工厂、组织召开专题座谈会等多种形式，充分听取食品生产、流通、餐饮各环节的合理化建议，确定了课程设计，聘请7名省市知名资深教授录制在线培训课程，特邀科技部国家专家库成员、河北省食品安全国家标准评审委员会专家、博士后李巧玲教授，河北省食品工业协会常务理事、河北经贸大学食品质量与工程教研室主任鞠国泉教授等省、市食品行业专家团队授课，内容主要涉及食品安全相关法律法规、食品企业经营者管理实务、企业职业道德及服务礼仪、食品生产经营管理制度和操作规范、食品安全事故警示教育等。“食品安全大讲堂”线上培训课程分为选修课和必修课，共50个学时，其中必修课30个学时，选修课20个学时，参训学员完成40学时的学习后，可以参加线上考试。线下集中教学采取集中授课和实地参观见学，共计10个学时。目前，“食品安全大讲堂”已经上线，到2020年10月底完成全部培训任务。', '我局将“企业食品安全提升工程”列入全年重点工作任务，同时要求各县市区局督促指导辖区企业按要求参加培训，完成考试测评，并跟踪问效。实时掌握辖区培训进度、学习效果、考核与巩固情况，加强监督，保证学时，确保人员、时间、效果“三落实”。我局将全面掌握辖区培训情况，加大监督检查频次和力度，督促企业切实提升自身综合素质做为生产经营的首要条件，积极参训，形成可检验、可评判、可感知的成效，确保高质量、高标准完成“企业食品安全提升工程”工作任务。我局将成立督导组，将督查工作贯穿“企业食品安全提升工程”始终，不定期选取部分县市区开展实地督查，重点检查工作部署、组织领导、推动落实、工作成效等。督导检查重在把脉问诊，深入企业、深入基层，发现并解决培训中存在的问题，推动改进工作。', '在下步工作中，我局将强化宣传引导，对培训的实际情况进行深度报道，及时反应企业食品安全提升工程对促进企业发展、提高管理水平和从业人员综合素质的实际意义，跟踪报道典型企业，开展人物专访，树立行业标杆，及时总结提炼创新举措和成功经验，宣传实施企业食品安全提升工程的社会效果，同时，我局还大力开展食品安全示范学校食堂创建活动，疫情期间食品安全专项整治，食品生产企业HACCP认证等行动，有效提升我市食品安全保障水平，为建设经济强市、美丽衡水做出贡献。', '现在进入记者提问环节，大家如有提问，请举手示意，提问之前，请先通报一下自己所在媒体的名称。', '一、河北日报：创建食品安全示范学校食堂作为民生实事之一，请您介绍下目前的进展情况。', '马增利：衡水作为我省教育高地，全市目前有寄宿制学校410所，有在校学生近50万人，食品安全牵动着千万的学生和家长，关系广大师生的身体健康，关系社会稳定，是食品安全的重中之重。创建食品安全示范学校食堂，作为我市2020年20件民生实事之一，按照市委市政府《关于做好2020年民生实事工作》的通知要求，这项工作由我局负责实施，主要内容是：全市创建50家“食品安全示范学校食堂”；提升全市学校食堂食品安全等级，全市学校食堂优秀（A级）等级率由目前的11.53%提高到20%；消除食品安全一般等级（C级）。为确保民生实事顺利开展，我局一是协调相关部门，形成工作合力。联合市教育局、市城市管理综合行政执法局印发《2020年衡水市校园食品质量安全水平提升工作方案》，对工作进行安排部署，明确工作目标、职责分工、工作措施和阶段要求。二是召开专题会议，高位推进工作。6月18日，组织召开“全市校园食品质量安全水平提升暨创建食品安全示范食堂工作视频会议”，副市长郭铁铮、崔海霞出席会议。三是保障安全促提升，开展全覆盖检查。联合市教育局、市卫健委、市公安局等相关部门相继开展2020春季开学学校食品安全风险隐患排查、学校疫情防控和食品安全专项整治。成立联合检查组，采取“四不两直”方式对各县市区工作开展情况进行检查督察。四是加强帮扶指导，为学校排忧解难。重心下沉做好乡镇学校疫情防控和食品安全的“辅导员”，分析可能存在的风险隐患，讲解疫情防控和食品安全管理政策，针对错峰错时就餐、食堂环境卫生清理清洁、食材采购、加工、贮存等环节进行指导，答疑解惑。截至目前，全市13家学校食堂达到创建标准；全市学校食堂优秀（A级）等级率已提升至15.1%；食品安全一般等级（C级）降至1.9%。', '马增利：为维护我市肉及肉制品市场秩序，着力解决疫情期间人民群众关心的热点问题，我局在全市范围内深入开展了为期两个月的肉及肉制品专项整治行动。通过覆盖肉及肉制品生产经营全环节的集中监督检查，严厉打击各类违法违规行为，进一步落实肉及肉制品生产经营者食品安全主体责任，规范生产经营行为，净化市场环境，消除食品安全风险隐患，增强人民群众的获得感、幸福感和安全感。', '行动开展以来，全市市场监管系统周密部署，组织执法人员深入摸排，重点检查肉制品生产企业；速冻水饺等以肉类为生产原料的食品生产企业；肉制品加工小作坊；农村及城乡结合部集贸市场；食品批发及便民市场；中小超市；专卖店；学校、托幼、养老机构、建筑工地及企业集体食堂；旅游景区餐饮服务单位；自助火锅、烤肉、涮肉、酱骨头、炒鸡、牛排等特色餐馆；从事肉及肉制品贮藏的冷库经营者；从事肉及肉制品运输、装卸的物流公司；网络交易第三方平台等。', '目前，全市共检查食品生产、流通、餐饮及其他环节单位7825家，责令整改303家，立案105件，罚没109余万元，移送公安机关3件，有力净化了市场消费环境，维护了人民群众身体健康和合法权益。', '三、衡水广播电视台：在推行食品生产企业HACCP等先进管理体系建设、提升我市食品安全保障水平方面，贵局做了哪些工作？', '马增利：HACCP体系是国际上共同认可和接受的食品安全保证体系，推动规模以上食品生产企业建立实施HACCP等先进体系，是“食药安全 诚信河北”三年行动计划的重要内容，我局高度重视此项工作，自2018年起，就鼓励全市食品生产企业全面实施先进管理体系认证，提升管理水平和风险防控能力。通过持续推进，全市累计64家食品生产企业获得HACCP等先进管理体系认证，其中37家规模以上企业已全部通过认证。今年以来，我局在推动5家规上企业到期换证和4家新增规上企业认证的同时，新增30家规下企业认证的目标，鼓励带动中小企业实施HACCP等先进管理体系认证。截止到目前，已有3家规上企业获得认证或换证完毕，有6家企业已经签订换证协议；30家规下企业与认证机构签订了认证协议。', '实践表明，在食品生产企业中实施HACCP等先进体系管理，对推动企业提升风险防控能力、严格过程管理和问题追溯有积极的指导作用。下一步，我局将继续推动食品生产企业 HACCP等先进管理体系认证，特别是在高中风险产品中普遍推行，进一步提升我市食品生产企业的食品安全保障能力，推动我市食品产业健康、有序发展。', '四、长城新媒体：在有序推进复工复产、复商复市以来，衡水市对餐饮服务业食品安全是如何进行监管的？', '马增利：一、对复市企业严格把控，发放疫情防控指导书，对人员要求、环境卫生、加工操作、就餐服务、外卖送餐、食品安全等六个方面对餐饮服务单位复市营业做好疫情防控和食品安全方面进行了指导。二、支持各网络订餐平台开展生鲜配送，积极与网络订餐平台进行沟通，方便市民通过网络订餐平台购买生活必需品，在全市倡导“无接触式配送模式”，网络订餐突破了100万份。三、实现平台与菜农直接对接，为衡水饿了么平台与饶阳春光蔬菜合作社牵线搭桥，降低企业销售成本，做到了快捷便民。四、要求餐饮企业全面倾销，在复市营业前做好库存食材的大清理、冰箱冰柜大清洗、工具用具大消毒、凉菜专间大消杀、就餐场所大清洁、后厨卫生大扫除，杜绝各类食品安全生产隐患。五、开展微信线上培训，邀请国内专家开展餐饮“4D”推广工作，免费为餐饮企业开展餐饮食品安全培训。谢谢。', '好的，如有媒体需要深入采访，会后可与市市场监督管理局联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>13</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>衡水市人民政府办公室关于印发衡水市推进教育与农业融合发展实施方案的通知</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019-08-12</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2019%2F8%2F12%2Fart_9296_197771.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_9296_197771</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['衡水市人民政府 第二期 衡水市人民政府办公室关于印发衡水市推进教育与农业融合发展实施方案的通知', '《衡水市推进教育与农业融合发展实施方案》已经市政府第57次常务会议研究通过。现予印发，请认真组织实施。', '衡水是教育高地，全市目前有寄宿制学校410所，在校生47.38万人，主城区寄宿制学校67所，在校生12.23万人。衡水也是农业大市，肉蛋奶和果菜品种丰富，拥有蒙牛、鲁花、华润、京安、新发地、以岭茂丰、韩国世农、泰国正大等一批国内外知名农业企业，是京津冀优质农产品生产和供应基地。充分统筹好我市教育资源和农业优势，积极推进教育与农业产业的对接，发挥好学校食堂营养餐食材需求对农业供给侧改革的推动作用，既是促进全市农业全面转型升级，实现高质量发展的客观需要，又是保障学校优质农产品供应，降低采购、流通成本，确保学生膳食营养的重要举措，同时也是充分整合内生资源，实现共同发展的重要路径。', '以学校对农产品需求为导向，以国家食物营养教育示范基地建设为抓手，依靠农业农村部食物与营养发展研究所和衡水市营养学会的专业力量，进一步深化农业供给侧结构性改革，进一步丰富教育内涵，促进教育与农业融合高质量发展，并研究形成三个标准（不同年龄段学生的营养需求标准，基地农产品营养化、定制化生产标准，学校食堂建设、培训、加工等管理标准），探索建立一个机制（生产、流通、加工、监管的营养食品全链条持续运营和监管机制）。经过3—5年的努力，学生营养健康水平明显提高，健康营养知识全面普及，初步形成以营养需求为导向的现代农业产业体系，为健康衡水建设打下坚实基础。', '坚持政府引导、市场运作。充分发挥政府在顶层设计、资源整合、完善制度等方面的引导作用，更好发挥市场在配置营养食物资源和提供服务中的主导作用，营造各方积极参与的良好政策环境。', '坚持试点先行、稳步推进。以衡水市第一幼儿园、滨湖新区志臻学校、衡水中学、衡水学院4所学校（在校生约3万人）作为试点消费方，依据试点学校对农产品品种、数量、质量等方面需求，在市域内遴选出3—5家农业产业化龙头企业作为试点供应方，以点代面、稳步推进，逐步覆盖主城区所有寄宿制学校和实施营养午餐学校。', '坚持创新融合、协调发展。按照“营养指导消费、消费引导生产”的理念，以制定膳食营养标准为牵引，以学生膳食结构优化带动促进农业结构优化，逐步形成以营养需求为导向的现代食物产业体系，丰富营养食物供给，厚植教育品牌，促进农业、食品加工业、教育服务业协调融合发展。', '坚持共建共享、互利共赢。强化数据监测、分析和共享，为食物营养的科研、生产、消费提供详细的数据支撑。充分保障各方利益，形成稳定紧密的利益联结机制，实现多方共赢，示范带动全链条营养型食品产业的发展。', '（一）科学制定营养食谱。按照《中国居民膳食指南（2016）》，每周为学生提供的餐食种类（不包括调味品）不少于25种，每日不少于12种。在保证足量菜品的前提下，根据不同年龄段在校学生身体发育、学习、运动的营养需求，性别差异以及口味的不同需求等情况，每餐制定出3—4种营养套餐供学生选择。（责任单位：市教育局，衡水学院、市营养学会、各试点学校）', '（二）建设智慧服务平台。供应链上，实现线上一键定制，线下打造智慧农业示范基地，种植、采收、仓储、加工、物流、服务全流程并联。消费链上，通过手机APP建立健康信息互动平台，实现“学校+家长+食堂”的营养信息共享，并通过大数据、云计算等智能技术，将采购、加工、库存、成本、学生就餐、学生身体营养状况等数据信息进行深度挖掘，建设智慧食堂。同时按照市营养学会提出的学校供餐环境改造意见，对试点学校厨房、厨具等食堂硬件进行升级改造。（责任单位：市农业农村局、市教育局、市财政局，衡水学院、市营养学会、各试点学校）', '（三）建设农产品供应基地。以推进教育与农业融合发展为抓手，以深化农业供给侧结构性改革为主线，认真贯彻落实《衡水市人民政府关于印发衡水市高质量绿色农业发展三年行动计划（2018—2020年）的通知》（衡政字〔2018〕9号）、《衡水市人民政府关于实施“5116”工程加快发展农业特色产业的实施意见》（衡政字〔2018〕45号），推进农业转型升级，加快现代都市型农业发展，全面提升农业发展质量和竞争力，更好地保障和满足全市寄宿制学校学生膳食营养对当地农产品的需要。为此，遴选一批实力强、信誉好、生产和供应能力强的农产品生产基地、种植合作社、规模养殖场、现代农业园区、农业产业化龙头企业进行重点培育，登记造册、动态管理；以农产品特优区建设为依托，以“五线、十片”蔬菜生产基地为重点，积极改善蔬菜（瓜）生产基础设施和装备条件，着力构建生产标准化、栽培设施化、品种特色化、质量可追溯、产销一体化的现代蔬菜（瓜）产业体系。（责任单位：市农业农村局）', '（四）健全产销对接机制。利用学校寒暑假期，每年两次采取政府搭台、学校和农产品生产供应基地（企业）唱戏、市场运作的方式，积极组织市域内的相关农业产业化龙头企业、种植合作社、规模养殖场及农产品加工销售企业到学校推介和洽谈对接，签订农产品生产供应协议（合同），建立紧密的合作关系和机制。同时，在农产品生产的关键季节，组织邀请学校相关人员到承担学校农产品生产和供应的龙头企业、种植合作社、规模养殖场、供应配送中心、质量检测中心等现场参观考察、洽谈和联谊活动，提升教育与农业对接、合作质量水平。（责任单位：市农业农村局、市教育局、各试点学校）', '（五）提升全链条监管水平。依托中国种业大数据平台、中国农药数字监督管理平台、衡水市农药数字监管平台等信息化平台，强化种子、农药、化肥等农资流通环节信息化监管，推动农资可追溯管理。加强农产品质量安全执法监管，加快推进市、县农产品质量安全追溯管理信息平台、安全追溯数据库和质量信息查询系统建设，实现从田间到市场到餐桌的全程监管，确保源头可追溯。强化农产品检测，加快县级检测中心“双认证”工作步伐，推动健全完善“市县有检测中心、产业集聚区有检测站、重点园区和新型经营主体有检测点”的三级农产品质量检测网络。（责任单位：市农业农村局、市市场监管局、市卫生健康委）', '（六）开展多层次食育教育。开展“学生+后厨+家长”三位一体的食育教育管理模式。邀请专家定期在学校开展营养用餐课程和讲座，面向全体师生普及营养膳食知识；对学校后勤管理人员、学校食品采购人员、厨师等进行营养配餐全员培训，提高营养配餐和营养美食制作技术能力和水平；通过学生向家庭成员宣传营养用餐知识，提高营养用餐意识，促进食物营养与健康知识的全面普及。（责任单位：市教育局，衡水学院、市营养学会、各试点学校）', '（七）强化效果评估总结。委托农业农村部食物与营养发展研究所、市营养学会，对营养用餐学生的身体素质、智力发育、体能体质等进行持续跟踪监测，以大量详实的数据为支撑，不断调整完善营养配餐的食物搭配和供应基地的种养殖结构，并形成“三个标准”。对试点工作开展综合成效年度评估和阶段性评估，形成评估报告。（牵头单位：市农业农村局、市教育局；责任单位：农业农村部食物与营养发展研究所、衡水学院、市营养学会、各试点学校）', '利用暑期时间，选定供应基地，完成营养食谱制定。在专业机构指导下，就供应基地的土壤改良、选种育苗、科学种植、物流配送，学校的食堂改造等方面提出具体意见和方案；根据学生数量和营养食谱，科学确定农产品供应标准和数量。各试点学校根据农产品标准和数量需求进行公开招标，与中标农产品供应基地签署供应协议；完成学校食堂的升级改造；进行业务培训和食育教育；供应基地做好产品种植等相关准备工作。', '2019年秋季开学，正式启动试点工作。按照“营养需求—科学食谱—基地生产—物流直供—食堂加工—学生消费”流程，开展产销一体化营养配餐模式；强化全流程、全链条监管；做好数据监测、记录和定期评估；持续做好营养健康知识普及；根据运行情况，及时调整完善工作措施；2019年底前通过国家食物与营养咨询委员会评审，“国家食物营养教育示范基地”挂牌，启动相关创建工作，为在更大范围内推广食物营养教育趟路子、出经验。', '2020年上学期结束后，对试点运行效果进行科学分析和全面评估。并根据需求，进一步加强农产品供应基地建设，每个县重点培扶1—3家龙头企业，采取龙头企业+种植合作社+家庭农场模式组建联合体，同主城区寄宿制学校和实施营养午餐学校全面签订农产品供应协议。2020年秋季开学，将合作模式覆盖主城区所有寄宿制学校和实施营养午餐学校，并逐步实现市域内所有寄宿制学校本地农产品供应全覆盖。在满足本市营养农产品需求的基础上，推动各农产品供应基地走出衡水，辐射周边，打造衡水营养农业品牌。', '（一）成立领导机构。成立市推进教育与农业融合发展工作领导小组。组长由刘玉华、崔海霞同志担任，副组长由张英军、王义朋同志担任，成员由市农业农村局、市教育局、市市场监管局、市财政局、市卫生健康委等相关部门主要负责同志组成。领导小组下设工作专班，人员由市政府副秘书长、相关部门主管负责同志，农业农村部食物与营养发展研究所、市营养学会相关同志，试点学校主管副校长组成。成立专家组，人员由中国农业科学院、农业农村部食物与营养发展研究所、市营养学会的专家组成。', '（二）严格落实责任。相关县市区和市直部门要高度重视，将相关工作纳入重要议事日程，制定工作方案，明确责任分工，加快任务落实。农业农村部门要做好供应基地的遴选工作，密切与农业农村部和中国农科院的沟通联系，为国家食物营养教育示范基地建设提供科学指导。教育部门要组织试点学校做好宣传教育和培训，加快食堂改造升级，配合科研机构做好数据收集等工作。财政部门要将公办学校厨房升级改造、学生营养教育讲座、学校后勤人员培训等所需资金列入财政预算。农业农村、市场监管、卫生健康部门要根据各自职责，合力做好全流程、全链条的监管工作。', '（三）广泛宣传引导。组织各相关部门、行业学会、试点学校以及新闻媒体等开展多渠道、多形式的宣传活动，增强全社会对食物营养教育的普遍认知，引导居民充分认识创建“国家食物营养教育示范基地”对提高营养健康水平的重要意义。切实加大对基地创建工作的宣传力度，及时总结推广促进改革创新、融合发展的好经验好做法，营造全社会关心、支持和参与创建工作的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>13</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开年扶贫脱贫攻坚年实施情况新闻发布会</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2018-12-27</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2018%2F12%2F27%2Fart_96_14.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_14</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“2018年扶贫脱贫攻坚年实施情况”新闻发布会', '12月19日上午，衡水市政府新闻办就“2018年扶贫脱贫攻坚年实施情况”召开新闻发布会，衡水市扶贫和农业开发办公室新闻发言人、调研员封志勇介绍有关情况并回答记者提问，衡水市委外宣局副局长张洪静主持发布会。全程实录如下：', '2018年是衡水市“扶贫脱贫攻坚年”，今年我市确定的12件民生实事中，第一条就是实施脱贫攻坚战略，提出了全市力争实现农村1.78万贫困人口脱贫，80个贫困村脱贫出列，2个贫困县脱贫摘帽。那么，一年来我市扶贫脱贫工作成效如何呢，今天我们邀请到了衡水市扶贫和农业开发办公室新闻发言人、调研员封志勇。请他就2018年扶贫脱贫攻坚年实施情况进行发布。', '2018年以来，我市深入学习贯彻党的十九大精神和习近平总书记关于扶贫脱贫攻坚的重要论述，坚持以脱贫攻坚统揽经济社会全局，大力开展“扶贫脱贫攻坚年”活动，扎实推进精准扶贫、精准脱贫，共完成25001人脱贫、152个贫困村出列、武强、故城两个贫困县经过市级初审和省级审定(验收检查、第三方评估)达到脱贫退出标准，圆满完成了年度脱贫任务，脱贫攻坚工作取得显著成效。', '(一)脱贫攻坚责任进一步压实。一是坚持市县抓落实的工作机制和脱贫攻坚双组长制，同时对47个领导小组成员单位脱贫攻坚职责进一步明确。二是对市级领导包联工作进行了调整与强化，市级领导每人包联一个县、一个乡镇、一个村、两个贫困户，同时各县市区严格落实包联扶贫制度。三是扎实开展四级书记遍访贫困对象活动，市委书记遍访脱贫攻坚任务较重的8个乡镇，各县市区委书记、乡镇党委书记和村支部书记遍访贫困村和贫困户。四是市县乡村逐级签订脱贫攻坚责任书，层层传导压力，层层压实责任。', '(二)强化工作调度和研究推动。市委市政府对上级出台的政策和决策部署都及时召开会议进行学习研究和安排部署，对工作落实情况召开专题会议加强调度推动。市委市政府每月坚持召开一次专题会议研究脱贫攻坚工作，市领导小组多次召开全体会和专题会进行调度和部署。', '(三)进一步强化督导落实。一是开展全面督导。市领导小组成立五个督导组，对分包县市区脱贫攻坚工作进行常态化全面督导，及时查漏补缺，促进扶贫脱贫工作质量提升。二是进行专项督导。针对产业就业、非贫困县工作提升、三保障政策落实、问题整改等重项工作和薄弱环节多次组织召开专题督导或专题调度会。三是研究出台《衡水市脱贫攻坚工作考核问责办法》，将贫困县、非贫困县和领导小组成员单位全部纳入考核范围，通过考核促进脱贫攻坚工作开展，提高了各县市区和各部门推动脱贫攻坚的工作积极性和主动性。', '(四)进一步浓厚脱贫攻坚氛围。一是加大脱贫攻坚工作宣传力度，在《衡水日报》和衡水新闻网开设“全力打赢脱贫攻坚战”“县市区委书记县长谈扶贫”等栏目加强对脱贫攻坚的宣传报道，为打赢脱贫攻坚战营造了良好的舆论氛围。二是指导各县市区积极开展脱贫攻坚“擂台赛”，县市区各乡镇、各部门争先创优、比学赶超的氛围更加浓厚。三是发挥先进典型示范带动作用，组织开展“幸福衡水·最美扶贫干部”评选活动，引导扶贫干部以先进典型为榜样，积极投身脱贫攻坚。', '1.健康扶贫政策全面落实。在建立“基本医保+大病保险+医疗救助”三重保障的基础上，推进商业补充保险等四重保障，贫困患者就医自付比例下降到10%以内。一是出台了《关于进一步完善农村建档立卡贫困人口门诊慢性病医疗保障救助政策和健康管理的意见》，放宽了高血压、心脑血管疾病、糖尿病和风湿类风湿四种常见慢性病认定标准，每年组织贫困户集中开展一次免费健康体检，对患有慢性病的及时给予认定。二是将贫困人口慢性病治疗救助起付线由1000元降到500元，县域内各级定点医院实行先诊疗后付费、免收住院押金和一站式一票制即时结算。三是扎实开展“三个一批”行动，全市贫困人口家庭医生签约服务实现全覆盖。', '2.扎实做好教育扶贫。制定了《衡水市建档立卡家庭经济困难学生资助实施细则》，推动“两免一补”“三免一助”等教育扶贫政策全面落实，“三免一助”政策共资助建档立卡贫困学生3831名、补助资金575万元。强化义务教育控辍保学联保联控责任，对农村留守儿童和有辍学苗头的学生，采取针对性措施，做好帮扶工作防止学生流失，全市建档立卡贫困家庭无因贫失学辍学学生。', '4.强化民生保障。农村低保年保障标准提高到4239元、月人均补差达到224元，农村特困救助供养年基本生活标准达到5639元。认真落实低保标准动态调整机制，做到应保尽保、应扶尽扶、应退尽退。', '1.扎实推进产业扶贫。成立了衡水市产业就业扶贫工作领导小组，指导各县市区紧紧依托县域经济优势，结合农业供给侧结构性改革，大力调整县域种养结构，通过发展特色种养业直接带动贫困群众增收；积极发挥农业龙头企业和专业合作社的带动作用，通过资产收益方式带动贫困群众增收致富；根据企业生产需求，大力发展订单农业，通过订单收购，价格倾斜等政策带动贫困户增收。在光伏扶贫和资产收益扶贫项目的基础上，注重激发贫困户内生动力，大力发展特色种养、林果、旅游、电商等扶贫产业。全市农村电商超过2.5万个，2018年前三季度全市农村电商零售额达69亿元，6个贫困县网络销售额达16亿元，武邑县农村电商(网店)销售额13.8亿元，位居全省62个贫困县第一位。全市共发展光伏扶贫电站219.18MW，其中集中式电站120MW，村级电站41.7MW，分布式电站57.48MW，共带动28308户贫困户增收。全市评选认定产业扶贫园21个，培树产业扶贫样板村144个，直接带动贫困户的龙头企业和农民合作社分别达到135家和807家。', '2.大力推进就业扶贫。坚持实事求是、注重实际效果，不搞形象工程，坚持有人干活、有活可干的原则，利用闲置校舍、厂房、办公用房等资源，根据贫困村不同条件，宜建则建、宜改则改、宜租则租，引导劳动密集型企业因地制宜建设扶贫车间，优先录用有劳动能力的贫困人口，实现“零距离”就业。全市共开发扶贫车间203个，吸纳贫困劳动力就业662人，开发扶贫专岗安排4514名贫困劳动力就业。武邑京东“跑步鸡”电商扶贫模式、饶阳产业基地扶贫模式被评为我省产业扶贫十大典型模式进行推广。河北日报等多家媒体就我市产业就业扶贫的成功做法进行了专题报道。', '武邑京东“跑步鸡”电商扶贫模式、饶阳产业基地扶贫模式被评为我省产业扶贫十大典型模式进行推广。河北日报等多家媒体就我市产业就业扶贫的成功做法进行了专题报道。', '3.努力推进社会帮扶。一是密切配合中央定点帮扶单位开展帮扶工作。组织四个国定贫困县积极与中央党校、中国农业银行、国家司法部三家中直帮扶单位对接，对三家中直单位开展定点帮扶搞好服务。帮扶单位共投入帮扶款物1.51亿元，帮助引进各类资金2.62亿元。二是做好贫困村贫困户帮扶。突出精准导向，因村派人、因村制宜，针对贫困原因、贫困程度和班子建设等情况，实行“党政部门包难村、经济部门包穷村、政法部门包乱村、涉农部门包弱村”，对任务重、条件苦、难度大的贫困村，全部由市直帮扶部门派驻帮扶单位。今年对全市921个驻村工作队进行了新一轮调整，选派一批政治素质好、工作作风实、综合能力强的干部，增强驻村帮扶力量。同时对所有贫困户按规定落实帮扶责任人13800名。三是引导社会组织积极发挥作用。市委市政府研究制定了《关于加大社会扶贫力度营造浓厚脱贫攻坚氛围的实施意见》，对民营企业、社会组织、社会各界人士参与脱贫攻坚明确具体鼓励措施，组织民营企业266家，投入帮扶资金1.68亿元，帮扶323个贫困村，受益群众2.7万人，其中产业帮扶13336人、就业帮扶686人，全民参与社会扶贫工作的大格局进一步巩固提升。', '4.强化资金投入与监管。2018年全市共投入各级财政专项扶贫资金4.88亿元，其中省以上财政专项扶贫资金3.39亿元，市级投入财政专项扶贫资金3800万元，比2017年增长109.48%。在资金管理方面，各县市区全面落实财政专项扶贫资金支出“四联签”制度，严防扶贫资金使用过程中的“跑冒滴漏”。建立起对财政扶贫资金的经常性监督检查机制，制定了《衡水市扶贫资金监督管理追责办法》，突出绩效管理和责任追究，加强扶贫资金管理，切实提高了资金使用效益，扶贫资金管理使用更加规范。', '为培养一支懂扶贫、会帮扶、作风硬的高素质扶贫干部队伍，深入推进扶贫干部培训工作。一是开展市县乡村四级书记讲扶贫。市委书记王景武同志亲自对专题培训班动员部署，并为首期学员上第一堂课，带头讲扶贫政策和工作方法。二是专家教授讲扶贫。多次邀请国家、省内外领导、专家教授和优秀驻村工作队第一书记等来衡水讲课。三是现场观摩学扶贫。综合运用案例教学、现场教学、体验式教学等实战方式，组织扶贫干部现场考察了阜城县“八统一分”种植模式、枣强县扶贫牛金融扶贫、饶阳县“蔬菜长廊”产业扶贫等成效显著的现场教学点。截至目前全市共培训各级各类扶贫干部103038人，有效提升了全市扶贫干部队伍能力素质。四是开展对口指导。从贫困县抽调业务骨干对非贫困县开展对口业务指导，提升非贫困县干部业务水平。五是举行“擂台赛”，不断锤炼扶贫干部，增强脱贫干部的能力。在9月10日召开的全省脱贫攻坚干部教育培训工作推进座谈会上，我市做了典型发言，扶贫培训工作得到省委组织部、省扶贫办的充分肯定。', '全省脱贫攻坚干部教育培训工作推进座谈会上，我市做了典型发言，扶贫培训工作得到省委组织部、省扶贫办的充分肯定。', '好的，下面进入记者提问环节，如果大家有什么问题可以举手示意。按照惯例，请记者在提问之间先通报所在媒体名称。为让更多的记者获得提问机会，请每位记者每次只提问一个问题。', '(一)衡水广播电台:武强和故城最后两个贫困县顺利退出后，下一步脱贫攻坚工作的重点是什么？', '封志勇：经过今年的努力拼搏和扎实工作，我市的脱贫攻坚工作到2018年底，6个县摘帽，基本完成了任务，有4个县省政府已经宣布摘帽，武强和故城已经完成了省级的审定，贫困县脱贫退出任务基本完成。但是我们的脱贫攻坚任务并没有完成，下一步的工作重点将放在贫困人口的稳定脱贫和可持续发展上。我们将按照上级的要求在脱贫攻坚期内目标不变、靶心不散、频道不换，继续坚持精准扶贫精准脱贫基本方略，紧紧瞄准建档立卡贫困村和贫困人口，严格按照中央的“两不愁三保障”要求，因村因户因人施策，把脱贫质量放在首位，着力激发贫困人口内生动力，夯实贫困人口稳定脱贫基础。为实施乡村振兴战略打下坚实基础，确保我市的贫困村、贫困户、贫困人口与全国全省一道步入全面建成小康社会。谢谢', '(二)河北工人报:随着脱贫攻坚的深入推进，脱贫人口逐渐增多，如何防止脱贫人口返贫？', '封志勇：关于脱贫人口的返贫问题一直是我们关注的问题，一开始我们就注重脱贫人口的巩固提升，对脱贫人口实行脱贫不脱政策、脱贫不脱项目、脱贫不脱帮扶、脱贫不脱监管，对已经脱贫的人口始终在监管着。同时制定了《关于切实做好精准防贫机制建设的实施意见》，对已脱贫但收入不稳定、持续增收能力不强的脱贫户和非建档立卡低保户、低收入边缘户，全部纳入防贫监测范围，引入商业保险运行机制，定期对贫困户进行走访了解，有针对性地进行扶持和救助，通过实施精准防贫措施，有效解决贫困增量和返贫问题。同时指导各县市区从产业就业增收、提升“三保障”水平，在帮扶方面强化政策的落实，促进贫困户有可持续增收项目和政策保障。', '(三)衡水晚报:据了解非贫困县非贫困村脱贫攻坚工作是我市的短板，在解决这个问题方面有什么打算？', '封志勇：市委市政府高度重视非贫困县非贫困村的脱贫攻坚工作，一直关注并采取措施解决非贫困县非贫困村工作短板问题，在今年工作中也采取了高位推动、明责加压、多元投入、综合施策等相应措施，非贫困县脱贫攻坚工作得到很大提升。为进一步推进非贫困县非贫困村脱贫攻坚工作，市委市政府计划在2019年实施非贫困县非贫困村脱贫攻坚工程，通过加大资金支持、推进产业就业、改善基础设施、提高帮扶成效等措施不断提升非贫困县非贫困村脱贫攻坚工作。', '好的，提问环节就到这里。如果媒体有需要深入采访，会后可以与市扶贫农开办联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>13</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>习近平主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-05-16</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F5%2F16%2Fart_46_324837.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_324837</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['衡水市人民政府 今日衡水 习近平主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。新华社记者 王晔 摄', '中共中央总书记、国家主席、中央军委主席习近平14日上午在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。他强调，南水北调工程事关战略全局、事关长远发展、事关人民福祉。进入新发展阶段、贯彻新发展理念、构建新发展格局，形成全国统一大市场和畅通的国内大循环，促进南北方协调发展，需要水资源的有力支撑。要深入分析南水北调工程面临的新形势新任务，完整、准确、全面贯彻新发展理念，按照高质量发展要求，统筹发展和安全，坚持节水优先、空间均衡、系统治理、两手发力的治水思路，遵循确有需要、生态安全、可以持续的重大水利工程论证原则，立足流域整体和水资源空间均衡配置，科学推进工程规划建设，提高水资源集约节约利用水平。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县陶岔渠首枢纽工程察看引水闸运行情况。新华社记者 王晔 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于12日在南阳市考察东汉医学家张仲景的墓祠纪念地医圣祠。新华社记者 王晔 摄', '座谈会上，水利部部长李国英、国家发展改革委主任何立峰、江苏省委书记娄勤俭、河南省委书记王国生、天津市委书记李鸿忠、北京市委书记蔡奇、国务院副总理胡春华先后发言。', '听取大家发言后，习近平发表了重要讲话。他强调，水是生存之本、文明之源。自古以来，我国基本水情一直是夏汛冬枯、北缺南丰，水资源时空分布极不均衡。新中国成立后，我们党领导开展了大规模水利工程建设。党的十八大以来，党中央统筹推进水灾害防治、水资源节约、水生态保护修复、水环境治理，建成了一批跨流域跨区域重大引调水工程。南水北调是跨流域跨区域配置水资源的骨干工程。南水北调东线、中线一期主体工程建成通水以来，已累计调水400多亿立方米，直接受益人口达1.2亿人，在经济社会发展和生态环境保护方面发挥了重要作用。实践证明，党中央关于南水北调工程的决策是完全正确的。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，南水北调等重大工程的实施，使我们积累了实施重大跨流域调水工程的宝贵经验。一是坚持全国一盘棋，局部服从全局，地方服从中央，从中央层面通盘优化资源配置。二是集中力量办大事，从中央层面统一推动，集中保障资金、用地等建设要素，统筹做好移民安置等工作。三是尊重客观规律，科学审慎论证方案，重视生态环境保护，既讲人定胜天，也讲人水和谐。四是规划统筹引领，统筹长江、淮河、黄河、海河四大流域水资源情势，兼顾各有关地区和行业需求。五是重视节水治污，坚持先节水后调水、先治污后通水、先环保后用水。六是精确精准调水，细化制定水量分配方案，加强从水源到用户的精准调度。这些经验，要在后续工程规划建设过程中运用好。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县九重镇邹庄村考察利用南水北调移民村产业发展资金建立起来的丹江绿色果蔬园基地，同村民亲切交流。新华社记者 王晔 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县九重镇邹庄村考察时，同因工程建设搬迁到这里的村民们亲切交流。新华社记者 王晔 摄', '习近平强调，继续科学推进实施调水工程，要在全面加强节水、强化水资源刚性约束的前提下，统筹加强需求和供给管理。一要坚持系统观念，用系统论的思想方法分析问题，处理好开源和节流、存量和增量、时间和空间的关系，做到工程综合效益最大化。二要坚持遵循规律，研判把握水资源长远供求趋势、区域分布、结构特征，科学确定工程规模和总体布局，处理好发展和保护、利用和修复的关系，决不能逾越生态安全的底线。三要坚持节水优先，把节水作为受水区的根本出路，长期深入做好节水工作，根据水资源承载能力优化城市空间布局、产业结构、人口规模。四要坚持经济合理，统筹工程投资和效益，加强多方案比选论证，尽可能减少征地移民数量。五要加强生态环境保护，坚持山水林田湖草沙一体化保护和系统治理，加强长江、黄河等大江大河的水源涵养，加大生态保护力度，加强南水北调工程沿线水资源保护，持续抓好输水沿线区和受水区的污染防治和生态环境保护工作。六要加快构建国家水网，“十四五”时期以全面提升水安全保障能力为目标，以优化水资源配置体系、完善流域防洪减灾体系为重点，统筹存量和增量，加强互联互通，加快构建国家水网主骨架和大动脉，为全面建设社会主义现代化国家提供有力的水安全保障。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县乘船考察丹江口水库。新华社记者 鞠鹏 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县乘船考察丹江口水库。新华社记者 王晔 摄', '习近平指出，《南水北调工程总体规划》已颁布近20年，凝聚了几代人的心血和智慧。同时，这些年我国经济总量、产业结构、城镇化水平等显著提升，我国社会主要矛盾转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾，京津冀协同发展、长江经济带发展、长三角一体化发展、黄河流域生态保护和高质量发展等区域重大战略相继实施，我国北方主要江河特别是黄河来沙量锐减，地下水超采等水生态环境问题动态演变。这些都对加强和优化水资源供给提出了新的要求。要审时度势、科学布局，准确把握东线、中线、西线三条线路的各自特点，加强顶层设计，优化战略安排，统筹指导和推进后续工程建设。要加强组织领导，抓紧做好后续工程规划设计，协调部门、地方和专家意见，开展重大问题研究，创新工程体制机制，以高度的政治责任感和历史使命感做好各项工作，确保拿出来的规划设计方案经得起历史和实践检验。', '韩正在讲话中表示，要认真学习贯彻习近平总书记重要讲话和指示批示精神，深刻认识南水北调工程的重大意义，扎实推进南水北调后续工程高质量发展。要加强生态环境保护，在工程规划、建设和运行全过程都充分体现人与自然和谐共生的理念。要坚持和落实节水优先方针，采取更严格的措施抓好节水工作，坚决避免敞口用水、过度调水。要认真评估《南水北调工程总体规划》实施情况，继续深化后续工程规划和建设方案的比选论证，进一步优化和完善规划。要坚持科学态度，遵循客观规律，扎实做好各项工作。要继续加强东线、中线一期工程的安全管理和调度管理，强化水质监测保护，充分发挥调水能力，着力提升工程效益。', '为开好这次座谈会，13日下午，习近平在河南省委书记王国生和代省长王凯陪同下，深入南阳市淅川县的水利设施、移民新村等，实地了解南水北调中线工程建设管理运行和库区移民安置等情况。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县陶岔渠首枢纽工程考察。新华社记者 鞠鹏 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县陶岔渠首枢纽工程考察。新华社记者 燕雁 摄', '习近平首先来到陶岔渠首枢纽工程，实地察看引水闸运行情况，随后乘船考察丹江口水库，听取有关情况汇报，并察看现场取水水样。习近平强调，南水北调工程是重大战略性基础设施，功在当代，利在千秋。要从守护生命线的政治高度，切实维护南水北调工程安全、供水安全、水质安全。吃水不忘挖井人，要继续加大对库区的支持帮扶。要建立水资源刚性约束制度，严格用水总量控制，统筹生产、生活、生态用水，大力推进农业、工业、城镇等领域节水。要把水源区的生态环境保护工作作为重中之重，划出硬杠杠，坚定不移做好各项工作，守好这一库碧水。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县乘船考察丹江口水库时，察看现场取水水样。新华社记者 王晔 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县乘船考察丹江口水库，听取有关情况汇报。新华社记者 王晔 摄', '位于渠首附近的九重镇邹庄村共有175户750人，2011年6月因南水北调中线工程建设搬迁到这里。习近平走进利用南水北调移民村产业发展资金建立起来的丹江绿色果蔬园基地，实地察看猕猴桃长势，详细了解移民就业、增收情况。听说全村300余人从事果蔬产业，人均月收入2000元以上，习近平十分高兴。他强调，要继续做好移民安置后续帮扶工作，全面推进乡村振兴，种田务农、外出务工、发展新业态一起抓，多措并举畅通增收渠道，确保搬迁群众稳得住、能发展、可致富。随后，习近平步行察看村容村貌，并到移民户邹新曾家中看望，同一家三代围坐在一起聊家常。邹新曾告诉总书记，搬到这里后，除了种庄稼，还在村镇就近打工，住房、医疗、小孩上学也都有保障。习近平指出，人民就是江山，共产党打江山、守江山，守的是人民的心，为的是让人民过上好日子。我们党的百年奋斗史就是为人民谋幸福的历史。要发挥好基层党组织的作用和党员干部的作用，落实好“四议两公开”，完善村级治理，团结带领群众向着共同富裕目标稳步前行。离开村子时，村民们来到路旁同总书记道别。习近平向为南水北调工程付出心血和汗水的建设者和运行管理人员，向为“一泓清水北上”作出无私奉献的移民群众表示衷心的感谢和诚挚的问候。他祝愿乡亲们日子越来越兴旺，芝麻开花节节高。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县九重镇邹庄村，同移民户邹新曾一家三代围坐在一起聊家常。新华社记者 王晔 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县九重镇邹庄村考察时，向村民挥手致意。新华社记者 鞠鹏 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在南阳市淅川县九重镇邹庄村考察时，同因工程建设搬迁到这里的村民们亲切交流。新华社记者 鞠鹏 摄', '习近平十分关心夏粮生产情况，在赴渠首考察途中临时下车，走进一处麦田察看小麦长势。看到丰收在望，习近平指出，夏粮丰收了，全年经济就托底了。保证粮食安全必须把种子牢牢攥在自己手中。要坚持农业科技自立自强，从培育好种子做起，加强良种技术攻关，靠中国种子来保障中国粮食安全。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在考察途中临时下车，走进一处麦田察看小麦长势。新华社记者 王晔 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于13日在考察途中临时下车，走进一处麦田察看小麦长势。新华社记者 鞠鹏 摄', '12日，习近平还在南阳市就经济社会发展进行了调研。他首先来到东汉医学家张仲景的墓祠纪念地医圣祠，了解张仲景生平和对中医药发展的贡献，了解中医药在防治新冠肺炎疫情中发挥的作用，以及中医药传承创新情况。他强调，中医药学包含着中华民族几千年的健康养生理念及其实践经验，是中华民族的伟大创造和中国古代科学的瑰宝。要做好守正创新、传承发展工作，积极推进中医药科研和创新，注重用现代科学解读中医药学原理，推动传统中医药和现代科学相结合、相促进，推动中西医药相互补充、协调发展，为人民群众提供更加优质的健康服务。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于12日在南阳市考察东汉医学家张仲景的墓祠纪念地医圣祠时，同正在参观的学生亲切交流。新华社记者 鞠鹏 摄', '离开医圣祠，习近平来到南阳月季博览园，听取当地月季产业发展和带动群众增收情况介绍，乘车察看博览园风貌。游客们纷纷向总书记问好。习近平指出，地方特色产业发展潜力巨大，要善于挖掘和利用本地优势资源，加强地方优质品种保护，推进产学研有机结合，统筹做好产业、科技、文化这篇大文章。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于12日在南阳月季博览园考察。新华社记者 鞠鹏 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于12日在南阳月季博览园考察。新华社记者 王晔 摄', '随后，习近平来到南阳药益宝艾草制品有限公司，察看生产车间和产品展示，同企业经营者和员工亲切交流。习近平强调，艾草是宝贵的中药材，发展艾草制品既能就地取材，又能就近解决就业。我们一方面要发展技术密集型产业，另一方面也要发展就业容量大的劳动密集型产业，把就业岗位和增值收益更多留给农民。', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于12日在南阳药益宝艾草制品有限公司考察。新华社记者 鞠鹏 摄', '5月14日上午，中共中央总书记、国家主席、中央军委主席习近平在河南省南阳市主持召开推进南水北调后续工程高质量发展座谈会并发表重要讲话。这是座谈会前，习近平于12日在南阳药益宝艾草制品有限公司，同企业经营者和员工亲切交流。新华社记者 鞠鹏 摄', '丁薛祥、胡春华、何立峰等陪同考察并出席座谈会，中央和国家机关有关部门负责同志、有关省市负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>13</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>习近平党的伟大精神永远是党和国家的宝贵精神财富</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F9%2F3%2Fart_47_355920.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_355920</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['实现中国梦必须弘扬中国精神。这就是以爱国主义为核心的民族精神，以改革创新为核心的时代精神。这种精神是凝心聚力的兴国之魂、强国之魂。爱国主义始终是把中华民族坚强团结在一起的精神力量，改革创新始终是鞭策我们在改革开放中与时俱进的精神力量。全国各族人民一定要弘扬伟大的民族精神和时代精神，不断增强团结一心的精神纽带、自强不息的精神动力，永远朝气蓬勃迈向未来。', '我一来到这里就想起了革命战争年代可歌可泣的峥嵘岁月。在沂蒙这片红色土地上，诞生了无数可歌可泣的英雄儿女，沂蒙六姐妹、沂蒙母亲、沂蒙红嫂的事迹十分感人。沂蒙精神与延安精神、井冈山精神、西柏坡精神一样，是党和国家的宝贵精神财富，要不断结合新的时代条件发扬光大。', '焦裕禄同志是人民的好公仆，是县委书记的榜样，也是全党的榜样。亲民爱民、艰苦奋斗、科学求实、迎难而上、无私奉献的焦裕禄精神，过去是、现在是、将来仍然是我们党的宝贵精神财富，永远不会过时。生命有限，很多英雄模范人物崇高精神的形成过程也是有限的，但形成了一种宝贵精神财富，是一个永恒的定格。焦裕禄精神，同井冈山精神、延安精神、雷锋精神、红旗渠精神等都是共存的。任何一个民族都需要有这样的精神构成其强大精神力量，这样的精神无论时代发展到哪一步都不会过时。', '2021年7月1日，庆祝中国共产党成立100周年大会在北京天安门广场隆重举行。中共中央总书记、国家主席、中央军委主席习近平发表重要讲话。新华社记者 鞠鹏/摄', '延安是革命圣地。延安时期是我们党领导的中国革命事业从低潮走向高潮、实现历史性转折的时期。老一辈革命家和老一代共产党人在延安时期留下的优良传统和作风，培育形成的以坚定正确的政治方向、解放思想实事求是的思想路线、全心全意为人民服务的根本宗旨、自力更生艰苦奋斗的创业精神为主要内容的延安精神，是我们党的宝贵精神财富。我在延川生活期间，对延安精神有切身感悟，当年每到一次延安，心里都充满崇敬和激动。这次再到延安，仍让我深受教育。今天，全面从严治党要继续从延安精神中汲取力量。', '遵义会议作为我们党历史上一次具有伟大转折意义的重要会议，在把马克思主义基本原理同中国具体实际相结合、坚持走独立自主道路、坚定正确的政治路线和政策策略、建设坚强成熟的中央领导集体等方面，留下宝贵经验和重要启示。我们要运用好遵义会议历史经验，让遵义会议精神永放光芒。', '井冈山是中国革命的摇篮。井冈山斗争的伟大实践，对中国革命道路的探索和抉择、对中国共产党和人民军队成长具有关键意义。井冈山时期留给我们最为宝贵的财富，就是跨越时空的井冈山精神。井冈山精神，最重要的方面就是坚定信念、艰苦奋斗，实事求是、敢闯新路，依靠群众、勇于胜利。对弘扬井冈山精神，毛泽东同志、邓小平同志、江泽民同志、胡锦涛同志都提出了明确要求。今天，我们要结合新的时代条件，让井冈山精神放射出新的时代光芒。', '加强干部作风建设，黑龙江有不少有利条件，东北抗联精神、北大荒精神、大庆精神、铁人精神激励了几代人。今天，我们仍然要用这些精神来教育广大党员、干部，引导他们发扬优良传统，在全社会带头弘扬新风正气。', '长征这一人类历史上的伟大壮举，留给我们最可宝贵的精神财富，就是中国共产党人和红军将士用生命和热血铸就的伟大长征精神。', '2021年4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 谢环驰/摄', '伟大长征精神，就是把全国人民和中华民族的根本利益看得高于一切，坚定革命的理想和信念，坚信正义事业必然胜利的精神；就是为了救国救民，不怕任何艰难险阻，不惜付出一切牺牲的精神；就是坚持独立自主、实事求是，一切从实际出发的精神；就是顾全大局、严守纪律、紧密团结的精神；就是紧紧依靠人民群众，同人民群众生死相依、患难与共、艰苦奋斗的精神。', '伟大长征精神，是中国共产党人及其领导的人民军队革命风范的生动反映，是中华民族自强不息的民族品格的集中展示，是以爱国主义为核心的民族精神的最高体现。', '人无精神则不立，国无精神则不强。精神是一个民族赖以长久生存的灵魂，唯有精神上达到一定的高度，这个民族才能在历史的洪流中屹立不倒、奋勇向前。伟大长征精神，作为中国共产党人红色基因和精神族谱的重要组成部分，已经深深融入中华民族的血脉和灵魂，成为社会主义核心价值观的丰富滋养，成为鼓舞和激励中国人民不断攻坚克难、从胜利走向胜利的强大精神动力。', '2017年6月21日至23日，中共中央总书记、国家主席、中央军委主席习近平在山西考察。这是6月21日上午，习近平在吕梁市兴县晋绥军区司令部旧址同晋绥边区老战士老同志代表亲切交谈。新华社记者 庞兴雷/摄', '空间实验室飞行任务启动以来，我们坚持自力更生、自主创新，突破了一大批核心和关键技术，首次实现我国航天员中期在轨驻留，为建设航天强国奠定了坚实基础。我们尊重和积极调动广大航天科技工作者的创造精神，锻炼和培养了一支能够站在世界航天科技前沿、勇于开拓创新的高素质人才队伍特别是青年才俊。我们注重传承优良传统，发扬特别能吃苦、特别能战斗、特别能攻关、特别能奉献的载人航天精神，彰显了坚定的中国特色社会主义道路自信、理论自信、制度自信、文化自信，为坚持和发展中国特色社会主义增添了强大精神力量。', '（2016年12月20日在会见天宫二号和神舟十一号载人飞行任务航天员及参研参试人员代表时的讲话）', '来到这里深受感动、深受教育。我们党的每一段革命历史，都是一部理想信念的生动教材。全党同志一定要不忘初心、继续前进，永远铭记为民族独立、人民解放抛头颅洒热血的革命先辈，永远保持中国共产党人的奋斗精神，永远保持对人民的赤子之心，努力为人民创造更美好、更幸福的生活。', '55年来，河北塞罕坝林场的建设者们听从党的召唤，在“黄沙遮天日，飞鸟无栖树”的荒漠沙地上艰苦奋斗、甘于奉献，创造了荒原变林海的人间奇迹，用实际行动诠释了绿水青山就是金山银山的理念，铸就了牢记使命、艰苦创业、绿色发展的塞罕坝精神。他们的事迹感人至深，是推进生态文明建设的一个生动范例。', '从纪念馆奠基那一刻起，我就一直想着落成后要来看一看，今天如愿以偿了，确实深受教育和鼓舞。在浙江工作期间，我曾经把“红船精神”概括为开天辟地、敢为人先的首创精神，坚定理想、百折不挠的奋斗精神，立党为公、忠诚为民的奉献精神。我们要结合时代特点大力弘扬“红船精神”。', '王杰“在荣誉上不伸手，在待遇上不伸手，在物质上不伸手”，这“三不伸手”是一面镜子，共产党员都要好好照照这面镜子。一不怕苦、二不怕死是血性胆魄的生动写照，要成为革命军人的座右铭。王杰精神过去是、现在是、将来永远是我们的宝贵精神财富，要学习践行王杰精神，让王杰精神绽放新的时代光芒。', '2021年8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是23日下午，习近平在塞罕坝机械林场尚海纪念林考察时，同林场职工代表亲切交流。新华社记者 李学仁/摄', '经济特区要成为改革开放的试验平台。创办经济特区是我国改革开放的重要方法论，是经过实践检验推进改革开放行之有效的办法。先行先试是经济特区的一项重要职责，目的是探索改革开放的实现路径和实现形式，为全国改革开放探路开路。只有敢于走别人没有走过的路，才能收获别样的风景。经济特区要勇于扛起历史责任，适应国内外形势新变化，按照国家发展新要求，顺应人民新期待，发扬敢闯敢试、敢为人先、埋头苦干的特区精神，始终站在改革开放最前沿，在各方面体制机制改革方面先行先试、大胆探索，为全国提供更多可复制可推广的经验。', '雷锋是时代的楷模，雷锋精神是永恒的。实现中华民族伟大复兴，需要更多时代楷模。我们既要学习雷锋的精神，也要学习雷锋的做法，把崇高理想信念和道德品质追求转化为具体行动，体现在平凡的工作生活中，作出自己应有的贡献，把雷锋精神代代传承下去。', '（2018年9月25日至28日在东北三省考察并主持召开深入推进东北振兴座谈会时的讲话）', '重庆是一块英雄的土地，有着光荣的革命传统。毛泽东同志在这里进行了决定中国前途命运的重庆谈判，周恩来同志领导中共中央南方局在这里同反动势力展开了坚决斗争，邓小平同志在这里领导中共中央西南局进行了大量开创性工作。重庆涌现了大批大义凛然、高风亮节的共产党人，如信仰坚定、不怕牺牲的赵世炎等人，英勇善战、屡建功绩的王良等人，坚贞不屈、永不叛党的江竹筠、王朴、陈然等人，严守纪律、勇于牺牲的战斗英雄邱少云，等等。解放战争时期，众多被关押在渣滓洞、白公馆的中国共产党人，经受住种种酷刑折磨，不折不挠、宁死不屈，为中国人民解放事业献出了宝贵生命，凝结成“红岩精神”。重庆要运用这些红色资源，教育引导广大党员、干部坚定理想信仰，养成浩然正气，增强“四个意识”、坚定“四个自信”、做到“两个维护”，始终在政治立场、政治方向、政治原则、政治道路上同党中央保持高度一致。', '五四运动以全民族的力量高举起爱国主义的伟大旗帜。五四运动，孕育了以爱国、进步、民主、科学为主要内容的伟大五四精神，其核心是爱国主义精神。爱国主义是我们民族精神的核心，是中华民族团结奋斗、自强不息的精神纽带。五四运动时，面对国家和民族生死存亡，一批爱国青年挺身而出，全国民众奋起抗争，誓言“国土不可断送、人民不可低头”，奏响了浩气长存的爱国主义壮歌。', '历史深刻表明，爱国主义自古以来就流淌在中华民族血脉之中，去不掉，打不破，灭不了，是中国人民和中华民族维护民族独立和民族尊严的强大精神动力，只要高举爱国主义的伟大旗帜，中国人民和中华民族就能在改造中国、改造世界的拼搏中迸发出排山倒海的历史伟力！', '井冈山精神和苏区精神，承载着中国共产党人的初心和使命，铸就了中国共产党的伟大革命精神。这些伟大革命精神跨越时空、永不过时，是砥砺我们不忘初心、牢记使命的不竭精神动力。', '新中国是无数革命先烈用鲜血和生命铸就的。要深刻认识红色政权来之不易，新中国来之不易，中国特色社会主义来之不易。西路军不畏艰险、浴血奋战的英雄主义气概，为党为人民英勇献身的精神，同长征精神一脉相承，是中国共产党人红色基因和中华民族宝贵精神财富的重要组成部分。我们要讲好党的故事，讲好红军的故事，讲好西路军的故事，把红色基因传承好。', '60年前，党中央作出石油勘探战略东移的重大决策，广大石油、地质工作者历尽艰辛发现大庆油田，翻开了中国石油开发史上具有历史转折意义的一页。60年来，几代大庆人艰苦创业、接力奋斗，在亘古荒原上建成我国最大的石油生产基地。大庆油田的卓越贡献已经镌刻在伟大祖国的历史丰碑上，大庆精神、铁人精神已经成为中华民族伟大精神的重要组成部分。', '党中央在延安13年，形成了伟大的延安精神。延安精神培育了一代代中国共产党人，是我们党的宝贵精神财富。要坚持不懈用延安精神教育广大党员、干部，用以滋养初心、淬炼灵魂，从中汲取信仰的力量、查找党性的差距、校准前进的方向。', '2021年6月23日，中共中央总书记、国家主席、中央军委主席习近平来到北京航天飞行控制中心，同正在天和核心舱执行任务的神舟十二号航天员聂海胜、刘伯明、汤洪波亲切通话。新华社记者 鞠鹏（左图）、岳月伟（右图）/摄（拼版照片）', '要用延安精神净化政治生态。政治生态好，干部队伍就会风清气正、心齐气顺，社会风气就会积极向上、充满正能量。政治生态不好，各种歪风邪气就会冒出来。毛主席当年概括了延安的“十个没有”。“延安作风”和“西安作风”的巨大反差让许多民主人士感叹：“中国的希望在延安”。', '“西迁精神”的核心是爱国主义，精髓是听党指挥跟党走，与党和国家、与民族和人民同呼吸、共命运，具有深刻现实意义和历史意义。要坚持党对高校工作的全面领导，坚持立德树人，建设高素质教师队伍，努力培养更多一流人才。', '50年前，“东方红一号”卫星发射成功，我在陕北梁家河听到这一消息十分激动。当年，你们发愤图强、埋头苦干，创造了令全国各族人民自豪的非凡成就，彰显了中华民族自强不息的伟大精神。老一代航天人的功勋已经牢牢铭刻在新中国史册上。不管条件如何变化，自力更生、艰苦奋斗的志气不能丢。新时代的航天工作者要以老一代航天人为榜样，大力弘扬“两弹一星”精神，敢于战胜一切艰难险阻，勇于攀登航天科技高峰，让中国人探索太空的脚步迈得更稳更远，早日实现建设航天强国的伟大梦想。', '山西也是具有光荣革命传统的地方，是八路军总部所在地，是抗日战争主战场之一，建立了晋绥、晋察冀、晋冀鲁豫抗日根据地，平型关大捷、百团大战等闻名中外，太行精神、吕梁精神是我们党宝贵的精神财富。这些都要充分挖掘和利用，以丰富多彩的历史文化、红色文化资源为山西发展提供精神力量。', '中国人民在抗日战争的壮阔进程中孕育出伟大抗战精神，向世界展示了天下兴亡、匹夫有责的爱国情怀，视死如归、宁死不屈的民族气节，不畏强暴、血战到底的英雄气概，百折不挠、坚忍不拔的必胜信念。伟大抗战精神，是中国人民弥足珍贵的精神财富，将永远激励中国人民克服一切艰难险阻、为实现中华民族伟大复兴而奋斗。', '（2020年9月3日在纪念中国人民抗日战争暨世界反法西斯战争胜利75周年座谈会上的讲话）', '在这场同严重疫情的殊死较量中，中国人民和中华民族以敢于斗争、敢于胜利的大无畏气概，铸就了生命至上、举国同心、舍生忘死、尊重科学、命运与共的伟大抗疫精神。', '人无精神则不立，国无精神则不强。唯有精神上站得住、站得稳，一个民族才能在历史洪流中屹立不倒、挺立潮头。同困难作斗争，是物质的角力，也是精神的对垒。伟大抗疫精神，同中华民族长期形成的特质禀赋和文化基因一脉相承，是爱国主义、集体主义、社会主义精神的传承和发展，是中国精神的生动诠释，丰富了民族精神和时代精神的内涵。我们要在全社会大力弘扬伟大抗疫精神，使之转化为全面建设社会主义现代化国家、实现中华民族伟大复兴的强大力量。', '2020年3月10日，中共中央总书记、国家主席、中央军委主席习近平专门赴湖北省武汉市考察新冠肺炎疫情防控工作。这是习近平在东湖新城社区考察时，向在家隔离居住的居民挥手致意、表示慰问。新华社记者 谢环驰/摄', '科学成就离不开精神支撑。科学家精神是科技工作者在长期科学实践中积累的宝贵精神财富。新中国成立以来，广大科技工作者在祖国大地上树立起一座座科技创新的丰碑，也铸就了独特的精神气质。去年5月，党中央专门出台了《关于进一步弘扬科学家精神加强作风和学风建设的意见》，要求大力弘扬胸怀祖国、服务人民的爱国精神，勇攀高峰、敢为人先的创新精神，追求真理、严谨治学的求实精神，淡泊名利、潜心研究的奉献精神，集智攻关、团结协作的协同精神，甘为人梯、奖掖后学的育人精神。广大科技工作者要肩负起历史赋予的科技创新重任。', '2021年2月3日至5日，中共中央总书记、国家主席、中央军委主席习近平来到贵州考察调研，看望慰问各族干部群众，向全国各族人民致以美好的新春祝福。这是5日上午，习近平亲切会见“中国天眼”项目负责人和科研骨干，听取“中国天眼”建设历程、技术创新、国际合作等情况介绍。新华社记者 谢环驰/摄', '在波澜壮阔的抗美援朝战争中，英雄的中国人民志愿军始终发扬祖国和人民利益高于一切、为了祖国和民族的尊严而奋不顾身的爱国主义精神，英勇顽强、舍生忘死的革命英雄主义精神，不畏艰难困苦、始终保持高昂士气的革命乐观主义精神，为完成祖国和人民赋予的使命、慷慨奉献自己一切的革命忠诚精神，为了人类和平与正义事业而奋斗的国际主义精神，锻造了伟大抗美援朝精神。', '（2020年10月23日在纪念中国人民志愿军抗美援朝出国作战70周年大会上的讲话）', '大力弘扬劳模精神、劳动精神、工匠精神。“不惰者，众善之师也。”在长期实践中，我们培育形成了爱岗敬业、争创一流、艰苦奋斗、勇于创新、淡泊名利、甘于奉献的劳模精神，崇尚劳动、热爱劳动、辛勤劳动、诚实劳动的劳动精神，执着专注、精益求精、一丝不苟、追求卓越的工匠精神。劳模精神、劳动精神、工匠精神是以爱国主义为核心的民族精神和以改革创新为核心的时代精神的生动体现，是鼓舞全党全国各族人民风雨无阻、勇敢前进的强大精神动力。', '“人生天地间，长路有险夷。”世界上没有哪个党像我们这样，遭遇过如此多的艰难险阻，经历过如此多的生死考验，付出过如此多的惨烈牺牲。一百年来，在应对各种困难挑战中，我们党锤炼了不畏强敌、不惧风险、敢于斗争、勇于胜利的风骨和品质。这是我们党最鲜明的特质和特点。在一百年的非凡奋斗历程中，一代又一代中国共产党人顽强拼搏、不懈奋斗，涌现了一大批视死如归的革命烈士、一大批顽强奋斗的英雄人物、一大批忘我奉献的先进模范，形成了井冈山精神、长征精神、遵义会议精神、延安精神、西柏坡精神、红岩精神、抗美援朝精神、“两弹一星”精神、特区精神、抗洪精神、抗震救灾精神、抗疫精神等伟大精神，构筑起了中国共产党人的精神谱系。我们党之所以历经百年而风华正茂、饱经磨难而生生不息，就是凭着那么一股革命加拼命的强大精神。', '这些宝贵精神财富跨越时空、历久弥新，集中体现了党的坚定信念、根本宗旨、优良作风，凝聚着中国共产党人艰苦奋斗、牺牲奉献、开拓进取的伟大品格，深深融入我们党、国家、民族、人民的血脉之中，为我们立党兴党强党提供了丰厚滋养。', '嫦娥五号任务的圆满成功，标志着探月工程“绕、落、回”三步走规划圆满收官，是发挥新型举国体制优势攻坚克难取得的又一重大成就，是航天强国建设征程中的重要里程碑，对我国航天事业发展具有十分重要的意义。17年来，参与探月工程研制建设的全体人员大力弘扬追逐梦想、勇于探索、协同攻坚、合作共赢的探月精神，不断攀登新的科技高峰，可喜可贺、令人欣慰。探索浩瀚宇宙是人类的共同梦想，要推动实施好探月工程四期，一步一个脚印开启星际探测新征程。要继续发挥新型举国体制优势，加大自主创新工作力度，统筹谋划，再接再厉，推动中国航天空间科学、空间技术、空间应用创新发展，积极开展国际合作，为增进人类福祉作出新的更大贡献。', '（2021年2月22日在会见探月工程嫦娥五号任务参研参试人员代表并参观月球样品和探月工程成果展览时的讲话）', '伟大事业孕育伟大精神，伟大精神引领伟大事业。脱贫攻坚伟大斗争，锻造形成了“上下同心、尽锐出战、精准务实、开拓创新、攻坚克难、不负人民”的脱贫攻坚精神。脱贫攻坚精神，是中国共产党性质宗旨、中国人民意志品质、中华民族精神的生动写照，是爱国主义、集体主义、社会主义思想的集中体现，是中国精神、中国价值、中国力量的充分彰显，赓续传承了伟大民族精神和时代精神。全党全国全社会都要大力弘扬脱贫攻坚精神，团结一心，英勇奋斗，坚决战胜前进道路上的一切困难和风险，不断夺取坚持和发展中国特色社会主义新的更大的胜利！', '党的伟大精神和光荣传统是我们的宝贵精神财富，是激励我们奋勇前进的强大精神动力。当今中国正处于实现中华民族伟大复兴关键时期，国家强盛、民族复兴需要物质文明的积累，更需要精神文明的升华，决不能丢掉革命加拼命的精神，决不能丢掉谦虚谨慎、戒骄戒躁、艰苦奋斗、勤俭节约的传统，决不能丢掉不畏强敌、不惧风险、敢于斗争、敢于胜利的勇气。全党同志要用党在百年奋斗中形成的伟大精神滋养自己、激励自己，以昂扬的精神状态做好党和国家各项工作。', '今天受到表彰的“七一勋章”获得者，就是各条战线党员中的杰出代表。在他们身上，生动体现了中国共产党人坚定信念、践行宗旨、拼搏奉献、廉洁奉公的高尚品质和崇高精神。', '——坚定信念，就是坚持不忘初心、不移其志，以坚忍执着的理想信念，以对党和人民的赤胆忠心，把对党和人民的忠诚和热爱牢记在心目中、落实在行动上，为党和人民事业奉献自己的一切乃至宝贵生命，为党的理想信念顽强奋斗、不懈奋斗。', '2020年8月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在安徽省考察。这是19日上午，习近平在马鞍山市中国宝武马钢集团，同企业劳动模范、工人代表亲切交流。新华社记者 鞠鹏/摄', '心中有信仰，脚下有力量。全党同志都要把对马克思主义的信仰、对中国特色社会主义的信念作为毕生追求，永远信党爱党为党，在各自岗位上顽强拼搏，不断把为崇高理想奋斗的实践推向前进。', '——践行宗旨，就是对人民饱含深情，心中装着人民，工作为了人民，想群众之所想，急群众之所急，解群众之所难，密切联系群众，坚定依靠群众，一心一意为百姓造福，以为民造福的实际行动诠释了共产党人“我将无我、不负人民”的崇高情怀。', '江山就是人民，人民就是江山。全党同志都要坚持人民立场、人民至上，坚持不懈为群众办实事做好事，始终保持同人民群众的血肉联系。', '——拼搏奉献，就是把许党报国、履职尽责作为人生目标，不畏艰险、敢于牺牲，苦干实干、不屈不挠，充分展示了共产党人无私无畏的奉献精神和坚忍不拔的斗争精神。', '越是伟大的事业，越是充满挑战，越需要知重负重。全党同志都要保持“越是艰险越向前”的英雄气概，保持“敢教日月换新天”的昂扬斗志，埋头苦干、攻坚克难，努力创造无愧于党、无愧于人民、无愧于时代的业绩。', '——廉洁奉公，就是保持共产党人艰苦朴素、公而忘私的光荣传统，从不以功臣自居，不计较个人得失，不贪图享受，守纪律、讲规矩，生动体现了共产党人应有的道德风范。', '共产党人拥有人格力量，才能赢得民心。全党同志都要明大德、守公德、严私德，清清白白做人、干干净净做事，做到克己奉公、以俭修身，永葆清正廉洁的政治本色。', '“七一勋章”获得者都来自人民、植根人民，是立足本职、默默奉献的平凡英雄。他们的事迹可学可做，他们的精神可追可及。他们用行动证明，只要坚定理想信念、坚定奋斗意志、坚定恒心韧劲，平常时候看得出来、关键时刻站得出来、危难关头豁得出来，每名党员都能够在民族复兴的伟业中为党和人民建功立业！', '一百年前，中国共产党的先驱们创建了中国共产党，形成了坚持真理、坚守理想，践行初心、担当使命，不怕牺牲、英勇斗争，对党忠诚、不负人民的伟大建党精神，这是中国共产党的精神之源。', '一百年来，中国共产党弘扬伟大建党精神，在长期奋斗中构建起中国共产党人的精神谱系，锤炼出鲜明的政治品格。历史川流不息，精神代代相传。我们要继续弘扬光荣传统、赓续红色血脉，永远把伟大建党精神继承下去、发扬光大！', '※这是习近平总书记2013年3月至2021年7月期间讲话、指示、信函中有关党的伟大精神内容的节录。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>13</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>关于印发衡水市就业见习管理办法暂行的通知</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-07-02</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2019%2F7%2F2%2Fart_9296_197777.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_9296_197777</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['各县市区人力资源和社会保障局： 现将《衡水市就业见习管理办法（暂行）》印发给你们，请认真贯彻执行。', '我单位自愿承担衡水市就业见习任务，承诺如下： 1、提供 个见习岗位，见习期限为 个月。 2、向见习人员提供不低于 元（本地最低工资标准）的生活补助（申请财政补助 元，本单位自筹 元），并按月发放。 3、按照见习人员数量、岗位等情况，匹配相应的见习指导人员，认真做好见习人员岗前培训和安全生产教育等工作，帮助其解决工作、生活中遇到的困难和问题，努力提高生活质量。 4、见习期间为见习人员办理人身意外伤害保险（含意外伤害医疗责任险）。 5、见习期满，对考核合格的见习人员，留用率达到 %以上，并与留用人员签订劳动合同，办理社会保险。', '甲 方：衡水市人力资源和社会保障局 乙 方： 为进一步规范高校毕业生及失业青年就业见习管理，拓展毕业生就业渠道，促进高校毕业生及失业青年就业，根据《衡水市就业见习管理办法（暂行）》（衡人社规 [2019]1号）精神，经考察，乙方符合承担就业见习任务条件，同意乙方为衡水市就业见习单位，甲乙双方就就业见习活动有关事宜，达成如下协议： 一、协议期限： 本协议期限为 个月， 自 年 月 日起，至 年 月 日止。 二、甲方权利与义务： 1、审核认定承担就业见习任务单位； 2、负责对就业见习单位进行政策指导，征集见习单位的意见和建议，为乙方提供相关服务支持； 3、审核就业见习补助申请； 4、对见习单位实行考核评估，包括：见习单位规章制度建设、见习计划制定落实、岗位设置、见习条件、指导人员配备、见习协议的执行、见习效果、职业安全卫生和见习补助发放等相关情况。对优秀的见习单位进行表彰，对虚报冒领见习补助资金、克扣见习人员生活补贴、变相收取见习人员见习费用的，除追回补助资金外，将取消其就业见习单位资格，对以上违法违规行为的责任人，将视情节轻重，追究其相应责任。 三、乙方权利与义务： 1、与见习人员签订《衡水市就业见习协议书》，非本人原因见习单位不得随意解除与见习人员的见习关系，由于见习人员落实就业单位或特殊原因终止见习的，见习单位应及时告知甲方； 2、负责制定见习计划并组织实施，为就业见习人员提供技术含量高、专业性强的见习岗位，明确对就业见习人员的具体要求，指定见习指导人员专门管理见习工作； 3、负责就业见习人员的岗位培训、安全生产教育及日常考核等，为见习人员办理人身意外伤害保险，提供符合国家规定的劳动保护和职业防护设施； 4、根据见习管理办法的相关规定按时申报见习人员信息资料、人员增减变化表等；按时申请见习补助，及时为见习人员足额发放见习补助。 本协议一式两份，甲乙双方各一份。', '甲方（见习单位）：_______________________________ 乙方（见习人员）：_______________________________ 为帮助乙方提升职业技能和增强就业竞争力，根据《衡水市就业见习管理办法（暂行）》等有关规定，甲乙双方在平等自愿、协商一致的基础上，就乙方在甲方就业见习有关事项签订协议如下： 一、甲方同意接收乙方为见习人员，见习岗位为_________，见习期限为____个月，自____年____月____日至___年____月____日，见习补助标准为 元/月。 二、甲方的权利、义务 （一）按照《衡水市就业见习管理办法（暂行）》的要求，制定见习方案，确定指导老师，在就业见习期间为乙方提供良好的学习、工作、生活条件，保障乙方的人身安全，通过就业见习培训切实提高乙方的职业技能； （二）加强对乙方的思想政治教育，引导其树立正确的人生观、价值观、就业观； （三）负责对乙方见习期间的考勤管理和考核工作； （四）见习期内甲方原则上不得变更乙方的见习岗位，如因特殊情况需要变更的，应由甲、乙双方协商后以书面形式确定； （五）乙方见习合格后，甲方应协助安排、推荐就业； （六）见习期内乙方有下列情形之一的，经就业见习负责科室审批同意后，甲方可与乙方中止见习协议： 1. 无故旷工连续3天或累计旷工5天以上的； 2.严重违反甲方有关规章制度，不遵守见习纪律且教育无效的； 3.有主观重大过失给甲方造成严重损失的。 三、乙方的权利、义务 （一）严格遵守《衡水市就业见习管理办法（暂行）》和甲方有关规章制度； （二）服从甲方的管理，主动接受指导老师的见习指导与培训，努力提高自身的职业技能； （三）完成见习后经用人单位考核合格，可获得用人单位优先聘（录）用资格； （四）见习期间，乙方应保护甲方的商业秘密和知识产权； （五）见习期间，乙方因病或已落实工作等原因不能在甲方继续从事见习的，本人提出书面申请并出具相关证明，经与甲方协商，并报就业见习负责科室审批同意后可以中止见习协议，不再享受见习人员待遇； （六）见习期间，甲方违反有关法律和规章制度，对乙方造成严重伤害的，乙方有权报请所在地公共就业服务机构协调处理，情形严重的，可报请就业见习负责科室批准，中止见习协议。 四、本协议未尽事宜，由甲乙双方协商解决。 五、本协议一式三份，甲乙双方各执一份，公共就业服务机构留存一份。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>13</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开政府陪行长走产业支持企业复工复产新闻发布会</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2020-06-15</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2020%2F6%2F15%2Fart_96_37.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_37</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“‘政府陪行长走产业’支持企业复工复产”新闻发布会', '6月10日上午，衡水市政府新闻办就“‘政府陪行长走产业’支持企业复工复产”召开新闻发布会，衡水市地方金融监督管理局新闻发言人、党组成员、副局长谷学涛介绍有关情况并回答记者提问。中共衡水市委宣传部信志锋主持发布会。全程实录如下：', '疫情防控阻击战打响以来，以及在常态化疫情防控形势下，衡水市积极利用政银企对接机制,不断推动“政府陪行长走企业”活动向纵深发展，为全面复工复产和全市经济社会发展提供了有力支撑。今天，我们有幸邀请到了衡水市地方金融监督管理局新闻发言人、党组成员、副局长谷学涛就此情况进行发布。', '参加本场新闻发布会的媒体有：衡水日报、衡水晚报、衡水新闻网、衡水电台、衡水电视台、衡水广播电视台融媒体中心等市直媒体；中国衡水、衡水发布等市政新媒体；河北日报、河北广播电视台、长城新媒体，及河北工人报、河北法制报、河工新闻网、河北新闻网、河北共产党员网；中国新闻社、中国经济网、中国网、网易衡水等驻衡在衡媒体。', '金融活，则经济活。今年以来特别是疫情以来，我局坚决贯彻落实党中央和省、市委决策部署，立足疫情防控，围绕复工复产需要，坚持“特事特办、急事急办”，提高政治站位，扛起复工复产责任，用活用足政策，巧引金融活水、润泽实体经济，千方百计助力企业复工复产，取得了良好成效。', '一、切实加大宣传力度，加强工作谋划督导，全力推动金融机构加大信贷投放支持企业复工复产', '截至目前，全市银行业金融机构先后为7652家复工复产企业提供信贷支持356.88亿元，其中新增贷款127.75亿元、存量贷款续贷178.96亿元。在保重点方面，共为疫情防控相关的生产、医疗、运输、销售等98家企业提供信贷支持297笔，发放贷款7.62亿元。如农行衡水分行先后为河北冀衡药业有限公司发放贷款1400万元；为河北冀衡化学股份有限公司新增授信2500万元。同时，还为5414家普惠型小微企业提供授信86.91亿元，发放贷款77.43亿元。邮储银行衡水分行主动对接“三农”企业，通过线上“极速贷”、“E捷贷”等，为383家企业发放贷款7268.4万元。在降低利率方面，全市各银行在原有利率水平基础上分别下调了10—100个基点,目前共为2148家企业减少利息7893.57万元。农行衡水分行将饶阳县人民医院利率由4.98%降至3.55%，河北冀衡药业有限公司利率由4.79%降至3.65%。在减费让利方面，全市各银行金融机构通过免除企业评估、抵押等相关费用、降低承兑汇票手续费等手段，累计减免手续费145.17万元。如交通银行衡水分行通过降低敞口费、免收手续费等方式减免72.07万元；民生银行衡水分行通过减免应收账款管理费方式为企业减免收费5.8万元。在疏通堵点方面，按照特事特办、急事急办的原则，对5044家企业办理续贷178.96亿元。同时通过合理使用展期、延后还息等方式，为476家企业解决纾困资金67.01亿元。', '主要做法：一是坚决把政策规定宣传好。我局在疫情防控的特殊时期，为将中央、省、市围绕应对疫情防控和推动复工复产做出的一系列决策部署宣传好、贯彻好、落实好。将中央、省、市抗击新冠疫情支持实体经济发展金融政策及衡水市金融机构创新型金融产品进行汇编，辑印2000余册，由市疫情防控指挥部企业帮扶组成员单位送政策、金融产品到对口帮扶的县市区企业，帮助企业提高金融惠企政策知晓率和对接精准性，确保金融支持企业复工复产取得更大成效。二是坚持把工作措施谋划好。我局联合人行衡水中心支行、衡水银保监分局对全市复工复产情况进行深入细致的调研，制定出台了《关于有效应对疫情冲击全力支持企业复工复产的金融支持措施》，从加大对重点领域企业信贷支持力度、保持信贷资金稳定、降低企业融资成本、开辟金融服务绿色通道、发挥金融机构线上金融服务优势、充分发挥地方金融机构支持作用、加强金融消费者权益保护等七个方面为对冲疫情影响支持企业复工复产提供政策保障。要求各银行机构对有发展前景但受疫情影响暂时遇到困难的企业，不抽贷、不断贷、不压贷，通过展期或者续贷，适当下调贷款利率等方式，支持企业共渡难关。同时，还在全市筛选了788家规上企业、19家防疫物资生产企业、123 家外贸出口重点企业、154个省市重点项目，作为重点政银企对接和金融帮扶对象，通过重点帮扶，实现整体推进，确保全市复工复产整体成效。三是着力把推进机制构建好。围绕企业复工复产，我局先后建立了帮扶台账、领导包联、定期报告、帮扶信息反馈等推进机制和保障措施。另外，为保持、巩固和发展好全市企业复工复产的良好势头，我局组织各专业银行，在全市建立了“金融顾问”制度，会同企业帮扶组，包联县市区企业，重点宣传银行金融政策，找准企业融资症结，帮助企业解决资金问题。', '二、创新开展“政府陪行长走产业”活动，将过去对单个企业的金融支持转变为对辖内产业集群的集中支持，实现从“独奏曲”向“交响乐”的演变', '主要做法：一是高度重视、全面部署，严格走访要求。“政府陪行长走产业”是今年政府工作报告明确要求重点推进的一项重要活动，我们严格按照“县长+行长+厂长”的走访模式，各县市区明确了主要领导、分管副职陪同走访工作责任，主动谋划并积极配合协助各金融机构进行走访；各银行业金融机构由单位负责同志亲自带队走访，并加强与属地政府的沟通对接，强化共同走访，确保名单企业全部按要求走访到位。二是分类施策、统筹推进，聚焦精准对接。确定走访企业名单，制定走访计划。各县市区政府在“3+2”主导产业和“9+5”县域特色产业集群龙头骨干企业基础上筛选各产业小微企业，确定各产业走访名单， “政府陪行长走企业”活动办公室及时将“政府陪行长走产业”名单向各金融机构发布，各金融机构制定走访计划，积极开展走访对接。集中走访和单独走访相结合。在各金融机构分别走访的同时，逐县市区组织“政府陪行长走产业”活动推进会，开展特色产业集群企业集中走访，发现和解决特色产业集群企业融资贷款方面的共性问题。积极推动各金融机构针对特色产业创新金融产品，实现资金需求与信贷投放目标有效衔接，为我市振兴产业提供高适配性的金融服务。比如，建行推出了纯线上信用类“小微快贷”系列产品，包括“账户云贷”“结算云贷”“云税贷”“云电贷”“商户云贷”“收单云贷”“地押云贷”“云义贷”等。特别是以农村土地经营权为抵押的“地押云贷”上线推广后，切实解决了农业产业化过程中家庭农场等经营主体无抵押物、或抵押办理难的问题。近期，“地押云贷”将在全市陆续上线，为更多的新型农业经营主体提供资金支持，我市将成为全省第一家“地押云贷”全覆盖的城市。三是多方联动、汇聚合力，确保走访成效。形成了常态化“政府陪行长走产业”工作机制。同时，严格督导考核走访对接成果，重点关注各金融机构实际放款户数和放款额度，确保走访活动取得实效。', '三、“线上+线下”，多层次、多批次精准开展政银企对接活动，利用“大数据”、“区块链”等技术，加快建设全市金融信用信息平台', '今年以来，我局通过“线上+线下”的模式，共组织5次政银企对接活动，累计推动264家企业与各银行达成贷款意向95.62亿元，有力支持了我市企业的发展需求。', '主要做法：一方面，多层次多批次开展形式灵活的政银企对接活动。3月18日，我局带领多家银行赴深州开展现场政银企精准实地对接，现场促成3家银行分别与3家企业达成共计约6000万的贷款意向；3月20日，组织举办我市首场线上银企对接会，7家商业银行与17家有融资需求的企业通过钉钉APP视频进行云对接，达成5.5亿元的融资合作意向；3月29日，王景武书记亲自带队赴海伟集团进行调研，要求有关银行加大对海伟集团的金融支持力度，帮助企业共渡难关。通过积极努力，各银行达成了拟为海伟集团增加7亿元授信的意向；5月22日，组织20余家金融机构助力“衡水市民营企业赶大集”活动，现场各金融机构与70余家民营企业达成5.8亿元融资合作意向；下一步，我局准备于6月12日举办全市银企“云推介”视频会，将全市拟融资企业与银行进行线上视频对接。目前已有173家企业与金融机构达成融资意向76.72亿元。', '另一方面，谋划建设“衡水市金融信用信息服务平台”。为进一步健全优化金融机构与实体企业信息对接机制，缓解中小微企业融资难题，防范区域性和系统性金融风险，强化金融服务实体经济能力，打造良好区域信用环境。我局按照市委市政府的整体安排，正在筹建“衡水市金融信用信息综合服务平台”，通过区块链大数据技术建设“一库两平台”，即：企业全息数据库、智能融资撮合交易平台和大数据企业信用分析平台。金融信用信息服务平台具有四大核心功能：一是银企撮合功能。线上发布企业融资需求、金融机构创新产品等信息，实现企业与金融机构双向选择、自主对接。二是“企业画像”功能。整合归集各有关部门涉企信息，通过大数据技术捕捉企业经营和社会活动行为信息，采取多维度数据分析模型进行模块化统计、分析，自动生成“企业画像”，作为金融机构确定信贷投放的重要依据。三是引导规范功能。强化数据评价应用实效，引导和鼓励企业诚信发展、规范经营，在全社会逐步形成以信用获融资、以融资促发展的良好氛围。四是风险提示功能。通过构建贷前、贷中、贷后全流程风险防控体系，既突出贷前撮合功能，又充分利用平台无缝隙监控存量贷款企业运行动态，引导贷款投向和使用效率，及时防范和化解潜在的金融风险。', '现在进入记者提问环节，大家如有提问，请举手示意，提问之前，请先通报一下自己所在媒体的名称。为了让更多的媒体获得提问机会，请每次只提问一个问题。', '谷学涛：“政府陪行长走产业”作为今年政府工作报告明确要求重点推进的一项重要活动，主要是针对服务我市支持“3+2”主导产业和“9+5”县域特色产业集群发展总体部署而提出来的，核心要义就是改变金融服务方式，增强支持合力，丰富服务内容，提升服务水平。开展这一活动可以改变对单个企业点对点帮扶为对产业集群划片帮扶，有效避免重视大企业而忽视小企业的弊端，同时对防范化解企业之间的担保链风险和推进民营小微企业复工复产有重要作用。', '我们的模式是：各县市区政府在“3+2”主导产业和“9+5”县域特色产业集群龙头骨干企业基础上筛选各产业小微企业，确定各产业走访名单，各银行业金融机构按照企业名单有计划开展走访对接活动，同时我们建立了月统计汇总、半年调度通报、年总结汇报活动的活动机制。月调度活动进展情况，督导各县市区、各金融机构建立初步的对接关系，发现和解决特色产业集群企业融资贷款方面的共性问题；逐县市区组织“政府陪行长走产业”活动推介会，进行现场政银企对接，持续加大开展特色产业集群企业集中走访督导力度，扩大对接成果，通过定期通报走访对接情况，年终进行总结汇报，确保活动取得实效。', '谷学涛：为了全面助力企业复工复产，同时为了推动我市“送政策抓落实帮企业促发展”活动的深入开展，促进各项政策落地落实，切实帮助企业解决实际问题、渡过难关。我局邀请全市各银行业金融机构专家成立了“金融顾问”库，由各银行分管信贷的副行长和一名分管信贷的中层组成。同时，我们充分结合疫情防控指挥部企业帮扶组和“送政策抓落实帮企业促发展”活动开展工作部署，建立了“金融顾问”包联县市区企业制度，将“金融顾问”与十三个县市区进行了有效结对匹配，要求“金融顾问”参与到企业包联工作中去，针对企业融资等方面的需求，实施点对点精准服务，为企业融资提供信息对接、方案策划和协调推动。', '谷学涛：我局自2019年先后赴苏州、台州、焦作、唐山和枣庄市考察学习金融服务平台建设经验做法，并将有关考察情况上报市政府。2020年《衡水市人民政府工作报告》将金融服务平台建设列为本年度重点推动工作。按照1月27日吴晓华市长作出“平台要加快组建，组建专门中心的事尽量采取市场化方式解决”的重要批示精神，我局邀请北京众微科技公司和杭州同盾科技公司来衡，就搭建平台具体细节进行深入沟通咨询，并拿出初步建设方案。5月19日，全市金融运行形势分析座谈会上，吴晓华市长再次提出要加快金融服务平台建设的工作要求。目前，我局在前期反复调研论证的基础上，形成了《建设运营衡水市金融信用信息服务中心实施方案》。正在征求有关部门意见，计划近日将建设方案做进一步修改完善后，上报市政府。下一步，待市政府研究同意后，我局将加快建设进度，力争年底前投入使用。', '四、长城新媒体记者：请问除了建设金融信用信息平台之外，还有哪些措施用来缓解中小企业融资问题。', '四是近期准备开展一次云推介活动，经前期对接，已有173家企业与金融机构达成融资意向76.72亿元。', '五是分批次向银行推介重点项目和企业，并建立周调度、月汇总、半年通报制度，督促各银行切实加大投放。', '好的，如有媒体需要深入采访，会后请与市金融监督管理局联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>13</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开共建共享人美城长衡水市创建全国文明城市新闻发布会</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2024-02-18</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F2%2F18%2Fart_96_106.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_106</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“‘共建共享 人美城长’衡水市创建全国文明城市”新闻发布会', '1月9日上午，衡水市人民政府新闻办公室就“‘共建共享 人美城长’衡水市创建全国文明城市”召开新闻发布会，中共衡水市桃城区委宣传部常务副部长赵占木，中共衡水市冀州区委宣传部常务副部长张林，衡水高新区党建工作部副部长张岩，衡水滨湖新区党群工作部部长商烨青，他们将创建全国文明城市相关工作情况进行发布并回答记者提问。中共衡水市委宣传部陈丽琳主持发布会。全程实录如下：', '大家好！欢迎参加“共建共享 人美城长”衡水市创建全国文明城市新闻发布会，本次发布会邀请到了中共衡水市桃城区委宣传部常务副部长赵占木同志，中共衡水市冀州区委宣传部常务副部长张林同志，衡水高新区党建工作部副部长张岩同志，衡水滨湖新区党群工作部部长商烨青同志，他们将创建全国文明城市相关工作情况进行发布并回答记者提问。', '参加本场新闻发布会的媒体有：衡水日报、衡水晚报、衡水新闻网、衡水电台、衡水电视台、衡水广播电视台融媒体中心等市直媒体；衡水发布、衡水微讯等市政新媒体；河北日报、河北广播电视台、长城新媒体，及河北工人报、河北法制报、燕赵农村报、河北新闻网、河工新闻网、河北共产党员网、冀农融媒体中心·河北农网；中国新闻社、凤凰网、中国经济网、网易衡水等驻衡在衡媒体。', '近年来，桃城区始终坚持创建为民、创建靠民、创建惠民、创建育民的理念，解决了一大批群众急难愁盼问题，打通了一系列民生堵点、痛点、难点，努力打造信仰坚定、崇德向善、文化厚重、和谐宜居、人民满意的文明城市。', '一是深入推进人居环境整治。以“五清三建一改”为主要内容，扎实开展村庄清洁行动，已完成110个村庄“五化”工程建设，邓庄镇邓庄村、赵圈镇耿李村等30个村庄被认定为省级美丽乡村，桃城区获评河北省村庄清洁行动先进县。二是创新实施部门包建工作。65个区直单位变“一对多帮建”为“一对一包建”，对基础条件差、反馈问题多的老旧小区“一包到底”，开展“包建”活动1200余场，发动志愿者2万余人次，解决群众急难愁盼问题3600余个。三是持续推动便民市场建设。针对“流动摊贩难管理”“小商小贩难经营”等问题，创新打造便民“微市场”，共打造便民“微市场”11处，打造集修自行车、修拉链、衣服锁边等便民服务为一体的“便民廊厅”2片，容纳商户407户，惠及居民15.1万人。四是完善问题处理闭环机制。依托新时代文明实践阵地及“桃城文明实践”微信小程序，不断完善“群众反馈 社区整合 属地兜底 部门攻坚 联席解决 创城督导”的问题处理闭环机制，解决急难愁盼问题1.6万个，满意度达100%。', '一是广泛征求民意。组织召开“有事好商量”“咱们来座谈”“请您来监督”为主题的商户恳谈会、业主圆桌会，收集群众意见建议1.4万条，发动群众一起解决身边的问题1.3万个，群众满意度不断提高。二是开展特色活动。开展“桃城周末志愿行”“党员双报到”“点亮微心愿”等特色志愿服务活动，全区65个区直部门、312支志愿服务队伍全面参与，发动党员志愿者3万余人次，社会志愿者达10万人次。三是引导居民参与。开展以楼道杂物兑换日用品的“宝贝请出来”活动、以志愿服务时长兑换小礼品的“文明积分兑换”活动，共有3千余名居民参与杂物兑换，兑换闲置物品上万余件，全区26支“文明积分”志愿服务队自发开展千余场志愿活动，服务总时长达5万余小时。四是激发自治意愿。积极打造“红色物业联盟”，引导居民成立业委会及自治小组，已成立4个街道“红色物业”联盟，带动110家物业公司加入，成立业委会、居民自治小组300余个，建立业主微信网格群1721个，群众参与基层治理意愿显著提升。', '一是集中攻坚，让城市更干净。聚焦群众反映强烈的老旧小区环境脏乱差、小广告乱贴乱画等问题开展改造提升专项行动，共改造老旧小区247个，清除小广告98.8万处，施划机动车、非机动车停车位51473个。二是精雕细琢，让城市更美丽。常态化开展全区绿化、美化工作，新增绿地面积3.2万平方米。持续开展道路修补工作，共整修、拓宽路面88.4万余平方米，整修路缘石2.71万米。三是提档升级，让城市更贴心。对康宁街、报社街、鸡场西巷等160条示范街（胡同），一建生活区、民政局生活区、福园小区等266个小区和赵圈镇新时代文明实践所、华东社区新时代文明实践站等142个新时代文明实践所（站）进行改造提升，做到“一街巷一特色、一小区一品味”。四是排忧解难，让城市更暖心。打通政通街、庆丰街、裕华路、南门口街、滏东街等5条断头路，解决“出行难”问题。充分利用边角地、闲置地推出了“口袋公园”、生活小区“暖心角”等一大批“暖心工程”，成为群众津津乐道的好去处。', '一是阵地建设规范化。打造涵盖家风文明、乡风文明等方面的宣传教育阵地，高标准打造新时代文明实践、城市公共文化空间、家风家训主题街区等特色阵地建设，涵养厚重道德文化底蕴。二是典型培育常态化。开展道德模范、身边好人、文明市民、“四有五好六无”小区等各类典型评比活动，挖掘培育各级先进典型1800余例。通过“道德模范话文明”等活动传播先进故事，在小区、小巷设置展牌、宣传栏弘扬先进理念，营造了“学习先进 争当先进”的浓厚氛围。三是文化涵养特色化。围绕社会主义核心价值观、桃城区历史文化名人、诚实守信等元素，在静安路、报社街、政通街、丰泽南街等绘制文化墙1.5万平方米，提升文化浸润的效果。四是宣传引导系列化。发挥全媒体优势，发布信息、报道3000余篇，印发向市民报告、倡议书等各类宣传品30万余份，制作的《我和我的城市》《我和我的社区》等系列微视频，以百姓视角讲创建故事，播放量突破10万，拍摄的《河北衡水桃城区：航拍中邢疃村》荣获学习强国总平台2023年航拍“我的美丽家乡”短视频征集活动优秀作品。', '下一步，桃城区将在了解群众生活所需、解决群众急难愁盼、办好民生实事、提升群众满意度等方面再发力，在推进“五心融合”、品牌阵地打造、阵地互联互通方面再发力，在培育示范典型、开展特色活动、实现共建共治共享方面再发力,把好事办好、实事办实、难事办妥，不断增强人民群众的获得感、幸福感。', '冀州区委、区政府始终坚持把创建作为推动高质量发展、改善民生福祉的重要抓手，按照标准化提升品质和靶向化补齐短板的思路，上下同心、合力共为，人居环境大力改善、服务功能持续完善、城市内涵不断提升。', '一、创建为民，为民服务更有温度。一是突出民生民意，提升群众满意度。举办创建知识有奖问答、“文明创建大家谈”等活动；在社区广场、农村小庭院、新时代文明实践所（站）内创新开展“冀”城小院拉呱会活动60多期，商议解决小广告、文明养犬等与居民生活息息相关的问题2400多件，通过发动群众广泛参与，进一步提升创建满意度。二是创新形式手段，不断提升工作质效。建设全域社会治理综合服务平台，构建“大数据+人工智能+文明创建”模式，在微信小程序“民生冀州”中开通“我要报事”居民诉求通道和7100000热线，将各类问题线索通过“信息化平台”转交给有关部门有效处置，解决群众的烦心事揪心事8900余件。三是坚持网格管理，强化末端落实。将城区划分为8个片区、112个网格，2500余名党员干部全部下沉一线，开展帮建活动，逐步形成上下一体、协调联动、齐抓共建的常态化工作机制。', '二、创建惠民，惠民答卷更有厚度。一是提升城市环境。持续开展基础设施完善、市容环境提升等16项专项行动，累计清除垃圾24.3万吨，修补破损便道和路面3.1万平方米，新增绿地面积1.6万平方米，喷涂施划道路交通标线6.8万平方米，增划车位2.6万余个，群众出行更加安全通畅。二是改善居住品质。对10条主次干道和96条背街小巷进行改造提升，打造了“六师路”“幸福街”等精品街巷22个；建成“口袋公园”25个，更多居民实现“推窗见绿，出门进园”；分批次对125个老旧小区进行改造，惠及居民9480户，其中冀建胡同小区改造入选住建部《城镇老旧小区改造可复制政策机制清单》。三是方便群众生活。坚持疏堵结合，通过严格管理和文明劝导，清除“牛皮癣”小广告12.5万处，在小区、广场设立便民服务栏180多处，建立6个便民“微市场”，其做法被央视报道。', '三、创建靠民，文明涵养更有高度。一是以主题活动提升市民素质。以“我是文明市民、要为城市争光，我是燕赵儿女、要为河北争气”为主题，举办“美翻了我的村”、文明校园创建故事分享会、新时代好少年演说会等线上线下群众性活动650余场次，在潜移默化中提升市民素质。创新开展“文明邮路”品牌创建活动，通过邮政系统的工作网络，累计投放文明宣传资料6000余份。开展“外卖小哥”配送“文明套餐”实践活动，将外卖员打造成为“文明使者”。二是以榜样评选树立文明标杆。综合运用“双争”擂台赛、“365百姓故事汇”等载体，开展“时代新人•冀州好人”“文明市民”等评选活动，张志旺荣获“全国道德模范”“全国最美退役军人”等称号，进一步擦亮了“道德高地”品牌。三是以典型示范发动群众参与。在全区组建110多支特色志愿服务小分队，春晖、龙赐、蓝丝带、好人网等社会志愿团体培育千名骨干志愿者，集中开展送理论、送文化、送健康、送科技、送法律下乡活动3630多场次，服务群众10万余人次，大街小巷红马甲成为城市最靓丽的风景线，营造了全民参与、共建共享的良好氛围。', '文明无止境，创建不停步。冀州区将把“为民、惠民、靠民”的工作理念贯穿创建全过程，以“绣花”功夫做精做实各项创建工作，向市委、市政府和全区人民交上一份满意的答卷。', '近年来，衡水高新区坚持“人民城市人民建、人民城市为人民”的工作导向，按照“四个聚焦、四个着力”的工作思路，不断提升人民群众获得感、幸福感、安全感，持续推动全国文明城市创建工作走深走实。', '顺应广大群众对良好人居环境的需求，大力实施五项整治行动。一是环卫保洁深度整治。在做好主次干道精细化清扫作业的基础上，加强对清平街、园区胡同、维明街等20多条小街巷的深度清洁，先后清理无主垃圾杂物300余立方米，做到了保洁全天候、清扫无缝隙、作业全覆盖。二是小广告专项整治。发动各方力量，对辖区内主次干道、小街巷、公园、广场沿街立面、线杆等区域的小广告、乱贴乱画乱涂进行全面清理整治，共清理小广告8000余处。三是学校周边环境整治。对新华路小学、恒大幼儿园、顺兴小学等校园周边进行环境整治，共整治路面500余平方米，安装路灯5柱，施划非机动车辆停车位60个。四是市容秩序专项整治。对沿街门店存在店外经营、橱窗广告、沿街晾晒等情况进行及时处理，对路边占道游商规范到市场内经营，引导流动商贩进市场经营。五是农村人居环境整治。组织大麻森乡、苏正管理服务中心所有村庄通过环境整治擂台赛，对村庄柴草堆、垃圾堆以及村庄内外、庭院内外、道路沿线、沟渠坑塘环境卫生进行集中大清理大整治，全方位提升村庄颜值，累计清理小广告1.2万处，清理垃圾6800余立方米，整治坑塘200个，清理残垣断壁210处。', '先后对西区永兴路、宁安路、宝云街、顺兴街以及北区冀衡路、健业路等20多条道路的部分路段进行全面改造提升，包括路面硬化、雨污分流、便道铺设、更换路缘石、绿化美化亮化等系列工程。2023年，创业路、雅居路等14条道路及雨污管网竣工投入使用，硬化路面12.8万平方米，建设雨水收集沟3000余米，铺设雨污管网2000余米，改造便道6万余平方米，调整路缘石、绿化石2万余米，新增绿化面积6.1万平方米，改造绿化面积3万平方米，粉刷沿街立面5万余平方米。同时，对如意胡同、清平街等6个背街小巷全面开展整治，完成沥青罩面8000余平方米，施划停车位800余个，增设路灯60余柱。', '坚持以人民群众满意度作为评价标准，解决民需民盼，提升民生福祉，增强百姓的获得感、幸福感。一是建设社区食堂。先后在达观天下、尚品林溪等5个小区建成社区食堂，以卫生实惠的饭菜、贴心周到的服务，方便居民的就餐需求，让更多困难群体得到暖心的照顾。二是打造“微市场”。为方便市民生活，促进就业增收，在不阻碍交通、方便居民出行的适合路段，先后设置“微市场”7个，吸纳流动商户一早一晚进入经营，提升城市“烟火气”。三是服务老旧小区。对东安小区、文联家属院、富力城、广播局等老旧小区破损路面、便道、井盖、路灯等市政设施及时维护整修，施划机动车、非机动车停车位1100余个，硬化路面1.2万平方米，更换破损雨污井盖40余套，实现旧貌换新颜。四是破解民生难题。针对阳光花城小区群众用水难题，组织实施自来水整体改造工程，更新管网4100多米，安装无负压供水设备1套，解决了1100户居民吃水用水难题。针对群众反映强烈的乱停乱放问题，组织开展了小区废旧自行车集中清理整治行动。', '坚持用社会主义核心价值观凝心铸魂，通过多种载体打造文明和谐新区。一是深入开展志愿服务。依托全区30多个学雷锋志愿服务站，通过党员示范作用带动居民群众广泛参与，通过开展“访千楼进万家”“共创文明城 志愿我先行”等系列志愿服务活动，营造了“有时间做志愿者、有困难找志愿者”的浓厚氛围。二是广泛开展“双争”活动。依托新时代文明实践站，广泛开展“我是文明市民、要为城市争光，我是燕赵儿女、要为河北争气”系列活动500多场次，丰富群众文化生活，提升城市精气神。同时，通过街道网格员、小区文明劝导员常态化提醒等方式，引导群众共同维护安全、和谐、有序的文明生活。三是培树先进典型。为凝聚榜样力量，引导全区广大干部群众见贤思齐，积极筛选推荐各行业各领域先进典型。今年以来，入选衡水市基层思想政治工作优秀案例1例；入选衡水市新时代好少年2名；推荐“微课创评”优秀视频2例，分别荣获一等奖、二等奖；入选“衡水好人”1名；入选市级优秀社区工作者5名；入选市级文明家庭1户；入选市级文明校园1个。', '下一步，衡水高新区将继续坚持以人民为中心的发展思想，积极回应人民群众新期待，全力推进各项工作再上新台阶。', '滨湖新区以打造宜居宜业“生态湖城”为目标，以提升人民群众幸福感为导向，全区上下思想高度统一，组织有力，密切配合，抓重点、攻难点、促亮点，积极推进创建工作落细落实。', '实施基础设施提升行动。一是开展修复便道砖、更换井盖、修复塌陷路面、桥面喷漆、路面铺沥青、路面烫油等系列工程。二是修复路灯217个、变电器3个、更换旧电缆2800余米，新铺电缆860米。三是区内四座桥的重要节点接通了高射灯、照亮灯、景观灯。对七条主干路900多盏路灯全面检修维护，照明亮灯率达到100%。推进城乡人居环境整治提升。抓好全区环卫保洁工作，清扫面积近300万平方米，累计清运各类生活垃圾共计1.9万余吨。大力开展农村厕所改造工作，持续完成农村厕所改造提升1800余座。对村庄的生活垃圾、杂草、黑臭水体、残垣断壁等突出问题进行集中整治。共清理小广告1.28万处，整治坑塘104处，清运生活垃圾、建筑垃圾约2.2万方。开展摊贩经营整治行动。实行“定人员、定时间、定责任”“错时执法”等管理模式，重点对辖区内主次道路两侧、景区周边、校园周边等重点部位进行蹲点值守和机动巡查综合整治，全面整治突出问题5500余个。维护校园周边环境秩序。一是对学校及周边的19户个体销售网点和2处出版物销售场所进行规范；对校园周边占道经营、乱摆乱占、乱堆乱放等行为加大管控力度和宣传指引，查处相关问题160余件；施划停车位200余个，规范非机动车、机动车有序停放。二是组织开展食品经营者培训126人次，发放宣传资料1300余份，确保校园周边食品卫生安全和文化市场安全。', '老旧小区改造。对东湖大道的两个老旧小区进行改造，对区内的道路、供水和雨污管网、供电管网、主楼和外墙粉刷、防水、外墙保温等都进行了提升改造，同时，新增路灯32个、充电桩7个。物业管理全覆盖。新区已完成物业管理全覆盖工作，实现了全区“所有小区都有人管”的物业服务目标。同时各小区均建立乡镇包联人、小区负责人、楼院长、单元长网格化管理体系。', '常态化开展志愿服务活动。实行各局办对点位、村庄的双包联机制，常态化开展“共创文明城 志愿我先行”主题志愿服务活动，开展“牛皮癣”小广告清理、不文明行为劝导、文明创城宣传、问卷调查等系列志愿服务活动。活动以来发放创城宣传资料8000余份，开展入户创城满意度问卷调查2700余户，耐心解答居民对于文明出行、交通安全和文明养犬等政策咨询3600余次，进一步提高创城工作的知晓率，营造出人人皆知、广泛参与的良好社区氛围。扎实打造文明景区。以5A景区创建为契机，以强化游客文明意识、倡导文明旅游为目标，通过完善景区软硬件设施、营造干净整洁的游览环境、完善各项旅游服务功能、提高景区人员的业务素质和文明素养等方式，为市民和游客提供更好的旅游体验。', '下一步，衡水滨湖新区将以改善居民生活环境，提升居民生活质量为宗旨，做好社会公德、环境保护等各方面的公益广告宣传活动，进一步健全完善工作督办和责任追究机制，坚持问题导向，发现问题及时整改，狠抓落实，扎实推进创城工作的深入开展。', '现在进入记者提问环节，大家如有提问，请举手示意，提问之前，请先通报一下自己所在媒体的名称。为让更多的媒体获得提问机会，请每次只提问一个问题。', '河北日报：赵部长您好，刚才在您的发布中提到了关于便民“微市场”的建设情况，您能够具体介绍一下吗？', '赵占木：建设“微市场”主要目的就是为了方便群众生活，提升城市管理水平，围绕“便民”二字，桃城区持续在“远谋”“严管”“补点”“扩面”等四个方面下功夫。一是聚焦“远谋”，突出顶层设计。建设前期，我区先后组织实地考察、综合调研30余次，组织召开“微市场”创建工作推进会、“微市场”创建现场学习观摩会等会议15次，确定了学校、车站、医院等周边各类人流量多、群众需求大、商户聚集多、有空地的区域为重点建设区域，专题研究“微市场”开展工作和后续计划，做好前期规划设计。二是聚焦“严管”，规范日常管理。桃城区“微市场”一般由第三方负责管理，统一发放便捷餐车并划定经营区域，餐车车身统一张贴美观新颖公益广告、标识牌。实行“商户长”轮换负责制，“商户长”负责值班当日该处“微市场”的卫生保洁、秩序维持、文明服务、诚信经营等各项工作，并负责记录、反馈群众的各项需求和建议。三是聚焦“补点”，增加覆盖范围。去年以来，桃城区先后在政通街站前路和康宁街四院周边、永兴路小学周边、和平路小学周边等处设置摊位30个，在盛世桃城生活广场设置摊位39个，在商贸城、民生胡同设置摊位25个，不断扩大“微市场”规模、增加“微市场”摊位，方便了居民群众生产生活，维护了城市形象，城市管理水平也得到明显提升。四是聚焦“扩面”，提升改革效能。桃城区积极探索打造各类便民服务为一体的“便民廊厅”，让修鞋、配钥匙等接地气、聚人气的“小修小补”有序回归百姓生活。截至目前，共打造“便民廊厅”2块，方便周边群众。同时，对胜利路便民市场进行全面改造提升，设置自主经营、联营、政府安置、自产自销等多个区域，服务项目、服务质量不断优化。', '接下来，桃城区将在推动微市场提档升级上再下功夫，持续扩展服务内容，探索从以往单一的“早餐微市场”扩展到出售水果、蔬菜、早中午餐等多个领域，为周边群众提供更多便利化、标准化、品质化的便民服务。', '张林：近年来，冀州区以新时代文明实践中心（所、站）阵地建设为基础，以志愿队伍为导向，以丰富活动为抓手，全面打通服务群众的“最后一公里”。', '一是整合志愿服务平台。建设了新时代文明实践中心，6个分中心，10个乡镇新时代文明实践所，390个行政村（社区）新时代文明实践站，实现全覆盖，着力构建起上下贯通、左右通达的新时代文明实践建设体系。', '二是组建志愿服务队伍。组建了区新时代文明实践志愿服务总队，10支理论宣讲、文化惠民等志愿服务分队，100支乡镇、区直部门特色志愿服务小分队以及培育1000名社会志愿团体骨干志愿者，全区注册志愿者已达6万多名，注册率达到18%，全面构建“个十百千万”志愿服务网络。', '三是丰富志愿服务活动。广泛开展三下乡志愿服务活动，组织广大社区志愿者开展“解忧暖心传党恩”“关爱老人·享受美好生活”“微心愿”、志愿服务积分兑换等志愿服务活动270余场次。深入开展“十星级文明户”“五好文明家庭”等创建评选活动，推进移风易俗，树立文明新风。', '下一步，冀州区将依托新时代文明实践阵地，创新开展“‘冀’暖人心”主题新时代文明实践志愿服务项目等，让文明之花更加贴近人心、深入人心。', '衡水广播电视台：据了解，高新区扎实推进社区食堂建设，给群众带来了实实在在的便利，请介绍一下这方面情况。', '张岩：我区高度重视社区食堂建设这一民生工程，坚持把“让群众满意”作为出发点和落脚点，全力打造社区“幸福食堂”，切实增强辖区居民的幸福感和满意度。2023年，先后在达观天下、尚品林溪等5个小区建成社区食堂，开在家门口的社区食堂，有效解决了小区及周边居民，尤其是特困、独居、孤寡、高龄等特殊困难老年人的做饭难、吃饭难问题，以卫生实惠的饭菜、贴心周到的服务，方便了居民的就餐需求，有效改善了居民生活方式，提升了居民生活品质。下一步，我们将通过完善运行机制、创新服务模式，不断提高和满足社区居民多层次、多元化的生活需求，让群众的获得感成色更足、幸福感更可持续。', '河北广播电视台：衡水湖作为衡水市靓丽的名片，在倡导文明旅游、提升景区服务方面开展哪些工作？', '商烨青：衡水湖景区以5A创建为契机，以提升景区服务质量为抓手，以树立旅游城市文明形象为目标，围绕文明环境营造、硬件设施改善、服务质量提升、旅游秩序整治等多个方面，采取切实举措，逐项加以完善，取得明显成效。', '2、新改建A级以上厕所7座，完善并提升卫生间的功能和设施，最大限度地提高游客的舒适度和满意度。定期维护保养景区的基础设施，更新完善景区标识标牌5400余块，营造景区美丽形象。', '3、衡水湖景区率先示范苦练内功，打造“无废景区”良好运行的探索和努力，将垃圾分类等环保理念植入导游讲解中，通过大数据、云计算、5G技术等创新模式宣传到各个游览区域。10月份双节期间接待游客27万人次，保障了环境干净整洁。', '1、完善标准，不断提升服务水平。将文明旅游评价标准与企业服务标准体系相结合，推进各岗位的工作标准化，使从业人员在服务过程中语言标准、服务规范、举止文明得到不断提升。', '2、构筑规范诚信的经营秩序。完善游客投诉处理机制和处理体系，规范景区旅游市场秩序，彻底清除占道经营、店外经营等顽疾，景区市场环境井然有序。', '为增强游客文明旅游意识，一是通过制作文明公益广告、提示牌，浓厚文明宣传氛围。二是利用文明旅游志愿服务等活动载体，深入宣传文明旅游出行须知、社会服务承诺。三是景区多处设有文明引导员，为游客提供文明服务，对不文明行为进行引导和提醒。', '下一步，衡水湖景区将进一步夯实责任，继续按照5A级景区创建要求，加强精细化管理，完善景区功能品质，优化景区服务环境，把衡水湖这张城市名片擦得更亮。', '好的，由于时间关系，提问环节就到这里。如有媒体需要深入采访，会后可与各区联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>13</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>衡水市人民政府关于印发衡水市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F11%2F10%2Fart_10719_514511.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10719_514511</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['一、为全面正确履行政府职能，进一步加强和改进政府工作，根据《中华人民共和国宪法》和《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》，参照《国务院工作规则》《河北省人民政府工作规则》和《中国共产党衡水市委员会工作规则》，结合实际，制定本规则。', '二、市政府工作坚持以习近平新时代中国特色社会主义思想为指导，坚决维护党中央权威和集中统一领导，全面贯彻党的二十大精神和党中央、国务院以及省委、省政府决策部署，深入落实习近平总书记对河北工作重要指示要求，在市委领导下，严格遵守宪法和法律法规，完整、准确、全面贯彻新发展理念，积极服务和融入新发展格局，着力推动高质量发展，努力建设人民满意的法治政府、创新政府、廉洁政府和服务型政府，加快建设经济强市、美丽衡水，为全面建成社会主义现代化强国、实现第二个百年奋斗目标贡献衡水力量。', '三、市政府工作人员要旗帜鲜明讲政治，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，胸怀“两个大局”、牢记“国之大者”，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，不断提高政治判断力、政治领悟力、政治执行力，把党的领导贯彻落实到政府工作全过程各领域。', '五、市政府实行市长负责制。市长领导市政府全面工作。副市长、秘书长协助市长工作。副市长按照工作分工负责处理分管工作；受市长委托，负责其他方面的工作或专项任务；根据统一安排，代表市政府进行外事活动。秘书长在市长领导下，负责处理市政府机关日常工作；副秘书长协助副市长开展工作，并接受秘书长领导。', '六、市政府履行政府经济调节、市场监管、社会管理、公共服务、生态环境保护等职能，系统谋划推进中国式现代化衡水篇章，坚持稳中求进工作总基调，统筹发展和安全，充分发挥市场在资源配置中的决定性作用，更好发挥政府作用，推动有效市场和有为政府更好结合，创造良好发展环境，维护社会公平正义。', '各局、各委员会、各办公室根据法律、行政法规、规章和市政府的决定、命令，在本部门职权范围内全面履行相关行政管理职能，统筹研究部署本领域本行业工作，抓好组织实施和督促落实。', '市审计局在市长和省审计厅双重领导下，依照法律规定独立行使审计监督职能，不受其他行政机关、社会团体和个人的干涉。', '八、坚持党的领导。坚决在以习近平同志为核心的党中央坚强领导下开展工作，全面贯彻党的路线方针政策，全面落实党中央决策、国务院部署。坚持和完善党领导经济社会发展的体制机制，完善党中央、国务院和省委、省政府以及市委重大决策部署落实机制，健全和落实请示报告制度，重大决策、重大事项、重要情况及时向省委、省政府和市委请示报告。', '九、坚持人民至上。坚持全心全意为人民服务的根本宗旨，把人民对美好生活的向往作为政府工作的出发点和落脚点，着力保障和改善民生，实现好、维护好、发展好最广大人民根本利益，不断增强人民群众获得感、幸福感、安全感。', '十、坚持依法行政。坚决维护宪法和法律权威，加强法治政府建设，不断提高政府立法质量，严格规范公正文明执法，强化执法监督，把政府工作全面纳入法治轨道，依法行使权力、履行职责、承担责任。', '十一、坚持科学民主。强化系统观念，增强工作的前瞻性、整体性、协同性。全面落实重大决策程序制度，加强调查研究、科学论证、风险评估、合法性审查，广泛听取各方面的意见和建议。涉及社会公众切身利益的重要规划、重大公共政策和措施、重大公共建设项目等，应当充分评估论证，并以多种形式听取各方面意见。建立健全重大决策跟踪反馈制度，加强后评估，不断提高决策质量。', '十二、坚持守正创新。坚持党的基本理论、基本路线、基本方略，坚持求真务实、开拓创新，突出问题导向、效果导向，想问题、作决策、办事情一切从实际出发，着力解决改革发展稳定中的突出问题和人民群众急难愁盼问题。加强数字政府建设，推动流程优化、模式创新，不断提高政府效能。', '十三、坚持清正廉洁。落实全面从严治党要求和廉洁从政规定，勇于自我革命，持之以恒正风肃纪反腐，一体推进不敢腐、不能腐、不想腐，全面加强廉洁政府建设，推动形成清清爽爽的同志关系、规规矩矩的上下级关系、亲清统一的新型政商关系。', '十四、市政府要自觉接受市人大及其常委会的监督，认真负责地报告工作，接受询问和质询，依法备案政府规章和行政规范性文件；自觉接受市政协的民主监督，虚心听取意见和建议。', '市政府各部门要认真办理市人大代表建议和市政协委员提案，加强与代表委员沟通，严格落实办理责任和时限，主动公开办理结果。', '十五、市政府及各部门公职人员要自觉接受纪检监察机关的监督。市政府各部门要依照有关法律的规定接受人民法院、人民检察院的司法监督，自觉接受审计等部门的监督。对监督中发现的问题，要认真整改并向市政府报告。', '十六、市政府及各部门要接受社会各界和新闻舆论的监督，依法及时准确公开政府信息，加强政策宣传解读，认真调查核实处理有关情况，及时回应社会关切。', '十七、市政府及各部门要认真倾听人民群众建议、意见和要求，自觉接受人民群众监督。领导同志要亲自阅批群众来信，督促解决涉及人民群众切身利益的重大问题。', '十八、市政府实行市政府全体会议、市政府常务会议、市长办公会议和市政府专题会议制度。市政府工作中的重大问题，须经市政府常务会议或者市政府全体会议讨论决定。', '十九、市政府全体会议由市长、副市长、秘书长，市政府组成部门主要负责同志组成，由市长召集和主持。市政府全体会议的主要任务是：', '（一）传达学习贯彻党中央、国务院和省委、省政府以及市委的重要指示、决定，市人大及其常委会的重要决议；', '市政府全体会议根据需要可安排其他有关部门、单位负责人和市政府副秘书长、市政府办公室有关负责同志列席会议。', '二十、市政府常务会议由市长、副市长、秘书长组成，由市长召集和主持，有半数以上的组成人员到会方可召开。市政府常务会议的主要任务是：', '（一）传达学习党中央、国务院和省委、省政府以及市委的重要决策部署并研究贯彻落实意见；', '（二）讨论通过报请省政府、市委审定的重大事项；讨论需提请市政府全体会议审议的重要事项；', '（四）讨论决定市政府工作的重大事项和由市政府制定和发布的政策性文件，审议政府规章草案；', '（八）讨论决定市政府各部门和各县市区政府、衡水高新区和滨湖新区管委会向市政府的重要请示事项；', '市政府常务会议一般每月召开2—3次，如有需要可随时召开。根据会议议题可安排市政府司法行政部门、市政府研究室、市政府督查室以及和议题有关的部门、单位负责人和市政府副秘书长、市政府办公室有关负责同志列席会议。根据需要可邀请市人大常委会、市政协有关领导列席会议。', '二十一、提请市政府全体会议和市政府常务会议讨论的议题，由市政府副市长、秘书长协调、审核后提出，报市长确定；会议文件需在会前报市长审定。会议议题涉及到部门之间不同意见的，由部门主要负责同志先行协调，取得一致意见后提交会议讨论。提请市政府常务会议讨论的议题会前由市政府司法行政部门进行合法性审查并出具书面审核意见。会议组织工作由市政府办公室负责，议题和文件会前送达与会人员。', '市政府全体会议和市政府常务会议文件由议题汇报部门牵头会同有关部门起草，市政府办公室审核把关。会议文件应全面准确反映议题情况和各方面意见，突出针对性、指导性和可操作性，逻辑严密，条文规范，用语准确，行文简洁。', '二十二、市政府全体会议和市政府常务会议的纪要，由市政府办公室起草，按程序报市长签发。', '市政府全体会议和市政府常务会议讨论通过决定印发的文件，原则上须在会议结束后7个工作日内印发。', '市政府全体会议和市政府常务会议讨论决定的事项，除依法需要保密或不宜公开的外，应当及时公布。', '市长主持召开市长办公会议，研究、处理市政府工作中的重要事项。议题由市长确定，与议题相关的市政府领导同志、有关部门和单位负责人参加。市长办公会议纪要由市长签发。会议组织工作由市政府办公室负责。', '副市长受市长委托或按照分工召开市政府专题会议，研究、协调市政府工作中的专门事项。议题由主持召开会议的市政府领导同志确定，与议题相关的部门和单位负责人参加。市政府专题会议纪要由主持召开会议的市政府领导同志签发，涉及重大事项报市长审定。', '二十四、市政府领导同志和有关部门负责同志应按要求参加市政府有关会议，原则上不应请假。如有特殊情况不能参加的，要履行请假手续，由市政府办公室报会议主持人审批。', '二十五、市政府及各部门召开的工作会议，按照有关规定严格审批。要本着务实高效的原则，减少数量，控制规模和时间，合理确定参会人员范围，减少陪会。市政府领导同志一般不出席部门的工作会议，兼任部门负责同志的参加本部门会议除外。', '由市政府办公室审核拟以市政府名义召开会议的年度计划，经秘书长、负责常务工作的副市长审批后，报请市长审定。因特殊情况需要临时决定召开的，须经副市长审核同意，报市长批准。贯彻省政府部门工作会议精神，布置、总结部门业务工作，由市政府部门召开。', '市政府各部门召开全市性会议和举行重要活动，主办部门原则上应提前10个工作日正式向市政府报送请示，由市政府办公室报市政府领导同志审核，并按有关规定报经批准后实施。', '市政府各部门召开的全市性会议，只安排与会议内容相关的部门参加。市长出席的会议，可安排县市区和市直部门主要负责同志参加，其他市政府领导出席的会议，一般不得要求县市区和分管部门以外的市直部门主要负责同志参加。确需参加的，按有关规定报批。市政府各部门召开的本系统全市性会议，原则上每年不超过1次。严格落实“无会月”制度。', '全市性会议提倡采用加密电视电话会议、网络视频会议形式召开，一般不越级召开。各类会议都要充分准备，严肃会风会纪，提高效率和质量。', '二十六、市政府建立完善学习制度，坚持好市政府常务会议集体学习、市政府党组理论学习中心组学习会议等制度，学习活动由市长主持，市政府领导同志及各部门、单位负责人参加。学习主题由市长确定，重点围绕贯彻习近平总书记重要讲话、指示精神，落实党中央、国务院和省委、省政府以及市委决策部署，锤炼过硬本领、提升履职能力；学习采取领导同志自学交流、集体研讨，安排部门负责人汇报或邀请专家作讲座等多种形式开展。市政府组成人员要作加强学习的表率，市政府及各部门要建设学习型机关。', '二十七、各县市区政府、衡水高新区和滨湖新区管委会、市政府各部门报送市政府的公文，应当符合《党政机关公文处理工作条例》和《河北省党政机关公文处理工作实施细则》的规定，严格遵循行文规则和程序。行文应当确有必要，讲求实效；未经批准不得越级行文，不得多头报文；请示应当一文一事，报告不得夹带请示事项。报送市政府的公文，由市政府办公室指定科室接收，传批完毕后，交回市政府办公室指定科室处理归档。除市政府领导同志交办事项和必须直接报送的涉密事项外，一般不得直接向市政府领导同志个人报送公文。', '拟提请市委审议或提请以市委、市政府暨市委办公室、市政府办公室名义联合发文的文件稿，且牵头起草部门为市政府部门的，应依照有关规定，先报市政府履行相关审核程序。', '二十八、市政府各部门起草地方性法规草案、政府规章草案和行政规范性文件，以及提请市政府研究决定重大事项的公文，必须遵守依法科学民主决策程序，深入开展调查研究，进行合法性、必要性、科学性、可行性和宏观政策取向一致性评估论证；涉及地方或部门的，应当事先征求意见；涉及重大公共利益和公众权益、容易引发社会稳定问题的，要采取多种形式听取各方面意见，进行社会稳定风险评估。地方性法规草案、政府规章草案，除依法需要保密的外，要公开征求意见，对争议较大的重要事项，应充分评估、慎重决策。', '二十九、各县市区政府、衡水高新区和滨湖新区管委会、市政府各部门报送市政府的请示性公文，涉及其他部门、单位事项的，在报送前应主动与有关部门和单位沟通，书面征求意见；经协商后仍然存在意见分歧的，应在文中列明各方理据，并提出办理建议。', '部门之间征求意见或会签文件时，除主办部门另有时限要求外，一般应在7个工作日内回复；特殊情况不能按期回复的，应主动与主办部门沟通并商定回复时限及方式。', '三十、各县市区政府、衡水高新区和滨湖新区管委会、市政府各部门报送市政府审批的公文，市政府办公室要认真审核把关，提出处理意见。涉及以市政府或者市政府办公室名义印发行政规范性文件、报请市政府批准后以部门名义印发行政规范性文件的，由市政府司法行政部门进行合法性审查。对部门之间有分歧的事项，分管主办部门的市政府领导同志应牵头加强协调。市政府副秘书长协助副市长做好协调工作。', '严格执行市政府文件前置审核制度。提交市政府常务会议审议的行政规范性文件，起草部门原则上要提前10个工作日送市政府办公室审核。市政府办公室批转市政府司法行政部门进行合法性审查并出具审查意见。市政府办公室提出前置审核意见后按程序报批。未经前置审核的，一般不予提交市政府常务会议审议。', '公文及办理意见由市政府办公室按照市政府领导同志分工呈批，涉及多位领导同志的事项应根据需要呈送市政府其他领导同志核批，重大事项报市长审批。', '三十一、市政府向省政府及市委的请示、报告等，由市长签发。市政府发布的规章和命令，向市人大及其常委会提出的议案，人事任免事项，由市长签发。', '市委、市政府暨市委办公室、市政府办公室联合发文，报市政府副秘书长、秘书长、分管副市长、市长审批后，转市委办公室按程序办理。', '以市政府名义发文，凡属综合性政策文件、重大事项报市长签发；属于分管副市长工作职责范围内的，由分管副市长签发。', '以市政府办公室名义发文，属市政府办公室职权范围内的由市政府秘书长签发；由市有关部门起草以市政府办公室名义印发的文件，由分管副市长签发，也可经分管副市长同意后由市政府秘书长签发，涉及重大事项的，报市长签发。', '以市政府和市政府办公室名义制发的公文，在报请市政府秘书长批示前由市政府司法行政部门进行合法性审查。', '三十二、市政府各部门制定行政规范性文件，要符合宪法、法律、行政法规和国务院、省政府、市政府有关决定、命令的规定，严格遵守法定权限和程序，严格合法性审查。', '涉及两个及以上部门职权范围的事项，要充分听取相关部门的意见，并由市政府制定政府规章、发布决定或命令，或由有关部门联合制定行政规范性文件。其中，涉及公众权益、社会关注度高、敏感性强的重要公共政策、重大民生事项等，应当事先请示市政府。未经市政府授权，市政府各部门不得向县级政府发布指令性公文或者在公文中向县级政府提出指令性要求。', '各县市区政府、衡水高新区和滨湖新区管委会行政规范性文件和市政府部门行政规范性文件应当依法依规及时报市政府备案，由市政府司法行政部门审查并定期向社会公布目录。', '三十三、市政府及各部门要精简文件简报。加强发文统筹，从严控制发文数量、发文规格和文件篇幅。弘扬“短实新”优良文风，突出政治性、思想性、针对性和可操作性，做到简明实用，不得照抄照搬、穿靴戴帽，力戒形式主义。从严控制篇幅，除部署全局性、综合性工作外，文件篇幅一般不超过10页、字数一般不超过5000字，部署专项工作或具体任务的文件一般不超过4000字。综合报告一般不超过5000字，专项报告一般不超过3000字。', '凡法律、行政法规已作出明确规定、现行文件已有部署且仍然适用的，不再制发文件。从严控制配套类、分工类发文。市政府各部门不得以贯彻落实、督查考核等名义擅自要求地方制发配套文件。分工方案原则上应与文件合并印发，不单独发文。每个部门原则上只向市政府报送1种简报。没有实质内容的文件简报，一律不发。', '市政府及各部门要加强机关信息化应用和保障，积极推广电子公文，加快实现文件和简报资料网络传输和网上办理，减少纸质文件和简报资料。', '三十四、市政府要自觉对标对表，坚决贯彻习近平总书记重要指示批示，全面落实党中央、国务院和省委、省政府以及市委决策部署，坚持系统观念，加强研究部署，压实主体责任，完善工作机制，强化跟踪督办，及时报告办理进展，确保见到实效。市政府领导同志要亲力亲为抓落实，指导、推动、督促分管领域和部门，加强协调推进，确保政令畅通、令行禁止。', '三十五、市政府各部门要坚决贯彻落实党中央、国务院和省委、省政府以及市委、市政府决策部署，严格落实工作责任制，加强组织领导，全面履职尽责，主动担当作为，细化任务分工，制定具体措施，强化协同配合，强化跟踪问效，狠抓末端落实，确保各项政策举措落到实处。', '三十六、市政府各部门要充分发挥抓督查、促落实、保发展的作用，完善督查工作机制，创新督查方式，加强统筹规范、联动协同，增强督查的针对性和实效性，防止重复督查、多头督查，减轻基层负担。', '三十七、市政府及各部门要贯彻落实全面从严治党要求，切实加强自身建设。要严格遵守政治纪律和政治规矩，严格落实廉洁从政各项规定，坚决落实中央八项规定及其实施细则和河北省以及衡水市实施办法。市政府领导同志要以身作则、以上率下，抓好分管领域和部门的党风廉政建设。', '三十八、市政府及各部门要加强和改进调查研究，大兴调查研究之风，深入群众、深入基层，多到困难多、情况复杂、矛盾尖锐的地方开展实地调研，掌握实际情况，了解民情民意，积极为地方、基层和群众服务，帮助解决困难和问题。', '三十九、市政府及各部门要严格执行请示报告制度，工作中涉及全局的重大方针政策，经济、政治、文化、社会、生态文明建设中的重大原则和问题，以及中央、省委和市委集中统一管理的事项等，必须按规定向市委请示报告。', '市政府各部门工作中的方针、政策、计划和重大行政措施，应向市政府请示报告。市政府各部门发布涉及政府重要工作部署、经济社会发展重要问题的信息，要经过严格审定，重大情况要及时向市政府报告。', '四十、市政府组成人员要严格遵守各项工作纪律，坚决执行党中央、国务院和省委、省政府及市委、市政府的决定，不得有与党中央、国务院和省委、省政府以及市委、市政府决定相违背的言论和行为。', '市政府领导同志考察调研、出席会议活动要严格执行中央、省委和市委规定要求，减少陪同人员，简化接待工作，规范新闻报道。市政府领导同志不公开出版著作、讲话单行本，不发贺信、贺电，不题词、题字、作序，特殊情况必须严格按照有关规定报批。市政府组成人员代表市政府发表讲话和文章，个人发表署名文章，必须严格按照有关规定执行。', '要严格执行请销假制度，一般需提前两天请假。副市长、秘书长出差、休假，应事先向市长报告，并向市委报备。市政府各部门主要负责人出差、休假，应事先向市政府办公室报告，由市政府办公室向市政府领导同志报告。', '要严格执行财经纪律，厉行勤俭节约，严格执行办公用房、住房、用车等方面的规定，坚决反对特权、不搞特权。严格控制因公出国（境）团组数量和规模。', '要严格遵守保密纪律和外事纪律，严禁泄漏国家秘密、工作秘密或因履行职责掌握的商业秘密等，坚决维护国家的安全、荣誉和利益。', '四十一、市政府工作人员要弘扬伟大建党精神，牢记“三个务必”，强化责任担当，勤勉干事创业，敢于斗争、善于斗争，马上就办、真抓实干。坚持反“四风”、树新风，纠治形式主义、官僚主义，推进作风建设常态化长效化。', '要带头尊崇宪法和维护法律权威，严格按照法定权限和程序行使权力、履行职责、承担责任，不断提高运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险的能力。', '市政府及各部门要进一步建立健全激励与约束机制，为担当者担当，为负责者负责，为干事者撑腰，努力营造干事创业的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>13</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>李克强总理出席记者会并回答中外记者提问</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021-03-12</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2021%2F3%2F12%2Fart_47_307773.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_47_307773</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['新华社北京3月11日电 十三届全国人大四次会议11日下午在人民大会堂举行记者会，国务院总理李克强应大会发言人张业遂的邀请出席记者会，并回答中外记者提问。', '记者会开始时，李克强说，很高兴同媒体的朋友们见面，感谢大家对中国两会报道所付出的辛劳。今年我们还是继续通过视频进行交流，请大家提问。', '美国消费者新闻与商业频道记者：李总理，新冠肺炎疫情对许多工作完成的方式和地点都产生了影响，疫情暴发一年了，请问中国就业质量和收入有什么明显的变化，中方将采取什么具体的措施改善这种状况？ 特别是在人口老龄化背景下，对消费需求特别是国外品牌消费有什么影响？', '李克强：就业对一个国家、对一个家庭可以说都是天大的事。去年在疫情肆虐的时候，很多街面上都见不到行人了，多数店铺都关了，当时我们最担心的就是出现大规模的失业。记得后来我到地方考察，看了不少店铺。在一个小店，店主跟我说，3个月没有营业了，因为政府减免税费，支持减免房租、水电费，稳岗补贴资金到位，我们没有裁员，挺过来了。我问员工的工资怎么办？他说当时只发生活费了。在场的20多位员工都说，店里管吃管住，不让我们下岗，还有什么说的。企业和员工都明白，只要保住了企业、稳住了岗位，一复工复市，生意就会旺起来。', '去年我们在制定宏观政策的时候，因为不确定因素太多，没有制定经济增长的预期目标。但是反复权衡，还是制定了就业目标，也就是城镇新增就业900万人以上。因为就业是民生之本，是发展之基，也是财富创造的源头活水。当时我们也提出，要努力实现全年经济正增长，实际上是相信只要能够实现900万人以上的城镇新增就业，就有经济的正增长，因为有就业就有收入，就可以带动消费、拉动经济。', '去年，在以习近平同志为核心的党中央坚强领导下，经过全国上下共同努力，我们的市场主体表现出坚强的韧性，广大人民共克时艰，最后实现了城镇新增就业1186万人，全年经济增长2.3%，居民收入相应增长，都好于预期。', '今年我们的就业压力仍然很大，城镇新增劳动力约1400万人，其中高校毕业生909万人，创历史新高，还要保障退役军人就业，还要为两亿七八千万农民工提供打工的机会。所以今年我们在制定宏观政策的时候，依然坚持就业优先的政策，我们继续推动“六稳”、落实“六保”，还是把就业放在首位。去年出台的有关就业的政策举措，不仅没有调退，还有所增加，s其他政策都要有利于就业。我们相信，通过经济稳定恢复增长，会带动更多的就业岗位，而更多的就业岗位会推动经济稳中向好。', '今年我们确定新增城镇就业的目标是1100万人以上，希望在实际执行中还可以更高一点。我们也很明确，就业还是要让市场来唱主角，也就是继续通过保市场主体来保就业。一方面推动稳岗增岗，另一方面拓展就业渠道。去年疫情中就业方式也有新变化，像我们这几年发展的新动能，包括网购、快递等逆势快速增长，也带动了就业和传统产业发展。我们一方面要继续鼓励增加相对稳定的就业岗位，也要广开灵活就业的渠道。现在中国的灵活就业正在兴起，已经涉及到两亿多人。有的一人打几份工，很辛苦，所以我们应该给他社保补贴，特别是要用机制性的办法来解决可能出现的职业伤害问题，给他们提供基本的权益保障。这也有利于灵活就业市场更加健康、稳定地向前发展。', '至于刚才记者朋友提到的老年人问题，中国老龄人口已经有两亿六千万，老龄产业也可以说是一个巨大的朝阳产业，它带来了多样化的需求。正因为中国市场多层次、多样化的需求，这样一个广大的市场也必然会给外国企业的产品、服务乃至于投资创造更多机会，因为我们的市场是开放的。', '中国有14亿人口，劳动力资源可以说是最丰富的资源，中国人民又能够吃苦耐劳，只要有就业门路就会多挣。“民生在勤，勤则不匮”。我相信中国人民会用自己勤劳的双手，来逐步迈向共同富裕。', '西班牙埃菲社记者：美方指责中方对上月到访武汉的世界卫生组织专家组缺乏透明度，专家组组长指出中方同事分享了大量工作细节，同时也表示专家组希望获得在2019年10月至12月之间与新冠肺炎疫情相似疾病病例的更多原始数据，中方是否愿提供这些数据，或者是否愿再次接待专家组访华？', '李克强：新冠肺炎疫情是一起突发的全球公共卫生事件，中方和各方一样都希望能够尽快查清病毒是从哪里来的，这样有利于切断传播的渠道，更好更有效地来防控疫情。但疫情溯源的确是一个复杂的科学问题，需要各国加强合作，持续研究。中方本着实事求是、公开透明、开放合作的原则和态度，同世卫组织保持沟通，也支持世卫组织专家在华开展溯源研究工作。下一步我们还愿意继续同世卫组织一道，推动科学溯源工作。', '当前疫情还在全球蔓延，当务之急不仅要溯源，还要做好各种防控工作，包括接种疫苗等。新冠病毒是人类共同的敌人，我们希望各方携起手来，因为在这样一个人类共同的敌人面前，没有哪个国家能够独善其身。我们也坚信人类有能力最终战胜这个病魔，我也希望明年我们能够面对面进行交流。', '日本经济新闻记者：您在政府工作报告中提出2021年国内生产总值增长目标为6%以上，目前很多国际机构都认为中国2021年经济增长有可能达到8%左右。在“十四五”开局之年，除了固定资产投资规模加大，还存在着由于世界性的资金过剩导致房地产投资过热的风险，现在中国政府采取了宽松的财政和货币政策。请问总理，在这样的情况下今年是否存在宏观政策转为偏紧的可能性？ 据日本经济研究中心预测，中国的经济规模将于2028年超过美国，对此您有何看法？', '李克强：我注意到，我们提出6%以上的经济增长预期目标，确实引起了多方面的关注，有不少分析。有的认为是积极的，也有的认为低于预期。我们当然乐见经济向好，但是也清醒地看到，今年是在恢复性增长的基础上前行，有很多不可比的因素，而且世界经济复苏不确定性依然很大。我们说增长6%以上，6%不低了，现在我们的经济总量达到100万亿元，增长6%就是6万亿元，这要放到“十三五”之初，需要8%以上增速才能达到。而且我们说增长6%以上是开了口子的，实际过程中也可能会增长得更高一点。但是我们不是在定计划，是引导预期，希望把预期引导到巩固经济恢复增长基础，推动高质量发展，保持可持续性，尤其是和明年、后年的目标相衔接，不能造成大起大落，否则会扰乱市场的预期。一时走得快不一定走得稳，只有走得稳才能走得有力。我们还是希望中国这样一个巨大的经济体，经济能够行稳致远，保持长期向好。', '去年面对罕见的巨大冲击，我们及时果断采取措施，但也保持定力，没有搞“大水漫灌”。我们新增财政资金规模2万亿元，绝大部分都是用于市场主体和民生急需，主要是减税降费、保基本民生，而且采取了直达机制，就是把这些“救命钱”最快7天时间直达基层，来保证基层减税降费、稳岗等财力，很快就见到效果。如果我们当时重点考虑上大项目、搞大产业，这不是不需要，但这要经过论证还要考虑市场需求，时间恐怕得200天以上，就不是仅仅一周时间了。错过了时间，企业可能会大批倒闭。我记得去年在记者会上，也有记者提出中国政府采取的政策规模和力度是不是偏小了。我们是把“肥”施到根子上，政策打到点子上，所以起效快、有作用。现在看，这个规模、力度是合理的，准备的储备政策后来也没有用。', '去年我们没有搞宽松政策，或者说所谓量化宽松，今年也就没有必要“急转弯”，还是要保持政策的连续性和可持续性，着力稳固经济，推动向好。保持经济运行在合理区间，还是要注重把“肥”施在根上，现在市场主体特别是中小微企业还在恢复元气中。由于经济恢复增长，我们要合理调整政策，但调整是适度的，有些阶段性政策退了，同时又用一些结构性减税降费政策来冲抵影响，保持保就业、保民生、保市场主体的力度不减。', '怎样保持力度不减？ 资金规模固然很重要，但用好钱更重要，我们去年宏观调控积累的经验还可以继续用。比如在财政金融方面，简单地说，就是要“一减、一增、一稳中有降”。“一减”，就是减少中央政府本级支出，各级政府都要带头过紧日子；“一增”，就是扩大直达资金范围，让基层和市场主体感到政策支持力度不减，这样能够更快更有效地惠企利民；“一稳中有降”，就是在稳定杠杆率的同时，引导金融企业合理让利，使中小微企业融资更便利、融资成本稳中有降。当然，我们对各类风险隐患，也会及时防范化解。', '中国发展的根本目的是要让中国人民过上好日子，中国还是一个发展中国家，实现现代化还有很长的路要走。我们会立足于着力办好自己的事。中国的发展对世界和平稳定、繁荣发展都是重要贡献。', '中国新闻社记者：总理您好。前两年住院费用的异地报销问题得到了解决，极大便利了异地就医。但是很多人外出打工，也有不少老年人是异地养老，他们门诊的看病开药还需要回原籍报销，非常不方便，所以请问门诊费用的报销何时能得到解决？', '李克强：我在中国政府网的实名留言中，也看到了这类问题。的确，在一些学校门口，大家看到很多老人在接送孩子，这些老人不少是异地养老的，或者就是来帮子女带孩子的。他们中有人经常为异地报销医疗费奔波烦恼，这个问题应该下决心逐步解决。今年我们要扩大门诊费用跨省直接报销的范围，到明年年底前每个县都要确定一个定点的医疗机构，能够直接报销包括门诊费在内的医疗费用，不能再让这些老人为此烦心。这件事，还有类似的事，看似不大，政府工作人员多费些心，就可以让老人、让家庭多一点舒心。', '凤凰卫视记者：过去一年香港因为疫情饱受打击，未来两年又将进入选举年，此时全国人大会议就完善香港的选举制度作出了决定，人大常委会将就香港选举的相关法律进行修改。外界对于“一国两制”如何继续实践充满关注。您认为“一国两制”在香港将来要如何行稳致远？', '李克强：我们明确提出，要继续全面准确地贯彻“一国两制”、“港人治港”、高度自治方针，严格依照宪法和基本法办事，落实好特别行政区维护国家安全的法律制度和执行机制，全力支持特区政府和行政长官依法施政。', '刚才你问到全国人大就完善香港选举制度作出决定，决定很明确，就是要坚持和完善“一国两制”的制度体系，始终坚持“爱国者治港”，也是为了确保“一国两制”行稳致远。', '去年香港受到了多重冲击，我们希望香港各界能够携起手来尽早战胜疫情，实现经济恢复性增长，改善民生，保持香港长期繁荣稳定。中央政府会继续全力给予支持。', '中央广播电视总台央视记者：国家提出建设科技强国，但是目前在一些重点领域和关键技术上我们还存在短板，甚至出现了“卡脖子”的情况。与此同时，我们还看到了一些急功近利的现象，比如在一些地区，一些高新产业项目的大规模投入出现了烂尾。请问您如何看待这样的情况？ 未来政府在推动科技创新方面还会有哪些新的举措？', '李克强：多年来，我国在科技创新领域有一些重大突破，在应用创新领域发展得也很快，但是在基础研究领域的确存在着不足。要建设科技强国，提升科技创新能力，必须打牢基础研究和应用基础研究这个根基。打多深的基，才能盖多高的楼。不能急功近利，要一步一个脚印地走。', '目前我国全社会研发投入占GDP的比重还不高，尤其是基础研究投入只占到研发投入的6%，而发达国家通常是15%到25%。我们下一步要加大基础研究的投入，还要继续改革科技体制，让科研人员有自主权，很重要的是要让科研人员有经费使用的自主权，不能让科研人员把宝贵的精力花在填表、评比等事务上，还是要让他们心无旁骛去搞研究，厚积才能薄发。讲到这里，我想对青年学生们说几句话，不管你们将来从事什么职业、有什么样的志向，一定要注意加强基础知识学习，打牢基本功和培育创新能力是并行不悖的。树高千尺，营养还在根部。把基础打牢了，将来就可以触类旁通，行行都可以写出精彩。', '创新还是要依靠市场的力量。企业是创新的主体。“十四五”期间政府会继续加大科技投入，同时要更多地依靠社会力量来加大研发投入，所以我们要增加“全社会”这个口径下的研发投入。这就需要采用一些机制。比如今年我们采取对制造业研发费用投入加计扣除100%的措施，这实际上是一项税收优惠，就是想通过市场化普惠制的办法，使企业投资研发有动力。当然，研发要靠人才，中国的人才资源是丰富的。我们一方面要让领军拔尖人才脱颖而出，另一方面也要看到普通人也有上上智。这些年我们推动“双创”，形成“众创”局面，推动了应用创新，也给整体创新带来了更大空间。', '我们说科技要自立自强，科学家要发奋努力，这和国际合作、同行交流是并行不悖的。科学探索和发明发现是需要合作的，需要共同努力。封闭不会有前途，断链对谁都没有好处。中国愿意在保护知识产权的基础上，同各国加强科技领域的合作，共同促进人类文明进步。', '美国有线电视新闻网记者：美中两国关系在过去几年跌入建交以来的低谷，中方高层官员多次表示这是由于特朗普政府实施极端错误的反华政策造成的，他们也希望，美国拜登政府可以拨乱反正。但是许多来自华盛顿的声音表示中方的判断和立场忽视了重要的两点：一个就是双边关系恶化是双方的原因，而不是中方常说的责任完全在美方；还有一点就是在对华态度以及重大政策上，无论是疫情溯源还是香港、新疆等问题，美国的民主和共和两党其实有着高度的共识。请问您对这种来自美国的观点有何回应？ 尤其是在美中两国将于下周在阿拉斯加举行拜登上台之后的首次高级别会谈之际，中方会不会调整或者改变相关政策立场，推动双边关系的重启和修复？', '李克强：过去几年中美关系的确遭遇了严重的困难，给两国和世界都带来了不利的影响。中美作为世界上最大的发展中国家和最大的发达国家，合则两利、斗则俱伤。中美建交40多年了，风风雨雨，能越过坎坷向前走，还是因为符合世界发展趋势，符合两国的根本利益。我们希望双方按照习近平主席最近和拜登总统通话的精神，尊重彼此的核心利益和重大关切，互不干涉内政和内部事务，秉持不冲突不对抗、相互尊重、合作共赢的原则，推动两国关系向着健康稳定的方向发展。这既符合两国人民的利益，也是国际社会的期待。', '中美两国历史文化、发展阶段、社会制度不同，彼此相处难免会有矛盾、有分歧，有的时候甚至比较尖锐，关键是如何对待。中美两国人民是有智慧、有能力的，双方还是要相互尊重、平等相待地进行对话沟通。我们希望中美有多领域、多层次的对话，即便一时达不成共识，也可以交换意见、增信释疑，这有利于管控和化解分歧。', '中美两国有着广泛的共同利益，有许多可以合作的领域。在去年多重冲击的背景下，中美两国的贸易规模仍然达到4.1万亿元，增长8.8%。我们还是应当把更多精力放在共同点上，去扩大共同利益。中美两国作为联合国安理会常任理事国，对于维护世界和平稳定、促进世界繁荣发展，都有重要责任。应该推动中美关系越过坎坷往前看，向着总体稳定的方向走。', '新华社记者：您一直强调要重视激发市场主体活力，发挥市场主体在经济发展中的重要作用。现在有一些市场主体反映，在生产经营、公平竞争、市场环境等方面还有一些困难和障碍。请问今年政府将出台哪些改革措施来助企纾困，让他们焕发新的生机？', '李克强：去年我们推进改革，很突出的一点就是制定和实施宏观政策时，围绕市场主体的需求来考虑，助力市场主体脱困、激发活力，撑起中国经济的基本盘。中国改革开放40多年来，我们发展社会主义市场经济，不断培育和发展市场主体。市场主体培育起来，就可以充分发挥市场在资源配置中的决定性作用和更好发挥政府作用。“十三五”期间的五年，我们的市场主体增加了6000多万户。去年在疫情冲击下，后期快速恢复增长，现在市场主体总数已经达到一亿三千多万户，而且去年个体工商户又新增1000多万户，从8000多万户增加到9000多万户，带动两亿多人就业。市场主体的活力激发、活跃度提高，这是政府推进改革的努力方向。', '今年我们政策的制定和实施，还是要继续围着市场主体转，这就需要继续推进“放管服”改革，让市场主体不仅生存，而且活跃。去年我们说留得青山，就赢得未来，今年说留得市场主体的青山常在，就能够生机盎然，使中国经济的活力和韧性充分体现。所以转变政府职能很重要的是要把市场主体应有的权限给他们，让他们去发挥。对于审批环节，我们要继续减环节、减材料、减费用、减时限。一方面为市场主体减负，另一方面为他们松绑，放开手脚去竞争。', '当然，要竞争就应当是公平的竞争，就必须有监管。管出公平、管出公正，这样才能让市场主体显示真正的创造力。所以我们放管并重，创新监管方式，加强事中事后监管，这都是改革。我们支持“互联网+”、物联网这些新业态，但是对于坑蒙拐骗、造假失信，或者利用新业态的旗号去搞诈骗、非法集资的，就要坚决打击，因为把市场搅乱了，没有公平，竞争就不可能持续，就不可能展现更强的活力。', '政府还要进一步优化政务服务，为企业重质量、守诚信、精工细作去提高产品和服务竞争力来营造环境。对于政务服务中那些涉及企业、人民群众经常要办的事项，要努力做到网上办、掌上办、一次办，让市场主体有更强的活力，社会有创造力。', '台湾无线卫星电视台记者：今年年初，台湾方面表示希望跟大陆能够在后疫情时代恢复交流。与此同时，两岸关系目前并没有看到和缓的迹象，请问大陆方面对此怎么看，未来又如何因应？', '李克强：我们对台的大政方针是一贯的，也是非常明确的，就是坚持一个中国原则和“九二共识”。在此前提下，我们欢迎台湾任何政党、团体同我们交往，也欢迎台湾各党派团体人士就两岸关系和民族未来与我们开展对话。', '我们坚持推进两岸关系和平发展和祖国统一，反对任何形式的“台独”分裂活动，也反对外部势力的干涉。', '我们一直秉持“两岸一家亲”的理念。这几年出台了很多惠及台企台胞的政策，不少台湾企业和同胞从中受益。我们会继续让台湾同胞分享大陆的发展机遇，继续推动两岸融合发展。', '人民日报社记者：受疫情等因素影响，民生领域一些难题凸显，如就医、子女教育、养老托幼等成为我国经济社会发展的短板，也影响了人民群众的获得感和幸福感。请问政府打算从哪些方面着手来解决这些难题？', '李克强：今年政府总支出比去年略有增加，盘子不小，所以要更多地向量大面广的民生领域倾斜，特别是义务教育和基本医疗。如果下半年经济持续向好，那么会下更大的力度把财政支出包括债务支出投向这些领域。这对拉动当年GDP增长可能不明显，但是对于长远发展、惠民生有支撑作用。我们要坚持以人民为中心的发展思想，这是习近平新时代中国特色社会主义思想的重要内容，人民的政府就应当以民之所望为施政所向。', '教育和健康关系到每个家庭、国家与民族的未来。我在两会参加代表团审议时，一位中学校长说，现在县乡中学还缺乏优质的教师资源，教师的待遇不高，学历也很难提高。我们今年要下决心，加大对县乡教师培训的投入，让他们能够在职便利地提高学历，职称评定要采取倾斜政策。对于在城市的农民工子弟，只要拿到居住证，一定要让他们有受教育的机会。决不能因为家境、区域不同，让孩子输在起跑线上。机会公平中，教育公平是最大的公平。', '健康是幸福的基础，也是生产力。现在县乡基层的医疗机构和力量还比较薄弱，很多人有病往大城市大医院跑。今年我们要多措并举加大对县乡医院、卫生院的投入，对于扩大门诊医保报销范围和常见病药品报销范围、降低药品和高值医用耗材价格等，都要采取一些让群众切实感受得到的措施。也就是说，要让群众看病多一点便利，治病少一点负担。这也有利于巩固脱贫攻坚成果，防止因病返贫致贫。', '在养老托幼方面，政府还要通过引导社会力量来兴办社区服务业，尽可能在税收等方面给予优惠支持，给家庭在养老托幼方面不仅减轻一点负担，也多一点温暖。总之，民生方面的事很多，我们要在发展中持续改善民生。我们现在实施的是广覆盖、保基本的社会保障制度。保基本，要在经济发展中持续提高水平，但也要突出重点。对于事关人人、事关国家和民族未来的义务教育和基本医疗，各级政府一定要扛在肩上。', '新加坡联合早报记者：中国提出加快构建以国内大循环为主体、国内国际双循环相互促进的新发展格局。请问这是不是中国在美国等西方国家“围堵”下被迫采取的某种战略收缩？ 另外，在中国发展国内大循环、构建超大规模的国内市场的时候会带来怎样的变化？ 留给外资的空间未来会不会越来越小？', '李克强：中国提出要立足新发展阶段、贯彻新发展理念、构建新发展格局，以国内大循环为主体，国内国际双循环相互促进，这既是要做大国内市场，也是要扩大开放。中国经济已经深度融入世界经济，可以说你中有我、我中有你，关起门来是没有出路的。中国会不断地、主动地扩大开放，这是中国自身利益的需要，也有利于世界。中国把内需市场做大，带动自身发展，也会给外资、外国产品和服务带来巨大的机会。我在参加代表团审议的时候，一位企业家说，抓住内循环就是要开拓国内市场，抓住双循环就是要开拓国际市场，两个市场还可以打通。他说得很朴实，但言简意赅。', '开放还需要各国共同努力，相向而行。经过8年的努力，去年东盟10国、中、日、韩、澳、新15国谈成了RCEP协定，这是世界上最大的自贸区，是不同社会制度、文化习俗，不同发展阶段国家共同建设的。这说明，只要相互尊重、平等相待，可以谈出共识，找到共同利益，扩大各国人民的福祉，而且有助于地区产业链、供应链的稳定，会给世界经济增添动力。中国是世界产业链、供应链的重要组成部分，我们不仅要发挥自身的作用，而且要履行自身的责任，维护以世贸组织规则为基础的多边贸易体制。只要是对互利共赢有利的，无论是多边、双边的机制，我们都持积极开放的态度。', '我们会进一步主动地对外开放，继续缩减外商来华投资负面清单，继续推动包括服务业在内的对外开放。我注意到，很多外企关心中国的营商环境，我们还要继续打造市场化、法治化、国际化的营商环境。总而言之，通过多种努力，在扩大内需中不断扩大开放，继续让中国成为外商投资的重要目的地、世界的大市场。', '记者会采用网络视频形式进行，主会场设在人民大会堂三楼金色大厅，分会场设在梅地亚两会新闻中心。记者会历时约110分钟。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>13</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>衡水市政府新闻办召开衡水市教育规范提升工程新闻发布会</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-10-29</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2019%2F10%2F29%2Fart_96_29.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_96_29</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['衡水市人民政府 在线访谈 衡水市政府新闻办召开“衡水市教育规范提升工程”新闻发布会', '10月11日上午，衡水市政府新闻办就“衡水市教育规范提升工程”召开新闻发布会，衡水市教育局党组副书记、副局长李广义介绍有关情况并回答记者提问，衡水市委宣传部信志锋主持发布会。全程实录如下：', '教育是民族振兴、社会进步的重要基石，是功在当代、利在千秋的德政工程。教育是国之大计、党之大计。市委、市政府坚持以习近平新时代中国特色社会主义思想为指导，把“教育规范提升工程”作为全市“三深化、三提升”活动的重要内容，列入全市“八大工程”，以“六项规范、六项提升”为牵引，重点推进教育事业优先发展、健康发展。今天，我们有幸邀请到了衡水市教育局党组副书记、副局长李广义，就教育规范提升工程进行发布。', '按照新闻发布会安排，由我向大家就衡水市正在实施的教育规范提升工程做一个汇报，敬请各位媒体朋友批评指正。借此机会，我代表衡水市教育局向莅临本次新闻发布会的记者朋友，以及长期以来关心和支持衡水教育工作的各位媒体朋友表示崇高的敬意和衷心的感谢！', '衡水作为大儒之乡、教育名城，始终有着尊师重教的历史文化传统。特别是近几年来，市委、市政府坚持把教育摆在优先发展的战略地位，把教育作为重要的民生工程，高度重视和支持教育事业发展，投入力度前所未有，支持力度前所未有，管理力度前所未有，改革力度前所未有。今年以来，市委、市政府相继召开了全市教育大会、全市教育规范提升工作座谈会、全市学校思想政治理论课教师座谈会和“平‘语’近人”进校园现场推进会等4次高规格会议，并将于近期召开全市基础教育工作会议。每次会议，市委、市政府主要领导和分管领导都亲自安排、亲自部署、出席会议并讲话。市委书记王景武、市长吴晓华等领导先后到市教育局和学校一线调研指导教育工作，市领导对教育空前重视。', '根据衡水教育发展实际，市委、市政府科学研判，审时度势，把实施教育规范提升工程列入今年全市经济社会发展“八大工程”之一，制定印发了《关于加快推进衡水现代化教育强市建设的实施方案（2019—2022年）》《衡水市2019年教育规范提升工程实施方案》《衡水市教育信息化2.0实施方案》《实施教育规范提升工程10条政策措施》等系列文件，为实施教育规范提升工程和推进衡水现代化教育强市建设指明了方向，规划了蓝图，明确了思路，制定了措施。按照市委、市政府安排部署，全市教育系统坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实全国、全省、全市教育大会精神，把改革作为激发教育事业发展的根本动力，用担当的勇气和创新的思维扎实推进教育规范提升工程，围绕“规范”“提升”和“改革”3个关键词写好“奋进之笔”，教育规范提升工程取得扎实显著的成效——衡水教育健康发展的态势进一步增强，衡水教育综合水平进一步提升，广大人民群众的幸福感、获得感进一步增强。', '“六项规范”取得初步成效。一是对民办学校办学进行了规范。先后出台了《衡水市人民政府关于促进民办教育健康发展的意见》和《衡水市人民政府关于进一步加强民办学校规范和管理的意见》，在民办学校准入、年检年报、重大事项管理、学校招生、办学规模等方面都做出明确具体的政策规定。二是对公办学校参与举办民办学校进行了规范。按照规范提升要求，各公办学校和参与举办的民办学校严格落实“五独立”要求，公参民学校的办学行为进一步规范。三是对民办学校办学规模强化了规范管理。一方面，严格控制民办普通高中招收外地生，努力扩大招收本地生；另一方面加强对民办初中招生规模的管理，在今年秋季大幅度核减了主城区3所较大规模民办初中的招生规模。四是严格规范中小学招生行为。印发了《关于中小学违规招生行为问题专项整治方案》，开展了中小学违规招生行为专项整治行动，2019年全市中小学招生明显好于往年。五是加强了校外培训机构监管。印发了《衡水市校外培训机构专项治理行动实施方案》，先后开展了专项整治行动和专项整治“回头看”，对全市排查出的各类无证校外培训机构通过引导审批、整改、取缔等形式基本完成了整改。六是强化了学校安全的规范管理。制定了《衡水市教育系统风险隐患防控指导手册》，建立了市、县、校三位一体的风险管控和隐患治理“双控”工作体系。在全市中小学全面开展了平安校园建设、学校安全隐患排查暨化解风险“攻坚月”行动和防溺水安全教育“六个一”活动，校园意识形态阵地进一步巩固，全市学校保持了稳定有序的良好局面。', '“六项提升”全面深入实施。一是全面落实立德树人根本任务。印发了《关于全面开展“平‘语’近人”进校园活动的实施意见》，全面开展了习近平新时代中国特色社会主义思想进教材、进课堂、进头脑活动，召开了全市“平‘语’近人”进校园活动现场推进会，“平‘语’近人”进校园活动在全市各级各类学校全面铺开，活动经验得到全国关工委主任顾秀莲同志的高度评价。二是推进学前教育普及普惠发展。加强公办幼儿园建设，年内完成新建、改扩建幼儿园13所。城镇住宅区配套幼儿园专项治理全面开展，目前主城区54所住宅区配套幼儿园已全部纳入政府统筹管理，已经交付使用的幼儿园全部办成公办园或普惠性民办园，其他县市35所配套幼儿园统筹管理正在顺利推进，我市此项工作在河北省基础教育工作会议上进行了经验介绍。从今年春季学期开始，全市公办幼儿园已全部落实每生每年400元的公用经费。同时我们还实施了农村学前教育全覆盖工程，今年年底前基本实现每个乡镇建设一所三类以上乡镇中心园的目标。三是加快义务教育优质均衡发展。各县市区制定了消除大班额专项规划和年度计划，市政府制定了《主城区中小学幼儿园建设规划（2017-2020年）》，将市区4所中小学建设列入今年市委市政府民生实事，消除中小学“大班额”工作成效明显；年内完成新建、改扩建中小学校56所。义务教育城乡学校结对帮扶和学区一体化管理改革进一步深化。从今年秋季开始，各县市区城区每所学校都将结对帮扶1所以上农村学校，每个县市区确定一个试点乡镇实施学区一体化管理改革，条件成熟后将全部推开；在今年春季主城区公办小学全面推行课后免费托管服务的基础上，今年秋季开学后，全市城镇小学校内课后托管服务全面实施，实现了有需求的学生全覆盖；主城区非寄宿制中小学开展营养午餐和午间托管服务改革稳步推进。今年秋季开学时，按照“政府主导、学生自愿、保证安全、市场运营”的原则，通过“中央厨房”供餐模式，在衡水市第三中学、第四中学、第七中学、胜利路小学、恒丰路小学共5所学校开展了营养午餐和午间托管服务试点，待条件成熟后，将在主城区公办非寄宿制中小学逐步铺开，让广大家长切实享受到教育改革发展带来的“红利”。四是加快普通高中教育改革发展。制定了《衡水市高中阶段教育普及攻坚计划（2017—2020）实施方案》。今年，市财政投资2.88亿元，实施衡水中学扩建工程。该项工程实施，衡水中学将增加占地面积146.856亩，建筑面积65000平方米，学校整体扩容学生2200人，目前工程基本完工，即将投入使用。市政府出台了《衡水市高考综合改革保障工作实施方案》，各县市区各学校对照新课程和高考综合改革的新要求，在校园校舍、师资队伍、课程建设等方面提升保障能力，积极推进新课程教学改革。各普通高中学校充分尊重青少年学生成长的规律，不断优化办学条件，改善育人环境，优化内部管理，科学规范学生在校学习生活，衡水中学、衡水二中积极探索育人模式改革，衡水普通高中教育更加有质量、更加有温度。五是推进职业教育、高等教育高质量发展。衡水学院新校区概念性规划设计方案已经通过，项目建议书的编制和评估工作已经完成，建设资金筹划方案初步确定，近期将开工建设。衡水职业技术学院交通运输学院成功争创河北省混合所有制办学体制改革试点。衡水科技工程学校、衡水铁路电气化学校、衡水卫生学校正在积极探索提升办学层次、改革体制机制的路径和方法。六是加快推进教育信息化建设。按照推进教育信息化支撑教育现代化的工作思路，制定了《衡水市教育信息化2.0实施方案（2019—2022年）》，以“衡水市智慧教育云平台”为抓手，通过平台的应用，带动教育信息化建设，全面提升教育信息化基础支撑与服务能力。目前，“云平台”基本架构建设已接近尾声，后续工作将按计划进行虚拟区域数据、虚拟学校、校本资源库、网上图书馆及分级阅读管理等数据建设。“衡水市智慧教育指挥中心”已经建成，基本实现了数据投屏、视频交流、视频监管、录课和直播教学四大功能。全市将有100所学校成为教育信息化市级示范校，目前已启动了对这些学校的校长、网管员以及教师等方面人员的培训。', '以上是今年以来我市推进教育规范提升工程的进展情况。当前，衡水教育正处在全面规范提升的重要时期，各位记者朋友远道而来，莅临衡水专题听取教育规范提升工程的实施情况，既是对我们的鼓舞，更是对我们的鞭策。我们将以此为契机，继续以开拓创新的思路、担当实干的勇气、求真务实的作风，深入实施教育规范提升工程，全力推进衡水教育持续健康发展，努力开创衡水现代化教育强市建设的新局面。', '现在进入记者提问环节，大家如有提问，请举手示意。按照惯例，请在提问之前，先通报一下自己所在媒体的名称。为让更多的记者获得提问机会，请每次只提问一个问题。', '一、衡水电视台衡水新闻：刚才您介绍在提升教育综合水平工作时提到了开展小学校内课后服务的问题，这也是广大家长普遍关心的问题，请您详细介绍一下这方面的情况好吗？谢谢', '李广义：对于小学下午放学时间较早，家长接送学生不方便、学生课后无人看管这一家长关心、社会关注的热点难点问题，市委、市政府高度关注。按照市委、市政府的安排部署，市、县两级教育主管部门主动回应群众关切，大力实施小学课后托管服务工作。', '为确保课后服务贴合学生身心健康和家长需求实际，市教育局、市财政局、市人力资源和社会保障局多次调研论证，联合印发了《关于在主城区全面推行小学生课后免费托管服务的指导意见》，并于今年春季开学率先在衡水市区全面推行。《指导意见》明确了课后服务工作的基本原则、实施时间、实施范围和服务内容，并在经费保障和工作纪律方面作出制度性规定。基本原则是“市区财政分担、学生自愿参加、学校集中托管、社会多方参与、活动安全有序”；实施范围涵盖市区公办小学一至六年级学生；实施时间为下午放学后延长1个课时，17:40统一离校。', '自2月20日小学课后服务工作开展以来，市委、市政府领导多次召集市区各有关部门进行调度；市、区两级教育行政部门跟踪服务，及时了解工作情况，听取校长、教师和家长的意见建议，不断完善工作措施；各学校根据本校实际制定托管方案，细化管理办法，建立工作台帐，确保了课后服务工作顺利实施。目前，学校的服务内容一是辅导学生完成课后作业为主；二是开展书法、美术、音乐、体育、戏曲等一系列丰富多彩的课外活动，为有兴趣特长的学生提供丰富多样的个性化服务；三是学校邀请文艺、科技、体育等领域的社会团体以及志愿者进入校园，为学生提供更多更专业的课后服务，为学生的全面发展提供了有利条件。', '在经费保障方面，按照《指导意见》要求，衡水市区公办小学的课后服务经费由市、区两级财政筹集，按1:1比例分担，按照春季学期各学校统计参加课后服务学生人数，以2元/每生每天的标准安排，用于保障学校开展免费托管服务产生的开支。今年，市财政局已经安排870万元资金专项用于开展小学课后服务工作，为该服务提供了坚实的财政保障。', '在衡水市区取得成功经验的基础上，今年暑假期间，市委教育工作领导小组又印发了《关于全面开展小学生校内课后服务工作的通知》，要求各县市学习借鉴市区成功经验，在全市所有小学全面推行课后服务工作。今年秋季新学期开学后，全市所有城镇小学课后服务工作已全面实施，对有需求的学生实现了全覆盖，广大家长和学生切实享受到了我市教育事业改革发展带来的实惠。', '为提升课后服务工作质量，9月23日，市教育局又专门下发了《关于进一步优化小学课后服务工作的通知》，倡导各地各学校进一步丰富课后服务内容，积极打造课后服务工作新思路新模式。一是要求引入志愿服务。鼓励各地各学校组织社会专业人员、高校优秀学生、退休教师、学生家长等群体为学生提供各类专业化的课后服务，积极动员体育教练、民间艺人、能工巧匠、非物质文化传承人及社会热心人士进入校园为学生提供形式多样的服务，提升课后服务质量。二是动员开展社团活动。要求各地各学校立足本地本校实际，开展形式多样、能够满足学生兴趣爱好的各类社团活动，为学生提供“菜单式”服务。三是动员组织专题教育。倡导各学校利用课后服务时间，统一安排学生进行安全、法律、环保、心理健康、卫生保健、励志感恩等专题教育活动，同时我们也要求不得把国家课程方案和课程标准中要求开设的课程或活动纳入课后服务时间内进行，防止课后服务给学生“增了负”。四是倡导学生参与社会实践。鼓励各学校利用课后服务时间，与校外活动场所、社区、机关企事业单位和社会团体等联合组织开展学生社会实践活动。比如：充分发挥爱国主义教育基地的资源优势，让学生走进爱国主义教育基地，接受革命传统和民族精神教育，增进其爱国情感，提高其道德修养；充分发挥校外活动中心的作用，组织学生参加社会实践活动或进行素质教育拓展训练，培养学生基本生活技能和劳动技能，提高学生自立、自理、自救、自护的能力等等。通过上述举措，课后服务工作的形式得到进一步丰富和充实，学生选择的空间也更加多元化，为学生全面发展提供了更为广阔的空间。', '二、衡水日报：国家和省正在推行住宅区配套幼儿园专项治理，衡水开展这方面的工作较早，并在河北省基础教育工作会议上介绍了经验，请您谈一下这方面的情况。谢谢！', '李广义：对于学前教育工作，衡水市委市政府确实是高度重视。国务院于今年1月9日印发《关于开展城镇小区配套幼儿园治理工作的通知》（国办发〔2019〕3号），在全国开展“规范小区配套幼儿园建设使用，并对小区配套幼儿园规划、建设、移交、办园等情况进行治理”，省政府于今年3月14日对全省小区配套幼儿园治理工作进行了全面部署。我市是从2017年下半年开始安排这项工作，主要是针对推进城镇化进程的加快，特别是2014年我市被确定为省综合改革试验区后，户籍改革持续推进，主城区学前教育资源不足的问题越来越来突出，幼儿“入园难”、“入园贵”成为社会每年关注的热点、难点和焦点。市委市政府根据国务院和省政府《关于发展学前教育的意见》等政策，高位谋划、强力推进城镇小区配套幼儿园统筹管理工作。目前，衡水主城区小区配建幼儿园54所已全部纳入政府统筹管理。今年国务院和省政府文件下发后，我市立即着手安排部署，要求各县市参照主城区的做法，全面开展专项治理工作，各县市小区配建共35所幼儿园统筹管理工作正在顺利推进。我们的主要做法：', '一是以深化改革为发展动力，实现率先突破。着眼于保障和改善民生，我市连续两年把主城区配建幼儿园统筹管理列入政府重点工作和创新改革的重要事项，6次召开相关部门、房产企业、人大代表、政协委员、小区业主等不同层面代表参加的调度会和协调会，充分听取各方面意见。在做好最充分准备的基础上，2018年6月10日，我市出台了《衡水市关于对主城区住宅区原有配套幼儿园统筹管理使用的意见》和《衡水市主城区住宅区配套幼儿园建设管理办法》两个规范性文件。文件以《国务院关于当前发展学前教育的若干意见》出台时间为节点，对2010年11月21日国务院文件出台以后到2018年6月10日以前取得建设工程规划许可的住宅项目原有配建幼儿园全部收回政府统筹管理，2018年6月10日以后新建住宅区按照规划全部配建幼儿园并直接移交政府管理，在全省率先实现了对主城区住宅小区配套幼儿园的统筹管理使用。', '二是以主城区为示范引领，实现全市覆盖。两个文件出台后，由程蔚青副市长、崔海霞副市长牵头，强力推进配建幼儿园回收工作。各区政府、市直相关部门各司其职、协调联动，社会各界大力支持，列入统筹管理范围的54所幼儿园，对收回建成的33所，通过举办公办园或者普惠性民办幼儿园，实现充分利用。对尚未建成的21所，按照“建成一个、使用一个”的原则，建成回收后全部用于举办公办园或普惠性民办园。今年，国家和省城镇小区配建幼儿园专项治理工作方案出台后，我市各县认真借鉴主城区的成功经验，全面开展了专项治理工作，共确定小区配建的幼儿园35所全部纳入政府统筹管理，现已回收使用11所，其余在建的24所，同样按照“建成一个、使用一个”的原则，建成回收后全部用于举办公办园或普惠性民办园。', '三是以公益普惠为基本原则，实现幼有所育。我市主城区配建幼儿园统筹管理后，不仅免除了办园者的房租，还对幼儿园给予适当补贴，这“一增一减”使办园的成本大大降低，收费标准也随之大幅度下降，减轻了群众的负担；同时，有了政府的资金扶持，幼儿园把更多的精力放在了教学上，办园质量也得到有效提升。以我市桃城区为例，区政府免除了办园者房租，并按照每生每月50元的标准给予补贴，幼儿园收费标准由原来的每月600—1680元不等降为一类园880元、二类园620元、三类园450元，平均收费标准降低一半以上。桃城区还将回收的恒丰理想城幼儿园办成公办第七幼儿园。广大市民对这一民心工程赞不绝口，纷纷感谢政府真正让孩子们享受到了质优价廉的学前教育。', '三、河北日报：在提升教育服务能力方面，衡水市在主城区公办非寄宿制中小学实行了营养午餐试点改革，请您介绍一下这方面的情况好吗？谢谢！', '李广义：好的。对于这项试点改革，应该说我们做了大量的前期筹备工作。目前试点工作进展顺利，5所试点学校在今年9月2日开学时均已落实午餐供应并提供午间托管，待试行成熟后，将在主城区公办非寄宿制中小学逐步推开。', '我们的主要做法：一是科学调研论证。为完成好主城区义务教育阶段非寄宿制公办中小学营养午餐试点任务，我们在今年的2月份组织桃城区教育局、高新区社会发展局和部分小学、初中学校的负责同志，先后到石家庄、邯郸等先进地区进行了考察调研，初步确定采用“中央厨房+午餐和午间托管一体化”管理模式（即将午间用餐和托管统筹考虑，简称“一餐一托管”，对不用餐的学生不予托管），并形成了专题调研报告。二是科学确定实施方法。依据考察论证情况，确定了“政府主导、学生自愿、保证安全、市场运营”的午餐试点原则。三是广泛征求意见。广泛征求家长委员会和学生代表大会、教职工代表大会意见，保障师生、家长的知情权、参与权、选择权和监督权。4月份在主城区32所非寄宿制公办中小学就饭菜质量与价格、午休方式与场所、作息时间变更等相关内容广泛征求了意见，共收回征求意见表45035份，约占在校生总数的90%。根据征求意见情况，桃城区确定在市第三中学、第四中学、第六中学、胜利路小学、恒丰路小学5所学校进行试点。四是完善供餐保障。我局与市迎宾馆、桃城区政府多次协商，研究讨论营养午餐的实施办法和亟需解决的相关问题，筛选确定由市迎宾馆提供午餐，市迎宾馆注册了衡水儒香园餐饮服务有限公司，建设了高标准的“中央厨房”，确保提供安全卫生、健康营养、实惠可口的午餐。', '为确保这项改革的顺利实施，我们做到了三个“落实”：一是落实资金保障。参照已经实施的主城区公办小学免费课后托管服务的做法，按秋季学期实际在学校就餐人数，由市、区两级财政按1:1比例分担午间托管资金，试点学校按初中每年200天、小学每年173天在校时间测算，以后年度列入预算，年终据实核定的办法。5所试点学校的配套设施设备所需资金按市、区财政1:1比例分担。二是落实午间托管。主要是通过学校组织学生完成作业、自主阅读以及开展一些运动量不大的社团活动。三是落实安全监管。落实中小学生午餐供应及学校饮食安全主体责任，从根本上保障学生午餐的安全和营养，有效降低学校食品安全风险。', '下一步，我们将进一步加大对这项工作的推进力度，完善工作措施，确保孩子们吃得放心、吃得营养，真正把好事办好、实事办实，让广大群众真受益、得实惠，努力办人民满意的教育。', '好的，提问环节就到这里。如有媒体需要深入采访，会后请与市教育局联系。本场新闻发布会到此结束，谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>13</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>衡水市人民政府关于公布衡水市安全生产监管责任清单的通知</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F11%2F4%2Fart_10442_449032.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10442_449032</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['经市政府常务会议研究同意，现将《衡水市安全生产监管责任清单》予以公布。并就有关事项通知如下。', '一、强化责任意识，认真履职尽责。各级各部门要牢固树立安全发展理念，弘扬生命至上、安全第一的思想，按照“党政同责、一岗双责、失职追责”要求，不折不扣落实安全生产监管责任。要认真对照责任清单，及时修订本单位、本行业领域安全生产管理制度，完善目标责任制，健全监管机构，加强工作衔接，切实把责任压实压死。', '二、细化分解责任，实施清单管理。各级各有关部门要明确部门安全生产职责，并纳入部门“三定”规定。按照责任清单，结合工作实际，将各项安全监管责任逐条逐项落实到具体岗位、具体人员，明确履职标准和具体要求。各县市区要按照“管行业必须管安全、管业务必须管安全、管生产经营必须管安全”和“谁主管，谁负责”的原则，抓紧编制本地安全生产监管权力清单和责任清单，明晰各部门监管责任。', '三、加强督导考核，狠抓责任落实。市安委办要将各级各有关部门照单履职情况纳入督导检查、巡查考核内容，对安全监管履职不到位、安全监管问题突出、生产安全事故多发的县市区和部门，以约谈、通报或下发督办函、整改令等形式，及时督促落实。要严格安全生产监管责任追究，按照“尽职照单免责，失职照单问责”原则，对发生生产安全事故和重大事故隐患逾期未完成整改的，在依法追究企业主体责任的同时，按照责任清单倒查相关部门的监管责任。', '法律、法规对部门安全生产监管职责进行调整变更的，有关部门要及时将相关情况报市安委办，市安委办汇总并报经市政府同意后，对《责任清单》进行动态调整。', '依法行使安全生产综合监督管理职权，承担本级安全生产委员会日常工作，负责指导协调、监督检查、巡查考核本级政府有关部门和下级政府安全生产工作。', '未按规定履行安全生产综合监管职责，相关工作部署缺位，指导协调不力，导致行业性或区域性重大安全风险。', '.依法组织较大和提级调查事故及迟报、漏报、谎报、瞒报的一般事故的处理和办理结案工作，监督事故查处和责任追究落实情况。', '.指导协调全市安全生产应急救援工作；统一指挥协调较大、重大生产安全事故应急救援工作。', '.组织指导全市安全生产应急救援体系建设；负责规划指导全市专业安全生产应急救援队伍建设工作；组织指导全市安全生产应急救援预案编制和备案管理及应急演练工作；负责监督管理重大危险源管理工作。', '.接到重特大事故应急救援信息，未及时上报值班领导，导致应急救援工作处置不及时、事故扩大，造成更大的经济损失、人员伤亡。', '.在组织的大型应急演练中，因组织不到位，造成弄假成真，造成重大经济损失、人员伤亡。', '依照执行全省工矿商贸企业有关人员安全生产培训大纲及考核标准、省级统一题库和政策制度，负责工矿商贸企业主要负责人、安全生产管理人员安全生产知识和管理能力的考核，负责特种作业人员操作资格考核，组织安全培训综合督查和专项检查。', '负责职责范围内安全评价机构、安全生产检测检验机构监督管理工作，监督检查技术服务工作开展情况，依法查处相关非法违法行为。', '对安全评价机构实施监督检查工作中滥用职权、玩忽职守、徇私舞弊的，依照有关规定给予处理。', '负责职责范围内危险化学品安全生产监督管理综合工作，指导下级部门对危险化学品建设项目进行安全审查，核发危险化学品安全使用许可证和危险化学品经营许可证，监督检查化工（含石油化工）、医药、危险化学品生产经营单位安全生产情况。', '在安全生产许可证颁发、管理和监督检查工作中，索取或者接受企业的财物，或者谋取其他利益的。', '.《衡水市人大常委会关于禁止燃放烟花爆竹的决定》（衡水市人民代表大会常务委员会公告第', '负责烟花爆竹安全生产监督管理，在烟花爆竹生产企业投入生产前，依申请提出安全审查初步意见，报上级部门审查。核发烟花爆竹经营（批发）许可证。', '.依法查处未经许可生产、经营烟花爆竹制品，以及向未取得烟花爆竹安全生产许可的单位或个人销售黑火药、烟火药、引火线等违法行为。', '负责职责范围内非药品类易制毒化学品生产经营活动的许可和监督管理工作，依法查处相关非法违法行为。', '负责职责范围内冶金、建材、有色、机械、轻工、纺织、烟草、商贸行业安全生产监督管理，研究制定行业安全生产地方政策法规，监督检查企业贯彻执行安全生产法律法规情况，依法实施建设项目安全设施“三同时”管理。', '负责组织事故应急救援和事故调查处理，依据《中华人民共和国安全生产法》等法律法规查处相关行业非法违法行为。', '.指导协调消防、森林和草原火灾防治、火情监测预警和火灾扑救专业应急救援力量建设工作，发布森林和草原火险、火灾信息。', '.承担火灾预防、火灾扑救、监督执法及火灾事故调查相关工作，依法行使消防安全综合监管职能。', '.依法对机关、团体、企业、事业等单位遵守消防法律、法规的情况依法进行监督检查，对公众聚集场所投入使用、营业前进行消防安全检查，对使用领域的消防产品质量实施监督检查。', '.依法查处违反消防法律法规的行为。加强消防法律法规的宣传，督促、指导有关单位做好消防宣传教育工作。', '县级以上教育行政部门负责对校车安全的监管工作，督促学校做好校车安全源头管理和安全隐患排查，检查学校的安全教育及应急演练开展情况，指导监督学校建立校车安全管理工作制度、应急预案和安全管理台账。', '.依法检查校车道路运行情况，依法查处校车道路交通违法行为和非法提供校车服务的违法行为。', '.负责危险化学品的公共安全管理，核发剧毒化学品、易制毒化学品购买许可证和道路运输通行证，并负责危险化学品运输车辆的道路交通安全管理，依法查处非法违法行为。', '.应急管理、铁路、交通运输、民用航空主管部门依照法律、行政法规的规定，负责做好民用爆炸物品的有关安全监督管理工作。', '.民用爆炸物品行业主管部门、公安部门、市场监督管理部门按照职责分工，负责组织查处非法生产、销售、购买、储存、运输、邮寄、使用民用爆炸物品的行为。', '.负责民用爆炸物品的公共安全管理和使用、运输环节的安全监督管理，负责从事爆破作业企业和爆破作业人员的安全技术培训、考核、发证工作。', '.组织销毁处置使用、运输环节废旧和罚没的非法民用爆炸物品，按照职责分工组织查处非法购买、运输、使用（含储存）民用爆炸物品行为。', '公安部门、应急管理部门、市场监管部门应当按照职责分工，组织查处非法生产、经营、储存、运输、邮寄烟花爆竹以及非法燃放烟花爆竹的行为。', '负责烟花爆竹公共安全管理，负责烟花爆竹道路运输安全、燃放安全管理，没收非法携带、邮寄、夹带的烟花爆竹，组织销毁、处置没收的非法烟花爆竹。', '组织、指导、监督各级公安部门依法查处打孔盗油盗气等破坏油气输送管道的违法犯罪行为，维护良好的管道保护治安秩序。', '负责大型群众性活动安全管理。对大型群众性活动实施安全许可，制定相应安全监管方案和突发事件处置预案，监督检查安全监管措施落实情况，对活动现场的安全状况进行实地检查。依法查处非法违法行为，处置危害公共安全的突发事件。', '负责研究部署公安机关森林和草原防火工作，指导公安机关开展火场警戒、交通疏导、治安维护、火案侦破等工作，协同有关部门开展防火宣传、火灾隐患排查、重点区域巡护、违规用火处罚等工作；在公安部出台有关规定之前，公安派出所按照《河北省公安派出所消防监督管理规定》（冀公办发〔', '配合相关部门开展安全生产执法检查，对当事人以暴力、威胁方法拒绝检查、拒不执行执法检查指令、拒不提供相关技术资料等妨碍公务的违法行为予以查处，对发现及相关部门移交的涉嫌违法犯罪案件予以查处，依法对有关生产安全事故现场予以保护。', '.按《道路运输车辆动态监督管理办法》，交通运输部门与公安机关交通管理部门、应急管理部门依据法定职责，对道路运输车辆动态监控工作实施联合监督管理。', '.公路管理机构和公安交通管理部门应当实行驻站联合执法，由公路管理机构负责检测车辆装载情况并监督消除违法行为，公安交通管理部门单独实施处罚和扣分。', '.对不具备安全生产条件、存在重大运输安全隐患的运输生产经营单位责令停产停业、停止使用、限期改正等，在规定时间内不能按要求改正且情节严重的，移交有关部门吊销相关经营许可或变更相应的经营范围。', '.在职责范围内对有关行业、领域的安全生产工作实施监督管理，依法查处安全生产非法违法行为。', '负责职责范围内道路、水路、地方铁路工程安全生产监督管理，督促有关企业贯彻执行安全生产相关法律法规。', '依法开展安全生产监管执法，依据《中华人民共和国安全生产法》等法律法规实施监管执法，查处交通建设工程安全生产非法违法行为。', '负责内河通航水域实施水上交通、辖区内游艇水上交通安全生产的监督管理，负责船舶、游艇船员监管，监督有关单位和个人贯彻执行安全生产相关法律法规。', '依据《中华人民共和国安全生产法》等法律法规实施监管执法，查处水上交通安全生产非法违法行为。', '负责烟花爆竹运输企业及运输工具的安全生产监督管理，负责道路运输从业人员的资格认定。', '组织协调解决公路、地方铁路、内河水路建设项目与油气输送管道建设和安全运行相关的重大问题。', '负责跨越、穿越航道的油气输送管道项目航道通航条件影响评价审核工作，并监督检查建设单位对跨越、穿越省内通航水域的油气输送管道专用警示标志的设置维护工作。', '负责对依法取得道路旅客运输经营许可，并取得校车使用许可的道路客运企业参与学生接送车辆的监督管理。', '负责机动车维修企业的监督管理，监督指导相关企业开展安全风险辨识管控和隐患排查治理。依据《中华人民共和国安全生产法》和相关行业法律法规实施安全生产监管执法，查处非法违法行为。', '.推进高速公路、国省道视频监控、交通诱导等管理系统建设，向公安、应急管理等部门开放道路及重点车辆监控等资源。', '铁路、交通、水利、电力等有关部门，按照规定的职责分工，负责有关专业建设工程安全生产的监督管理。', '负责建设工程安全生产监督管理。负责建筑施工安全生产准入，各类房屋建筑工程和市政基础设施工程质量安全监督管理，指导建筑施工企业从业人员安全生产教育培训工作。', '对建设单位、勘察和设计单位、施工单位、监理单位、工程监测和质量检测单位安全质量相关法律、法规以及强制性标准执行情况实施监督检查。', '市城市管理综合行政执法局负责市主城区（桃城区、冀州区、衡水高新区和滨湖新区的城市建成区）管道燃气安全监管。', '市场监管部门负责查处擅自为非自有气瓶充装燃气的，以及销售未经许可的充装单位充装的瓶装燃气行为。', '公民、法人或者其他组织未经行政许可，擅自从事燃气经营活动的，燃气管理、市场监管（原工商行政管理）部门、公安机关应当责令停止违法行为，依法予以取缔。', '负责城镇燃气（主城区管道燃气除外，含农村燃气）安全生产监督管理，对燃气经营者的经营活动、服务情况、设备设施安全状况等进行监督检查。', '对燃气工程建设、经营、使用、设施保护、燃气燃烧器具安装、维修等活动的监督检查，依据《中华人民共和国安全生产法》等法律法规查处非法违法行为。', '依法查处销售充装单位擅自为非自有气瓶充装燃气和未取得燃气经营许可证从事燃气经营活动等非法违法行为。', '.对不符合消防安全要求的消防设计文件、建设工程、场所准予审核合格、消防验收合格的。', '负责建设工程特种设备安全管理，对房屋建筑及市政基础设施工程工地用起重机械等特种设备安装、使用的监督管理，依据相关法律法规查处安全生产非法违法行为。', '负责全市物业行业安全生产监督管理，督促和指导各县（市、区）物业行政主管部门落实安全生产监督管理职责。依据《中华人民共和国安全生产法》和相关行业法律法规实施安全生产监管执法，查处非法违法行为。', '未开展对各县（市、区）物业行政主管部门的监督检查，或监督检查不力，导致存在重大安全风险或发生安全事故的。', '.负责市主城区（桃城区、冀州区、衡水高新区和滨湖新区的城市建成区，下同）管道燃气安全生产管理，对管道燃气经营者的经营活动、服务情况、设备设施安全状况等进行监督检查。', '.对市主城区管道燃气工程建设、经营、使用、设施保护、燃气燃烧器具安装、维修等活动的监督检查，依据《中华人民共和国安全生产法》等法律法规查处非法违法行为。', '负责管辖范围内城市道路和桥梁、地下综合管廊、供水、管道燃气、污水处理、垃圾处理、排土场等市政公用设施、施工工程安全生产监督管理，监督指导公共设施企事业单位严格执行安全生产法规标准，开展安全风险辨识管控和隐患排查治理。依法查处安全生产非法违法行为。负责主城区燃气、热力管道等公用压力管道安装、使用的监督管理。', '依法查处无证勘查、开采矿产资源、超越批准的矿区范围采矿，采取破坏性方法开采矿产资源等违法行为，并对查处落实情况实施监督。', '指导油气输送管道周边房屋和市政基础设施按规划施工，配合管道保护部门严查管道周边违法施工行为。', '.《中共中央办公厅 国务院办公厅印发〈关于推进城市安全发展的意见〉的通知》（中办发〔', '.《中共河北省委办公厅 河北省人民政府办公厅印发〈关于推进城市安全发展的实施意见〉的通知》（冀办发〔', '.坚持安全发展理念，指导各地科学严谨编制国土空间规划，优化国土空间结构，统筹协调生活区、商业区、工业区等其他功能区，以及区域重大基础设施的布局，在规划实施前进行充分的安全评估论证。', '.在国土空间规划过程中，严格执行相关安全标准，确保居民生活区、商业区、学校、医院等人员密集场所与易燃易爆、有毒有害物质生产、储存区域保持足够安全距离。', '负责林业草原安全监督管理，依据相关政策法规，对林业草原生产经营单位实施安全生产监督管理。', '依据相关法律法规对林区、林场内从事涉林生产经营活动的企业实施监督管理，查处安全生产非法违法行为。', '负责落实森林草原综合防灾减灾规划相关要求，组织编制森林和草原火灾防治规划及防护标准并监督实施，指导开展防火巡护、火源管理、防火设施建设等工作，组织指导森林和草原防火宣传教育、监测预警、督促检查等防火工作。', '.负责全市自然保护区、风景名胜区、地质公园、自然遗产、森林公园、湿地公园、沙漠公园等各类自然保护地安全进行监管。', '.指导各类自然保护地内旅游活动的安全管理工作，依法配合旅游主管部门对旅游市场开展安全生产监管执法。', '公安、市场监管部门按照职责分工，负责组织查处非法购买、运输、邮寄、使用（含储存）民用爆炸物品的行为。', '应急管理、铁路、交通、民用航空主管部门依照相关规定，做好民用爆炸物品的有关安全监督管理工作。', '按照《民用爆炸物品安全管理条例》，依法查处非法违法生产、销售（含储存）民用爆炸物品行为。', '对已经依法取得批准许可的单位，企业不落实主体责任，发现其不再具备安全生产条件或者发现存在严重安全生产违法行为不予查处的。', '应急管理部门负责危险化学品、冶金、建材、有色、机械、轻工、纺织行业安全生产监督管理。', '.指导石化（不含炼油）、化工（不含煤制燃料和燃料乙醇）、冶金、有色、黄金、稀土、建材、通用机械、汽车、民用飞机、民用船舶、轨道交通机械制造、轻工、纺织、家电、电子信息产品制造等工业行业安全生产管理，将安全生产工作同步纳入行业规划和产业政策。指导督促相关企业贯彻执行安全生产法律法规、标准规范。', '.按照职责分工，依法负责危险化学品生产、储存的行业规划和布局。严格道路机动车辆生产企业及产品准入许可。会同有关部门推动安全（应急）产业发展。', '未组织开展相关行业安全管理工作，将安全生产监管纳入行业规划和产业政策，并指导督促相关企业严格执行安全生产规定的。', '.指导督促相关企业贯彻执行安全生产法律法规、标准规范、组织开展安全风险辨识和隐患排查治理工作。', '应急管理、公安、市场监管、生态环境等有关部门在职责范围内对成品油经营单位实施监督管理。', '按照“谁主管、谁监督”的原则，对成品油零售经营许可事项开展“双随机、一公开”监管。', '应急管理、市场监管、卫生健康、住房城乡建设和生态环境等有关行政执法部门在职责范围内对商贸流通企业实施监督管理，商务部门配合。', '指导商贸流通行业安全管理，督促商贸流通企业贯彻执行安全生产法律法规，指导相关企业开展安全风险辨识管控和隐患排查治理。', '应急管理、市场监管、卫生健康、住房城乡建设和生态环境等有关行政执法部门在职责范围内对商贸服务企业实施监督管理，商务部门配合。', '指导商贸服务业安全管理，督促商贸服务企业贯彻执行安全生产法律法规，指导相关企业开展安全风险辨识管控和隐患排查治理。', '在制定全市经济开发区政策、规划和评价考核中，未涉及安全生产内容，导致存在重大安全风险或发生安全事故的。', '.工业和信息化部门负责职责范围内相关项目核准、备案，依法查处未经核准备案的非法违法项目。', '负责将安全生产工作纳入国民经济和社会发展规划。按职能安排安全生产基础设施、信息化、技术支撑体系、应急救援等投资计划。', '对符合条件的安全生产基础设施、信息化、技术支撑体系、应急救援体系项目未按有关规定安排的。', '依法主管全市高压长输管道保护工作，协调全市高压长输管道保护的重大问题，指导、监督有关单位履行管道保护义务，组织相关部门依法查处危害管道安全的违法行为。', '组织编制并实施全市管道发展相关规划，统筹协调跨县市区管道规划与其他专项规划的衔接。', '拟定电力发展规划、年度计划并组织实施，配合国家能源局及其派出机构对电力运行安全、项目建设施工安全实施监督管理。', '负责石油、天然气、电力（含核电）、新能源和可再生能源的行业管理，配合有关部门组织实施能源行业相关安全技术法规和标准，监测能源安全发展情况。', '负责粮食流通、加工行业粮油收储业务安全生产监督管理，承担市级粮食、食糖、食盐和救灾等物资承储企业以及物资储备承储单位安全生产的监管责任。', '.住房城乡建设部门负责房屋建筑工地、市政工程工地使用的起重机械、场（厂）内专用机动车辆和燃气、热力管道等公用压力管道的安装、使用的监督管理。', '负责监督管理特种设备检验检测机构和检验检测人员、作业人员，对为本部门提供技术、管理服务的中介服务机构实施安全生产监督管理。', '配合有关部门委托相关技术机构开展风险评估、检验检测等技术服务工作，为小型游乐设施安全管理提供指导和服务。', '发现未经许可擅自从事特种设备的生产、使用或者检验、检测活动不予取缔或者不依法予以处理的。', '发现特种设备生产单位不再具备本法规定的条件而不吊销其许可证，或者发现特种设备生产、经营、使用违法行为不予查处的。', '.按照工业产品生产许可目录及实施细则，依法对危险化学品及其包装物、容器生产企业的工业产品质量实施监督。', '.依照有关规定，依法对列入工业产品生产许可目录产品的危险化学品企业进行监督检查，并对违反《中华人民共和国工业产品生产许可证管理条例》的行为依法进行查处。', '.未按照相关规定对取得工业产品生产许可证危险化学品及其包装物、容器生产企业的工业产品质量实施监督的。', '配合有关部门开展安全生产专项整治，依据有关部门抄告，对有关许可审批部门依法吊销、撤销许可证或者其他批准文件，或者许可证、其他批准文件有效期届满的生产经营单位，根据有关部门的通知，依法责令其办理变更登记或注销登记；对于擅自从事相关经营活动情节严重的，依法将有关监管信息推送有关部门，由有关部门履行吊销执照、许可证有关程序；配合有关部门依法查处未经安全生产（经营）许可的生产经营单位。', '在实施监督管理活动中玩忽职守、徇私舞弊、滥用职权，导致发生重大安全风险或生产安全事故的。', '负责会同有关行政主管部门，组织制定地方安全技术标准，优先立项并及时完成保障人身健康和生命财产安全所应需的地方标准项目。', '负责药品类易制毒化学品生产、经营监督管理工作，负责生产、经营、购买第一类中的药品类易制毒化学品的监督管理，依法查处相关非法、违法行为。', '指导、督促相关企业贯彻执行安全生产法律法规，指导开展安全风险辨识管控和隐患排查治理。', '公安、交通运输、自然资源、市场监管、应急管理等部门按照各自的职责，协助做好河道采砂监督管理的有关工作。', '在职责范围内，组织协调解决水利工程建设与油气输送管道建设和安全运行相关的重大问题。', '依据《中华人民共和国安全生产法》等法律法规实施监管执法，查处水利建设工程安全生产非法违法行为。', '在职责范围内，负责水利系统的安全生产监督管理工作。负责水利系统管理的水库大坝、江河（湖泊）堤防、闸涵、灌排泵站、水电站等水利工程管理范围内的安全监管，督促相关企事业贯彻执行安全生产法律法规，指导开展安全风险辨识管控和隐患排查治理。依法查处安全生产非法违法行为。指导、监督水利行业从业人员的安全生产教育培训考核工作。', '负责农业系统、直属或直接监管企事业单位的安全生产监督管理，制定农业安全生产政策法规、规划、应急预案并组织实施。', '负责农作物农药使用和服务，指导农产品产地初加工设施安全生产；负责农村沼气安全生产工作。', '指导畜禽屠宰、兽药、饲料和饲料添加剂生产企业贯彻执行安全生产法律法规，指导开展安全风险辨识管控和隐患排查治理。', '依据《中华人民共和国安全生产法》及相关行业法律法规实施监管执法，查处非法违法行为。', '监督有关单位和个人贯彻执行安全生产相关法律法规，依据《中华人民共和国安全生产法》等法律法规实施监管执法，查处渔业船舶安全生产非法违法行为。', '农机主管部门负责拖拉机、联合收割机注册登记和道路外安全生产检查；公安部门负责拖拉机、联合收割机上道路行驶的安全检查。', '负责农业机械安全生产监督管理。指导监督拖拉机、联合收割机牌证审核发放和驾驶人员的培训、考试、发证工作。', '指导监督农机使用者贯彻执行安全生产法律法规标准，依法查处违反农机安全生产的非法违法行为。', '负责废弃危险化学品处置的环境污染防治监督管理；负责组织危险化学品的环境危害性鉴定和环境风险程度评估，依法查处相关非法违法行为。', '负责监管危险废物的申报和备案工作，负责对危险废物污染环境的防治工作实施统一监督管理。负责对产生危险废物单位危险废物的种类、产生量、流向、贮存、处置等情况的监督管理。', '负责对从事收集、贮存、处置危险废物经营活动单位经营许可证的监督管理工作，依法查处无经营许可证或不按经营许可证从事危险废物收集、贮存、处置经营活动的行为。', '指导协调各县市区政府开展生产安全事故次生环境污染和其他相关突发环境事件的应急、预警和处置工作。', '.指导督促各县市区和相关企业单位对重点环保设施和项目组织开展安全风险评估和隐患排查治理。', '负责放射性同位素的生产、销售、使用、贮存和废弃处置安全的统一监管，依法查处放射性物品的生产、销售、使用、储存过程中的违法行为。', '对未批准登记注册的民办中小学、幼儿园、托儿所以及各类课外班，由教育、政法部门协调当地乡镇、街道和有关部门担负起安全管理责任。', '.负责教育系统安全生产监督管理，制定教育安全地方指导性文件，实施职责范围内各级各类学校（含批准的幼儿园）的安全监管管理，负责指导、监督学校开展教学设施、场所及接送学生车辆的安全管理。', '.对学校组织的学生参加的大型校外活动及社会实践活动实施监督管理。负责将安全教育纳入教育教学内容，指导学校开展安全教育。', '.指导、监督学校依法健全各项安全管理制度和安全应急机制，会同相关部门制定区域性学校安全风险清单，建立动态监测和数据搜集、分析机制，及时为学校提供安全风险提示，指导学校健全风险评估和预防制度。', '.加强安全科学与工程及职业卫生相关学科建设，加快培养化工等安全生产和职业卫生相关专业人才。', '存在玩忽职守、指导监督不力等不履行职责或不正确履行职责，导致发生校园生产安全事故或重大风险的。', '公安机关在职责范围内，加强对校车的监管，严查校车超员、超载、超速及其他交通违法违规行为。', '.负责指导学校加强自有校车安全管理，指导市县教育行政部门审查学校或者校车服务提供者申请取得校车使用许可意见。', '.督促有关学校建立、健全和落实自有校车安全管理制度，将校车安全工作落实情况纳入使用校车的学校安全管理年度考核，协助公安机关交通管理部门对校车运行情况的监督检查。', '.指导、监督配备校车的学校、校车服务提供者落实安全生产相关法律法规，加强校车安全运行管理。', '按照“谁主办、谁负责”的原则，由其它部门主办或审批的重要体育赛事，由主办或审批部门负责安全监管。', '健身房、射击俱乐部、射箭馆等民营体育场馆，由审批单位负责安全监管；无需审批的，由所在地乡镇、街道负责安全监管。', '负责体育部门建设管理的公共体育设施运行、高危险体育项目、体育部门组织的重要体育赛事和群众体育活动的安全监督管理。', '负责高危险性体育项目经营单位（场所）的安全监督管理，督促相关单位贯彻执行安全生产法律法规，指导开展安全风险辨识管控和隐患排查治理。', '监管过程中存在玩忽职守、滥用职权、徇私舞弊行为，导致发生重大安全风险或安全事故的。', '.按照上级主管部门工作安排，将安全生产法律、法规及安全生产知识纳入相关行政机关工勤人员、事业单位工作人员的培训（含职业教育、继续教育等）学习计划并组织实施，将安全生产履职情况作为行政机关工勤人员、事业单位工作人员奖惩、考核的重要内容。会同有关部门按照国家有关规定对安全生产领域先进集体和先进个人以及在事故救援工作中作出突出贡献的单位和个人进行表彰奖励。', '.负责工伤保险工作，依法做好工伤认定、劳动能力鉴定，并根据参加工伤保险情况，抓好工伤待遇的落实。', '.负责女工和未成年工保护管理，实施监督检查，规范用工行为，依法查处损害女工、未成年工劳动保护和使用童工的非法、违法行为。', '.配合支持有关部门制定和实施安全生产领域各类专业技术人才、技能人才规划、培养、继续教育、考核、奖惩等相关政策。', '.指导技工院校、职业培训机构的安全管理工作。指导技工院校、职业培训机构开展安全知识和技能教育培训，制定突发事件应急预案，落实安全防范措施。', '.会同有关部门制定安全生产领域职业资格相关政策，按照职责分工开展注册安全工程师管理工作。', '.对违反女工、未成年工特殊劳动保护和违反工伤保险有关规定的申诉、检举、投诉持推诿、拖延、压制不予查处，或对相对人进行打击报复的。', '.未按职责指导技工院校、职业培训机构的安全管理工作，导致发生重大安全风险或安全事故的。', '负责（工业和民用）化学品毒性鉴定的管理，负责组织、协调危险化学品事故受伤人员的医疗卫生救援工作。', '.发生化学品事故，不立即组织实施救援，或者不采取必要的应急处置措施减少事故损失，导致事故蔓延、扩大的。', '.非公办医疗卫生机构和中直、省直医疗卫生机构及中直省直企事业单位医疗卫生机构，按照属地原则，由注册地县级以上人民政府有关部门负责监督管理。', '.按照“谁主管、谁负责”原则，市政府有关部门负责所属医疗卫生机构的监督管理；市卫生健康委对其他部门所属医疗卫生机构从行业规划、产业政策、法规标准等方面指导督促医疗卫生机构加强安全管理。', '负责职责范围内医疗卫生机构的安全管理，督促指导相关单位贯彻执行安全生产法律法规，开展安全风险辨识管控和隐患排查治理。依法查处非法、违法行为。对涉及安全生产事项需要审查批准或验收的，按照有关法规和国家标准或者行业标准规定的安全生产条件和程序进行审查或相关文件审核。协调指导生产安全事故的医疗卫生救援工作，对重特大生产安全事故组织实施紧急医学救援。', '.按照职责分工，负责职业卫生、放射卫生的监督管理工作，负责医疗机构放射性职业危害控制的监督管理。', '.负责用人单位职业卫生监督检查工作，依法监督用人单位贯彻执行国家有关职业病防治法律法规和标准情况。', '.负责职业卫生、放射卫生检测、评价技术服务机构的监督管理工作。组织查处职业病危害事故和违法违规行为。', '在工作中滥用职权、玩忽职守、徇私舞弊的，造成重大职业病危害事故或者其他严重后果的。', '.负责养老机构安全监督管理，督促相关单位贯彻执行安全生产法律法规，指导开展安全风险辨识管控和隐患排查治理。', '.负责殡葬安全管理工作，实施殡仪馆、公墓、骨灰堂设立审查，负责殡葬经营活动的监督管理，督促殡仪场所贯彻执行安全生产法律法规，指导开展安全风险辨识管控和隐患排查治理。依法查处非法违法行为。', '.负责文化行业安全监督管理工作，在职责范围内依法对文化市场安全生产工作实施监督管理，拟订文化市场有关安全生产政策，组织制定文化市场突发事件应急预案，加强应急管理。', '.在职责范围内依法对互联网上网服务经营场所、娱乐场所和营业性演出、文化艺术经营活动执行有关安全生产法律法规的情况进行监督检查。', '.负责文化系统所属单位的安全监督管理，指导图书馆、文化馆（站）等文化单位和重大文化活动、基层群众文化活动加强安全管理，落实安全防范措施。', '.依据《中华人民共和国安全生产法》及相关法律法规，查处文化行业生产经营单位安全生产非法违法行为。', '负责旅游行业安全监督管理工作，在职责范围内依法对旅游行业安全生产工作实施监督管理，拟订旅游行业有关安全生产政策，组织制定旅游行业突发事件应急预案，加强应急管理。', '会同有关部门对旅游安全实行综合治理，配合有关部门加强旅游客运安全管理。指导各县市区对旅行社企业安全生产工作进行监督检查，推动协调相关部门加强对自助游、自驾游等新兴业态的安全监管，依法指导景区建立具备开放的安全条件。配合有关部门组织开展景区内游乐园安全隐患排查整治。', '负责全市旅游安全管理的宣传、教育、培训工作。加强对有关安全生产法律法规和安全生产知识的宣传，配合有关部门共同开展安全生产重大宣传活动。', '负责文物保护工程和考古发掘工程安全生产的监督管理，依据《中华人民共和国安全生产法》等法律法规实施监管执法，查处文物保护工程和考古发掘工程安全生产非法违法行为。', '公安机关对文物刑事犯罪进行打击，文物部门负责行政执法和处罚，文物部门与公安机关做好行刑衔接。配合宗教事务部门做好经依法批准为宗教活动场所的文物保护单位的安全监管。', '协同配合有关部门查处文物安全事故，协同住房城乡建设部门负责历史文化名城（镇、村）安全生产监督管理工作。', '.负责指导、监督广播电视机构及设施设备安全管理，指导、协调全市重大广播电视活动，指导推进全市应急广播体系建设，制定广播电视有关安全制度和处置重大突发事件预案并组织实施。', '.组织指导广播电视机构及新闻媒体开展安全生产宣传教育，配合有关部门共同开展安全生产重大宣传活动，对违反安全生产法律法规的行为进行舆论监督。', '住房城乡建设部门负责房屋建筑工程和市政基础设施工程防雷装置设计审核、竣工验收许可。公路、水路、铁路、民航、水利、电力、核电、通信等专业建设工程防雷管理，相应地由各专业部门负责。', '.负责雷电灾害安全防御管理工作，负责油库、气库、弹药库、化学品库、烟花爆竹、石化等易燃易爆建设工程和场所，雷电易发区内的矿区、旅游景点或者投入使用的建（构）筑物、设施等需要单独安装雷电防护装置的场所，以及雷电风险高且没有防雷标准规范、需要进行特殊论证的大型项目的防雷装置设计审核和竣工验收许可。', '负责人工影响天气作业安全管理，依据相关行业法律法规实施安全监管执法，查处非法违法行为。', '建立健全气象灾害监测预报预警联动机制，根据天气气候变化情况及防灾减灾工作需要，及时向各有关地区和部门提供气象灾害监测、预报、预警、气象灾害风险评估等信息，为有关地区和部门发布各类突发事件预警信息提供平台。负责为安全生产预防控制和事故应急救援提供气象服务保障。', '未按规定及时向各有关地区和部门提供气象灾害监测、预报、预警、气象灾害风险评估等信息。', '负责邮政行业安全生产监督管理，实施快递企业行业准入和监督管理，对邮政企业实施监督管理，依据《中华人民共和国安全生产法》和相关行业法律法规实施安全生产监管执法，查处非法、违法行为。', '不依法做出行政许可或进行备案的；发现违法行为或接到违法行为的举报后，不查处或查处不力造成严重后果的；在行业安全监管工作中滥用职权、玩忽职守、徇私舞弊的。', '依法履行出资人的企业安全生产监督管理职责，将安全生产纳入监管企业年度业绩考核，与企业负责人薪酬挂钩，并实行安全生产一票否决制度。督促监管企业贯彻落实国家、省安全生产方针政策及有关法律法规等，积极配合综合监管、行业主管部门工作，发挥国有企业示范带动作用。', '.依照有关规定，参与或组织开展国有企业安全生产和应急管理的检查、督查，督促企业落实各项安全防范和隐患治理措施。', '.督促国有企业做好统筹规划，把安全生产纳入中长期发展规划，保障职工健康与安全，切实履行社会责任。', '落实上级安全生产工作的财税政策和安全生产投入保障要求，加强对安全生产风险防控、重大安全隐患治理和监管监察能力建设的支持，将安全生产监管执法等相关经费纳入同级财政保障范围。', '《关于对安全生产领域失信生产经营单位及其有关人员开展联合惩戒的合作备忘录》（发改财金〔', '对存在安全生产失信行为的生产经营单位进出口货物实施严密监管，在办理通关业务时，加强单证审核或布控查验。', '将安全生产法律法规纳入全民普法教育内容，发挥市法治宣传教育领导小组办公室职能，督促指导相关部门按照“谁执法谁普法”普法责任制宣传普及安全生产法律法规。开展安全生产法律服务。', '.负责审查有关部门报送市委、市政府的有关安全生产行政法规草案，起草或组织起草有关安全生产重要行政法规草案。', '.负责有关安全生产行政法规解释的具体承办工作，承办申请市政府裁决的有关安全生产行政复议案件，指导、监督全市安全生产行政复议工作。', '负责职责范围内的安全生产管理责任，指导本系统直属或直接监管企业事业单位安全生产管理工作。', '.负责出版印刷行业安全生产监督管理，实施出版单位、印刷企业经营许可的行业准入和监督管理。', '.负责出版活动的监督管理，依据《中华人民共和国安全生产法》和相关行业法律法规实施安全生产监督，组织查处违法违规行为。', '将安全生产宣传纳入社会公益性宣传范畴，督促指导有关新闻宣传部门和单位配合各级人民政府及相关部门开展安全生产宣传教育活动；根据授权及时发布安全生产的重大政策和生产安全事故信息，正确引导舆论导向。', '在职责范围内严把许可、核准、登记关口，严格资料审查，按照行业监管部门制定的清单对高危项目审批必须依法依规严把安全生产准入关口。', '负责对电信行业的安全生产监督管理，组织电信企业为生产安全事故救援提供应急通信保障。', '.负责将落实安全生产责任情况纳入党政领导班子及其成员综合考核评价指标体系，并作为确定考核结果的重要参考。把党政领导干部履行安全生产工作职责情况，作为考核考察干部的重要内容和选拔使用干部的重要参考。', '.加强应急管理部门干部队伍建设，不断优化领导班子和干部队伍结构，在编制和职数范围内，选优配强安全生产监管工作人员。', '.把安全生产纳入党员领导干部教育培训的总体规划和年度培训计划，加强党员领导干部队伍的安全生产教育培训。', '.将安全生产科技进步纳入同级科技发展规划和科技计划并组织实施；组织安全生产重大技术攻关；鼓励支持科研院所和企事业单位开展安全生产技术研究；推动安全生产科研成果的转化应用。', '.加大对安全生产重大科研项目的投入，引导企业增加安全生产研发资金投入，促使企业逐步成为安全生产科技投入和技术保障的主体。', '.在科学技术奖励工作中，加大对安全生产领域重大研究成果的支持，引导社会力量参与安全生产科技工作。', '.依法对安全生产工作进行监督，反映劳动者的诉求，指导各县市区工会依法组织职工参加本单位安全生产工作的民主管理和民主监督，维护职工在安全生产方面的合法权益。', '.调查研究安全生产工作中涉及职工合法权益的重大问题，参与涉及职工切身利益的有关安全生产政策、措施、制度和法律、法规草案的拟订工作。', '.指导各县市区工会参与职工劳动安全卫生的培训和教育工作。开展群众性劳动安全卫生活动，动员广大职工开展群众性安全生产监督和隐患排查，参与落实职工岗位安全责任，推进群防群治。', '.依法参加相关生产安全事故的调查处理，向有关部门提出处理意见。代表职工监督事故发生单位防范和整改措施的落实。', '.按照职责分工，承担安全生产责任保险监督管理相关工作，配合有关部门推动安全生产责任保险健康发展。配合有关部门对保险机构承保安全生产责任保险、参与风险评估和事故预防等相关工作进行监督管理。', '.指导保险业积极宣传推广安全生产责任保险，持续优化产品和服务，为安全生产提供保险保障。', '未按规定配合有关部门对保险机构承保安全生产责任保险、参与风险评估和事故预防等相关工作进行监督管理的。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>13</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>国新办举行解读政府工作报告吹风会</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2024%2F3%2F5%2Fart_46_534282.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_46_534282</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['女士们、先生们，中午好！欢迎大家出席国务院新闻办吹风会。今天我们很高兴地邀请到《政府工作报告》起草组负责人、国务院研究室主任黄守宏先生出席吹风会，为大家解读《政府工作报告》。', '《政府工作报告》起草组负责人、国务院研究室主任 黄守宏: 各位记者朋友，大家中午好。很高兴和大家见面，介绍《政府工作报告》起草的相关情况。 大家知道，去年是贯彻中国共产党第二十次全国代表大会精神的开局之年，今年我们迎来新中国成立75周年，也是“十四五”规划目标任务的关键一年。在当前世界经济形势复杂多变的背景下，作为世界第二大经济体的中国，过去一年的工作怎么样、怎么看？今年又定下什么新目标、打算怎么干、发展前景如何等，这些问题不仅中国老百姓关心，国际社会也广泛关注。今天上午李强总理所作的《政府工作报告》对去年的工作进行了回顾，对今年的工作做出了部署，阐明了施政方略，回应了各方关切。 中共中央、国务院高度重视《政府工作报告》的起草工作，习近平总书记主持中央政治局常委会议、中央政治局会议，审议《政府工作报告》，多次作出重要指示，提出明确要求，这为我们《报告》起草工作指明了方向、提供了根本遵循。李强总理主持今年的《政府工作报告》起草工作，先后主持召开国务院常务会议、国务院全体会议进行讨论，也多次召开专题会议研究和修改《报告》，研究制定相关政策。 今年的《政府工作报告》遵循《政府工作报告》的惯例，大家知道《政府工作报告》作为政府施政的纲领性文件是有一定规范的，所以今年的《报告》既遵从这个规范，同时也有一些新的特点，这些特点可以从很多方面来概括，我个人理解，可以从三个方面来看： 第一，《报告》上接天线、下接地气。所谓上接天线，是《报告》把准政治定位，全面贯彻以习近平同志为核心的党中央的决策部署。这可以说是今年《报告》最突出的特点、最重要的特点。大家知道，本届政府去年履职之初就明确提出，要当好党中央决策部署的执行者、行动派、实干家。今年开始起草《政府工作报告》的时候，李强总理就明确提出要求，《报告》必须不折不扣贯彻党中央的决策部署。今年《报告》的主要内容，包括去年工作的回顾和今年政府工作的总体要求、主要预期目标、宏观政策取向、重点工作任务等，都是按照总书记在去年中央经济工作会议发表的重要讲话精神起草的。今年《政府工作报告》部署了十项重点工作任务，有九项是总书记在中央经济工作会议讲话中部署的重点任务。同时，考虑到科技、教育、人才在全面建设社会主义现代化国家所具有基础性、战略性地位，考虑到党的二十大把“科技、教育、人才”单列一章，所以《政府工作报告》增加了一条“深入实施科教兴国战略，强化高质量发展的基础支撑”。同时《政府工作报告》根据惯例，增加了文化、社会治理、政府自身建设、民族宗教侨务、国防和军队建设、港澳、对台、外交等方面内容，这些内容也是按照党中央相关精神起草的。中央经济工作会议之后，党中央又召开了一系列重要会议，比如说中央深改委会议、中央财经委会议等，这些会议上也都制定了一些重大举措，每次会后起草组都及时学习领会，在《报告》中予以体现。所以《报告》在征求意见过程中，各方面都一致认为，今年的《报告》切实做到了“三个充分体现”，充分体现了习近平新时代中国特色社会主义思想、充分体现了党的二十大和二十届二中全会精神、中央经济工作会议精神，充分体现了习近平总书记重要指示批示精神和党中央的决策部署。 2024-03-05 11:42:21 黄守宏: 所谓“下接地气”，就是《报告》把准社会脉搏，充分反映了民心民意、回应了各方面，特别是基层、群众、企业的关切，各项政策和举措符合实际、贴近群众、贴近企业。怎么做到这一点呢？就是广泛听取意见。广泛听取意见，不仅今年的《政府工作报告》这样做了，我们党的重要文件、重要政策也都是这样做的。因为“从群众中来到群众中去”这是中国共产党的群众路线的领导方法和工作方法。习近平总书记对研究制定政策、制定文件提出了明确要求，就是要“开门问策、集思广益”。总书记身体力行，在这方面做出了表率。比如为准备去年的中央经济工作会议，习近平总书记主持召开一系列座谈会，广泛听取意见，多次到各地考察调研，深入进行研究。这一点大家从过去的新闻报道中、从电视镜头上都可以看到，总书记深入到工厂车间、田间地头，与基层干部群众老百姓话家常、听他们的意见和建议，总书记这种倾听民意、感知民情、体察民生的做法也为我们树立了标杆。党中央作出的重大决策的本身就是集思广益的结果，起草好《政府工作报告》，贯彻好党中央的决策部署，更要开门问策、集思广益。 2024-03-05 11:43:08 黄守宏: 在起草和修改《政府工作报告》过程中，李强总理多次去基层调研，多次召开座谈会听取各方面的意见，包括召开了三场座谈会，一场是专家、企业家、教科文卫领域代表的座谈会，一场是各民主党派中央、全国工商联负责人、无党派人士代表座谈会，还去地方召开了由部分省、市、县、乡、村负责人参加的座谈会，当面听取对《政府工作报告》的意见。国务院其他领导也以多种方式听取意见和建议。 在起草《政府工作报告》过程中，起草组充分听取了各地区、各部门和社会各界的意见建议。《报告》稿形成的基础就是各地区各部门提出的工作意见和建议。稿子形成后又印发各地区各部门、各单位征求意见，今年发出4000多份，从中梳理出1100多条意见建议。社会各界对《政府工作报告》起草高度关注，通过各种方式提出了大量建议。其中，很多的新闻媒体、网络平台、微博、论坛等也都整理了网民的意见。比如，中国政府网今年联合29家网络媒体平台开展了“@国务院 我为政府工作报告提建议”的建言献策活动。截至昨天，累计收到网民间建言超过160万条，比去年增长82%。中国政府网从中精选出1150条有代表性的建言转给起草组，他们做了初步梳理，转给我们的这些意见建议每次都是厚厚的一大本，里面的内容很翔实，有理由、建议，甚至有网民还提出了政策建议的可行性分析、出台时机等，想得非常周全。在留言的网民中，有老有少、有男有女，最大的82岁、最小的留言网民12岁。有网民对政府工作报告广泛听取意见予以了肯定，有网民说“问需于民、问计于民让政府工作报告更接地气、更有底气、更有生趣”。 在征集活动中，还收到了来自40多个国家的网友建言，包括投资人、经济学家、教师、医生等，他们对在中国投资兴业、签证办理、到中国旅游购物等提出了意见建议。从今年来看，外国网友的国家数量和网友数量比前些年大幅增长，这也从一个侧面反映出国际上越来越多人关心中国、看好中国、愿意与中国合作、与中国人民同行。 总体来看，对今年的《政府工作报告》提出建议的人数众多，光中国政府网就有160万人提出建议，还有其他媒体搞的活动也有几百万，所以数量是巨大的，涵盖了各个职业和年龄段人群，具有广泛代表性。 直接参与《政府工作报告》修改的，大体算下来有一万人。这里包括前面讲的4000多位地方和部门负责人，还有人大代表、政协委员，还有其他方面人士。 2024-03-05 11:46:39 黄守宏: 对于各方面意见和建议，包括网民建言，我们都是逐条研究，看能不能吸纳，哪些能吸纳，哪些能全面吸纳，哪些能部分吸纳。在这些建言建议中，哪怕这条意见不能整条接受，但是其中有没有合理的成份，有没有工作层面的线索和指引，我们逐条研究反复斟酌讨论，按照能吸收尽量吸收的原则提出起草组的建议，按程序报党中央、国务院批准后写入《报告》。今后几天，我们还要根据人大代表、政协委员的意见建议继续进行修改。 第二，《报告》上下贯通、融为一体。《报告》把党中央、国务院的决策部署，把社会各方的诉求、意见建议结合起来、统一起来，转化为政府及其相关部门具体的任务书、施工图和政策清单。大家知道，中央经济工作会议定的是总基调、大盘子、大政策，企业和群众提出的是具体愿望和诉求，这些都需要细化实化为可操作、可落地的具体政策和工作举措。《报告》经过几上几下反复研究论证，形成了一个个具体的工作任务、一项项具体的政策举措，这样就把党中央的决策部署和企业、群众的愿望诉求有机统一起来。 由于《政府工作报告》涉及到方方面面需要表述的内容很多，但篇幅又有限，所以我们在尽可能精简文字的同时，每句话要反复推敲修改，尽可能用最简短的语言表达更丰富的内容和含义。在做好这个工作的同时，按照李强总理的要求，今年我们特别注意加强了《政府工作报告》和计划报告、预算报告的统筹衔接。《政府工作报告》主要是讲重点、讲概要。《政府工作报告》现在1.69万字。计划报告和预算报告就是要讲具体、讲详实。现在计划报告有5.89万字，预算报告1.95万字。从篇幅上就可以看到，三个报告相互补充，形成一个有机整体，所以大家在看《政府工作报告》的时候，同时要结合看计划报告、预算报告，这样就会对今年政府总体工作安排有个全面把握和理解。 第三，《报告》实事求是、务实平实。有的记者朋友在现场听了李强总理所作的《报告》，可能对这一点印象很深刻。今年《报告》遵循报告的文体规范，力求平时朴素，尽可能做到言之有物。讲去年的成绩，注重用事实和数据说话，不作渲染；讲去年工作突出年度特色特点，也没有面面俱到。部署今年工作着重讲新安排、新举措，对需要持续推进的重要工作、需要持续实施的重大战略，尽可能做了精炼概括；安排各项政策和工作举措时注重讲干货，大家最感兴趣的、最关心的就是报告有没有干货。报告力求针对性强，提出的政策举措有用管用，真正以实招、硬招、暖招回应社会各方面的关心关切。语言表达上尽可能通俗简洁，让老百姓能听得懂，能理解。 2024-03-05 11:52:43 黄守宏: 前面介绍了《政府工作报告》起草的相关情况和特点。最近我看到一些国际上的报道，经常有些人感到很疑惑的是，同样面临复杂严峻的国际环境和各种风险挑战，很多国家经常出现政府提出的发展目标实现情况不及预期或者差得比较远，他们就问一个问题，为什么这些年中国制定的目标、提出的任务总是能够完成，中国的发展不断取得新的成就、不断创造新的辉煌。这里的原因很多，其中一个方面就是因为中国共产党和中国政府制定发展目标、提出重要政策，我们走的是群众路线，发扬的是民主，寻求的是最大公约数，所以具有坚实的社会基础、民意基础，而不是少数人在那里闭门造车，反映的也不是少数人的意愿、诉求。今年的《政府工作报告》充分体现了党心民心交融，政声民意共鸣，也充分反映了全国人民的意志、愿望和要求。相信经过全国人大审议通过后，一定会变成全国人民的共同遵循和自觉行动，一定能凝聚起推动经济社会发展的强大力量，提出的目标任务也一定能够完成。中国有句话大家耳熟能详，就是人心齐、泰山移。 《政府工作报告》全面系统、内容丰富，理解《报告》要把握好其中的主旨要义。我个人体会，《报告》的灵魂就是习近平新时代中国特色社会主义思想，《报告》的“纲”与“要”就是中央经济工作会议精神，贯穿《报告》的主脉络就是坚持把高质量发展作为新时代的硬道理，整篇《报告》都是围绕经济建设这一中心工作和高质量发展这一首要任务展开。推动高质量发展，必须完整准确全面贯彻新发展理念，把握好蕴含其中的改革、开放、创新这个大逻辑和保障改善民生这个出发点和落脚点。 限于时间，我就简要给各位介绍上述情况，下面我愿就《报告》的起草工作与各位进行交流。谢谢。 2024-03-05 12:00:02', '中央广播电视总台央视记者: 今年《政府工作报告》回顾了去年的工作和取得的成绩，对于这份成绩单您怎么看？《报告》在回顾去年总结成绩的时候，经常用到“来之不易”的表述，在您看来去年的不易有什么样的不同，是怎么克服的？谢谢。 2024-03-05 12:21:47 黄守宏: 过去一年已经过去，大家都是一起走过来的，对去年的成绩、成就怎么看，见仁见智。总体来讲，我认为去年的成绩单是一份可圈可点、沉甸甸的成绩单，是一份既有显绩又有潜绩的成绩单，是一份既有物质财富也有精神财富的成绩单。 大家可以从这份成绩单中看到，有外在的、有形的、看得见的、可用数据来衡量的成就。比如，我们的经济总量超过126万亿元，经济增速达到5.2%等等。这些成绩我们可以进行横向比、纵向比来把握，从纵向比，与我们过去比，5.2%的增速比上年加快了2.2个百分点，快于疫情三年4.5%的平均增速；从横向比，在世界主要经济体中我们也是名列前茅，依然是世界经济增长最大的引擎，现在大体对世界经济增长贡献还保持在30%左右。 这份成绩单中，也有不好量化或者难以量化，但是我们每个人都能够感知、可以感受到的成就。比如说，新产业、新业态、新模式不断涌现，交通出行更加便利、可选择的商品和服务更为丰富等等。 这份成绩单中，还有很多内在的、深层次的、静悄悄的成效，比如理念的转变、制度的不断完善、作风的改进、发展方式的加快转变等等。 总体来看，看去年的成绩单可以从多个维度、多个角度，中国有句古诗，“横看成岭侧成峰，远近高低各不同”。站在不同的角度，对这个成绩单也有不同的感受。总的来看，去年中国经济发展既有量的增长，也有质的提升，还有无形的积极向好的变化，应该说成绩单的含金量很高。对去年的工作和成绩，习近平总书记在新年贺词中讲得非常深刻，他讲这一年我们走得很坚实、很有力量、很见神彩、很显底气。 这份成绩单可以说是付出艰辛努力取得的，很不寻常。刚才你提问时讲到我们提到成绩时经常用“来之不易”这个表述。确实，《报告》中回顾去年工作用的是“成绩来之不易”。在征求意见过程中，不少单位、个人提出修改意见，“来之不易”的“不易”之前都加词，有的加“十分”，有的加“殊为”，有的加“极其”等等。前面讲到今年的《报告》讲究平实朴素，所以“十分”“极其”“殊为”没有写入报告，但是去年的情况确实是十分不容易的。在座的各位记者朋友都是亲历者，对这个都会深有感触。去年年初，疫情防控实现平稳转段，转段的过程就是很复杂的一个过程，各个方面付出了艰辛的努力，这本身就是巨大的成就。 从经济发展来说，《报告》里讲去年面临着多重困难挑战交织叠加的局面，可以说在工作中遇到的困难是多年少有的，是“几碰头”，既有疫情因素，也有疫后经济恢复的复杂因素，在三年疫情中我们取得了巨大成就，保护了人民群众的生命安全和健康，同时经济运行也受到冲击，经济肌体也受到损伤，还有长期积累的矛盾和问题也不断地显现，像房地产、地方债务、中小金融机构这些风险显现。还出现了很多新情况新问题，内需不足和外需下滑碰头，周期性问题和结构性问题同时并存等等。老实讲这些挑战能应对好其中一项就很不容易，把这些挑战都能够有效应对好、有效处置好就更不容易。所以，面临极其复杂严峻的局面，我们能把经济稳住，完成全年经济发展任务就很不容易了。在许多方面，像《报告》中所讲，又出现了许多积极向好的变化，这就更为难得。所以理解、认识去年的成绩单一定要结合背景、环境，就像我们看画，一定要看背景。 中国在去年能取得这些来之不易的、可圈可点的成就，靠的是什么？《报告》中指出根本在于习近平总书记领航掌舵，在于习近平新时代中国特色社会主义思想科学指引，是以习近平同志为核心的党中央坚强领导的结果，是全党全军全国各族人民团结奋斗的结果。同时这份成绩单再次彰显了“两个确立”的决定性意义，也充分显现了中国经济发展具有强大的韧性、潜力和后劲。 2024-03-05 12:22:23 黄守宏: 从宏观政策和实际工作角度来看，去年有三个方面的特点值得总结。 一是突出固本培元。《报告》中用了这个词，这是中医上经常讲的一句话。经历三年疫情之后，中国经济总体处于“大病初愈”的恢复阶段，同时又面临多重困难和挑战，所以经济运行的压力加大。在这种情况下，应对的思路是两个方面，一个是在短期内，为了把增速抬起来，实行“大水漫灌”和强刺激政策，这样做肯定短期内能取得较高的增速，但是会留下后遗症。另一个是采取稳中求进的方式，中医上对大病初愈的病人调理身体、调养、恢复元气，也是这样一种方式。经过权衡比较，我们用了固本培元的办法，统筹稳增长和增后劲，采取了一些措施，这些措施既有利于当前，也有利于今后的发展。 二是发挥组合效应。由于去年面临多重挑战，而且每个挑战背后的性质和特点不同，所以单一的政策很难“一剑封喉”。所以去年我们更加注重政策的组合性、协同性，围绕扩大内需、优化结构、提振信心、防范化解风险等任务，统筹用好财政、货币、就业等各项政策，打出了一套有力有效的政策组合拳，形成了合力。 三是注重精准施策。针对不同的矛盾和问题，采取不同的举措，做到有的放矢、对症下药。比如去年针对不同经营主体的情况和诉求，我们分别推出了支持国有企业、民营企业、外资发展的政策，这里既有共同的、一致的政策，也有对不同困难、不同诉求的一些针对性措施。 总的看，去年的成就是可圈可点的，积累的经验也是非常宝贵的，读懂读透读好过去一年的成绩单，就会对中国经济过去这些年为什么“行”、为什么“能”、为什么“好”有更深刻的认识和理解，也会对完成今年的发展目标更有信心、底气更足，因为这背后的逻辑、根本的动因都是一致的。所以我在这个问题上多花点时间给大家介绍也是出于这样的考虑。 谢谢。 2024-03-05 12:23:00', '美国国际市场新闻社记者: 根据《政府工作报告》，中国将今年经济增长目标定为5%左右，请问为什么定在这个水平？中国政府将采取什么措施确保达到这一目标？ 2024-03-05 12:28:15 黄守宏: 今年我们把经济增长目标定为5%左右，这是综合考虑了各方面因素，包括国内国际形势，包括需要与可能，可以说是立足当前、着眼长远而制定的。具体来说，从当前需要看，我们要扩大就业、增加居民收入、防范化解风险，都需要一定的经济增速。今年的就业压力是比较大的，城镇新增就业要达到1200万人以上。根据就业跟经济增长的对应关系，或者根据经济增长对就业的拉动效应，大体测算一下，要实现就业目标，经济大体上也需要保持5%左右的增速。当然还考虑到其他方面的需要。 从长远或者从中长期来看，到2035年基本实现社会主义现代化，人均国内生产总值就要达到中等发达国家的水平，这里虽然没有明确的数量要求，但是里面隐含着对经济增速的要求。根据各方面的测算，从现在到2035年要基本实现社会主义现代化的目标，大体要保持在5%左右的经济增速。从可能来讲，是综合分析了当前我国经济增长的支撑条件和有利因素综合权衡的。 这些年来，党和政府制定发展目标其实都是这么做的，既考虑到需要也考虑到可能。从需要来讲，可能高一点更好，但是如果没有支撑，达不到也不行。关于提出的增速目标能不能实现，我认为今年实现5%的增速是有条件有支撑的。 这一段时间不光是在中国国内，在国际上，包括一些主要国际机构对今年中国经济增速做了一些预测。现在主要的国际机构，包括IMF和其他一些组织，以及一些经济学家都做过预测，进行了相应讨论，同样见仁见智。我们说有信心、有能力实现这个目标，在这里我不从学术和理论上阐述这个问题，就从基本逻辑、基本常识的角度来谈谈看法。 一是支撑中国经济发展，包括去年实现5.2%的增速，这背后的基本动因是没有改变的，而且很多方面在显著增强。《报告》中讲到中国经济发展具有诸多优势，包括超大规模的市场需求优势、产业体系完备的供给优势、高素质劳动者众多的人才优势等。比如这些年新动能在快速发展，一年比一年增强，新能源汽车在短短十多年时间从无到有、发展壮大，去年产销量超过900多万辆，产销量占全球比重超过60%。 二是今年以来经济发展的积极因素在增多，去年制约经济发展的一些不利因素在趋于弱化。去年年初1、2月份我们还在为疫情平稳转段努力，今年疫情的“疤痕”效应在减弱。比如，防范化解房地产、地方债务、中小金融机构等风险方面，去年通过各方面协同努力，取得了积极成效，房地产投资销售总体上有所好转，当然有些情况还在变化，地方债务风险整体得到缓解，中小金融机构改革化险步伐也在加快。在这些重大风险隐患的防范方面，我们的任务仍然艰巨，同时也出现了新情况新问题。但不管怎么说，今年和去年比总体是向好的，而不是在恶化。还有一些因素同样如此。我这样讲决不是无视困难和挑战，实际上今年中国经济发展面临的国内外形势依然严峻复杂。《政府工作报告》中用了较长篇幅阐述我们面临的困难和挑战。困难年年都有，日子年年难过年年过，过得还不错。中国这些年，拉长时间周期来看，从来都是在应对困难和挑战中发展的、前进的、壮大的。 三是去年以来采取的一些重大政策措施的政策效应今年也在持续显现。政策从实施到见效需要一个周期，所以一些去年下半年采取的政策效应主要会在今年显现。 此外，我们应对了前几年的困难，特别是去年多年少见的困难，我们积累了丰富的经验。从财政金融状况来看，中国政府负债率不到60%，金融总体稳健，宏观政策还有比较大空间。为了实现这个目标，《政府工作报告》中提出了很多重大政策，如果说将来中国经济遇到超预期的冲击，或者国际环境发生超预期变化，我们政策工具箱里还有储备工具。 《报告》中讲，总体来看，战略机遇和风险挑战并存，有利条件强于不利因素。去年经济增速能达到5.2%，今年实现5%左右的增速完全是有可能的。当然，很多事情都是要经过努力而实现的，今年实现5%的增速需要攻坚克难，需要各方面继续努力。《报告》中对此强调，只要我们贯彻落实好党中央决策部署，紧紧抓住有利时机、用好有利条件，把各方面干事创业积极性充分调动起来，一定能战胜困难挑战，推动经济持续向好、行稳致远，实现今年的增长预期目标。 谢谢。 2024-03-05 12:29:00', '人民日报记者: 我们注意到今年的《政府工作报告》在保障和改善民生方面提出了不少新的政策举措，大家都很期待。今年老百姓能收到哪些民生礼包？能不能综合说一说。另外，一些地方基层财政比较紧张，这些民生承诺能否最终全部兑现？谢谢。 2024-03-05 12:42:35 黄守宏: 谢谢你的提问。增进民生福祉是发展的根本目的。今年《报告》中聚焦群众关切的问题，提出了不少民生方面的政策举措。保障和改善民生，在《报告》中有很多方面都有体现和要求。 比如总体要求中对增进民生福祉提出要求，相关内容在其他部分都有涉及。比如在教育方面，《报告》中提出要改善农村寄宿制学校办学条件。全国义务教育阶段寄宿制学生3000多万人，不少是留守儿童。这些年农村寄宿制学校的条件虽然有了很大改善，但是还存在很多薄弱环节。为了让这些孩子读好书、上好学，今年针对这个薄弱环节，《报告》提出了要求。 再比如在医疗卫生方面，《报告》中提出今年继续增加基本医疗财政补助，城乡居民医保财政补助标准提高30元，达到每人每年670元。报告还针对群众反映突出的看病难、报销难等问题，强调落实和完善异地就医结算，强调以患者为中心改善医疗服务，推动检查检验结果互认。 再比如在社会保障方面，《报告》提出今年要在继续提高退休人员基本养老金的同时，将城乡居民基础养老金月最低标准提高20元。这件事我简单作个介绍，现在全国有1.7亿多老年人领取城乡居民养老保险待遇，今年将最低标准提高20元，增长了19.4%，是近年来上调幅度较大的一次。 关于民生保障方面的类似内容还有很多，限于时间这里不一一点了。 2024-03-05 12:43:28 黄守宏: 刚才谈到一些地方的财政比较紧张，《政府工作报告》提出的，包括预算报告、计划报告里提出的，政府安排部署的改善民生的措施有没有财力支撑？能不能兑现？针对这个问题，在《政府工作报告》中特别强调，作出了安排。积极的财政政策中强调，要大力优化支出结构，强化国家重大战略任务和基本民生财力保障。今年中央对地方转移支付要保持必要的力度，预算安排了10万亿元多一点，同时要推动省级政府下沉财力，确保基层“三保”不出问题。具体的民生支出，预算报告中也作了安排，大家可以对照着看。 关于今年改善民生的部署安排，相信经过上下共同努力一定能够落实到位。在《政府工作报告》中还提出了很重要的一点，要以发展思维看待补民生短板问题。改善民生也是促进经济发展的动力，就业、养老、医疗等民生问题的解决既能增进民生福祉，同时也能把巨大内需潜力激发出来。所以我们要解决民生问题，包括“一老一小”、便利孩子入托入园等，就需要增加投资，这又能带动其他方面的支出。之所以说这些民生保障和改善措施能够实现，在制定措施、提出目标任务的时候已经充分考虑到了其可行性，政府也已经研究制定了一些配套办法和措施。在保障和改善民生方面的一个基本原则是尽力而为、量力而行，政府主要履行好保基本、兜底线的职责，在此基础上尽最大努力提高保障水平。谢谢。 2024-03-05 12:43:51', '北京青年报记者提问（刘健 摄） 北京青年报记者: 关于民生的问题。就业是最大的民生，这两年青年人尤其是高校毕业生就业工作受到广泛关注。今年《政府工作报告》提出城镇新增就业目标是1200万以上，今年就业压力还是比较大的，设定这个目标有什么考虑？这个目标今年能否顺利完成？谢谢。 2024-03-05 12:45:57 黄守宏: 谢谢你的提问，就业是最大的民生，既是“国之大者”，也是个人的大事，对一个家庭来讲，孩子就业、就好业，这是最为关心的。 这些年党中央、国务院对就业工作高度重视，采取了一系列措施，今年《政府工作报告》中更加突出了就业优先导向，制定了一系列措施。首先，从导向上来讲，今年《政府工作报告》中将城镇的就业预期目标设定为1200万人以上，大家要注意“以上”，去年是用“1200万人左右”，今年是“以上”，这就体现了党和政府做好就业工作的力度、决心和鲜明的政策导向。 为了实现就业目标，特别是保障年轻人、高校毕业生的就业，《报告》中提出了一系列政策举措，概括起来有三个方面：一是加大政策支持力度。既包括了宏观政策，《报告》中要求今年加强财政、金融等政策对就业的支持力度，要多出有利于稳预期、稳增长、稳就业的政策。同时，专项促就业政策也加大力度，比如失业保险稳岗返还、稳岗扩岗专项贷款、就业社保补贴等。 二是加大重点行业企业和重点群体的支持。《报告》中要求加强对就业容量大的行业企业的支持，加大对高校毕业生等重点群体帮扶。同时对社会上关心的公平就业、权益保障等工作，《报告》也作了安排。 三是加强职业技能培训。我们国家现在就业压力大和结构性矛盾并存，现在很多行业、很多领域、很多地方，现在既有有人没活干的问题，也有有活没人干的问题。现在很多行业和领域都存在人才短缺问题，比如制造业领域人才缺口有3000万人，再比如养老护理人员，潜在的人才需求1000多万，现在只有30多万，家里有老人的，特别是有失能老人的家庭都有深刻体会，现在找一个好的护理人员难，有技能的、有护理经验的很难找。还有医院里的医疗护理人员，我们国家有500多万护士，每年会增加30万人，但是每千人口护士数量只有3.7人，发达国家一般是8-15人，我们护士也缺。从这些短缺背后，反映出我们的就业潜力，所以关键是要采取措施，使我们劳动力供给与需求相匹配，包括劳动者的就业技能、专业和能力要适应需求。《报告》中提出要适应先进制造、现代服务、养老照护等领域的人才需求，加强职业技能培训，通过实施这些政策，既能缓解当前就业压力，同时也能够提高劳动者素质，满足经济发展所需的高技能人才的需求。 总体来看，今年稳就业确实有很大压力，同时也有很大的潜力，要把这些潜力充分释放出来。今年的就业情况一定会是好的。谢谢。 2024-03-05 12:46:17', '新加坡联合早报记者: 中国总理李强在《政府工作报告》中提到今年财政赤字率安排在3%，请问今年为什么把赤字率定在这个水平？如何解读今年这个赤字率？谢谢。 2024-03-05 13:04:18 黄守宏: 大家知道，财政赤字率是反映财政政策力度和财政风险水平的重要指标，在国际上有一个所谓3%赤字率警戒线的说法，当然也不是金科玉律，很多国家在一定时期远远超过3%，有的达到两位数。对中国而言，这些年从支持经济发展、防范财政风险、实现财政可持续这些角度考虑，我们的赤字率一直保持在合理适度的水平。这么多年来，我们只有在应对新冠疫情冲击时的2020年、2021年超过了3%，前些年都是在3%以下。去年年初安排预算的时候，赤字率是按照3%安排的，四季度增发了1万亿元国债，这个国债是计入赤字的，所以赤字率算下来就提高到3.8%左右。今年的赤字率按3%安排，实际和去年年初预算水平是一样的。虽然和去年增发1万亿国债之后比较降了一些，但是整体来讲这个水平是适度的。这样安排符合中国经济运行整体向好的客观实际、向外界释放积极的信号，也有利于控制政府负债率、增强财政可持续，为应对将来可能出现的风险挑战预留政策空间。综合考虑这些因素，今年我们定了3%的赤字率。 我注意到最近一段时间有关方面专家学者，还有一些机构在讨论中国的赤字率应该定多少的问题。有的提出比3%高一点，也有的提出要低一点。财政赤字率要放在总的财政盘子里来看。今年《政府工作报告》明确的是“积极的财政政策要适度加力、提质增效”，这是需要多种政策工具有机组合、发挥整体规模效应。这里既包括赤字，也包括地方政府专项债、国债、税费优惠等其他政策工具。所以在解读的时候，不要说赤字率比去年调整预算后降低了，就认为我们积极的财政政策力度是减弱的，应该把整个《报告》中讲的积极财政政策的内容统筹起来衡量和考虑。即使这个赤字率同样是3%，但由于GDP这个分母大了，赤字规模今年达到4.06万亿元，比去年年初预算增加1800亿元。除此之外，地方政府专项债也增加了1000亿元，达到3.9万亿元。再加上今年财政收入会保持恢复增长势头等，算下来财政支出的盘子还是不小的。今年安排的一般公共预算支出扩大到28.5万亿元，比去年增加1.1万亿元。所以，今年的财政政策总体来看是适度加力的，关键是要把这些钱花好、用好，用到最重要的地方，就是《政府工作报告》中讲到的要保障好国家重大战略任务、保障好基本民生财力需求。 谢谢。 2024-03-05 13:04:38', '深圳卫视直新闻记者: 去年我国实际使用外资金额下降，我们了解到一些外资企业对于在中国发展的前景、信心有所减弱，请问如何看待这一问题？对于今年吸引外资方面有哪些政策举措？谢谢。 2024-03-05 13:07:06 黄守宏: 从数据上看，去年我们的实际使用外资金额出现了下降。任何一件事都一样，短期的波动是正常的，是多种因素造成的，其中包括很多偶然性因素、阶段性因素。看待这个问题，重点是看趋势、看走势。 从去年来看，据联合国贸发会议数据，如果扣除投资中转地增长较快这个因素，全球外国直接投资去年下降18%。同时，各国招商引资力度都在加大，招商引资的竞争趋于激烈。去年按人民币计价，中国吸引外资的增速下降8%，但是从总体规模来讲，横向比、纵向比来看，是比较好的。纵向比，从历史上看，我们现在是第三高位，比2021、2022年略低一点。从横向看，我国吸引外资金额在发展中国家居首位，占全球比重保持在10%以上，大体是稳定的。 当然，我们吸引外资也面临一些扰动因素，确实有一些值得注意的新情况、新问题。但是有一条，投资者是理性的，是要看中长期回报的。据有关方面统计，这些年在华投资兴业的外商，最近几年直接投资收益率9%左右，在国际上处在比较高的水平。所以中国在全球依然对外资具有强大吸引力。中国市场大、潜力大，很多技术只要拿到中国来，很快就能够推广，包括数字经济方面的一些新技术。中国智能手机用户、网民数量都有10多亿，任何一项新技术来到中国都能够很快推广。中国的投资潜力、投资机遇是巨大的，所以外商对中国的投资保持高度热情。近期看到一些外国商会调查报告显示，绝大多数在华投资的企业都表示不会减少投资，有很高比例的企业将继续把中国作为全球首选或者前三投资目的地。 关于吸引外资方面采取政策措施，《政府工作报告》中提出了几个方面，一是稳步扩大制度型开放。二是要继续放宽外资市场准入。这些年，外资准入负面清单不断缩减，2013年首张外资准入负面清单有190条，目前全国版缩短到31条、自贸区版27条。今年《政府工作报告》提出全面取消制造业领域外资准入限制措施，也就是制造业的条目要清零，还要放宽电信、医疗等服务业的准入。同时，针对有违内外资公平竞争的政策措施要进行常态化清理。三是提升外资服务保障水平。包括打造“投资中国”品牌，让外籍来华人员工作、学习、旅游更便利等。 谢谢。 2024-03-05 13:07:27', '澎湃新闻记者: 我们了解到现在一些民营企业信心不足，对发展前景不乐观，不愿意投资扩产，这进一步影响到民间投资和就业。请问提振民营企业预期和信心方面，今年将采取哪些有效措施呢？ 2024-03-05 13:16:06 黄守宏: 民营经济是中国经济的重要组成部分，也是现代化建设的重要力量。党中央、国务院对民营企业、民营经济发展高度重视，习近平总书记最近这些年发表一系列重要讲话，党中央、国务院去年出台了促进民营企业发展壮大的文件。在《政府工作报告》中提出了以下几个方面的举措： 一是落实和完善各项支持政策。这些年，我们围绕促进民营企业发展，已经出台了不少支持政策，这些政策总体落实情况是好的，但有些没有到位，要继续把这些政策落实落细。还要围绕企业关切推出一些新举措，比如针对民营企业反映比较突出的拖欠账款问题，《报告》要求要健全防范化解拖欠账款长效机制。针对民营企业反映的融资难融资贵问题，《报告》提出要提高民营企业贷款占比、扩大发债融资规模等等。 二是围绕企业关切优化营商环境。《报告》中强调要着力解决民营企业在市场准入、要素获取、公平执法、权益保护等方面存在的突出问题，这些问题也是民营企业反映较多的。同时，还将在深化全国统一大市场建设等方面采取措施，坚决维护公平竞争的市场秩序。 三是支持民营经济创新发展。改革开放以来，很多民营企业敢拼敢闯敢干，在促进增长、增加就业、改善民生等方面发挥了积极作用，展现了优秀的企业家精神，这是一笔很宝贵的财富。《报告》中指出，要弘扬优秀企业家精神，支持企业家专注创新发展，踏踏实实把企业办好。一方面，从政府来讲要营造好的环境，为民营企业搭建舞台；另一方面，民营企业家要积极开拓进取、克服困难挑战。回想改革开放40多年来，民营企业也都是在应对困难中发展的，现在确实面临不少困难和问题，但是想一想，跟40多年前比、跟10年前比、跟5年前比，现在民营企业发展的条件、各方面的因素都还更好。市场体制、法治环境、信用体系等，现在跟过去比，不知好了多少。过去在党和政府支持下，民营企业不断发展壮大。在今天的环境下，民营企业按照党中央的要求，积极开拓进取，过去创造了辉煌，今后一定会创造新的辉煌、新的成就。 这个问题就回答这些，谢谢。 2024-03-05 13:17:42', '第一财经记者提问（刘健 摄） 第一财经记者: 去年年底的中央经济工作会议指出，有效需求不足是当前经济需要克服的困难和挑战，今年《政府工作报告》中就着力扩大国内需求做出了部署，下一步扩内需主要从哪些方面发力？谢谢。 2024-03-05 13:20:58 黄守宏: 国内需求一直是推动中国经济发展的主要动力，这些年内需对经济增长的贡献率都超过90%，去年疫情防控平稳转段以后，内需加快恢复，当然内需扩大方面也存在一些困难和问题，《政府工作报告》对此做出了部署安排，主要有三个方面： 第一，促进消费稳定增长。今年将从增加收入、优化供给、减少限制性措施等方面综合施策，激发消费潜能。关于消费的潜能，大家都有感受。去年以来，村超村晚、冰雪旅游、跨界联名都很火，城市里面的街道小店游、乡村慢游成为打卡新热点，国货潮牌受到消费者欢迎等，说明新型消费有很大潜力，今年要围绕扩大这些新型消费继续发力。二是提振大宗消费，包括汽车、家电等，这方面既有新增的，也有更新换代。三是推动服务消费扩容提质。这些年随着经济发展和人民生活水平的提高，对服务的需求在迅速增长，服务消费也呈持续增长态势，今年要继续顺应态势采取一些新措施。 第二，积极扩大有效投资。一方面，发挥好政府的投资带动效用。从力度上来讲，今年中央预算内投资、地方专项债都比去年有所增加，从投向来看，这些投资主要投向科技创新、节能减排、民生保障等补短板、增后劲的领域。另一方面，稳定扩大民间投资。去年有关部门制定了民间投资促进政策，今年要进一步落实和完善《政府工作报告》中提出的一些新的举措。 第三，促进投资和消费有机结合。今年更加注重统筹扩大内需和深化供给侧结构性改革，形成消费和投资相互促进的良性循环。比如，前不久中央财经委和国务院常务会议部署了一项重要任务，就是推动大规模设备更新和消费品以旧换新，这件事既有促进消费的意义，也有促进投资的意义，把二者有机结合在一起，是统筹投资和消费、挖掘内需潜力的一个方面。此外，积极推进以人为本的新型城镇化。新型城镇化具有综合效益，从内需角度来讲，它是投资、消费相结合的内需大平台。去年我国常住人口城镇化率66.2%，与发达国家80%以上相比较，还有一定差距。户籍人口城镇化率还更低一点。从这个意义上看，我国新型城镇化还有很大发展空间、提升空间。城镇化率提高会带来很大的消费需求、投资需求，有关方面测算，一个人进城以后带来的消费需求，综合算下来比农村居民高不少。在推进新型城镇化中，今年要把促进农业转移人口市民化放在突出位置来抓，《政府工作报告》对此作出了部署。 谢谢。 2024-03-05 13:21:18', '红星新闻记者: 中央多次重申要增强宏观政策取向一致性，营造稳定、透明、可预期的政策环境。为此，今年政府出台政策要注意哪些方面？谢谢。 2024-03-05 13:29:42 黄守宏: 巩固和增强经济回升向好态势，需要增强宏观政策取向的一致性，对这个问题，去年中央经济工作会议和今年《政府工作报告》都作出了部署。 首先，要解决认识问题。就是把思想统一到党中央的要求上来，各地区各部门都有自己的职责，必须履行好这些职责，同时，履行职责过程中必须考虑党和国家事业大局。实现今年目标任务、推动高质量发展，这是今年的大局。所以各方面有责任服从和服务于这个大局，都要积极想办法，多出有利于稳预期、稳增长、稳就业的政策，谨慎出台收缩性抑制性举措。出台政策一定要把握好时、度、效。认识上统一了、提高了，我们宏观政策取向的一致性就有了坚实的基础。 第二，要建立健全有效的统筹机制，发挥好评估、把关、协调的作用。有两个层面的统筹，一个层面是国务院各个部门出台政策前，要做好综合性、全局性评估，充分考虑是否有利于稳增长和高质量发展的大局。在此基础上，国家发改委牵头的政策文件评估机制再进行评估。各部门出台的文件和政策都要机制作出评估后，确定对宏观经济稳定和市场预期稳定不会带来明显的抑制效应才能实施。鉴于许多非经济性政策对社会预期、经济运行产生直接或者间接的影响，中央经济工作会议提出把非经济性政策纳入宏观政策取向一致性评估，强化政策统筹。 第三，各地区各部门制定政策要认真听取和吸纳各方面意见，涉企政策要注重与市场沟通、回应企业关切。去年有关方面建立了政企常态化沟通交流机制，受到了企业欢迎，今年这个机制要进一步坚持和完善。出台政策要精准做好宣传解读，避免市场产生误读误判，有力提振发展信心、改善社会预期。 谢谢。 2024-03-05 13:30:18 陈文俊: 吹风会已经接近100分钟了。现在最后一个提问。 2024-03-05 13:32:55', '香港中评社记者: 好政策贵在落实，《政府工作报告》提出的政策举措不少，怎么保证落实到位。今年在转职能、提效能等自身建设方面有哪些打算？谢谢。 2024-03-05 13:36:31 黄守宏: 好政策，贵在落实。再好的政策如果不落实就是镜中花、水中月。按照习近平总书记提出的关于四个抓落实的要求，国务院建立和完善了一套抓落实的机制，确保今年的各项政策落实到位。这个机制需要上、中、下一起做，打通政策落实中的“最先一公里”“中梗阻”和“最后一公里”。 首先，压实各方责任。从国务院部门做起，《政府工作报告》经过全国人代会审议通过具有法定效力，国务院会把《政府工作报告》里的各种要求、政策分解到国务院各个部门，限期拿出更为细化、实化的具体措施和配套政策。这项工作国务院已经作出安排，起草《政府工作报告》过程中，有关部门已经在行动，写上《报告》的政策措施，同步研究怎么推动落实落地的问题。有些具体政策、具体措施，两会后将陆续出台。从各地区来讲，要善于把党中央精神、《政府工作报告》的部署和本地实际结合起来，积极谋划用好我们在工作中常讲的“抓手”，政策落实也要有抓手。 第二，加强各方协同。各地区各部门要树立整体政府理念，不管是哪个地区、哪个部门，在落实和实施政策上对外、对群众、对企业来说，都是一个整体，哪个部门不落实、哪个地方不落实，都会说是政府不落实，所以抓落实上要树立整体理念。要推动中央部门和地方政府之间、部门与部门之间、部门内部之间高效协同，这里有一些规则。重大政策的落实，要实行清单化、闭环化管理，从政策设计到执行落实、到结果反馈的全过程，哪个环节有问题就解决哪个环节的问题。 第三，加强政策落实的监督检查。去年以来，新一届国务院对督查工作机制进行了优化和完善，这里很多具体的安排。同时《报告》强调，加强对政策执行情况的跟踪评估，及时进行调整和完善，及时纠正政策落实中存在的各种不到位、不深入等问题。 第四，政策落实要发挥各方面的监督作用，包括新闻媒体、人民群众和企业的监督作用。哪些地方政策没有落实，群众和企业最清楚，大家一起来监督这些政策的落实，就会形成强大合力，确保政策能够落实到位，能够确保最终效果符合党中央决策意图，顺应人民群众期待，确保完成好今年经济社会发展的目标任务。 关于你提到的转职能提效能的问题，《政府工作报告》强调要“全面提高行政效能”，包括要加快数字政府建设，以推进“高效办成一件事”为牵引，提高政务服务水平，纠治形式主义、官僚主义，完善督查检查考核等。限于时间，不再多讲了。 总之，党中央、国务院对抓落实的问题高度重视，已经采取措施，并将继续采取措施，确保写入《政府工作报告》的内容、政府作出的承诺，切实做到兑现，不负全国人民期待和厚望。 我就讲这些，谢谢。 2024-03-05 14:20:36 陈文俊: 感谢黄主任，感谢各位媒体朋友的倾听、参与。今天的吹风会就到这里，再见！ 2024-03-05 14:22:28']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>13</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>衡水市妇女发展规划年</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2023%2F2%2F7%2Fart_10443_464026.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10443_464026</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为全面落实《河北省妇女发展规划（2021—2030年）》和《衡水市国民经济和社会发展第十四个五年规划和二〇三五年远景目标纲要》目标任务，科学规划衡水妇女全面发展的新目标新任务，团结引领妇女建功新时代、奋进新征程，推动妇女事业迈上新台阶，充分发挥我市广大妇女在建设和发展经济强市、美丽衡水中的“半边天”作用，结合衡水市经济社会发展需要和妇女发展实际，制定本规划。', '（一）发展成效。过去十年，《衡水市妇女发展规划（2011—2020年）》全面实施，我市妇女发展和妇女事业进入新阶段。在市委、市政府的坚强领导下，坚持以习近平新时代中国特色社会主义思想为指导，建立健全党委领导、政府主责、妇女儿童工作委员会（以下简称妇儿工委）协调、多部门合作、全社会参与的妇女工作机制，积极支持妇女充分发挥“半边天”作用。妇女健康状况得到极大改善，受教育程度大幅提高，参与经济社会发展的能力和贡献率明显提升，社会地位显著提高，合法权益得到有效保障，参与决策和管理的途径更加多元，在家庭生活中的重要作用进一步彰显，发展环境日益优化。', '（二）面临形势。进入新时代，妇女群众对美好生活的需求日益广泛，同时妇女发展的不平衡不充分问题仍然突出，男女权利、机会、资源分配仍存在不平等问题，社会对妇女潜能、才干、贡献的认识仍不充分，性别平等观念有待进一步普及，妇女发展环境需要更加优化。让性别平等落到实处，推动妇女走在时代前列，是时代的呼唤、历史的重任。妇女参与国家和经济文化社会事务管理的水平有待全面提升，针对妇女各种形式的歧视不同程度存在，性别平等观念有待进一步普及，妇女发展的社会环境需要进一步优化。', '未来十年，是奋力谱写社会主义现代化衡水建设新篇章、开启建设经济强市、美丽衡水新征程的关键阶段。全市立足新发展阶段、贯彻新发展理念、构建新发展格局，贯彻以人民为中心的发展思想，促进男女平等和妇女全面发展，充分发挥妇女在社会生活和家庭生活中的独特作用，增强妇女的获得感、幸福感、安全感，推动性别平等事业发展迈出新步伐，使命光荣、任重道远。', '（一）指导思想。深入贯彻党的十九大和十九届二中、三中、四中、五中、六中全会精神，坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，坚持以人民为中心的发展思想，坚持走中国特色社会主义发展道路，立足新发展阶段，完整、准确、全面贯彻新发展理念，积极服务和融入新发展格局，贯彻落实男女平等基本国策和《中国妇女发展纲要（2021—2030年）》《河北省妇女发展规划（2021—2030年）》，对接《衡水市国民经济和社会发展第十四个五年规划和二〇三五远景目标纲要》，着眼于衡水发展建设大局，不断完善促进男女平等和妇女全面发展的制度机制，推动性别平等成为全社会共同遵循的行为规范和价值标准，保障妇女平等依法行使民主权利、平等参与经济社会发展、平等享有改革发展成果，推动妇女走在时代前列，实现衡水妇女事业高质量发展。', '1.坚持党的全面领导。坚持妇女事业发展的正确政治方向，贯彻落实党中央、省委省政府和市委市政府关于妇女事业发展的决策部署，切实把党的领导贯穿到妇女事业发展的全过程和各方面。', '2.坚持妇女事业与经济社会同步协调发展。将促进妇女全面发展目标任务纳入地方经济社会发展总体规划，纳入专项规划，纳入民生实事项目，同部署、同落实，让经济社会发展成果更多更公平惠及广大妇女。', '3.坚持男女两性平等发展。贯彻落实男女平等基本国策，在制定政策、编制规划、部署工作时充分考虑两性的现实差异和妇女的特殊利益，营造更加平等、包容、可持续的发展环境，缩小男女两性发展差距。', '4.坚持促进妇女全面发展。统筹兼顾妇女在政治、经济、文化、社会和家庭各方面的发展利益，有效解决制约妇女发展的重点难点问题，统筹推进城乡、区域、群体之间妇女的均衡发展，协调推进妇女在各领域的全面发展。', '5.坚持共建共治共享。在统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局中充分发挥妇女的重要作用，促进妇女积极投身高质量发展，踊跃参与国家治理体系和治理能力现代化进程，共享经济社会发展成果，支持妇女建功立业，实现人生理想。', '（三）总体目标。男女平等基本国策得到深入贯彻落实，促进男女平等和妇女全面发展的制度机制创新完善。妇女平等享有全方位全生命周期健康服务，健康水平持续提升。妇女平等享有受教育权利，素质能力持续提高。妇女平等享有经济权益，经济地位稳步提升。妇女平等享有政治权利、参与国家和经济文化社会事务管理的水平逐步提高。妇女平等享有多层次可持续的社会保障，待遇水平稳步提高。支持家庭发展的法规政策体系更加完善，社会主义家庭文明新风尚广泛弘扬。男女平等理念更加深入人心，妇女发展环境更为优化。法治体系更加健全，妇女合法权益得到切实保障。充分发挥富裕县市区和先进群体对促进妇女发展的引领示范作用，加快乡村振兴，进一步缩小城乡之间、区县之间妇女发展差别。妇女的获得感、幸福感、安全感显著提升，男女平等和妇女全面发展取得更为明显的实质性进展，妇女更好地担负起新时代赋予的光荣使命。', '1.妇女全生命周期享有良好的卫生健康服务，妇女人均预期寿命延长，人均健康预期寿命显著提高。', '3.妇女的宫颈癌和乳腺癌防治意识明显提高，宫颈癌和乳腺癌综合防治能力不断增强。适龄妇女宫颈癌人群筛查率达到70%以上，乳腺癌人群筛查率逐步提高。', '4.生殖健康和优生优育知识全面普及，促进健康孕育，妇女孕育知情权和选择权得到尊重，减少非意愿妊娠。', '5.减少艾滋病、梅毒和乙肝母婴传播，艾滋病母婴传播率下降到2%以下。提高孕产妇艾滋病、梅毒和乙肝检测率，控制女性艾滋病病毒感染率。', '6.妇女心理健康素养水平不断提升。提高妇女心理健康知识和精神疾病预防知识知晓率，妇女焦虑障碍、抑郁症患病率上升趋势明显减缓。', '8.改善妇女营养状况，提高妇女营养水平。预防和减少孕产妇贫血，孕妇贫血率低于10%。', '1.完善保障妇女健康的制度机制。全面推进健康衡水建设，健全政府主导、部门协同、社会参与、行业监管、科技支撑的妇女健康保障工作机制。深入推进医疗、医保、医药联动和监管体制改革，保障妇女获得高质量、有效率、可负担的医疗和保健服务。多渠道支持妇女健康事业发展，完善公共卫生应急管理体系，关注妇女的特殊需求。强化对流动妇女卫生保健知识的宣传工作。完善流动妇女服务保障机制和管理制度，实现流动妇女享有与流入地妇女同等的卫生保健服务。', '2.加强妇幼健康服务体系建设。健全以妇幼保健机构为核心、以基层医疗卫生机构为基础、以大中型医院和教学科研机构为支撑的妇幼健康服务网络，提升妇幼健康服务供给能力和水平。充分利用现有资源，加强政府举办、标准化的妇幼保健机构建设，全面开展妇幼保健机构绩效考核，强化考核结果应用，保障妇女儿童享有高质量的医疗保健服务。依托现有医疗机构，加强县级以上危重孕产妇救治中心建设，强化危重孕产妇救治保障。市级妇幼保健院达到三级标准；60%以上的县级妇幼保健院达到二级标准；乡镇卫生院应当承担妇幼健康服务工作，为妇女提供生殖健康服务；村级至少有1人承担妇幼健康服务工作。加强县、乡、村三级妇幼卫生服务网络建设，完善基层网底和转诊网络。健全妇幼健康服务人才培养、引进、激励机制，加强复合型妇幼健康人才和产科、助产等岗位急需紧缺人才的培养使用。', '3.建立完善妇女全生命周期的健康管理模式。针对青春期、育龄期、孕产期、更年期和老年期妇女生理特点和健康需求，提供全方位健康管理服务。促进多学科协作，积极发挥中医药在妇幼保健和疾病防治中的作用。为妇女提供宣传教育、咨询指导、筛查评估、综合干预和应急救治等全方位、均等化的卫生健康服务。加强妇幼保健服务特色专科建设，加大妇幼卫生保健服务支持和保障力度。加强监管，促进妇幼健康新业态规范发展。', '4.保障孕产妇分娩安全。提倡科学备孕和适龄怀孕，保持适宜生育间隔，合理控制剖宫产率。完善医疗机构产科质量规范化管理体系，健全母婴安全保障机制。提供生育全程基本医疗保健服务，将孕产妇健康管理纳入基本公共卫生服务范围，孕产妇系统管理率达到90%以上。全面落实妊娠风险筛查与评估、高危孕产妇专案管理、危急重症救治、孕产妇死亡个案报告和约谈通报制度。健全孕产妇医疗救治网络，市、县级至少各设置1个危重孕产妇救治中心。为低收入孕产妇住院分娩和危重孕产妇救治提供救助和减免服务。推进高龄孕产妇等重点人群的分类管理和服务。加强对流动孕产妇的管理服务，为低收入孕产妇住院分娩和危重孕产妇救治提供必要救济救助。加强对危重孕产妇的筛查，畅通危重孕产妇转诊与救治绿色通道，提高危重孕产妇救治能力和救治效果。', '5.完善宫颈癌和乳腺癌综合防治体系和救助政策。提高妇女宫颈癌和乳腺癌防治意识和能力，宫颈癌和乳腺癌防治知识知晓率保持在90%以上。持续推进适龄妇女人乳头瘤病毒疫苗接种试点工作，鼓励妇幼保健机构加强疫苗接种能力建设，落实基本公共服务中农村妇女宫颈癌和乳腺癌检查项目。保障70%的35—45岁妇女接受高效宫颈癌筛查。督促用人单位定期对女职工进行宫颈癌和乳腺癌筛查。加强宫颈癌和乳腺癌筛查和诊断技术的创新应用，提高筛查和服务能力，加强监测评估。强化筛查和后续诊治服务的衔接，促进早诊早治，宫颈癌患者治疗率保持在90%以上。加强对困难患病妇女的救助。', '6.提高妇女的生殖健康水平。普及生殖道感染、性传播疾病等疾病防控知识。在学校教育不同阶段以多种形式开展科学、实用的健康教育，促进学生掌握生殖健康知识，提高自我保护能力。增强男女两性性道德、性健康、性安全意识，倡导共担避孕责任。将性与生殖健康服务融入妇女健康管理全过程，保障妇女享有孕育知情权和自主选择权。全面推进婚前医学检查、孕前优生健康检查、增补叶酸等婚前孕前保健服务。鼓励开展婚姻登记、婚前医学检查、孕前优生健康检查一站式服务。鼓励使用安全、有效、适宜的避孕服务技术和方法，预防非意愿妊娠，减少非医学需要的人工流产。加强对产后和流产后避孕服务和健康指导。加强对女性健康安全用品产品的质量保障。规范不孕不育症的诊疗服务。规范人类辅助生殖技术的应用。', '7.加强艾滋病、梅毒和乙肝的母婴传播防治。将艾滋病、梅毒、乙肝母婴传播阻断纳入妇幼保健日常工作。全面落实预防艾滋病、梅毒和乙肝母婴传播综合干预措施，提高孕早期检测率，孕产妇艾滋病、梅毒和乙肝检测率保持在98%以上，艾滋病、梅毒孕产妇感染者治疗率达到95%以上。加强对供血机构和血制品生产单位的管理。大力宣传普及艾滋病、梅毒和乙肝防治知识和相关政策，提高妇女的防范意识和能力。加强对妇女感染者特别是流动和低收入妇女感染者的医疗服务，提高随访率。为孕产妇感染者及其家庭提供多种形式的健康咨询、心理和社会支持等服务。', '8.促进妇女心理健康。建立覆盖城乡的精神卫生综合管理机制，为妇女提供便捷高效的心理咨询服务。加强妇女心理健康和精神疾病问题研究，预防和减少由于性别歧视与偏见带来的抑郁和焦虑。开展妇女在婚姻家庭关系、亲子关系、社会关系中的地位与作用的咨询、评估和指导服务，科学引导妇女及其家庭成员掌握基本的压力认知、情绪管理和社会关系调适方法。重点关注青春期、孕产期、更年期和老年期妇女的心理健康。强化心理咨询和治疗技术在妇女保健和疾病防治中的应用。将孕产妇心理健康纳入孕产期保健范围，做到早期发现，及时干预。加大应用型心理健康和社会工作人员培养力度，促进医疗机构、心理健康和社会工作服务机构提供规范服务。鼓励社区为有需要的妇女提供心理健康服务支持。', '9.提升妇女健康素养。树立保健意识，增强保健能力。大力开展妇女健康知识普及行动，建立市县乡村四级健康促进与教育工作网络，建立完善各级健康科普专家库和资源库，健全健康科普知识发布和传播机制。持续开展健康科普宣传教育，规范发布妇女健康信息。引导妇女树立科学的健康理念，掌握身心健康、预防疾病、科学就医、合理用药、紧急救援等知识技能。提高妇女基本医疗素养、慢性病防治素养、传染病防治素养水平。提高妇女参与传染病防控、应急避险的意识和能力。开展控制烟草危害、拒绝酗酒、远离毒品的宣传教育，促进妇女养成文明健康的生活方式。', '10.提高妇女营养水平。持续开展营养健康科普宣传教育和咨询指导，增强广大妇女健康意识。因地制宜开展营养知识和膳食指导服务，提高妇女对营养标签的知晓率，鼓励妇女学习掌握科学营养知识，均衡饮食、吃动平衡，预防控制营养不良和营养失衡。面向不同年龄段妇女群体开发营养健康公益宣传信息和产品，提供有针对性的服务。定期开展孕产妇营养监测和评估，预防和减少孕产妇缺铁性贫血，预防和控制老年妇女低体重、骨质疏松和贫血，实施对低收入人群的营养干预和社会救助。', '11.引导妇女参与全民健身行动，增强妇女体质。完善全民健身公共服务体系。着重加强妇女健身场所和健身设施建设，推进公共体育设施免费或低收费向妇女开放。促进妇女健身运动和体育事业的发展，把促进妇女健身情况纳入健康促进县、健康促进医院、健康促进学校、健康促进机关、健康促进企业、健康促进社区（乡村）的评估体系中。提高对中小学女生参与体育活动的重视程度，为女性健身习惯的养成和提高参与体育运动的意识创造条件。引导妇女积极参与全民健身赛事活动，加入各类健身组织。提倡机关、企事业单位开展工间操。鼓励支持工会组织、社区开展妇女健身活动，为妇女提供有针对性的运动健身方案或运动指导服务，提升健身效果。推动形成体医结合的疾病管理和健康服务模式，加强对老年妇女、残疾妇女等特殊群体的非医疗健康干预，普及健身知识，组织开展健身活动。', '12.强化妇女健康服务的科技支撑。加强妇女健康服务信息化建设，推进“互联网+妇幼健康”，促进大数据、云计算、人工智能、计算机仿真技术等新技术在妇女健康领域的创新应用。建立城乡妇女健康档案信息共享机制，实施妇女群体健康管理和健康风险预警。促进信息技术在妇女健康领域专科医联体建设中的应用，加强医疗机构间的协作，促进分级诊疗和上下联动。实施妇女人群健康管理和健康风险预警。', '1.加强思想政治教育，增进妇女对习近平新时代中国特色社会主义思想的政治认同、思想认同、情感认同，引领妇女做伟大事业的建设者、文明风尚的倡导者、敢于追梦的奋斗者。', '5.女童平等接受九年义务教育，消除女童辍学现象，九年义务教育巩固率达到98%以上。', '6.全市留守女童全部就近入学接受义务教育，进城务工人员随迁子女全部在流入地接受义务教育，参加毕业与升学考试。', '10.大力培养女性科技人才，男女两性科学素质水平差距显著缩小，性别平等原则和理念在各级各类教育课程标准及教学过程中得到充分体现。', '1.面向妇女广泛深入开展思想政治教育。深入开展习近平新时代中国特色社会主义思想学习教育，加强党史、新中国史、改革开放史、社会主义发展史教育，加强爱国主义、集体主义、社会主义教育，促进妇女更加坚定理想信念，不断厚植爱国情怀，把个人理想追求融入党和国家事业大局，为全面建设社会主义现代化国家贡献力量。深化民族团结进步教育，铸牢中华民族共同体意识。充分发挥学校教育主阵地作用，将思想价值引领贯穿于教育教学及管理全过程和校园生活各方面，融入学校党组织、共青团、少先队各类主题教育和实践活动。充分发挥爱国主义教育基地和国防教育基地的思想政治教育作用。', '2.将贯彻落实男女平等基本国策体现在教育工作全过程。增强教育工作者自觉贯彻男女平等基本国策的主动性和能动性。将男女平等基本国策落实到教育政策和规划的制定、修订、执行与评估中，落实到各级各类教育内容、教学过程、学校管理中，加强对教材编制、课程设置、教学过程的性别平等评估。在师资培训计划和师范类院校、各级党校课程中增加性别平等内容，培养社会性别教学师资，提高教育工作者的社会性别意识。在选拔、任用教育管理者时，提高教育主管部门和各级各类学校决策与管理层的女性比例。', '3.推动各级各类学校广泛开展性别平等教育。推动落实性别平等教育工作指导意见，推动因地制宜开发性别平等课程，加强专题师资培训，促进性别平等融入学校教学内容、校园文化、社团活动和社会实践活动。探索构建学校教育、家庭教育、社会教育相结合的性别平等教育模式。', '4.保障女童平等接受学前教育。资助经济困难家庭女童和残疾女童接受普惠性学前教育，提高农村学前教育普及程度，多形式增加农村学前教育资源，确保农村和困难群体女童、孤儿、残疾女童、随迁女童和农村留守女童就近接受学前教育。', '5.保障女童平等接受义务教育权利和机会。加大对教育法、义务教育法等法律法规的宣传力度，增强家长保障女童平等接受义务教育的守法意识和平等接受教育的自觉性。深化教育教学改革，加快城乡义务教育一体化发展，均衡配置教育资源，确保女童平等接受公平优质的义务教育。健全精准控辍保学长效机制，加强分类指导，督促法定监护人依法保障女童接受义务教育，防止空挂学籍，保障经济困难家庭女童、随迁女童、留守女童以及残疾女童的受教育权利和机会。支持学业困难女童完成义务教育，提高女童义务教育的巩固率。', '6.提高女性接受普通高中教育的水平。加大对欠发达地区高中阶段教育的扶持力度，满足农村女生接受高中阶段教育的需求。对普通高中家庭经济困难女生和残疾女生给予资助，保障女生不因家庭经济困难和个人生活困难辍学。鼓励普通高中多样化有特色发展，满足女性全面发展和个性化发展需求。有针对性地开展学科选择和职业生涯规划指导，提高女性自主选择能力，破除性别因素对女性学业和职业发展的影响。', '7.促进女性接受高质量职业教育。完善学历教育与培训并重的现代职业教育体系，优化专业设置，提供多种学习方式，支持女性获得职业技能等级证书，培养复合型技术技能女性人才和能工巧匠、大国工匠。鼓励职业院校和培训机构，开展面向女大学毕业生、女农民工、女性残疾人、去产能分流女职工等重点人群的就业创业培训和职业技能培训，帮助女性提高就业创业能力。', '8.保障女性平等接受高等教育的权利和机会。依法保障女性平等接受高等教育，提高女性尤其是劳动年龄人口中接受高等教育的比例，多渠道、多形式为经济困难和残疾女大学生提供资助。严格控制招生过程中的特殊专业范围，强化监管，建立约谈、处罚机制，保持高校在校生中男女比例的均衡。采取激励措施，鼓励女生突破专业选择的传统性别定位局限，促进高等教育学科领域的性别结构均衡，加强对基础学科拔尖女生的培养。', '9.大力提高女性科学素质。开展全民科学素质行动，利用现代信息化手段，加大面向女性的科学知识教育、传播与普及力度。开展女科学家进校园活动，发挥优秀女科技人才的榜样引领作用。通过课程学习、科学实践、科普活动等加大培养女学生的科学兴趣、创新精神和实践能力。大力宣传优秀女科技人才的业绩，鼓励女大学生积极参与项目设计、社会实践、创新创业、科技竞赛等活动。', '10.大力加强女性科技人才培养。探索建立多层次女性科技人才培养体系，培养具有国际竞争力的女性科技人才。关注培养义务教育阶段女生爱科学、学科学的兴趣和志向。引导高中阶段女生养成科学兴趣和钻研精神，支持有意愿的女生报考理工类院校。完善科技人才政策，探索建立多层次、多渠道的女性科技人才培养体系。依托科技计划和重大工程建设项目，聚集、培养女性专业技术人才和技能人才。引导女性从事科学技术相关工作，增加女性科技人才参与继续教育和专业培训的机会。', '11.提高妇女终身教育水平。建立完善更加开放灵活的终身学习体系，完善注册学习、弹性学习和继续教育制度，拓宽学历教育渠道。整合、优化社区教育资源和在线教育资源，发展多样化社区教育模式，丰富社区教育内容，满足妇女个性化的学习和发展需求，关注因生育中断学业和职业女性的发展需求。扩大教育资源供给，为女性提供便捷的社区和在线教育，为进城务工女性、女性新市民、待业女性等提供有针对性的职业技能培训。', '12.加大对农村女性人才的培养与扶持力度。深入实施农村妇女素质提升计划。加强对农村女性致富带头人、农村女性实用人才和职业女农民的培训，培育一批精通农技、善于经营、精于管理、勇于创业、能够带领农民致富的女性农民高素质复合型人才，增强妇女依靠科技致富的增收能力。', '13.加强妇女理论研究和人才培养。推动有条件的高校开设妇女研究及性别平等相关课程。培养具有跨学科知识基础和性别平等意识的专业人才。坚持马克思主义妇女观，深化妇女理论研究。提高社科基金等重大研究项目中妇女或性别研究选题的立项比例。推动妇女发展和性别平等智库建设，为决策服务资政建言。', '14.构建平等尊重和安全友善的校园环境。促进建立相互尊重、平等和睦的师生及同学关系，鼓励学校设置生命教育、性别平等教育、心理健康教育和包括预防性侵害、性骚扰在内的性教育相关课程。大中小学、幼儿园建立完善预防性侵害、性骚扰工作机制，加强日常管理、预防排查、投诉受理和调查处置。加强师德师风建设，履行查询法定义务，对不符合条件的教职人员进行处置。', '1.鼓励支持妇女为推动经济高质量发展贡献力量，保障妇女平等参与经济发展的权利和机会。', '2.促进平等就业，消除就业性别歧视。就业人员中的女性比例保持在45%左右，促进女大学生充分就业。鼓励女大学生创业。', '4.促进女性人才发展。高级专业技术人员中女性比例达到40%，促进女性劳动者提升职业技能水平。', '7.保障农村妇女平等享有各项经济权益，保障农村妇女平等享有土地承包经营权、宅基地使用权等不动产权益，平等享有农村集体经济组织收益分配、土地征收或征用安置补偿权益，妇女参与乡村振兴和农业农村现代化建设能力提升。', '1.鼓励妇女投身现代化经济强市、美丽衡水建设。引导妇女贯彻新发展理念，融入新发展格局。推动妇女走在经济发展前列，在改革创新中贡献巾帼力量。', '2.完善保障妇女平等获得经济资源、参与经济建设、享有经济发展成果的政策体系。制定实施支持女性科技人才在创新发展中发挥更大作用的措施。创新制度机制，保障妇女在就业创业、职业发展、劳动报酬、职业健康与安全、职业退出、土地等方面的权益，保障新业态从业人员劳动权益，为妇女充分参与经济高质量发展创造有利条件。', '3.加大消除就业性别歧视工作力度。全面落实消除就业性别歧视的法律法规和政策，创造性别平等的就业机制和市场环境。对招聘、录用环节涉嫌性别歧视的用人单位进行联合约谈，依法惩处。督促用人单位加强就业性别歧视自查自纠。发挥劳动保障法律监督作用，对涉嫌就业性别歧视的用人单位提出纠正意见，或者向人力资源和社会保障部门提出处理建议。发挥应急管理、卫生健康、医疗保障、工会、妇联等机构各自针对就业性别歧视的监督检查作用。司法机关依法受理涉及就业性别歧视的诉讼。发挥行业协会、商会协调监督作用，提高行业自律意识。党政机关、国有企事业单位在招录（聘）和职工晋职晋级、评定专业技术职称等方面发挥男女平等的示范引领作用。', '4.促进妇女就业创业。健全公共就业服务体系，开展就业服务专项活动，促进妇女就业的人岗对接。充分发挥现代服务业和新业态对吸纳妇女就业的功能，支持妇女参加互联网、大数据、云计算、人工智能等新业态新模式从业人员的技能培训，促进妇女在新业态领域就业。加大帮扶力度，多渠道帮助就业困难妇女实现就业，深入实施创新创业巾帼行动，鼓励妇女积极投身大众创业、万众创新。促进各类平台支持妇女创业。挖掘扶持传统老字号产业和手工艺品产业发展，提高组织化程度，促进妇女就近就业。支持女性科研人员投身科技创业。发展农村电子商务，鼓励外出务工妇女返乡创业，支持有意愿的妇女下乡创业，创新金融、保险产品和服务模式，拓宽妇女创业融资渠道。', '5.促进女大学生就业创业。加强职业生涯规划指导服务，引导女大学生树立正确的择业就业观，提升就业能力。拓宽女大学生就业渠道，落实就业创业支持政策。高校和政府提供不断线的就业服务，拓宽女大学生市场化社会化就业渠道。鼓励女大学生到基层、中小微企业和新经济领域就业。对有创业意愿的女大学生开展创业指导和帮助。推广女大学生创业导师制，开展女大学生创新创业大赛，支持女大学生创业。对有就业意愿的未就业女大学毕业生实施就业帮扶。', '6.改善妇女就业结构。完善终身职业技能培训制度，提升妇女职业技能水平，大力培育知识型、技能型、创新型女性劳动者，不断提高女性在高新技术产业、战略性新兴产业和现代服务业从业人员中的比例。逐步消除职业性别隔离，提高城镇单位就业人员中的女性比例。扩大农村妇女转移就业规模，缩小男女非农就业差距。', '7.促进女性专业技术人才发展。强化制度保障，支持女性科技人才承担科技计划项目、参与科技决策咨询，提升女性的参与度和决策权，完善女性科技人才评价激励机制，培养造就高层次女性科技人才。深入实施科技创新巾帼行动，拓宽妇女创业服务和融资渠道，不断提高妇女在高新技术产业、战略性新兴产业和现代服务业从业人员中的比例。引导女性融入京津冀协同发展，推进妇女与区域经济协调发展。', '8.加强女性专业技能人才培养。服务京津冀产业协调发展布局，推广定制化联合培养模式，健全技能人才考核评价、岗位使用和激励机制，大力培养女性高技能人才。鼓励企业开展职工职业技能培训，推荐女性高技能人才参加市级高技能人才评选表彰，促进高技能人才技术交流和学习，带动整个技能人才队伍梯次发展。加强对女性专业技术和技能人才专业知识、科研管理、创新创业等的培训。通过“巾帼之星”争创活动，加强优秀典型培养宣传，发挥榜样引领作用。', '9.缩小男女两性收入差距。全面落实男女同工同酬，完善科学公平的工资收入分配制度。促进女性对知识、技术、管理、数据等生产要素的掌握和应用，提高女性职业竞争力。督促用人单位制定实施男女平等人力资源制度，畅通女性职业发展和职务职级晋升通道。探索开展薪酬调查，加强对收入的分性别统计，动态掌握男女两性收入状况。', '10.改善女性从业人员劳动安全状况。广泛开展多渠道多形式的劳动安全和健康宣传教育，加大河北省女职工劳动保护特别规定的宣传执行力度，提高用人单位和女性从业人员的劳动保护和安全生产意识。将女职工劳动保护纳入职业健康和劳动生产监督管理范围，加强监督。落实主体责任，督促用人单位加强对女职工经期、孕期、哺乳期的特殊保护，保证哺乳时间、落实产假制度。督促用人单位加强职业防护和职业健康监督保护，保障女职工在工作中免受有毒有害物质和危险生产工艺的危害。', '11.保障女职工合法劳动权益。督促用人单位规范用工行为，依法与女职工签订劳动合同，推动签订女职工权益保护专项集体合同。鼓励引导用人单位不断改善女职工劳动条件，解决女职工在生产工作中因生理特点造成的特殊困难。指导用人单位建立预防和制止性骚扰工作机制，完善相关执法措施。推动有条件的劳动人事争议仲裁机构设立女职工维权仲裁庭，依法处理女职工劳动争议案件。加强劳动用工领域信用建设，加大对侵犯女职工劳动权益行为的失信惩戒力度，对侵犯女职工劳动权益的用人单位，纳入常态执法监督检查。', '12.为女性生育后的职业发展创造有利条件。禁止用人单位因职工怀孕、生育、哺乳而降低工资、恶意调岗、予以辞退、解除劳动（聘用）合同。推动落实生育奖励假期间的工资待遇，定期开展女职工生育权益保障专项督查。为女性生育后回归岗位或再就业提供培训等支持。高校、研究机构等用人单位探索设立女性科研人员生育后科研回归基金，用于支持和帮助女性科研人员生育后的职业发展。推动用人单位根据女职工需要建立女职工哺乳室、孕妇休息室等设施。支持有条件的用人单位为职工提供福利性托育托管服务。', '13.完善妇女社会保障制度和社会保障体系。完善促进妇女生育的政策，进一步落实妇女生育的社会责任，合理提高生育保险待遇，实现生育保险待遇水平与经济社会发展水平相适宜。将生育友好作为用人单位承担社会责任的重要方面。鼓励用人单位制定有利于照顾婴幼儿的灵活休假和弹性工作的制度，保障生育妇女及男方按规定享受产假、育婴假，促进育龄妇女就业与家庭平衡发展。提高灵活就业、新就业形态女性劳动者社会保障水平，持续扩大生育保险、工伤保险、失业保险的广覆盖，实现城乡妇女应保尽保。加强社会保障分性别统计、信息动态监测和管理。', '14.保障农村妇女平等享有各项经济权益。在农村土地承包工作中，依法保障农村妇女权益。在宅基地使用权确权登记颁证工作中保障农村妇女权益，确保应登尽登。建立健全农村集体资产管理制度，规范农村集体经济组织成员身份确认办法，完善包括征地补偿安置在内的农村集体经济组织资产收益内部分配机制，保障妇女在农村集体经济组织资产股权量化、权益流转和继承等各环节，作为农村集体经济组织成员和家庭成员平等享有知情权、参与决策权和收益权。保障进城落户女农民的经济权益。畅通经济权益受侵害农村妇女的维权渠道。', '15.支持脱贫妇女稳定增加收入。建立农村低收入人口和脱贫县帮扶机制。健全防止返贫监测和帮扶机制。扶持发展适合城乡低收入妇女自主发展的手工编织、电商服务等特色产业项目。通过致富带头人培育、扶贫车间建设和以工代赈等方式，支持农村低收入妇女就地就近就业，实现增收致富。深化扶志扶智工作，增强脱贫妇女可持续发展能力，巩固拓展脱贫攻坚成果。', '16.支持妇女积极参与乡村振兴。激励妇女投身农村一二三产业融合发展和农业农村现代化建设。大力开展现代农业示范基地建设，深入实施乡村振兴巾帼行动，发挥农村创业创新园区（基地）等平台作用，鼓励支持妇女创办领办新型农业经营主体和农业社会化服务组织。加强高素质女农民培育，引导女农民争做乡村工匠、文化能人、手工艺人、农技协领办人和新型农业经营管理能手，发挥妇女在发展壮大新型农村集体经济、参与乡村振兴中的“半边天”作用。', '2.中国共产党女党员保持合理比例。中国共产党各级党员代表大会中女党员代表比例一般不低于本地党员总数中女性比例。', '3.各级人大代表和常委会委员中的女性比例逐步提高。各级政协委员和常委中女性比例逐步提高。', '4.县级以上地方政府领导班子中的女干部比例逐步提高，担任正职的女干部占同级正职干部的比例逐步提高，确保实现县级以上地方政府领导班子中至少配备1名女干部，全市范围内市党政正职中至少配备1名女干部。', '5.县级以上地方政府部门领导班子中的女干部比例逐步提高，市党政工作部门力争一半以上的领导班子配备女干部，其中要有一定数量的正职。', '8.企业董事会、监事会成员及管理层中女性比例逐步提高。企事业单位职工代表大会中女性比例与女职工总占比相适应。', '9.村党组织成员、村党组织书记中女性比例逐步提高。村委会成员中女性比例保持在30%以上。村委会主任中女性比例逐步提高。', '10.社区党组织成员、社区党组织书记中女性比例逐步提高。社区居委会成员中女性比例保持在50%左右，社区居委会主任中女性比例达到40%以上。', '1.优化妇女参与决策和管理的良好社会环境。开展多种形式的宣传教育活动，提高全社会的性别平等意识以及对妇女在推动民主法治建设进程和促进两性和谐发展中重要作用的认识。', '2.加大对妇女参与决策和管理的支持力度。充分发挥妇女参与国家和社会事务管理的重要作用，破除制约妇女参与决策和管理的障碍，促进妇女参与决策和管理水平与妇女地位作用相适应。加大培训力度，提高各级领导干部贯彻落实男女平等基本国策的意识，把推动妇女参政纳入重要议程，提出目标举措。落实促进妇女参与决策和管理的相关法规政策，采取有效措施，提升各级党委、人大、政府、政协、党政工作部门以及企事业单位、基层群众自治组织和社会组织中的女性比例。', '3.提高妇女参与社会事务和民主管理的意识和能力。开展多种形式面向妇女的宣传培训，不断提高妇女的民主参与意识和能力，鼓励和引导妇女积极参与决策和管理。开展女性领导干部政治素质和领导能力培训。加大培训力度，在各级党校（行政学院）开展女性领导力培训，提升女干部的政治素质和领导能力。鼓励高校开设领导力相关课程，培养年轻女性的政治素养及参与决策和管理的意识。加大基层妇女骨干培训力度，提高妇女在自治、法治、德治中的参与意识和能力，鼓励妇女积极参与村（居）民议事会、理事会等自治组织，推进城乡社区妇女议事会实现全覆盖并有效运行，发挥妇女在城乡基层治理中的积极作用。探索打造妇女网上议事平台，引导妇女积极、有序参与基层民主管理和基层民主协商。', '4.大力发展中国共产党女党员，提高各级党代会女代表比例。面向妇女深入开展思想政治工作，扩大党的妇女群众基础，培养对党的感情，深化对党的认识，引导拥护党的主张，激发妇女入党的政治意愿。加强对入党积极分子的培养教育。注重从各行各业青年女性中发展党员。在党代表候选人酝酿过程中，充分关注政治过硬、作风优良、敢于担当、实绩突出的优秀妇女，确保党员代表大会中女党员代表保持合理比例。', '5.提高人大女代表、政协女委员比例。落实人大代表选举规则和程序，在选区划分、代表名额分配、候选人推荐、选举等环节，保障妇女享有平等权利和机会。重视从基层、生产一线推荐人大代表女性候选人，候选人中应当有适当数量的妇女代表，并逐步提高妇女代表的比例。提名推荐、协商确定政协委员建议名单时，保障提名一定比例的妇女。充分发挥人大女代表、政协女委员在发展社会主义民主政治和男女平等事业中的积极作用。', '6.加大培养选拔女干部工作力度。培养忠诚干净担当的高素质专业化女干部，优化女干部成长路径，将女干部培养选拔工作纳入领导班子和干部队伍建设统筹考虑。注重日常培养和战略培养，为女干部参加教育培训、交流任职、挂职锻炼创造条件和机会。注重选拔女干部到重要部门、关键岗位担任领导职务，注重从基层、生产一线、完成急难险重任务中考察识别选拔优秀女干部。注重保持优秀年轻干部队伍中女干部的合理比例。注重发挥妇联培养输送女干部的基地作用。落实女干部选拔配备的目标任务，在保证质量的前提下实现应配尽配。保障妇女在干部录用、选拔、任（聘）用、晋升、退休各环节不因性别受到歧视。', '7.推动妇女积极参与事业单位决策管理。培养选拔优秀女性专业技术人员进入决策管理层。重视在卫生、教育、文化等女性集中的行业提高决策管理层中的女性比例，鼓励妇女积极参与本单位党建和群团组织建设，促进事业单位职工代表大会中的女职工代表比例与事业单位女职工比例相适应。在深化事业单位改革进程中，确保妇女在岗位晋升、职员晋级、职称评聘等方面享有平等的权利和机会。', '8.推动妇女参与企业决策管理。将女干部选拔配备纳入国有企业领导班子和干部队伍建设规划，加大培养、选拔、使用力度。在深化企业人事制度改革进程中，采用组织推荐、公开招聘、民主推荐、竞争上岗等方式，促进优秀妇女进入企业董事会、监事会和管理层。完善企业民主管理制度，促进企业职工代表大会中女职工代表比例与企业女职工比例相适应，支持女职工通过职工代表大会等形式参与企业民主决策、民主管理和民主监督。企业制定相关规章制度，对涉及女职工权益的事项，听取工会女职工委员会的意见，依法经职工代表大会审议通过。', '9.推动妇女广泛有序参与城乡基层社会治理。完善村委会、居委会等基层组织民主选举制度，为妇女参与基层民主管理创造条件。实施女性素质提升工程，提高妇女在自治、法治、德治相结合的城乡基层治理体系建设中意识与综合素质。注重从致富女能手、经商务工女性、乡村女教师女医生、女社会工作者等群体中培养选拔村（社区）干部，通过提名确定女性候选人、女性委员专职专选、女性成员缺位增补等措施，提高村（居）委会成员、村（居）委会主任中的女性比例。组织妇女参与村规民约、居民公约制定修订和协商议事活动。促进新社会阶层人士、社会工作者和志愿者等群体中的女性积极参与社会治理。', '10.发挥妇联组织在推进国家治理体系和治理能力现代化进程中的作用。支持妇联组织履行代表妇女参与管理国家事务、经济文化事业和社会事务的职责，强化妇联组织参与民主决策、民主管理、民主监督，参与制定衡水市地方法规、规章和政策，参与社会治理和公共服务的制度保障。在制定有关促进男女平等和保障妇女合法权益的政策以及培养选拔女干部工作中，充分听取妇联组织意见和建议。', '11.支持引导妇女参与社会组织。优化社会组织发展的制度环境，加强支持和指导服务，促进其健康有序发展并积极参与社会组织协商。加强各级女性社会组织指导服务中心和枢纽平台建设，通过购买服务、公益创投、项目联动、能力建设等方式，加大对女性社会组织的培育、指导、联系、服务。鼓励支持更多女性成为社会组织成员或从业人员。加强社会组织女性专业人才和管理人才培养，注重发现培养女性负责人。支持各类女性社会组织承接妇女儿童公益服务项目。', '4.完善养老保险制度体系。妇女基本养老保险参保率稳定在95%以上，待遇水平稳步提高。', '5.完善失业保险和工伤保险制度。提高妇女失业保险和工伤保险的参保人数，落实相关待遇保障。', '7.妇女福利待遇水平持续提高，重点向经济困难妇女、留守妇女、老年妇女、残疾妇女等群体倾斜。', '8.建立完善多层次养老服务和长期照护保障制度。保障老年妇女享有均等可及的基本养老服务，对失能妇女的照护服务水平不断提高。', '1.完善惠及妇女群体的社会保障体系。在落实社会救助、社会保险等相关法律法规实施办法（条例）以及健全社会保障体系工作中，关切和保障妇女的特殊利益和需求。持续推动社会保险参保扩面，健全灵活就业人员社保制度，支持灵活就业女性参加相应社会保险，实现应保尽保，缩小社会保障的性别差距。建立市级社会保险全民参保登记信息库，加强社会保障分性别统计、信息动态监测和管理。', '2.健全完善覆盖城乡妇女的生育保障制度。巩固提高生育保险覆盖率。完善生育保险生育医疗费用支付及生育津贴政策。妥善解决妇女在就业和领取失业金期间生育保障问题。提高生育保险与职工基本医疗保险合并实施成效。加强城乡居民生育医疗费用保障。', '3.不断提高妇女医疗保障水平。推动女职工和城乡女性居民持续参加基本医疗保险，满足妇女基本医疗保障需求。统筹发挥基本医保、大病保险、医疗救助三重制度综合保障作用，促进多层次医疗保障互补衔接，做好符合条件的低收入妇女医疗救助，推进建立女职工医疗互助，充分发挥商业保险对宫颈癌、乳腺癌等重大疾病的保障作用。', '4.促进妇女享有可持续多层次养老保险。巩固企业职工基本养老保险省级统筹，落实企业职工基本养老保险全国统筹政策。完善企业、机关事业单位职工及城乡居民养老保险制度。督促用人单位依法为包括女职工在内的全体职工及时足额缴纳基本养老保险费，不断增加妇女参加基本养老保险的人数，促进妇女依法公平享有基本养老保险权益。鼓励有条件的用人单位为包括女职工在内的全体职工建立企业年金，丰富商业养老保险产品，完善老年人养老服务补贴津贴制度，适度提高福利养老金补贴标准。不断完善困难老年人和失能老年人养老服务补贴制度，提高妇女养老保险水平。', '5.保障女性的失业保险权益。督促用人单位依法为女职工办理失业保险，提高女职工特别是女农民工的参保率。保障符合条件的失业女职工按时享受失业保险待遇。强化失业保险促就业防失业功能，支持女职工稳定就业。落实国家特殊时期失业保障政策，为包括女职工在内的劳动者提供失业保障。', '6.保障妇女的工伤保险权益。建立预防、补偿和康复相结合的工伤保险体系。推进新就业形态人员职业伤害保障试点，将新业态就业妇女纳入保障范围，拓宽女性劳动者工伤保险覆盖面。督促用人单位特别是高风险行业单位依法为女职工办理工伤保险，确保落实工伤保险待遇。在工伤保险基金市级统筹的基础上，逐步扩大工伤保险基金支付范围，提升女性劳动者的工伤保险待遇水平；理顺女性工伤职工的劳动关系归属，加大工伤保险待遇支付的规范性，适时增进社会化发放程度；发挥“预防、康复、补偿”三位一体的工伤保险制度功能，实现工伤预防前置，加强政府主导的工伤职业康复事业建设，确保女性安全就业、体面劳动。', '7.及时将符合条件的生活困难妇女纳入社会救助范围。健全基本生活救助制度和医疗、教育、住房、就业、受灾人员救助等专项救助制度，健全临时救助政策措施，强化急难社会救助功能，积极发展服务类社会救助，推进政府购买社会救助服务，确保符合条件的妇女应救尽救。鼓励、支持慈善组织依法依规为生活困难妇女提供救助帮扶。推动建立统一的救助信息平台，加强社会救助分性别统计，实现精准救助、高效救助、温暖救助、智慧救助。', '8.更好满足妇女群体的社会福利需求。完善经济困难高龄失能老年人补贴制度，落实各项补贴待遇，逐步提升老年妇女福利水平。完善残疾人补贴制度，动态调整、合理确定困难残疾人生活补贴和重度残疾人护理补贴标准，扩大适合残疾妇女特殊需求的公共服务供给。', '9.保障妇女享有基本养老服务。加快建设居家社区机构相协调、医养康养相结合的养老服务体系，大力发展普惠型养老服务。完善社区居家养老服务网络，推进公共设施适老化改造，推动专业机构服务向社区延伸。提升公办养老机构服务能力和水平，完善公建民营管理机制，结合服务能力适当拓展服务对象，重点为经济困难的失能失智、计划生育特殊家庭老年人提供托养服务。促进养老机构提供多元化、便利化、个性化服务，提高老年妇女生活照料、康复护理、紧急救援、精神慰藉等服务水平。支持社会力量扩大普惠型养老服务供给，支持邻里之间的互助性养老，加大养老护理型人才培养力度，建设高素质、专业化的养老服务队伍。', '10.探索建立多层次长期照护保障制度。稳步建立长期护理保险制度，将符合条件的失能妇女按规定纳入保障范围，妥善解决其护理保障问题。加强长期护理保险制度与长期照护服务体系有机衔接。探索建立相关保险、福利、救助相衔接的长期照护保障制度。培养大量专业化的长期照护服务人才队伍，增加照护服务设施设备，拓宽长期照护服务的筹资渠道。建立满足失能妇女日常生活照料、医疗护理、精神慰藉等多种服务内容相结合的养老护理服务体系。完善和提升针对失能、失智等困境老年妇女的照护护理补贴制度。支持、鼓励养老机构设置“护理型床位”，扩大养老机构护理型床位供给，提高护理服务质量。鼓励子女加强对失能、失智老年妇女的赡养义务，加强家庭内部的代际沟通。为高龄、失能、半失能老年妇女家庭照料者提供照护培训、心理疏导等支持。', '11.全面提升社保经办服务质量。继续完善社保网上服务平台，优化申报材料和服务流程，深化“网上办”和“全城通办”新模式。健全全民参保登记数据共享长效机制。建立以社会保障卡为载体的“一卡通”服务管理模式，进一步增强社保公共服务可及性、便捷性。', '12.提高残疾妇女保障水平和生活质量。提高残疾人在生活、养老、医疗、康复等方面的基本保障水平，不断改善残疾妇女生活质量。推动残疾人康复服务事业发展，为有需求的残疾妇女提供基本康复服务。落实困难残疾人生活补助和重度残疾人护理补贴的财政支持，使残疾妇女享有更好的保障水平。', '13.完善困境妇女的社会救助网络。完善医疗、教育、住房、就业等专项救助和临时救助制度，解决生活困难妇女特殊困难。发挥社会组织、社会工作者的作用，为有特殊需要的失独家庭提供关爱服务，为弱势妇女群体提供能力提升、权益保障、精神关爱、家庭支持等专业服务。', '14.提高对妇女的关爱服务水平。开展农村留守妇女关爱行动。对农村留守妇女进行摸底排查，建立完善以县为单位的信息台账。积极为农村留守妇女创业发展搭建平台、提供服务。支持农村留守妇女参与乡村振兴和家庭文明建设，在乡村治理、邻里互助、留守老人儿童关爱服务中发挥积极作用。完善特殊困难失能留守老人探访关爱制度，不断拓展对妇女群体的关爱服务，支持社会力量参与，重点为生活困难、残疾、重病等妇女群体提供权益保护、生活帮扶、精神抚慰等关爱服务。', '15.支持引导社会组织服务妇女和家庭。优化社会组织发展的制度环境，通过购买服务、孵化扶持等方式，积极培育和发展为妇女和家庭服务的社会组织。支持各类社会组织开展服务妇女和家庭的品牌活动，挖掘服务妇女和家庭的服务项目和创意并给予扶持，不断激发社会组织活力。加强社会组织专业人才和管理人员的培养，不断提高社会组织的服务能力和水平，满足妇女和家庭的需求。', '1.树立新时代家庭观，弘扬爱国爱家、相亲相爱、向上向善、共建共享的社会主义家庭文明新风尚，促进家庭成员践行社会主义核心价值观。', '2.建立完善促进男女平等和妇女全面发展的家庭政策体系，增强家庭功能，提升家庭发展能力。', '5.充分发挥妇女在家庭生活中的独特作用，弘扬中华民族家庭美德、树立良好家风，支持妇女成为幸福安康家庭的建设者、倡导者。', '6.倡导构建男女平等、和睦、文明的婚姻家庭关系，降低婚姻家庭纠纷对妇女发展的不利影响。', '9.促进夫妻共同承担未成年子女的抚养、教育、保护责任，为未成年子女身心发展创造良好家庭环境。', '1.促进家庭成员践行社会主义核心价值观。加强教育引导、舆论宣传、文化熏陶、实践养成，引导家庭成员把个人成长融入美丽衡水建设，把家庭梦融入中国梦。宣传尊老爱幼、男女平等、夫妻和睦、勤俭持家、邻里团结等家庭美德，弘扬中华民族优秀传统家风、革命前辈红色家风、践行社会主义核心价值观的现代家风，实现共建共享的家庭追求。加强新时代家庭家教家风建设，让社会主义核心价值观在家庭落地生根。', '2.落实促进男女平等和妇女全面发展的家庭政策。执行落实人口生育相关法律法规政策以及与之配套衔接的经济社会政策，减轻家庭生育、养育、教育负担。完善儿童养育教育、青少年发展、老人赡养、特殊家庭救助关爱等政策，形成支持提升家庭功能、促进男女平等和妇女全面发展的家庭政策体系，增强家庭发展能力。落实产假制度，探索实施父母育儿假。建立促进家庭发展的政策评估机制，研究制定评估监测指标体系，对影响家庭发展的相关政策进行评估，为保障家庭健康发展提供依据。', '3.大力发展家庭公共服务。发展普惠托育服务体系，综合运用土地、住房、财政、金融、人才等支持政策，扩大托育服务供给。推动将婚姻家庭辅导教育、家庭教育指导服务纳入公共服务体系，满足城乡家庭日益增长的个性化、多元化需求。通过政府购买服务等方式，引导社会力量开展居民生活指导、家庭保健服务、科学育儿服务、留守儿童看护、空巢老人抚慰等家庭服务。重点为经济困难、住房困难、临时遭遇困难和计划生育特殊家庭、残疾人家庭等提供支持，建立完善困难家庭关爱帮扶长效机制，加强对退役军人家庭的支持和保障。加强社区托育和综合服务设施建设，完善社区养老托育、家政物业等服务网络。支持发展数字家庭。', '4.推动家庭家教家风在基层社会治理中发挥重要作用。构建党委领导、政府主导、部门合作、家庭尽责、社会参与的家庭建设工作格局。持续开展寻找“最美家庭”活动，深化家庭文明建设，注重家庭建设、家教引导、家风培育，将建设好家庭、实施好家教、弘扬好家风纳入基层社会治理体系以及基层社会治理评价考核内容。大力弘扬善美家风，在全社会营造讲家风、守家训、建设文明家庭的浓厚氛围。引导家庭成员履行家庭和社会责任，积极参与基层治理和公共活动。增进政府治理和社会调节、居民自治良性互动，充分发挥全市百万家庭的智慧和力量，共同推动“六个”新衡水建设新目标，努力打造诗意栖居的幸福之城。', '5.鼓励支持妇女在幸福安康家庭建设中发挥独特作用。深化实施“家家幸福安康工程”，推进开展文明家庭、五好家庭、绿色家庭、平安家庭、无烟家庭、书香家庭等家庭文明建设活动。提升健康素养，践行绿色、低碳、循环、可持续的生活方式，养成勤俭、节约的好习惯。', '6.促进婚姻家庭关系健康发展。面向家庭开展有关法律法规政策宣传，促进男女平等观念在婚姻家庭关系建设中落地生根，倡导夫妻平等参与家庭事务决策，反对一切形式的家庭暴力。开展恋爱、婚姻家庭观念教育，为适龄男女青年婚恋交友、组建家庭搭建平台，推广婚姻登记、婚育健康宣传教育、婚姻家庭关系辅导等“一站式”服务。广泛开展生育政策宣传。推进移风易俗，抵制高价彩礼、早婚早育等现象，保障妇女的婚姻自由。推广宣传婚事新办典型，引导改变生男偏好，倡导构建新型婚育文化。加强对广播电视、网络等婚恋活动和服务的规范管理。', '7.加强婚姻家庭纠纷预防化解工作。完善党委领导、政府主导、妇联引导、部门联动、社会协同、公众参与的婚姻家庭纠纷多元化解工作机制，发挥综治中心和网络化服务管理作用，强化衔接联动，加强婚姻家庭纠纷预测预防预警，健全纠纷排查调处制度，加强家庭暴力危机干预，及时提供心理辅导等危机干预服务，有效预防矛盾纠纷的发生、激化。', '推动全面建立县级婚姻家庭纠纷人民调解委员会，加强人民调解员队伍建设，鼓励县级婚姻家庭纠纷人民调解委员会配备专职人民调解员，设立公益岗位，建立专兼结合、优势互补、结构合理的调解员队伍。完善“互联网+”纠纷预防化解工作平台，支持社会力量参与，提供多元便捷服务。推进家事审判制度改革，加强诉调对接平台建设，构建新型家事纠纷综合协调解决模式。', '8.促进男女平等分担家务。倡导夫妻在家务劳动中分工配合，共同承担与履行家庭责任，缩小两性家务劳动时间差距。督促用人单位建立和落实探亲假、职工带薪休假、配偶陪产假等制度，鼓励用人单位实施灵活休假和弹性工作制度，创造生育友好的工作环境，支持男女共同履行家庭责任。推动家政服务业提质扩容增效，探索发展婴幼儿照护服务和失能失智老年人长期照护服务，增强家庭照护能力。研发家务劳动便利化产品，促进缩减家务劳动时间。', '9.提高老年妇女的家庭生活质量。落实河北省居家养老服务条例，由政府提供基本公共服务，企业、社会组织提供专业化服务，基层群众性自治组织和志愿者提供公益互助服务，满足老年妇女居家养老服务需求。倡导养老、孝老、敬老的家庭美德，支持家庭履行赡养老人的主体责任。鼓励子女与老年人共同生活或就近居住，为长期照护老年人的家庭成员提供“喘息服务”。督促用人单位保障赡养义务人的探亲休假权利，推动建立子女护理假制度。推动建立居家、社区、机构相衔接的专业化长期照护服务体系，支持养老机构运营社区养老服务设施、上门为居家老年人提供服务。积极发展社区养老服务，建立完善社区老年人关爱服务机制。推动实施“互联网+智慧养老”行动，依托互联网、大数据、云计算，为老年人提供日常健康管理、保健教育和紧急救援服务。发展银发经济，大力开发适合老年人群的产品和服务，推进智慧健康养老，努力满足老年妇女生活需要。广泛开展老年人识骗防骗宣传教育活动，提升老年人抵御欺诈销售的意识和能力。依法保障老年妇女婚姻自由和家庭财产权利。', '10.增强男女共同承担家庭教育责任的意识和能力。贯彻落实家庭教育法规政策，促进父母共同落实家庭教育主体责任，共同参与未成年子女家庭教育，创造有利于未成年子女健康成长和发展的家庭环境。挖掘和利用公共图书馆、博物馆、美术馆、科技馆等公共文化服务阵地的家庭教育工作优势，广泛传播科学的家庭教育理念。推动构建覆盖城乡的家庭教育指导服务体系，帮助父母树立科学家庭教育理念，摒弃“重智轻德”等观念，掌握科学知识和方法，注重言传身教。提高家庭科学育儿能力，鼓励父母加强亲子交流，关注未成年子女身心健康，共同陪伴未成年子女成长。', '11.优化生育政策制度保障。推动三孩生育政策落地实施，建立完善生育支持、幼儿养育等家庭支持政策，落实将3岁以下婴幼儿照护费用纳入个人所得税专项附加扣除，完善生育保险生育医疗费用支付及生育津贴和产假工资制度。逐步建立和完善以家庭为单位，向低保、低收入、单亲、失独、残障、服刑、因病致贫、遭受家庭暴力等困境家庭倾斜的社会福利和救助帮困政策。', '5.全面提升妇女的媒介素养，提高妇女利用信息技术参与新时代经济社会高质量发展的能力。', '6.提高妇女生态文明意识，促进妇女践行绿色发展理念，做生态文明建设的推动者、践行者。', '7.减少环境污染对妇女健康的危害。农村自来水普及率达到100%，提高城市集中式饮用水源水质，降低水污染对妇女健康的危害。', '8.完善公共场所服务设施建设。母婴室实现应建尽建，稳步提高农村卫生厕所普及率，城镇公共厕所男女厕位比例标准化建设与实际需求相适应。', '10.积极参与妇女领域的国际国内交流合作与培训，不断提升我市妇女领域交流合作能力和水平。', '1.加强对妇女的思想政治引领。坚持用习近平新时代中国特色社会主义思想引领妇女，持续开展中国特色社会主义和中国梦宣传教育，发挥新时代文明实践中心、主流媒体、妇女之家、妇女讲习所等阵地作用，推动理想信念教育常态化制度化，弘扬党和人民在各个历史时期奋斗中形成的伟大精神，激发妇女的历史责任感和主人翁精神，引导妇女听党话、跟党走，增强“四个意识”、坚定“四个自信”、做到“两个维护”。通过教育联系服务，凝聚青年女性、知识女性、新兴产业从业女性和活跃在网络空间中的女性。通过培养、评选、表彰、宣传妇女先进集体和个人，激励妇女崇尚先进、学习先进、争当先进。通过深化与民族地区对口支援和交流合作，促进各族妇女广泛交往深度交融。', '2.开展以男女平等为核心的先进性别文化宣传教育。将构建先进性别文化纳入繁荣社会主义先进文化制度体系。大力宣传新时代妇女在社会生活和家庭生活中的独特作用，宣传优秀妇女典型和性别平等优秀案例。推动各级干部学习习近平总书记关于妇女和妇女工作的重要论述以及马克思主义妇女观、男女平等基本国策，将性别平等纳入干部培训内容。在机关、学校、企业、城乡社区、家庭以多种形式开展男女平等基本国策宣传教育，让性别平等成为全社会共同遵循的行为规范和价值标准。', '3.促进妇女共建共享精神文明创建和城乡人居环境改善成果。丰富优质文化产品和公共文化服务供给，满足妇女精神文化需求。引导妇女主动自觉践行衡水市民文明公约，助力提升社会文明程度。引导妇女在文明单位创建中爱岗敬业，争做文明职工。鼓励妇女积极参与文明城市建设，将妇女参与程度和满意度纳入文明城市评选内容。促进妇女参与文明村镇创建，主动参与农村人居环境整治提升、农村文化发展、文明乡风培育和乡村社会治理。推进城乡公共文化服务体系一体化建设，创新实施文化惠民工程，惠及城乡妇女。', '4.加强文化与传媒领域的性别平等培训、评估和监管。开展对文化传媒工作者和传媒相关专业学生的性别平等培训，提升文化与传媒领域的性别平等传播能力。加强对公共文化产品和传媒涉及性别平等内容的监测和监管，吸纳性别专家参与相关评估，消除网络媒体、影视产品、公共出版物等中出现的歧视贬抑妇女、侮辱妇女人格尊严、物化妇女形象等不良现象，规范网络名人和公众账号传播行为。完善违规行为警示记录系统，优化线上舆情预警和线下评估处置机制。', '5.提高妇女的新媒介素养。加强网上妇联建设，完善配套政策，强化工作举措，加强分类引导联系服务，做到网上有旗帜、有组织、有活动、有服务、有群众，把女性网民吸引到妇女工作框架中来。利用妇女儿童活动中心、妇女之家、妇女讲习所、图书馆、网络课堂等开展面向妇女的媒介素养培训和指导，加强妇女网络素养教育，提升妇女对媒体信息选择、判断和有效利用的能力，提升妇女网络安全意识和能力，消除性别数字鸿沟。加强学生网络素养教育，引导女生合理安全使用网络，提升自我保护能力，防止网络沉迷。重点帮助老年妇女、困难妇女和残疾妇女群体掌握网络基本知识技能。开展争做“巾帼好网民”活动，推动妇女弘扬网上正能量。', '6.充分发挥妇女在生态文明建设中的作用。广泛开展生态文化宣传教育和实践活动，抓好媒体宣传和社会宣传、网上宣传和网下宣传、对内宣传和对外宣传，策划制作记录宣传片等新媒体产品。倡导家庭绿色价值理念，普及节能环保知识，引导妇女增强生态文明意识，提高环境科学素养，掌握环境科学知识，提升妇女生态环境保护意识和能力。鼓励妇女引领绿色生产生活，养成节约适度、绿色低碳、文明健康的生活方式和消费模式，杜绝浪费。支持妇女参与生态环境治理。', '7.持续改善妇女生活的环境质量。加强生态环境监测和健康监测，开展环境污染因素影响研究，监测分析评估环境政策、基础设施项目、生产生活学习环境等对妇女健康的影响。推进城乡生活环境治理，推进城镇污水管网全覆盖，开发利用清洁能源，推行垃圾分类和减量化、资源化，推广使用节能环保产品。', '8.为城乡妇女享有安全饮水提供保障。引导妇女积极参与水源保护。推进城市集中式饮用水水源地规范化建设，加强水源保护和水质监测，守护饮水安全命脉。加强水利基础设施建设，实施农村供水工程建设，完善农村供水工程设施，稳步提升农村供水保障水平，为妇女取水、用水提供便利。', '9.加强符合妇女需求的文明卫生厕所建设。推进城镇公共厕所改造，完善落实城镇公共厕所设计标准，推动将男女厕位比例规范化建设和达标率纳入文明城市、文明社区、文明村镇、文明单位和文明校园的评选标准。分类有序推进农村厕所革命，稳步提高卫生厕所普及率，加强厕所粪污无害化处理与资源化利用。推动旅游景区、商场、客运枢纽和服务区等公共场所建设第三卫生间。', '10.在突发性事件应对中关切妇女特别是孕期、哺乳期妇女及困难妇女群体的特殊需求。在突发事件应急体系建设、预防和应急处置机制建设、相关应急预案和规划中统筹考虑妇女特殊需求，优先保障女性卫生用品、孕产妇用品和重要医用物资供给。面向妇女开展突发事件预防应对知识和自救互救技能指导培训，提高妇女的防灾减灾意识和自救互救能力。引导妇女发挥自身特长和优势，积极参与应急救援工作。在应对突发事件中加强对有需求妇女群体的救助服务和心理疏导。扩大法律援助的范围，保障遭受侵害妇女获得及时有效的司法救助，完善衡水公共卫生应急管理体系，健全重大疫情防控救治和应急物资保障体系，满足妇女特别是孕产妇、女医务工作者等重点人群的特殊需求。', '11.强化以妇女为主体的社会公共服务体系建设。发挥政府的宏观调控职能，搭建吸引民众的公共参与平台，推动建设文化信息共享工程，积极引导妇女发挥管理、支持、监督的功能，吸纳女性参与建设的合理建议，调动积极性和归属性。发展公共托幼服务，为婴幼儿家庭提供支持，在相关学校、单位、企业及其他公共场所建立母婴喂养室，解决哺乳期妇女的哺乳问题。', '12.扩大深化妇女领域的国际交流与合作。创新开展同世界各国（地区）妇女和妇女组织的友好交往，搭建中外各界妇女云上交流平台，拓展妇女领域发展合作。加强妇女民间外交工作的理论研究，提高衡水妇女组织和品牌活动的国际影响力，提升妇女工作的国际化水平。支持妇女投身“一带一路”建设，为推动构建人类命运共同体发挥重要作用。', '13.发挥妇联组织在营造男女平等和妇女全面发展环境中的积极作用。健全完善引领服务联系妇女的工作机制，加强“网上妇女之家”建设，发挥桥梁纽带作用，凝聚妇女人心。联合主流媒体，依托妇联全媒体，大力宣传习近平总书记关于妇女和妇女工作的重要论述，宣传马克思主义妇女观和男女平等基本国策，宣传妇女“半边天”作用。加强妇女舆情尤其是网络舆情监测，对错误观点言论及时发声，协调督促处置，正面引导舆论，优化有利于妇女全面发展的社会舆论环境。', '8.保障妇女在家庭关系中的财产所有权、继承权，保障妇女对婚姻家庭关系中共同财产享有知情权和平等处理权。', '1.推进男女平等宪法原则和基本国策贯彻落实到法治衡水建设全过程。进一步完善保障妇女合法权益的地方性法规体系，促进保障妇女合法权益的社会规范建设。加大民法典、妇女权益保障法、河北省妇女权益保障条例、河北省女职工劳动保护特别规定等法律法规的实施力度，加强执法检查和督查督办，保障侵害妇女权益案件获得公平公正处理。促进开展妇女权益保障领域的公益诉讼，完善妇女权益保障案件的司法应对机制。将保障妇女权益相关内容纳入基层社会治理，纳入法治队伍建设、全民普法规划和群众性法治文化活动，增强全社会的男女平等法治意识和法治素养。', '2.加强法规政策性别平等评估工作。落实地方法规政策性别平等评估机制，引导清理村规民约中与法律法规相抵触、歧视妇女的内容，明确评估范围，规范评估流程，优化评估标准，细化评估指标。推动性别平等评估机制在县级以上全覆盖。开展性别平等评估相关培训，加强专业队伍建设，将男女平等基本国策落实在法规、规章、政策实施全过程各环节。', '3.提升妇女法治意识和参与法治衡水建设的能力。落实普法责任，整合普法资源，拓宽普法渠道，创新普法模式，丰富普法载体，深入开展民法典、妇女权益保障法、反家庭暴力法等专项普法活动。面向妇女提供法律咨询等服务，引导妇女自觉学习宪法和法律知识，增强法治观念，养成办事依法、遇事找法、解决问题用法、化解矛盾靠法的法治思维和行为习惯。保障妇女平等获得各项权益和参与社会事务，鼓励妇女多途径参与司法和普法活动，充分发挥人大女代表、政协女委员、妇联组织、以女性为成员主体或者以女性为主要服务对象的社会组织等在科学立法、民主立法和立法协商中的作用。', '4.加大反家庭暴力法的实施力度。健全预防和制止家庭暴力多部门合作机制。加强宣传教育、预防排查，建立社区网格化家庭暴力重点监控机制。完善落实家庭暴力发现、报告、处置机制，强化相关主体强制报告意识，履行强制报告义务。加大接处警工作力度，健全接处警工作机制，开展家庭暴力警情、出具告诫书情况统计，提高告诫书出具率。及时制止和惩戒家庭暴力，对构成犯罪的施暴人依法追究刑事责任，从严处理重大恶性案件。及时签发人身安全保护令，提高审核签发率，加大执行力度。加强紧急庇护场所建设管理，畅通庇护安置渠道，提升庇护服务水平。加强对家庭暴力受害妇女的心理抚慰和生活救助，帮助其身心康复。加强对施暴者的教育警示、心理辅导和行为矫治。开展家庭暴力案件跟踪回访，将家庭暴力中高风险家庭纳入基层治理体系。加强反家庭暴力业务培训和统计，提高依法维护妇女权益的工作能力。', '5.坚决打击拐卖妇女犯罪。落实集预防、打击、救助、安置、康复为一体的反拐工作长效机制。坚持预防为主、防治结合的原则，提高全社会的反拐意识以及妇女的防范意识和能力。深入实施反对拐卖人口行动计划，利用网络信息和现代侦查技术打击拐卖妇女犯罪团伙，重点整治“买方市场”，及时解救被拐妇女并帮助其正常融入社会。打击跨国跨区域拐卖妇女犯罪。', '6.加大对组织、强迫、引诱、容留、介绍卖淫等犯罪行为的打击力度。加强网络治理，利用大数据完善违法信息筛查、举报等功能。严厉打击利用网络组织、强迫、引诱、容留、介绍妇女卖淫。严厉查处涉黄娱乐场所，依法从严惩处犯罪分子。依法加大对强迫、引诱幼女和智障妇女卖淫的打击力度。加强社会治安综合治理，建立常态化整治机制，鼓励群众监督和举报涉黄违法犯罪行为。', '7.有效控制和严厉惩处强奸、猥亵、侮辱妇女特别是女童和智力、精神残疾妇女的违法犯罪行为。加强防性侵教育，提高妇女尤其是女童的防性侵害意识和能力。建立和完善重点人群和家庭关爱服务机制、案件发现报告机制、多部门联防联动机制和案件推进督查制度。进一步完善立案侦查制度，及时、全面、一次性收集固定证据，避免受害妇女遭受“二次伤害”。完善互联网自查功能，及时清理淫秽色情信息。依法打击利用网络平台实施的猥亵、侮辱、性侵等违法犯罪行为。建立健全衡水市性侵害违法犯罪人员信息查询系统，完善和落实从业禁止制度。加强对受害妇女的隐私保护、心理疏导和干预。', '8.预防和制止针对妇女的性骚扰。多形式多渠道传播防治性骚扰知识，提升妇女防范和制止性骚扰的意识和能力。预防和减少公共场所和工作、学习等场所的性骚扰，推动机关、企业、学校建立预防和制止性骚扰的工作机制，预防和制止利用职权、从属关系等实施性骚扰。发挥性骚扰损害责任纠纷典型案例的示范指引作用。明确公安、人力资源和社会保障、应急管理、卫生健康、医疗保障等政府部门以及工会、妇联等群团组织对用人单位的监督，加强联防联控，畅通救济途径。推动公共场所加强“禁止性骚扰”宣传，营造“禁止性骚扰”的社会氛围。', '9.保障妇女免遭利用网络实施违法犯罪行为的侵害。加强网络信息内容生态治理，加强对网络淫秽色情信息的监管和查处，依法打击网络信息服务平台、生产者和使用者对妇女实施侮辱、诽谤、威胁、侵犯隐私等违法犯罪行为。加强对信息资源共享、大众互助网络平台的健全报告制度，规范管理，保护妇女个人信息安全。依法惩治利用网络非法收集、使用、加工、传输、买卖、提供或者公开妇女个人信息的违法犯罪行为。提高妇女防范电信网络诈骗的意识和能力，严厉打击采取非法网络贷款、虚假投资、咨询服务等手段骗取妇女钱财的违法犯罪行为。', '10.在婚姻家庭和继承案件处理中依法保障妇女的财产权益。保障妇女平等享有家庭财产的占有、使用、收益和处分权利。保障妇女依法享有夫妻互相继承遗产、子女平等继承遗产的权利。保障夫妻对共同财产享有平等的知情权、处理权，认定和分割夫妻共同财产、认定和清偿夫妻共同债务时，切实保障妇女合法权益。离婚时，保障妇女依法获得土地、房屋、股份等权益，保障负担较多家庭义务的妇女获得补偿、生活困难妇女获得经济帮助、无过错妇女依法获得损害赔偿。通过发布典型司法案例，确定补偿及损害赔偿标准。维护农村妇女集体组织成员资格权，保障农村妇女在农村土地改革中的合法权益。', '11.为妇女提供优质高效的公共法律服务。推进公共法律服务实体、网络、热线三大平台融合发展，为妇女特别是低收入妇女、老年妇女、残疾妇女、单亲困难母亲等提供便捷高效、均等普惠的公共法律服务。落实法律法规对妇女申请法律援助的相关规定，进一步健全妇女法律援助工作网络，保障妇女依法享有诉讼代理和维权指导服务。加强维护妇女合法权益的法律援助类社会组织和专业律师、基层法务工作者队伍建设。加大司法救助力度，建立妇女维权“绿色通道”，对经济困难的妇女当事人，实行减缓免交诉讼费、执行费、保全费等救助措施。', '12.发挥妇联组织代表和维护妇女合法权益的职能作用。充分发挥妇联组织服务阵地和各级妇联执委作用，打造妇女维权综合服务平台，构建法治宣传、信访接待、家事调解、法律帮助、心理疏导、困难帮扶“六位一体”的维权服务体系。健全联合约谈、联席会议、信息通报、调研督查、发布案例等工作制度，推动保障妇女权益法规政策的实施。加强“12338”妇女维权热线建设，畅通妇女有序表达诉求的渠道。及时发现报告侵害妇女权益问题，依法建议查处性别歧视事件或协助办理侵害妇女权益案件，配合打击侵害妇女合法权益的违法犯罪行为，为受侵害妇女提供帮助。贯彻落实谁执法谁普法要求，继续打造“木兰有约”“妇联喊你来学法”“美丽庭院大讲堂”等普法文化品牌，常态化开展“建设法治衡水·巾帼在行动”活动，构建社会化普法维权新格局。', '（一）坚持党的全面领导。坚持以习近平新时代中国特色社会主义思想为指导，坚持以人民为中心的发展思想，坚持走中国特色社会主义发展道路，把党的领导贯穿于规划组织实施的全过程。贯彻党中央关于妇女事业发展的决策部署，坚持和完善促进男女平等、妇女全面发展的制度机制，在统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局和建设“六个”新衡水中推进规划实施。', '（二）落实规划实施责任。完善落实党委领导、政府主责、妇儿工委协调、多部门合作、全社会参与的规划实施工作机制。各级人民政府负责规划实施工作，各级妇儿工委负责组织、协调、指导、督促工作，各级妇儿工委办公室负责具体工作。有关部门、相关机构和人民团体结合职责，承担规划目标任务落实工作。在制定政策、编制规划、部署工作时贯彻落实男女平等基本国策，切实保障妇女合法权益，促进妇女全面发展。', '（三）加强规划与国民经济和社会发展规划的衔接。在经济社会发展总体规划及相关专项规划中贯彻落实男女平等基本国策，将本规划实施以及妇女事业发展纳入经济社会发展总体规划及相关专项规划，结合经济社会发展总体规划部署要求推进本规划实施，实现妇女事业发展与经济社会发展同步规划、同步部署、同步推进、同步落实。', '（四）制定地方妇女发展规划和部门实施方案。县级政府依据本规划，结合实际制定本级妇女发展规划。县级规划发布后1个月内报送市妇儿工委办公室。承担规划目标任务的有关部门、相关机构和人民团体结合职责，按照任务分工，制定实施方案并报送同级妇儿工委办公室。', '（五）完善实施规划的工作制度机制。健全目标管理责任制，将规划实施纳入政府议事日程和考核内容，将规划目标分解到责任单位并纳入目标管理和考核内容。健全督导检查制度，定期对规划实施情况开展督查。健全报告制度，责任单位每年向同级妇儿工委报告规划实施情况和下一年工作安排，下级妇儿工委每年向上一级妇儿工委报告本地规划实施情况和下一年工作安排。健全议事协调制度，定期召开妇女儿童工作会议和妇儿工委全体会议、联络员会议等，总结交流情况，研究解决问题，部署工作任务。健全规划实施示范制度，充分发挥示范单位以点带面、示范带动作用。对实施规划先进集体和先进个人按照有关规定进行表彰。', '（六）加强妇女发展经费支持。各级政府将实施规划所需财政保障经费纳入本级预算，实现妇女事业和经济社会同步发展。重点支持欠发达地区妇女发展，支持特殊困难妇女群体发展。动员社会力量，多渠道筹集资源，共同发展妇女事业。', '（七）坚持和创新实施规划的有效做法。贯彻新发展理念，坚持问题导向、目标导向，构建促进妇女发展的法规政策体系，完善妇女合法权益保障机制，实施促进妇女发展的民生项目。通过分类指导、示范先行，总结推广好做法好经验。通过政府购买服务等方式，发挥社会力量推动规划实施的作用。开展国际交流合作，交流互鉴经验做法，讲好衡水妇女发展故事。', '（八）加强规划实施能力建设。将习近平总书记关于妇女和妇女工作的重要论述以及男女平等基本国策有关内容、相关法律法规政策纳入各级干部学习内容，将实施规划所需知识纳入培训计划，举办多层次、多形式培训，增强政府有关部门、相关机构和人员实施规划的责任意识和能力。以政治建设为统领，加强各级妇儿工委及其办公室能力建设，促进机构职能优化高效，为更好履职尽责提供必要的人力物力财力支持，为规划实施提供组织保障。', '（九）加大规划宣传力度。大力宣传习近平总书记关于妇女和妇女工作的重要论述，宣传在党的坚强领导下妇女事业发展的成就，宣传男女平等基本国策和保障妇女合法权益、促进妇女发展的法律法规政策，宣传规划内容和规划实施的经验、成效，努力营造有利于妇女发展的社会氛围。', '（十）加强妇女发展调查研究。充分发挥各级妇儿工委及其办公室作用，加强妇女发展专家队伍建设，依托高校、研究机构、社会组织等建设妇女发展研究基地，培育专业研究力量，广泛深入开展理论与实践研究，为制定完善相关法规政策提供参考。', '（十一）鼓励社会各界广泛参与规划实施。鼓励企事业单位、社会组织、慈善机构和公益人士参与保障妇女合法权益、促进妇女发展等工作。鼓励妇女参与规划实施，提高妇女在参与规划实施中实现自身全面发展的意识和能力。', '（一）加强监测评估制度建设。对规划实施情况进行年度监测、中期评估、终期评估。落实并逐步完善性别统计监测方案。妇儿工委成员单位、有关部门、相关机构向同级统计部门报送年度监测数据，及时收集、分析反映妇女发展状况的相关数据和信息。妇儿工委组织开展中期和终期评估，妇儿工委成员单位、相关机构及有关部门向同级妇儿工委提交中期、终期评估报告。通过评估了解掌握规划实施进展和妇女发展状况，系统分析评价规划目标完成情况，评判规划策略措施的实施效果，总结经验做法，找出突出问题，预测发展趋势，提出对策建议。监测评估工作所需经费纳入财政预算。', '（二）加强监测评估工作组织领导。妇儿工委设立监测评估领导小组，由同级妇儿工委及相关部门负责人组成，负责监测评估工作的组织领导、监测评估方案的审批，监测评估报告的审核等。领导小组下设监测组和评估组。', '监测组由统计部门牵头，相关部门负责规划实施情况统计监测的人员组成，负责规划监测统计工作的组织、指导和培训，制定监测方案和监测指标体系，收集、分析数据和信息，向同级妇儿工委提交年度、中期和终期监测报告等，监测组成员负责统筹协调本部门规划实施监测、分析、数据上报、分性别分年龄指标完善等工作。', '评估组由妇儿工委办公室牵头，相关部门负责规划实施的人员组成，负责评估工作的组织、指导和培训，制定评估方案，组织开展评估工作，向同级妇儿工委提交中期和终期评估报告。评估组成员负责统筹协调本部门规划实施自我评估工作，参加妇儿工委组织的评估工作。支持评估组相关部门结合工作就妇女保护与发展中的突出问题开展专项调查、评估，结果可供规划中期和终期评估参考。', '（三）加强分性别统计监测工作。规范完善性别监测指标体系，根据需要调整扩充妇女发展统计指标，纳入市和部门常规统计以及统计调查制度，加强部门分性别统计工作，推进分性别统计监测制度化建设。完善建立市、县两级妇女发展统计监测数据库。支持县级妇女发展统计监测数据库建设。鼓励支持相关部门对妇女发展缺项数据开展专项统计调查。', '（四）提升监测评估工作能力和水平。加强监测评估工作培训和部门协作，规范监测数据收集渠道、报送方式，提高数据质量。运用互联网和大数据等技术，丰富分性别统计信息。科学设计评估方案和评估方法，探索第三方评估。提升监测评估工作的科学化、标准化、专业化水平。', '（五）有效利用监测评估成果。发挥监测评估结果服务决策的作用，定期向同级政府及相关部门报送监测评估情况，为决策提供依据。建立健全监测评估报告交流、反馈和发布机制。加强对监测评估结果的研判和运用，对预计完成困难、波动较大的监测指标及时进行预警，对评估中发现的突出问题和薄弱环节及时提出对策建议。运用评估结果指导下一阶段规划实施工作，实现规划实施的常态化监测、动态化预警、精准化干预、高质量推进。', '本规划期限为2021年至2030年。规划实施期间，如遇有关法律政策调整，则按新法律政策执行。本规划由衡水市人民政府妇女儿童工作委员会负责解释。', '为全面落实《河北省儿童发展规划（2021—2030年）》和《衡水市国民经济和社会发展第十四个五年规划和二〇三五年远景目标纲要》目标任务，结合衡水市社会发展需求，制定本规划。本规划所称儿童是指衡水市未满十八周岁的未成年人。', '（一）发展成效。过去十年特别是党的十八大之后，是全面实施《衡水市儿童发展规划（2011—2020年）》的重要时期，儿童发展和儿童事业进入新阶段。市委、市政府坚持以习近平新时代中国特色社会主义思想为指导，把党的领导贯穿于规划实施的全过程、各方面，突出目标导向，注重问题导向，建立健全党委领导、政府主责、妇女儿童工作委员会（以下简称妇儿工委）协调、多部门合作、全社会共同参与的儿童工作机制，儿童生存、发展、受保护和参与权利实现的保障制度不断健全，儿童发展和儿童事业取得了历史性成就。儿童健康状态持续改善，儿童受教育程度普遍提高，儿童福利范围进一步扩大，儿童优先发展的理念得到进一步的认可，儿童发展的保障机制更加完善，儿童的生存环境更加优化。', '（二）面临形势。进入新时代，社会主要矛盾发生历史性变化，受经济社会发展水平制约，我市儿童发展和儿童事业仍然面临不平衡不充分问题，还不适应社会主义现代化强国的新要求和儿童及其家庭的新期盼。贯彻儿童优先原则的力度需要进一步加大，保障儿童权利需要持续推进，儿童发展的城乡、区域和群体差距需要进一步缩小，基层儿童保护服务网络需要进一步织牢，新思维、新技术、新变革对儿童成长发展不断带来新挑战。', '未来十年，是奋力谱写社会主义现代化衡水建设新篇章、开启建设经济强市、美丽衡水新征程的关键阶段。全市立足新发展阶段、贯彻新发展理念、构建新发展格局，贯彻以人民为中心的发展思想，不断增进儿童福祉，培养造就德智体美劳全面发展的社会主义建设者和接班人，促进儿童事业与经济社会协调发展。', '（一）指导思想。高举中国特色社会主义伟大旗帜，深入贯彻党的十九大和十九届二中、三中、四中、五中、六中全会精神，坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，坚定不移贯彻新发展理念，坚持以人民为中心的发展思想，坚持走中国特色社会主义发展道路，立足新发展阶段，积极服务和融入新发展格局。贯彻落实儿童优先原则和《中国儿童发展纲要（2021—2030年）》《河北省儿童发展规划（2021—2030年）》，对接《衡水市国民经济和社会发展第十四个五年规划和二〇三五远景目标纲要》，坚持和完善最有利于儿童、促进儿童全面发展的制度机制，落实立德树人根本任务，优化儿童发展环境，保障儿童生存、发展、受保护和参与权利，全面提升儿童综合素质，为实现第二个百年奋斗目标、建设社会主义现代化强国奠定坚实的人才基础。', '1.坚持党的全面领导。把握儿童事业发展的政治方向，贯彻落实党中央关于儿童事业发展的重要决策部署，切实把党的领导贯彻到儿童工作的全过程和各方面。', '2.坚持对儿童发展的优先保障。在编制规划、配置资源、部署工作中优先考虑儿童的利益和发展需求。', '3.坚持促进儿童全面发展。尊重儿童的人格尊严，遵循儿童身心发展特点和规律，保障儿童身心健康，促进儿童在德智体美劳各方面实现全面发展。', '4.坚持保障儿童平等发展。创造公平社会环境，消除对儿童一切形式的歧视，保障所有儿童平等享有发展权利和机会。', '5.坚持鼓励儿童参与。尊重儿童主体地位，鼓励和支持儿童参与家庭、社会和文化生活，创造有利于儿童参与的社会环境。', '（三）总体目标。儿童事业和儿童发展得到全社会的关注，在全面开启社会主义现代化建设新征程中弘扬儿童优先理念，坚持儿童优先原则，在保障儿童权利的政策体系健全上求突破，在配置资源中体现儿童利益最大化上求突破，在促进儿童发展工作机制制度完善上求突破，在供给更加优质、均等、可及的儿童公共服务上求突破，在全面优化儿童发展环境上求突破，在推进儿童工作数字赋能上求突破，力争儿童事业高质量发展迈上新台阶，儿童高品质生活跨入新层级，儿童公共服务供给实现新跨越，儿童友好城市建设取得新成果，儿童及家庭需求回应进入新境界，尊重和保护儿童的家庭和社会环境展现新面貌，儿童的思想道德素养和全面发展水平得到新跃升，使儿童成为能够担当民族复兴大任的全面发展的人。', '1.打造健康中国衡水儿童发展新模式，不断完善覆盖城乡的儿童健康服务体系，继续增强儿童医疗保健服务能力。', '4.建立完善覆盖婚前、孕前、孕期、新生儿和儿童各阶段的出生缺陷防治体系，预防和控制出生缺陷。先天性甲状腺功能减低症、新生儿苯丙酮尿症等遗传代谢性疾病筛查率达到95%以上，新生儿听力筛查率达到90%以上，持续提高确诊病例治疗率和康复率。', '5.有效防范控制儿童常见疾病和恶性肿瘤等严重危害儿童健康的疾病。儿童乙肝表面抗原携带率控制在1%以下。儿童结核病管理率达到95%以上。12岁儿童龋患率控制在25%以内。', '6.适龄儿童免疫规划疫苗接种率以乡（镇、街道）为单位保持在90%以上，继续扩大、优化国家免疫规划疫苗种类。', '7.构建覆盖城乡儿童早期发展服务体系，使儿童早期发展的知识、方法和技能得到普及。3岁以下儿童系统管理率和7岁以下儿童健康管理率保持在90%以上。规范新生儿访视制度，新生儿访视率保持在90%以上。0—6个月婴儿纯母乳喂养率达到50%以上。', '8.5岁以下儿童贫血率和生长迟缓率分别控制在10%和5%以下，儿童超重、肥胖上升趋势得到有效控制。', '9.儿童总体近视率明显下降，小学生近视</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>13</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>衡水市人民政府办公室关于印发衡水市对外开放十四五规划的通知</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.hengshui.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.hengshui.gov.cn%2Fart%2F2022%2F11%2F7%2Fart_10442_449480.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_10442_449480</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['衡水市人民政府 第二期 衡水市人民政府办公室关于印发衡水市对外开放“十四五”规划的通知', '《衡水市对外开放“十四五”规划》已经市政府第9次常务会议研究同意。现印发给你们，请结合实际认真贯彻落实。', '“十四五”时期是我国全面建成小康社会、实现第一个百年奋斗目标之后，乘势而上开启全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的第一个五年，也是衡水进入新时代，抢抓用好新发展机遇、全面贯彻新发展理念、积极融入新发展格局，奋力建设经济强市、美丽衡水的关键五年。谋划好对外开放全局，充分发挥对外开放的引领作用，是衡水发展高质量开放型经济的关键，也是建设经济强市的必由之路。根据《京津冀协同发展规划纲要》《河北省国民经济和社会发展第十四个五年规划和二〇三五年远景目标纲要》《衡水市国民经济和社会发展第十四个五年规划和二〇三五年远景目标纲要》等编制本规划。本规划是“十四五”时期衡水市对外开放工作的纲领性文件。规划期为2021年至2025年。', '“十三五”时期是我市发展进程中极不平凡的五年，面对复杂的外部环境和艰巨的改革发展任务，特别是面对新冠肺炎疫情等重大风险挑战，我市坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻党中央、国务院决策部署，全面落实河北省委、省政府工作要求，在大战大考中拼搏进取，在攻坚克难中砥砺前行，全市对外开放取得长足发展。', '“十三五”时期，我市深入实施开放带动战略，主动融入“一带一路”建设，积极参与国际竞争合作，开放水平不断提升，圆满完成各项目标任务。', '1.对外贸易实现新突破。“十三五”期间，我市制定出台一系列促进外贸稳增长、推动经济高质量发展的政策，大力实施外贸主体万人培训、新优势提升、精准帮扶、境外百展市场开拓、银企对接、出口保险保障等行动计划，积极应对中美经贸摩擦和新冠肺炎疫情影响，外贸进出口总额达1058.12亿元，年均增长7.3%，完成外贸出口总额967.07亿元，年均增长8.8%，增幅位居全省前列，对外贸易实现“质、量”双增。', '对外贸易实现新突破。“十三五”期间，我市制定出台一系列促进外贸稳增长、推动经济高质量发展的政策，大力实施外贸主体万人培训、新优势提升、精准帮扶、境外百展市场开拓、银企对接、出口保险保障等行动计划，积极应对中美经贸摩擦和新冠肺炎疫情影响，外贸进出口总额达', '2.招商引资取得新进展。“十三五”期间，我市持续加大招商引资力度，出台《中共衡水市委 衡水市人民政府关于进一步创新招商引资方式提高招商成效的意见》（衡字〔2016〕4号）、《中共衡水市委 衡水市人民政府关于印发〈衡水市招商引资优惠政策二十条（试行）〉的通知》（衡字〔2017〕11号）、《衡水市人民政府办公室关于印发衡水市改进招商工作实施意见的通知》（〔2019〕—50）等系列文件，组织举办河北·衡水特色产业推介暨承接京津产业转移投资环境说明会、河北衡水湖国际商务洽谈会、衡水·深圳（珠三角）投资合作座谈会、第三届世界冀商大会等系列大型招商活动，多次赴长三角、珠三角、京津雄等重点区域开展精准招商，与中冶、中建等30余家“中字头”企业签署战略合作协议，吸引北京蒙牛、泰国正大等一批知名企业落户衡水，与京津合作项目达到435个，累计完成投资2311.5亿元，实际利用外资额13.5亿美元，年均增长11.1%，增幅居全省前列。', '招商引资取得新进展。“十三五”期间，我市持续加大招商引资力度，出台《中共衡水市委 衡水市人民政府关于进一步创新招商引资方式提高招商成效的意见》（衡字〔', '号）、《中共衡水市委 衡水市人民政府关于印发〈衡水市招商引资优惠政策二十条（试行）〉的通知》（衡字〔', '）等系列文件，组织举办河北·衡水特色产业推介暨承接京津产业转移投资环境说明会、河北衡水湖国际商务洽谈会、衡水·深圳（珠三角）投资合作座谈会、第三届世界冀商大会等系列大型招商活动，多次赴长三角、珠三角、京津雄等重点区域开展精准招商，与中冶、中建等', '余家“中字头”企业签署战略合作协议，吸引北京蒙牛、泰国正大等一批知名企业落户衡水，与京津合作项目达到', '3.对外平台成为新引擎。开发区基础设施全面提升，省级开发区基本实现“九通一平”，管理体制、行政审批、人事薪酬、投融资平台等改革扎实推进，产业聚集能力显著增强。合作平台建设稳步推进，武强经济开发区国际乐器文化产业园、阜城经济开发区北京中华老字号食品产业园分别入列省国际合作、省际合作重点产业园。外贸出口基地提质扩模，安平县、故城县和枣强县被列为国家外贸转型升级基地，武强县、景县被列为省级出口基地。电商平台建设稳步推进，大营裘皮电子商务基地、武邑电子商务基地和大营跨境电商园区被认定为省级示范基地，深州市鲜天下网购、故城县农商通等电商平台影响力持续扩大。“十三五”期间，全市开发区营业收入由1734.9亿元增至2981.8亿元，年均增速11.4%，发展引擎作用进一步突显。', '对外平台成为新引擎。开发区基础设施全面提升，省级开发区基本实现“九通一平”，管理体制、行政审批、人事薪酬、投融资平台等改革扎实推进，产业聚集能力显著增强。合作平台建设稳步推进，武强经济开发区国际乐器文化产业园、阜城经济开发区北京中华老字号食品产业园分别入列省国际合作、省际合作重点产业园。外贸出口基地提质扩模，安平县、故城县和枣强县被列为国家外贸转型升级基地，武强县、景县被列为省级出口基地。电商平台建设稳步推进，大营裘皮电子商务基地、武邑电子商务基地和大营跨境电商园区被认定为省级示范基地，深州市鲜天下网购、故城县农商通等电商平台影响力持续扩大。“十三五”期间，全市开发区营业收入由', '4.开放合作迈上新台阶。科技创新合作实现新突破，与中科院等“国字号”科研院所的合作持续深化，中科钒钛、雄安（衡水）超算中心等一批重大科技成果转化项目落地实施，衡水（全联商会）科技装备产业园、易虎网都市智造谷等18个战略性新兴产业项目签约建设，全市院士工作站达到19家，引进院士30多名。教育文化开放水平稳步提升，连续五年举办“衡水中学国际文化教育艺术节”，与韩国圆光大学等13所国外高校建立友好合作关系，与泰国、美国等国家6所高校达成合作意向。体育开放带动能力稳步增强，衡水湖国际马拉松赛迈进双金赛事（国内金牌、国际金标）行列，2019国际智力运动联盟世界大师锦标赛、2019全国跳伞冠军赛、2019世界杯马术绕桶冠军赛等一批国际性、国家级赛事成功举办，城市知名度、影响力全面提升。', '开放合作迈上新台阶。科技创新合作实现新突破，与中科院等“国字号”科研院所的合作持续深化，中科钒钛、雄安（衡水）超算中心等一批重大科技成果转化项目落地实施，衡水（全联商会）科技装备产业园、易虎网都市智造谷等', '多名。教育文化开放水平稳步提升，连续五年举办“衡水中学国际文化教育艺术节”，与韩国圆光大学等', '所高校达成合作意向。体育开放带动能力稳步增强，衡水湖国际马拉松赛迈进双金赛事（国内金牌、国际金标）行列，', '世界杯马术绕桶冠军赛等一批国际性、国家级赛事成功举办，城市知名度、影响力全面提升。', '当前和今后一个时期，衡水市对外开放的外部环境和内部条件发生重大而深刻的变化，既面临前所未有的机遇，也面临十分严峻的挑战。', '1.从国际看，世界百年未有之大变局进入加速演变期，新冠肺炎疫情大流行影响广泛深远，经济全球化遭遇逆流，贸易投资保护主义抬头，一些国家谋求推动制造业回流，把供应链转移到本土，全球供应链重构成为趋势。美国等发达国家谋求在国际经贸规则变革中占据主导权，推动建立高标准国际经贸规则，围绕国际经贸规则的国际间竞争加剧。新一轮科技革命和产业变革深入发展，数字经济引领产业变革，新产品、新服务、新业态创新不断涌现，新一代信息技术在各领域各环节应用持续深化拓展。国际经济、科技、文化、安全、政治等格局都在深刻调整，中国发展的外部环境日趋错综复杂。', '从国际看，世界百年未有之大变局进入加速演变期，新冠肺炎疫情大流行影响广泛深远，经济全球化遭遇逆流，贸易投资保护主义抬头，一些国家谋求推动制造业回流，把供应链转移到本土，全球供应链重构成为趋势。美国等发达国家谋求在国际经贸规则变革中占据主导权，推动建立高标准国际经贸规则，围绕国际经贸规则的国际间竞争加剧。新一轮科技革命和产业变革深入发展，数字经济引领产业变革，新产品、新服务、新业态创新不断涌现，新一代信息技术在各领域各环节应用持续深化拓展。国际经济、科技、文化、安全、政治等格局都在深刻调整，中国发展的外部环境日趋错综复杂。', '2.从国内看，中华民族伟大复兴进入关键时期，我国经济长期向好，物质基础雄厚，人力资源丰富，发展韧性强劲，社会大局稳定，发展具有多方面有利条件。经济转向高质量发展阶段，创新居于现代化建设全局中的核心地位，人均收入水平大幅度提高，“十四五”期间我国有望进入高等收入国家，超大规模市场优势越发明显。国家进一步完善对外开放战略布局，将在更大范围、更广领域、更多层次推动更高水平的开放发展。同时，国内发展中面临的不平衡、不充分问题仍然突出，要素成本持续上升，资源环境约束趋紧，传统竞争优势逐渐弱化，国际合作和竞争新优势需加快重塑。', '从国内看，中华民族伟大复兴进入关键时期，我国经济长期向好，物质基础雄厚，人力资源丰富，发展韧性强劲，社会大局稳定，发展具有多方面有利条件。经济转向高质量发展阶段，创新居于现代化建设全局中的核心地位，人均收入水平大幅度提高，“十四五”期间我国有望进入高等收入国家，超大规模市场优势越发明显。国家进一步完善对外开放战略布局，将在更大范围、更广领域、更多层次推动更高水平的开放发展。同时，国内发展中面临的不平衡、不充分问题仍然突出，要素成本持续上升，资源环境约束趋紧，传统竞争优势逐渐弱化，国际合作和竞争新优势需加快重塑。', '3.从省内看，随着重大国家战略加快落地，河北仍处于开放发展的历史性窗口期和战略性机遇期。京津冀协同发展向纵深推进，雄安新区重点项目和工程建设全面启动，中国（河北）自贸试验区建设稳步开展，重大国家战略和国家大事加快落地见效，正在形成新的发展动能，成为河北加速发展的强大引擎。同时，全省产业结构层次总体仍然较低，对外开放的产业基础亟待进一步夯实；开放发展的内生增长动能不足，较易受国内外负面冲击影响。特别是随着长江经济带发展、粤港澳大湾区建设、长三角一体化深入推进、黄河流域生态保护和高质量发展上升为重大国家战略，未来我市面临的区域竞争更为激烈。', '从省内看，随着重大国家战略加快落地，河北仍处于开放发展的历史性窗口期和战略性机遇期。京津冀协同发展向纵深推进，雄安新区重点项目和工程建设全面启动，中国（河北）自贸试验区建设稳步开展，重大国家战略和国家大事加快落地见效，正在形成新的发展动能，成为河北加速发展的强大引擎。同时，全省产业结构层次总体仍然较低，对外开放的产业基础亟待进一步夯实；开放发展的内生增长动能不足，较易受国内外负面冲击影响。特别是随着长江经济带发展、粤港澳大湾区建设、长三角一体化深入推进、黄河流域生态保护和高质量发展上升为重大国家战略，未来我市面临的区域竞争更为激烈。', '4.从衡水看，我市是京津冀协同发展的重要节点城市，也是雄安新区正南方的第一个设区市，随着即将建设的雄商高铁、石衡沧港城际在此交汇，将与雄安新区及北京、天津、济南、石家庄四大都市全部形成1小时通勤圈，区位、产业、生态、教育等方面的优势正在加速转化为现实发展优势，为衡水承接产业转移，加速资金、技术等要素流入，融入京津冀世界级城市群提供了机遇。同时，随着资源环境束缚持续增大，土地、资金、劳动力等资源要素成本增加，传统“大进大出”发展模式难以为继，特别是新冠肺炎疫情削弱居民消费意愿，外贸外资企业订单不足、商务活动受限等问题较为突出，外贸发展的新动能尚需增强，对外开放工作面临前所未有的挑战。', '从衡水看，我市是京津冀协同发展的重要节点城市，也是雄安新区正南方的第一个设区市，随着即将建设的雄商高铁、石衡沧港城际在此交汇，将与雄安新区及北京、天津、济南、石家庄四大都市全部形成', '小时通勤圈，区位、产业、生态、教育等方面的优势正在加速转化为现实发展优势，为衡水承接产业转移，加速资金、技术等要素流入，融入京津冀世界级城市群提供了机遇。同时，随着资源环境束缚持续增大，土地、资金、劳动力等资源要素成本增加，传统“大进大出”发展模式难以为继，特别是新冠肺炎疫情削弱居民消费意愿，外贸外资企业订单不足、商务活动受限等问题较为突出，外贸发展的新动能尚需增强，对外开放工作面临前所未有的挑战。', '综合判断，“十四五”时期，衡水对外开放工作面临的机遇前所未有，挑战也前所未有。我们要准确把握内外条件和环境的深刻变化，增强机遇意识、忧患意识和责任意识，积极顺应国内外环境新变化，胸怀“两个大局”，努力在危机中育新机、于变局中开新局，抓住机遇，应对挑战，趋利避害，奋勇前进。', '坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中、六中全会和省委九届十一次、十二次、十三次全会精神，坚持稳中求进工作总基调，立足新发展阶段，完整准确全面贯彻新发展理念，以高质量发展为主题，以深化供给侧结构性改革为主线，以改革创新为根本动力，以满足人民日益增长的美好生活需要为根本目的，围绕国内国际两个大局，更好统筹发展和安全，推动高水平对外开放，着力构建宽领域、多层次、全方位开放型经济新体制，积极服务和融入新发展格局，推动形成衡水对外开放合作国际竞争新优势，为建设富强新衡水、活力新衡水、文明新衡水、善治新衡水、魅力新衡水、平安新衡水开好局、起好步做出新贡献。', '坚持把党的领导作为根本保证。以习近平新时代中国特色社会主义思想武装头脑、指导实践，完善党领导对外开放工作的体制机制，为实现衡水对外开放高质量发展提供政治保障。', '坚持把制度建设作为全局统领。深化“放管服”改革，进一步优化营商环境，推动贸易和投资自由化便利化，构建与国际通行规则相衔接的制度体系。健全对外投资合作政策和服务体系，推动由商品和要素流动型开放向规则等制度型开放转变。', '坚持把创新驱动作为根本动力。始终把创新摆在核心位置，大力培育开放经济领域新业态、新模式、新技术，推进对外贸易创新发展，扩大外商投资准入领域，建立外商投资管理新体制，优化外商投资环境，进一步优化海外投资布局，提升对外投资合作水平，健全对外投资合作政策和服务体系，不断提高开放型经济水平。', '坚持把高质量发展作为核心任务。进一步提高供给质量，持续推动消费升级，引进高质量项目，扩大优质外商投资规模，推进开放大通道、大平台建设，加快培育以质量、技术、品牌、服务为核心的综合竞争新优势，全面提升开放型经济发展质量。', '坚持把畅通双循环作为重要使命。坚持服从和服务新发展格局，通过“走出去”与“引进来”联动发展、融合发展，持续拓展国内国外消费市场，加快形成全方位、全要素、高能级、高效率的双循环发展格局。增强风险防控能力，注重化解扩大开放可能引发的内外部风险，完善双向开放的风险管控安全体系。', '落实党的十九届五中全会提出的实行高水平对外开放、形成对外开放新格局的总体要求，持续推动和扩大对外开放，培育经济竞争合作新优势，构建全方位、宽领域、高水平的对外开放新格局，打造开放经济发展新高地。', '1.服务和融入新发展格局取得明显成效。畅通京津冀、链接国内外市场，强化招商、促进消费、畅通投资、融合要素，以更大范围、更大规模对外开放，提升产业链、供应链稳定性，推动内需和外需、进口和出口、引进外资和对外投资协调发展，实现国内国际双循环互促共进，引领全市经济高质量发展。', '服务和融入新发展格局取得明显成效。畅通京津冀、链接国内外市场，强化招商、促进消费、畅通投资、融合要素，以更大范围、更大规模对外开放，提升产业链、供应链稳定性，推动内需和外需、进口和出口、引进外资和对外投资协调发展，实现国内国际双循环互促共进，引领全市经济高质量发展。', '2.开放发展的经济新体制基本形成。对标国际高标准经贸规则，借鉴中国（河北）自由贸易区创新经验，加快构建以投资贸易便利化为核心的开放型制度体系，健全防范化解重大风险体制，打造一流营商环境，探索新型安全开放新路径，形成开放型经济新体制。', '开放发展的经济新体制基本形成。对标国际高标准经贸规则，借鉴中国（河北）自由贸易区创新经验，加快构建以投资贸易便利化为核心的开放型制度体系，健全防范化解重大风险体制，打造一流营商环境，探索新型安全开放新路径，形成开放型经济新体制。', '3.对外开放平台建设取得显著成效。雄安衡水协作区建设全面加快，对外出口基地带动能力显著增强，省级开发区能级全面提升，各类开放平台对全市开放经济发展的支撑作用明显增强。“十四五”期间，衡水高新区进入国家高新区行列。', '对外开放平台建设取得显著成效。雄安衡水协作区建设全面加快，对外出口基地带动能力显著增强，省级开发区能级全面提升，各类开放平台对全市开放经济发展的支撑作用明显增强。“十四五”期间，衡水高新区进入国家高新区行列。', '4.开放型经济发展规模明显扩大。对外贸易平稳增长，进出口结构更加优化。“十四五”期间，力争全市外贸进出口年均增长5%以上。开放型经济质量稳步提升，外贸主体结构更加优化，高新技术产业利用外资占比明显增加，全球资源配置能力明显提高。“十四五”时期，全市实际利用外资金额累计达到15.5亿美元。', '开放型经济发展规模明显扩大。对外贸易平稳增长，进出口结构更加优化。“十四五”期间，力争全市外贸进出口年均增长', '以上。开放型经济质量稳步提升，外贸主体结构更加优化，高新技术产业利用外资占比明显增加，全球资源配置能力明显提高。“十四五”时期，全市实际利用外资金额累计达到', '持续扩大对内对外开放，加快对内对外贸易一体发展，促进国内国际双循环，不断提升服务和融入新发展格局能力。', '将实施扩大内需战略与深化供给侧结构性改革有机结合，加强需求侧管理，改善供给质量，贯通流通环节，扩大消费规模，全方位融入国内大循环。', '1.改善供给质量。加强国内、国际技术合作，扩大利用外资规模，提升全市优质商品和服务供给能力。畅通技术、资源、人才、资本等生产要素循环，保障资源安全稳定供应。鼓励企业创立拥有自主知识产权的出口品牌，提升“衡水制造”国际竞争力。', '改善供给质量。加强国内、国际技术合作，扩大利用外资规模，提升全市优质商品和服务供给能力。畅通技术、资源、人才、资本等生产要素循环，保障资源安全稳定供应。鼓励企业创立拥有自主知识产权的出口品牌，提升“衡水制造”国际竞争力。', '2.健全现代流通体系。优化商贸物流空间布局，加快商贸物流基础设施改造升级，建设跨境商品物流基地、农产品冷链物流基地、智慧商贸物流基地，加快补齐商贸物流短板。深入推进“物流网”建设，搭建大数据云服务平台，推动现代商贸流通创新发展。', '健全现代流通体系。优化商贸物流空间布局，加快商贸物流基础设施改造升级，建设跨境商品物流基地、农产品冷链物流基地、智慧商贸物流基地，加快补齐商贸物流短板。深入推进“物流网”建设，搭建大数据云服务平台，推动现代商贸流通创新发展。', '3.全面促进消费。稳定民间传统消费，培育壮大数字消费、智能消费等新兴消费，适当增加公共消费，推动传统消费与新兴消费、商品消费与服务消费、线上消费与线下消费协同发展。壮大消费主体，提升消费能力。优化进口产品结构，扩大国际产品消费规模。鼓励扩大日用消费品、养老等民生产品进口，挖掘健康、教育、科技研发、工业设计等生活性与生产性服务业进口需求潜力。推动设立进口商品展示中心、国外商品体验店，提升国际消费便利化水平。', '全面促进消费。稳定民间传统消费，培育壮大数字消费、智能消费等新兴消费，适当增加公共消费，推动传统消费与新兴消费、商品消费与服务消费、线上消费与线下消费协同发展。壮大消费主体，提升消费能力。优化进口产品结构，扩大国际产品消费规模。鼓励扩大日用消费品、养老等民生产品进口，挖掘健康、教育、科技研发、工业设计等生活性与生产性服务业进口需求潜力。推动设立进口商品展示中心、国外商品体验店，提升国际消费便利化水平。', '畅通国内市场和国际市场循环大通道，构建内外联动新机制、新平台、新通道，促进内需和外需、进口和出口、引进外资和对外投资协调发展。', '1.推动贸易投资互动发展。发挥好对外投资对外贸发展的带动作用，通过“走出去”带动相关装备、技术、标准、服务出口，扩大对外贸易规模。提升“以贸促资”能力，鼓励外贸企业吸引利用外资，建设扩大我市外贸生产基地规模，开展产品技术研发，扩大商品出口规模。鼓励我市有实力的企业着眼未来，到国外布局建设原料供应基地、生产制造基地，扩大双向投资规模，提升产业链、供应链稳定性。', '推动贸易投资互动发展。发挥好对外投资对外贸发展的带动作用，通过“走出去”带动相关装备、技术、标准、服务出口，扩大对外贸易规模。提升“以贸促资”能力，鼓励外贸企业吸引利用外资，建设扩大我市外贸生产基地规模，开展产品技术研发，扩大商品出口规模。鼓励我市有实力的企业着眼未来，到国外布局建设原料供应基地、生产制造基地，扩大双向投资规模，提升产业链、供应链稳定性。', '2.加快进出口联动发展。鼓励我市大中型流通企业与境外供应商、省内外进口商建立业务联系与合作，打造“国际采购—进口—自营销售”一体化平台。鼓励先进技术重要装备和关键零部件进口，支持能源资源产品进口，扩大紧缺的中间产品进口，推动进出口贸易均衡发展。', '加快进出口联动发展。鼓励我市大中型流通企业与境外供应商、省内外进口商建立业务联系与合作，打造“国际采购—进口—自营销售”一体化平台。鼓励先进技术重要装备和关键零部件进口，支持能源资源产品进口，扩大紧缺的中间产品进口，推动进出口贸易均衡发展。', '3.促进内外贸一体化发展。创新内外贸融合发展平台，扩大内外销产品“同线同标同质”实施范围，支持搭建更多出口转内销平台，培育内外贸一体化示范企业。', '促进内外贸一体化发展。创新内外贸融合发展平台，扩大内外销产品“同线同标同质”实施范围，支持搭建更多出口转内销平台，培育内外贸一体化示范企业。', '4.畅通国内国际双循环通道。实施“东出西联”对外开放战略，以衡水国际陆港为依托，打通连接中欧班列（欧洲与“一带一路”沿线各国的集装箱国际铁路联运班列）的运输通道，深度融入“一带一路”倡议。扩大优势产品对RCEP（区域全面经济伙伴关系）成员国出口，稳妥扩大高端产品进口。深化与天津、黄骅、青岛等沿海节点城市的经贸合作，推动区域经济联动发展。', '畅通国内国际双循环通道。实施“东出西联”对外开放战略，以衡水国际陆港为依托，打通连接中欧班列（欧洲与“一带一路”沿线各国的集装箱国际铁路联运班列）的运输通道，深度融入“一带一路”倡议。扩大优势产品对', '（区域全面经济伙伴关系）成员国出口，稳妥扩大高端产品进口。深化与天津、黄骅、青岛等沿海节点城市的经贸合作，推动区域经济联动发展。', '立足我市比较优势，依托产业、区位交通资源，深入落实京津冀协同发展战略，主动融入“一带一路”建设，构筑东出西联、内外联动的全域开放新格局。', '落实京津冀协同发展战略，主动对接北京非首都功能疏解需求，全方位服务对接雄安新区建设，加快协同发展模式创新，推动更高层次、更广领域协同发展。', '1.主动对接功能疏解需求。积极落实疏解项目清单，主动承接京津产业转移和科技成果外溢转化，全力配合支持北京高校、医疗机构、企业总部、金融机构、事业单位等非首都功能项目落地。加大衡水高新区、滨湖新区、河北衡水国家农业科技园区（饶阳县）、雄安—故城产业生态城等各类平台载体建设，完善基础设施，健全公共服务功能，提升承接优质北京非首都功能项目的能力。', '主动对接功能疏解需求。积极落实疏解项目清单，主动承接京津产业转移和科技成果外溢转化，全力配合支持北京高校、医疗机构、企业总部、金融机构、事业单位等非首都功能项目落地。加大衡水高新区、滨湖新区、河北衡水国家农业科技园区（饶阳县）、雄安—故城产业生态城等各类平台载体建设，完善基础设施，健全公共服务功能，提升承接优质北京非首都功能项目的能力。', '2.创新京津冀协同开放模式。规划建设雄安衡水协作区、衡水·雄安新区配套产业孵化基地、雄安·故城产业生态城等战略平台，探索建立总部—生产基地、园区共建、整体搬迁等多元化产业对接合作模式，推动实现京津衡协同发展、互利共赢。深化“中化来衡”行动，高标准建设现代农业服务中心、粮食仓储设施和万亩粮食规模种植基地。深入推进“果蔬进京”，建设高端农产品市场、绿色农产品物流专用线和特色果蔬单品生产基地。', '创新京津冀协同开放模式。规划建设雄安衡水协作区、衡水·雄安新区配套产业孵化基地、雄安·故城产业生态城等战略平台，探索建立总部—生产基地、园区共建、整体搬迁等多元化产业对接合作模式，推动实现京津衡协同发展、互利共赢。深化“中化来衡”行动，高标准建设现代农业服务中心、粮食仓储设施和万亩粮食规模种植基地。深入推进“果蔬进京”，建设高端农产品市场、绿色农产品物流专用线和特色果蔬单品生产基地。', '抓住“一带一路”建设机遇，积极融入“一带一路”国际大通道，提升我市与“一带一路”沿线国家投资合作水平，持续拓展对外开放合作新领域。', '1.融入“一带一路”国际大通道。以衡水国际陆港为基础，建设冀东南地区中欧班列集散地、始发站，推动有条件的中欧班列图定化运行，提升进出口贸易企业产品商品流通时效。加强与山东德州、天津、沧州、石家庄等地市合作，参与共建通往“一带一路”沿线国家的国际大通道。深度融入“一带一路”，积极参与沿线国家基础设施建设，加强贸易、投资等领域交流合作。', '融入“一带一路”国际大通道。以衡水国际陆港为基础，建设冀东南地区中欧班列集散地、始发站，推动有条件的中欧班列图定化运行，提升进出口贸易企业产品商品流通时效。加强与山东德州、天津、沧州、石家庄等地市合作，参与共建通往“一带一路”沿线国家的国际大通道。深度融入“一带一路”，积极参与沿线国家基础设施建设，加强贸易、投资等领域交流合作。', '2.提升与沿线国家投资合作水平。深化国际产能合作，推动优势产能和装备“走出去”。聚焦中建材迪拜公共海外仓等重点国别区域，引导和鼓励我市优势产业、优势企业入园。鼓励企业开展与“一带一路”沿线国家科技、文化、教育等领域交流合作。支持有实力的企业建设境外生产基地。', '提升与沿线国家投资合作水平。深化国际产能合作，推动优势产能和装备“走出去”。聚焦中建材迪拜公共海外仓等重点国别区域，引导和鼓励我市优势产业、优势企业入园。鼓励企业开展与“一带一路”沿线国家科技、文化、教育等领域交流合作。支持有实力的企业建设境外生产基地。', '依托区位优势和已有发展基础，建设区域性开放高地，形成经济有机融合、相互促进的良性发展态势。', '1.打造“东西开放轴”。实施东出西联对外开放战略，向东连接天津港、黄骅港和青岛港等临近出海口，向西连接石家庄机场航空口岸、正定自贸片区等枢纽平台，以武邑、武强、阜城、景县、故城等县为重点，向东北对接沿海经济带，向东南对接德州、济南，以深州、安平等县市为重点，联动省会，打造东联西出、内外联动的“东西开放轴”，推动更大范围、更宽领域、更深层次全面开放。', '打造“东西开放轴”。实施东出西联对外开放战略，向东连接天津港、黄骅港和青岛港等临近出海口，向西连接石家庄机场航空口岸、正定自贸片区等枢纽平台，以武邑、武强、阜城、景县、故城等县为重点，向东北对接沿海经济带，向东南对接德州、济南，以深州、安平等县市为重点，联动省会，打造东联西出、内外联动的“东西开放轴”，推动更大范围、更宽领域、更深层次全面开放。', '2.建设“一港三基地多园区”开放高地。加快衡水国际陆港建设，深化与沿海重要节点城市的经贸合作。建设安平丝网基地，打造世界丝网中高端产品研发与生产中心。发挥故城机场区位优势，培育京南空铁物流产业基地，打造冀中南、鲁西北综合交通物流枢纽。建设枣强大营裘皮基地，打造全国裘皮时尚创新中心、产品展交中心、信息集散中心、对外开放先行区。加快武强经开区国际乐器文化产业园、阜城经开区北京中华老字号食品产业园等中外合作园和省际合作产业园建设，培育枣强经开区大营国际裘皮产业园、深州经开区北京绿色家居产业园等中外、省际合作产业园，打造国际合作和竞争新优势的“桥头堡”。', '建设“一港三基地多园区”开放高地。加快衡水国际陆港建设，深化与沿海重要节点城市的经贸合作。建设安平丝网基地，打造世界丝网中高端产品研发与生产中心。发挥故城机场区位优势，培育京南空铁物流产业基地，打造冀中南、鲁西北综合交通物流枢纽。建设枣强大营裘皮基地，打造全国裘皮时尚创新中心、产品展交中心、信息集散中心、对外开放先行区。加快武强经开区国际乐器文化产业园、阜城经开区北京中华老字号食品产业园等中外合作园和省际合作产业园建设，培育枣强经开区大营国际裘皮产业园、深州经开区北京绿色家居产业园等中外、省际合作产业园，打造国际合作和竞争新优势的“桥头堡”。', '.建设承接京津产业转移重点平台。立足京津冀协同发展新阶段，规划建设雄安衡水协作区、衡水·雄安新区配套产业孵化基地、武邑京津冀协同发展产业园、深州京津冀产业协作园、雄安·故城产业生态城、衡水创新港等战略平台，推动产业对接从“承接”向“合作”转变。', '.对接落实《区域全面经济伙伴关系协定》（RCEP）。推动企业利用RCEP原产地规则，优化区域内产业链布局，扩大优势产品对RCEP成员国出口，积极稳妥扩大高端产品进口。', '以创建综合改革试验市为抓手，持续深化“放管服”改革，着力营造一流营商环境，构建高水平开放型经济发展新体制。', '强化改革政策集成，优化市场准入管理，改革创新审批方式，提高资源配置效率，激活市场主体发展活力。', '1.优化市场准入管理。实施涉企经营许可事项清单管理，清单以外一律不得违规限制企业进入特定行业或领域开展经营。改革完善公平竞争审查和公章监管制度。', '优化市场准入管理。实施涉企经营许可事项清单管理，清单以外一律不得违规限制企业进入特定行业或领域开展经营。改革完善公平竞争审查和公章监管制度。', '2.改革创新审批方式。分类推进审批改革，巩固拓展省级园区内企业投资项目“标准地+承诺制”和政府投资“双基”项目“一会三书一证”改革成果，采取直接取消审批、审批改为备案、告知承诺、审批流程再造等多种方式，压缩审批时间，提高审批效率。', '承诺制”和政府投资“双基”项目“一会三书一证”改革成果，采取直接取消审批、审批改为备案、告知承诺、审批流程再造等多种方式，压缩审批时间，提高审批效率。', '3.推动政府服务升级。加快推进数字政府建设，合理规划网上和窗口办事环节，提升政务服务效率。建立纵贯各级政府、横向互联互通的综合服务平台，推动部门数据轨迹对接和服务下沉。到2025年，基本实现行政审批事项“全程网上办”。', '推动政府服务升级。加快推进数字政府建设，合理规划网上和窗口办事环节，提升政务服务效率。建立纵贯各级政府、横向互联互通的综合服务平台，推动部门数据轨迹对接和服务下沉。到', '顺应国际国内经贸发展新变化，对接宣传高标准规则，营造公平竞争的市场环境，打造综合改革升级版。', '1.加强高标准规则宣传对接。加强《区域全面经济伙伴关系协定》（RCEP）、《中欧全面投资协定》（CAI）等国际经贸协议研究、阐释与宣传，提高适应和运用国际经贸规则能力。开展知识产权保护、进出口贸易、跨境电子商务等重点领域的国际经贸规则培训，引导企业自觉运用规则应对挑战、维护权益、规避风险。', '）等国际经贸协议研究、阐释与宣传，提高适应和运用国际经贸规则能力。开展知识产权保护、进出口贸易、跨境电子商务等重点领域的国际经贸规则培训，引导企业自觉运用规则应对挑战、维护权益、规避风险。', '2.营造公平竞争的市场环境。进一步优化市场环境，最大限度减少政府对市场资源的直接配置，减少政府对市场活动的直接干预。加大知识产权保护执法，提高知识产权保护水平。依法依规维护民营企业、外资企业合法权益。', '营造公平竞争的市场环境。进一步优化市场环境，最大限度减少政府对市场资源的直接配置，减少政府对市场活动的直接干预。加大知识产权保护执法，提高知识产权保护水平。依法依规维护民营企业、外资企业合法权益。', '3.推动政策集成创新。围绕要素市场化配置、科技体制创新、城乡融合发展、生态环境治理、公共服务供给等领域实施政策集成改革，打造综合改革升级版。', '推动政策集成创新。围绕要素市场化配置、科技体制创新、城乡融合发展、生态环境治理、公共服务供给等领域实施政策集成改革，打造综合改革升级版。', '深化贸易投资便利化改革，落实通关便利、减费降税、口岸执法、投资服务等改革举措，加快构建稳定公开透明可预期的营商环境。', '1.促进投资便利化。执行外商投资准入负面清单，放宽市场准入。全面推进“三证合一”“一业一证”“容缺受理”改革。优化对外投资专业服务，简化境外投资备案。', '促进投资便利化。执行外商投资准入负面清单，放宽市场准入。全面推进“三证合一”“一业一证”“容缺受理”改革。优化对外投资专业服务，简化境外投资备案。', '2.提高通关便利化水平。提升国际贸易“单一窗口”主要业务应用率。推动减少、简化通关环节随附单据，进一步压缩通关时间，降低通关成本。积极申请开展贸易外汇收支便利化试点，便利跨境电商外汇结算。', '提高通关便利化水平。提升国际贸易“单一窗口”主要业务应用率。推动减少、简化通关环节随附单据，进一步压缩通关时间，降低通关成本。积极申请开展贸易外汇收支便利化试点，便利跨境电商外汇结算。', '3.降低通关环节成本。严格执行口岸收费目录清单制度，持续清理规范进出口环节涉企收费，推动口岸收费“一站式阳光价格”。加强口岸管理部门整合作业和跨部门联合作业。扩大第三方检验结果采信商品和机构范围。依照RCEP等自由贸易协定安排，推动实施原产地自主声明制度和原产地预裁定制度。', '降低通关环节成本。严格执行口岸收费目录清单制度，持续清理规范进出口环节涉企收费，推动口岸收费“一站式阳光价格”。加强口岸管理部门整合作业和跨部门联合作业。扩大第三方检验结果采信商品和机构范围。依照', '搭建国际国内对外开放合作平台，打造开发区、雄安衡水协作区、海关特殊监管区、经贸洽谈交流平台“四位一体”开放发展平台，提升衡水开放型经济发展能级。', '搭建国际国内对外开放合作平台，打造开发区、雄安衡水协作区、海关特殊监管区、经贸洽谈交流平台', '实施开发区“二次创业”，加强开发区统筹规划，提升承载能力，创新体制机制，打造开放发展新优势。', '1.加强开发区顶层设计。对标雄安新区，高起点、高标准编制全市高新技术产业开发区、经济开发区总体发展规划。围绕我市“3+2”市域主导产业和“9+5”县域特色产业集群，按照“一园区一特色”原则，科学确定全市13个省级开发区产业定位，合理布局内部产业集聚区，建成主导产业突出、产业链条完整、公服设施配套、集群效应明显的特色产业园。支持优质开发区通过一区多园、扩区、调区、托管等多种方式，拓展发展空间。加大招商引资力度，引进高新技术和战略性新兴产业项目，推动传统产业升级，打造引领全市经济发展和对外开放的新高地。', '加强开发区顶层设计。对标雄安新区，高起点、高标准编制全市高新技术产业开发区、经济开发区总体发展规划。围绕我市“', '个省级开发区产业定位，合理布局内部产业集聚区，建成主导产业突出、产业链条完整、公服设施配套、集群效应明显的特色产业园。支持优质开发区通过一区多园、扩区、调区、托管等多种方式，拓展发展空间。加大招商引资力度，引进高新技术和战略性新兴产业项目，推动传统产业升级，打造引领全市经济发展和对外开放的新高地。', '2.提升开发区承载能力。落实《中共衡水市委 衡水市人民政府印发〈关于支持衡水高新区加快发展的十条措施〉的通知》（衡字〔2018〕2号）、《衡水市人民政府关于印发〈衡水市推动开发区高质量高速度发展的三十条措施〉的通知》（衡政字〔2020〕9号）等政策，整合财政、金融、土地等资源要素，加大园区道路、水利、电力等基础设施投入，完善园区公共基础设施和服务设施，推动实现高标准“九通一平”。加大园区土地收储力度，做好大项目、好项目落地准备。强化开发区用地内涵挖潜，加快“腾笼换鸟”，推动开发区存量建设用地盘活利用，提高土地利用强度。完善企业投资项目“标准地+承诺制”机制，全面提升园区发展环境。支持在开发区设立企业技术创新中心、重点实验室、工业设计中心、众创空间、孵化器、加速器等各类科技创新创业载体，增强开发区经济创新力和竞争力。', '提升开发区承载能力。落实《中共衡水市委 衡水市人民政府印发〈关于支持衡水高新区加快发展的十条措施〉的通知》（衡字〔', '号）、《衡水市人民政府关于印发〈衡水市推动开发区高质量高速度发展的三十条措施〉的通知》（衡政字〔', '号）等政策，整合财政、金融、土地等资源要素，加大园区道路、水利、电力等基础设施投入，完善园区公共基础设施和服务设施，推动实现高标准“九通一平”。加大园区土地收储力度，做好大项目、好项目落地准备。强化开发区用地内涵挖潜，加快“腾笼换鸟”，推动开发区存量建设用地盘活利用，提高土地利用强度。完善企业投资项目“标准地', '承诺制”机制，全面提升园区发展环境。支持在开发区设立企业技术创新中心、重点实验室、工业设计中心、众创空间、孵化器、加速器等各类科技创新创业载体，增强开发区经济创新力和竞争力。', '3.创新开发区体制机制。完善开发区招商引资政策，按照“谁招商、谁受益”原则，对成功落地的项目和引入的市场主体落实相关政策。推行开发区全员聘任竞争上岗和末位淘汰制，完善开发区考核评价体系，推进开发区争先进位。深化开发区“亩均论英雄”改革，推广开发区主导产业“链长制”，延伸产业链条，提升供应链保障水平。', '创新开发区体制机制。完善开发区招商引资政策，按照“谁招商、谁受益”原则，对成功落地的项目和引入的市场主体落实相关政策。推行开发区全员聘任竞争上岗和末位淘汰制，完善开发区考核评价体系，推进开发区争先进位。深化开发区“亩均论英雄”改革，推广开发区主导产业“链长制”，延伸产业链条，提升供应链保障水平。', '4.推动创建国家高新区。把衡水高新区晋升国家高新区作为“一号工程”，按照“引领衡水、链接雄安、辐射周边、协同京津”的定位，科学编制实施战略发展规划和产业发展规划，加强与先进开发区对标对表，加快补齐发展短板，确保各项指标满足申创要求。坚持“领军企业+创新平台+产业基地+产业基金”的集群发展模式，持续加大投资力度，强化招商引资、项目落地，推动产业逐步迈向产业链、价值链的中高端。强化以升促建，开展深化四项制度改革、全链条创新创业综合体建设、市场创新主体培育、园区城乡融合发展等四大建设，提升高新区综合能级。到2025年，衡水高新区主营业务收入1300亿元以上。', '推动创建国家高新区。把衡水高新区晋升国家高新区作为“一号工程”，按照“引领衡水、链接雄安、辐射周边、协同京津”的定位，科学编制实施战略发展规划和产业发展规划，加强与先进开发区对标对表，加快补齐发展短板，确保各项指标满足申创要求。坚持“领军企业', '产业基金”的集群发展模式，持续加大投资力度，强化招商引资、项目落地，推动产业逐步迈向产业链、价值链的中高端。强化以升促建，开展深化四项制度改革、全链条创新创业综合体建设、市场创新主体培育、园区城乡融合发展等四大建设，提升高新区综合能级。到', '抢抓雄安新区建设战略机遇，发挥紧邻雄安区位优势，规划建设雄安衡水协作区，打造全市开放经济发展新的增长极。', '按照“近期‘雄安建设、衡水配套’、远期‘雄安研发、衡水制造’‘雄安生活、衡水服务’”的总体思路，高标准、高质量推动雄安衡水协作区规划建设。在雄安新区建设初期，紧密结合雄安新区对于施工、建材、基础设施建设等方面需求，提供配套供给。雄安新区发展成熟后，根据雄安创新研发产业布局，发挥衡水自身优势特色，建设雄安研发成果转化制造基地、雄安食品保障基地、康养基地、教育培训基地等。', '强化与雄安新区在产业、服务配套、合作共建等方面进行对接与谋划。围绕雄安新区新型能源材料、高技术信息材料、生物医学材料等开展应用基础研究和产业化应用，推动新材料领域研究成果在协作区落地转化。运用雄安新区的新一代信息技术，推进高档数控机床与基础制造装备、自动化成套生产线、智能控制系统、精密和智能仪器仪表与试验设备、关键基础零部件等制造与产业化应用。围绕雄安新区的基因工程、生物育种技术，培育发展医药、食品、育种等生物产业的中试和生产基地。', '加快协作区基础设施建设，实施起步区路网、气站、污水处理厂等建设工程，提升承接项目、服务雄安新区发展能力。借鉴长三角一体化发展示范区等地的先进经验，在协作区率先探索税收收入分享、改革红利共享、公共事务投资共担等新型合作模式，推动深州、安平及饶阳三县（市）资源整合，打造专业化、特色化、精准化的雄安创新转化承接地。', '借鉴推广复制中国（河北）自由贸易区发展经验，做大做强衡水内陆港，申报创建保税物流中心，提升出口基地规模，培育国际合作发展“桥头堡”。', '借鉴推广复制中国（河北）自由贸易区发展经验，做大做强衡水内陆港，申报创建保税物流中心，提升出口基地规模，培育国际合作发展', '1.推广复制中国（河北）自由贸易区经验。强化与中国（河北）自由贸易区相关片区联系，借鉴复制自贸区成功的改革试点经验，逐步构建适应开放型经济发展要求相适应的新体制、新模式，提升参与国际国内合作竞争能力。加强与中国（河北）自由贸易试验区在项目、人才、科技等领域的协同合作，最大限度分享自由贸易试验区改革创新成果。引导企业关注和研究自贸协定，高质量利用双多边自由贸易协定，提升参与国际竞争能力。', '推广复制中国（河北）自由贸易区经验。强化与中国（河北）自由贸易区相关片区联系，借鉴复制自贸区成功的改革试点经验，逐步构建适应开放型经济发展要求相适应的新体制、新模式，提升参与国际国内合作竞争能力。加强与中国（河北）自由贸易试验区在项目、人才、科技等领域的协同合作，最大限度分享自由贸易试验区改革创新成果。引导企业关注和研究自贸协定，高质量利用双多边自由贸易协定，提升参与国际竞争能力。', '2.加强衡水内陆港建设。衡水内陆港在完成海关监管场所土地证的基础上，进一步完备衡水海关监管设施，加强与天津港、黄骅港等沿海口岸合作对接，提升完善口岸联检、报关通关、检验检疫等设施，全面实现口岸功能内移，联检互认，建好衡水内陆港外贸综合服务平台，为进出口企业提供就地报关报检、订舱、装拆箱、结汇、签发提单、出口清关等便捷线上口岸服务。推动实施衡水内陆港二期规划，建设“五区两园一平台”（物流贸易集散区、综合保税区、物流增值服务区、生鲜冷链区、生活区、外贸产业园、商业园和跨境电子商务平台），积极建设公共型保税仓库，为进口货物提供仓库内改装、分级、抽样、混合和再加工，减少进口资金占用，促进转口贸易发展，提升企业抵抗风险能力，强化项目审批、资金支持、产业发展、用地供给、重大项目布局等支持力度，提升内陆港外向型经济发展能力。', '加强衡水内陆港建设。衡水内陆港在完成海关监管场所土地证的基础上，进一步完备衡水海关监管设施，加强与天津港、黄骅港等沿海口岸合作对接，提升完善口岸联检、报关通关、检验检疫等设施，全面实现口岸功能内移，联检互认，建好衡水内陆港外贸综合服务平台，为进出口企业提供就地报关报检、订舱、装拆箱、结汇、签发提单、出口清关等便捷线上口岸服务。推动实施衡水内陆港二期规划，建设“五区两园一平台”（物流贸易集散区、综合保税区、物流增值服务区、生鲜冷链区、生活区、外贸产业园、商业园和跨境电子商务平台），积极建设公共型保税仓库，为进口货物提供仓库内改装、分级、抽样、混合和再加工，减少进口资金占用，促进转口贸易发展，提升企业抵抗风险能力，强化项目审批、资金支持、产业发展、用地供给、重大项目布局等支持力度，提升内陆港外向型经济发展能力。', '3.申报建设保税物流中心。加快推动枣强保税物流中心建设，开展进口保税、出口退税、进出口贸易、转口贸易、简单加工和增值服务，满足外向型制造业对保税物流服务的需求。加大招商引资力度，吸引出口加工、商贸、物流企业聚集，打造出口产业示范集群。', '申报建设保税物流中心。加快推动枣强保税物流中心建设，开展进口保税、出口退税、进出口贸易、转口贸易、简单加工和增值服务，满足外向型制造业对保税物流服务的需求。加大招商引资力度，吸引出口加工、商贸、物流企业聚集，打造出口产业示范集群。', '4.做大做强对外出口基地。巩固提升传统出口优势，推进河北省安平县国家外贸转型升级基地（五金制品）、河北省故城县国家外贸转型基地（服装）、河北省枣强县大营国家外贸转型升级基地（服装）等国家级外贸基地优化结构、塑造品牌、强力营销、转型升级。支持河北省精细化工（衡水）出口基地、武强县乐器外贸转型示范基地、景县机械加工制造外贸转型示范基地等省级外贸基地提质扩模，争创国家级外贸转型升级基地。落实外贸出口优惠扶持政策，加大企业技改贴息、研发补助等支持，鼓励企业研发具有自主知识产权的产品，不断提高产品技术档次。加大金融支持，鼓励金融机构开发贸易融资、知识产权抵押等金融产品，解决出口企业资金需求。鼓励企业参加各类线上、线下博览会，开拓国际市场。加强出口基地动态跟踪与监测评价，帮助解决企业外贸出口遇到的问题和困难。', '做大做强对外出口基地。巩固提升传统出口优势，推进河北省安平县国家外贸转型升级基地（五金制品）、河北省故城县国家外贸转型基地（服装）、河北省枣强县大营国家外贸转型升级基地（服装）等国家级外贸基地优化结构、塑造品牌、强力营销、转型升级。支持河北省精细化工（衡水）出口基地、武强县乐器外贸转型示范基地、景县机械加工制造外贸转型示范基地等省级外贸基地提质扩模，争创国家级外贸转型升级基地。落实外贸出口优惠扶持政策，加大企业技改贴息、研发补助等支持，鼓励企业研发具有自主知识产权的产品，不断提高产品技术档次。加大金融支持，鼓励金融机构开发贸易融资、知识产权抵押等金融产品，解决出口企业资金需求。鼓励企业参加各类线上、线下博览会，开拓国际市场。加强出口基地动态跟踪与监测评价，帮助解决企业外贸出口遇到的问题和困难。', '高水平办好衡水湖国际商务洽谈会、衡水市投资环境推介会，引进优质项目、聚集创新资源，推动对外经贸实现新突破。积极参加国家和河北省组织的厦门国际投资贸易洽谈会、廊坊国际经贸洽谈会等招商活动，加强与国内外政府机构、商会协会、团体、知名企业交流合作，精准对接创新链、产业链、资本链，推动取得务实合作成果。鼓励引进行业影响力强、带动效应显著的国际知名品牌展会。深化我市与埃塞俄比亚、莱索托、塞拉利昂、南苏丹等“一带一路”沿线国家贸易合作，发展“跨境电商”“丝路电商”，鼓励企业在相关国家开展电子商务。鼓励有实力的企业参与境外经贸合作区、跨境经济合作区建设。', '高水平办好衡水湖国际商务洽谈会、衡水市投资环境推介会，引进优质项目、聚集创新资源，推动对外经贸实现新突破。积极参加国家和河北省组织的厦门国际投资贸易洽谈会、廊坊国际经贸洽谈会等招商活动，加强与国内外政府机构、商会协会、团体、知名企业交流合作，精准对接创新链、产业链、资本链，推动取得务实合作成果。鼓励引进行业影响力强、带动效应显著的国际知名品牌展会。深化我市与埃塞俄比亚、莱索托、塞拉利昂、南苏丹等', '.产业布局优化工程。发挥衡水高新区带动作用，高标准建设“一谷两城三园”，构建“研发中心+中试基地+产业园”全链条成果转化体系，打造创新发展引领区、开放发展先行区。巩固安平、故城等国家级外贸转型示范基地出口优势，推动武强、景县等省级外贸转型示范基地做大做强。建设新型材料产业园、大健康产业园、高端装备制造产业园，发展新材料、新能源、大健康、先进装备制造等高新技术和战略性新兴产业。', '.雄安衡水协作区建设工程。实施深州市鲜天下生鲜食品、安平县高品质水苏糖生产、安平大红门熟食制品等绿色食品产业项目，安平县丝网和钢板网、深州市丝网制品等环保安全专用网项目，深州市新型节能复合墙体保温材料、安平县金属表面处理等绿色建材产业项目，深州市圣奥国际智能制造家居（北方总部）、深州市黎明国际企业港家具生产等家居制造业项目，饶阳铁路信号产品扩建等轨道交通装备产业项目。', '.合作产业园区建设工程。加快建设武强经开区国际乐器文化产业园、枣强经开区大营国际裘皮产业园等中外合作产业园，培育壮大阜城经开区北京中华老字号食品产业园、深州经开区北京绿色家居产业园等省际合作产业园。', '.品牌展会提升工程。办好衡水湖国际商务洽谈会、衡水湖生态旅游推介会等商务会展活动，扩大国内外影响力。引进知名会展中介组织和服务机构，提升中国·安平国际丝网博览会、大营国际皮草交易会等专业化服务水平。', '加快对外贸易创新发展，提高外资利用质量，优化对外合作布局，提升企业融入产业链、创新链、价值链能力，培育国际竞争合作新优势。', '顺应外贸发展新变化，培育外贸发展新业态，做大做强外贸经营主体，加快外贸平台提档升级，推动市场多元化发展，打造外贸发展新优势。', '1.培育外贸新业态。发挥我市装备制造、新材料、食品等主导产业，以及复合材料、毛皮、金属橱柜、农副产品加工、丝网、橡塑制品、采暖铸造、医疗器械、乐器等县域特色产业集群优势，发展跨境电子商务，提升电商出口在外贸出口中的比重。鼓励各类外贸企业、出口加工企业，利用亚马逊、阿里巴巴、速卖通等知名度高的、覆盖面广的外贸电商平台，开展跨境贸易，扩大特色产业出口规模。打造安平丝网、大营裘皮、饶阳果蔬、冀州暖气片等电商服务平台，支持景县管业、武强国际乐器、饶阳果蔬、深州果品等县域特色产业以自建、合作开发或利用第三方知名电子商务平台等形式，提升特色产品交易额。支持中小微企业采用“跨境电商+海外仓+营销展厅”新营销模式，借船出海，拓展国际市场。落实离岸贸易、保税物流、跨境电商等新业态新模式发展支持政策。', '培育外贸新业态。发挥我市装备制造、新材料、食品等主导产业，以及复合材料、毛皮、金属橱柜、农副产品加工、丝网、橡塑制品、采暖铸造、医疗器械、乐器等县域特色产业集群优势，发展跨境电子商务，提升电商出口在外贸出口中的比重。鼓励各类外贸企业、出口加工企业，利用亚马逊、阿里巴巴、速卖通等知名度高的、覆盖面广的外贸电商平台，开展跨境贸易，扩大特色产业出口规模。打造安平丝网、大营裘皮、饶阳果蔬、冀州暖气片等电商服务平台，支持景县管业、武强国际乐器、饶阳果蔬、深州果品等县域特色产业以自建、合作开发或利用第三方知名电子商务平台等形式，提升特色产品交易额。支持中小微企业采用“跨境电商', '营销展厅”新营销模式，借船出海，拓展国际市场。落实离岸贸易、保税物流、跨境电商等新业态新模式发展支持政策。', '2.培育壮大市场主体。实施外贸龙头提升行动，鼓励行业领军企业开拓多元化市场，提高国际化经营水平。加强中小型外贸企业培育，对发展势头好、行业潜力大的企业，实行重点跟踪服务，推动做大做强。支持出口型企业走“专精特新”发展之路。鼓励企业参与境内外知名展会，推动企业由“接单出口”向国际化营销转型。鼓励境外企业到我市设立办事处、采购处等机构，培育外贸出口增长点。加强外贸政策业务培训，优化培训内容，丰富外贸培训方式，提高企业经营管理者和外贸工作人员业务水平。', '培育壮大市场主体。实施外贸龙头提升行动，鼓励行业领军企业开拓多元化市场，提高国际化经营水平。加强中小型外贸企业培育，对发展势头好、行业潜力大的企业，实行重点跟踪服务，推动做大做强。支持出口型企业走“专精特新”发展之路。鼓励企业参与境内外知名展会，推动企业由“接单出口”向国际化营销转型。鼓励境外企业到我市设立办事处、采购处等机构，培育外贸出口增长点。加强外贸政策业务培训，优化培训内容，丰富外贸培训方式，提高企业经营管理者和外贸工作人员业务水平。', '.外贸新业态培育工程。做大做强西亚皮草新城电子商务示范基地、武邑县电子商务示范基地、大营裘皮跨境电子商务基地，支持冀州建立跨境电子商务综合试验区。', '.市场多元化工程。稳定欧美、中东等国家和地区市场份额，拓展“一带一路”沿线国家和其他国家市场，增加其他国家市场的贸易比重。支持在新开拓的市场建立稳定销售网络和渠道，提高应对外部风险能力。建设完善重点国别、重点行业、重点采购商“数据库”。', '.新兴服务贸易创新工程。推动教育、旅游、文化等产业国际化发展，鼓励发展寄递物流、仓储、研发、设计、数字技术等新兴服务贸易。支持武强等符合条件的县（市、区）申报国家、省级文化出口基地，鼓励符合条件的县（市、区）申报国家数字服务出口基地。', '3.建好用好对外贸易平台。加快推进会展平台、电子商务平台建设，继续办好中国·安平国际丝网博览会、大营国际皮草交易会，扩大展会国内国际影响力。围绕乐器、橡塑、采暖铸造、复合材料等特色产业谋划一批专业性、国际性展会。鼓励企业参加进中国出口商品交易会、中国国际高新技术成果交易会、中国廊坊国际经济贸易洽谈会、中国河北（石家庄）国家医疗器械博览会等大型知名展会。鼓励传统经贸展会数字化转型，推动展会线上线下融合发展，支持外贸企业运用“云展示”“云对接”“云签约”等新模式进行展示推介、洽谈合作和线上签约。推动建设跨境贸易大数据平台。鼓励有实力的企业参与海外仓、境外品牌展示中心建设。鼓励海外仓企业对接跨境电商公共服务平台、电商平台，匹配供需信息。', '建好用好对外贸易平台。加快推进会展平台、电子商务平台建设，继续办好中国·安平国际丝网博览会、大营国际皮草交易会，扩大展会国内国际影响力。围绕乐器、橡塑、采暖铸造、复合材料等特色产业谋划一批专业性、国际性展会。鼓励企业参加进中国出口商品交易会、中国国际高新技术成果交易会、中国廊坊国际经济贸易洽谈会、中国河北（石家庄）国家医疗器械博览会等大型知名展会。鼓励传统经贸展会数字化转型，推动展会线上线下融合发展，支持外贸企业运用“云展示”“云对接”“云签约”等新模式进行展示推介、洽谈合作和线上签约。推动建设跨境贸易大数据平台。鼓励有实力的企业参与海外仓、境外品牌展示中心建设。鼓励海外仓企业对接跨境电商公共服务平台、电商平台，匹配供需信息。', '4.推动服务贸易创新发展。培育壮大各类服务贸易企业，推动文化旅游、商贸物流、教育培育等服务贸易发展。加强武强文化产品出口集聚区建设，推动发展一批国家级、省级文化出口企业，扩大文化产品出口规模。鼓励物流仓储、跨境租赁、国际结算、研发设计等新兴服务贸易发展。', '推动服务贸易创新发展。培育壮大各类服务贸易企业，推动文化旅游、商贸物流、教育培育等服务贸易发展。加强武强文化产品出口集聚区建设，推动发展一批国家级、省级文化出口企业，扩大文化产品出口规模。鼓励物流仓储、跨境租赁、国际结算、研发设计等新兴服务贸易发展。', '强化对外招商引资，优化外资利用结构，提高外资利用质量和发展水平，培育全市经济发展新动能。', '1.加大外资引进力度。用好高端招商引资平台，大力引进一批符合我市产业发展政策的先进装备制造、新材料、数字经济、文化旅游、大健康等特色产业项目。完善细分领域招商地图，建立健全“产业项目指导目录、重点目标招商目录、招商项目库”三个清单，提升产业链精准招商效能。加强与境外招商代理的沟通对接，针对国外知名企业适时开展境外小团组精准招商，组织市内企业与外商“一对一”洽谈，争取签约一批高精尖外资项目。完善重大经贸活动签约项目落实落地机制，提高项目履约率和合同外资到位率。', '加大外资引进力度。用好高端招商引资平台，大力引进一批符合我市产业发展政策的先进装备制造、新材料、数字经济、文化旅游、大健康等特色产业项目。完善细分领域招商地图，建立健全“产业项目指导目录、重点目标招商目录、招商项目库”三个清单，提升产业链精准招商效能。加强与境外招商代理的沟通对接，针对国外知名企业适时开展境外小团组精准招商，组织市内企业与外商“一对一”洽谈，争取签约一批高精尖外资项目。完善重大经贸活动签约项目落实落地机制，提高项目履约率和合同外资到位率。', '2.优化外资利用结构。发挥投资促进产业结构优化作用，围绕先进制造业、高新技术和战略性新兴产业、现代服务业，精准谋划和引进一批高端高新项目和产业链集群项目，推动全市产业向中高端迈进。支持外资投向现代农业、先进制造业、文化旅游、生态环保、乡村建设等领域。鼓励外商发展节能环保、新一代信息技术、新能源、新材料、生物健康等产业。支持外商投资使用新技术、新工艺、新材料、新设备，改造传统产业，培育国际合作和竞争新优势。鼓励城乡道路、水利、电力等基础设施和生态建设、环境保护、污染治理、教育文化、医疗卫生等领域项目合理有效使用国外优惠贷款。', '优化外资利用结构。发挥投资促进产业结构优化作用，围绕先进制造业、高新技术和战略性新兴产业、现代服务业，精准谋划和引进一批高端高新项目和产业链集群项目，推动全市产业向中高端迈进。支持外资投向现代农业、先进制造业、文化旅游、生态环保、乡村建设等领域。鼓励外商发展节能环保、新一代信息技术、新能源、新材料、生物健康等产业。支持外商投资使用新技术、新工艺、新材料、新设备，改造传统产业，培育国际合作和竞争新优势。鼓励城乡道路、水利、电力等基础设施和生态建设、环境保护、污染治理、教育文化、医疗卫生等领域项目合理有效使用国外优惠贷款。', '3.优化外资发展环境。落实外商投资准入前国民待遇加负面清单管理制度，全面清理外资准入负面清单之外的准入限制措施，最大限度缩小行政审批、核准范围，稳住利用外资“基本盘”。建立健全利用外资企业、重点项目联系服务制度，规范市场竞争行为，营造公平、公正的市场竞争环境。完善知识产权保护和运用体系，构建诉讼、仲裁、调解有机衔接的纠纷解决机制，维护外国投资者合法权益。重视社会政策配套，为外籍人士提供居住便利化条件。', '优化外资发展环境。落实外商投资准入前国民待遇加负面清单管理制度，全面清理外资准入负面清单之外的准入限制措施，最大限度缩小行政审批、核准范围，稳住利用外资“基本盘”。建立健全利用外资企业、重点项目联系服务制度，规范市场竞争行为，营造公平、公正的市场竞争环境。完善知识产权保护和运用体系，构建诉讼、仲裁、调解有机衔接的纠纷解决机制，维护外国投资者合法权益。重视社会政策配套，为外籍人士提供居住便利化条件。', '”产业链招商指导目录，引导外资投向先进装备制造、电子信息、生物医药、新材料、先进节能环保、新能源和未来产业等战略性新兴产业。鼓励外资参与农产品加工、纺织服装等传统产业转型升级，支持发展高新技术产业，鼓励投资工业设计、信息技术、电子商务、现代物流、旅游文化等现代生产性服务业。各市县及开发区结合自身实际，进一步明确招商重点，细化完善产业链招商目录。', '强、“专精特新”企业、行业领军企业、“隐形冠军”和国内外研发机构为重点，提前制定招商工作计划，持续开展洽谈对接。对引进重大产业项目和创新项目、总部和功能性机构提供“一企一策、一项一策”精准支持，力争引进一批投入产出比高、经济社会效益明显的大项目、大企业。', '1.统筹布局境外营销网络。顺应跨境电子商务发展趋势，在东南亚、西亚、非洲等与我市跨境贸易活跃的国家地区的大型港口、关键节点城市，谋划布局公共海外仓、展示营销中心、体验店、配送网点，形成全球化商品营销网络。鼓励外贸企业、出口基地、出口龙头企业通过直接投资、租用合作经营等方式参与建设海外仓。支持枣强大营、冀州医疗建立跨境电子商务综合试验区。充分利用中非衡水国际合作中心海外仓分销服务体系，助力更多中小企业开拓国际市场。', '统筹布局境外营销网络。顺应跨境电子商务发展趋势，在东南亚、西亚、非洲等与我市跨境贸易活跃的国家地区的大型港口、关键节点城市，谋划布局公共海外仓、展示营销中心、体验店、配送网点，形成全球化商品营销网络。鼓励外贸企业、出口基地、出口龙头企业通过直接投资、租用合作经营等方式参与建设海外仓。支持枣强大营、冀州医疗建立跨境电子商务综合试验区。充分利用中非衡水国际合作中心海外仓分销服务体系，助力更多中小企业开拓国际市场。', '2.推进企业优化海外布局。鼓励各类企业有序参与国际产能合作，配置全球产能资源，延伸外向型产业链条，提升产业全球保障能力。支持企业参与新兴市场国家基础设施、工业项目建设。鼓励企业到发达国家开展高新技术项目并购、合作，支持建设研发中心，利用发达国家创新团队、高端人才研发新产品、新技术，破解产业发展“卡脖子”问题。', '推进企业优化海外布局。鼓励各类企业有序参与国际产能合作，配置全球产能资源，延伸外向型产业链条，提升产业全球保障能力。支持企业参与新兴市场国家基础设施、工业项目建设。鼓励企业到发达国家开展高新技术项目并购、合作，支持建设研发中心，利用发达国家创新团队、高端人才研发新产品、新技术，破解产业发展“卡脖子”问题。', '3.推进境外资源合作开发。鼓励企业投资参与境外矿石、能源、农产品、木材等资源合作开发。支持农业企业、贸易商等在境外设立种植基地、生产加工基地。鼓励以收购、参股、技术合作、工程换资源、项目换资源等多种方式开展境外资源开发合作。', '推进境外资源合作开发。鼓励企业投资参与境外矿石、能源、农产品、木材等资源合作开发。支持农业企业、贸易商等在境外设立种植基地、生产加工基地。鼓励以收购、参股、技术合作、工程换资源、项目换资源等多种方式开展境外资源开发合作。', '4.参与建设境外经贸合作区。鼓励我市有实力的企业参与我省境外特色产业园区建设。支持我市企业入园中建材迪拜公共海外仓，扩大对外经贸合作规模。', '参与建设境外经贸合作区。鼓励我市有实力的企业参与我省境外特色产业园区建设。支持我市企业入园中建材迪拜公共海外仓，扩大对外经贸合作规模。', '5.深化基础设施领域合作。支持我市有实力的工程企业到境外参与港口、电力、电信、水利、管道等基础设施建设。鼓励工程企业承揽国外基础设施建设项目，参与国际工程项目勘察设计、投资建设、装备供应、运营维护。', '深化基础设施领域合作。支持我市有实力的工程企业到境外参与港口、电力、电信、水利、管道等基础设施建设。鼓励工程企业承揽国外基础设施建设项目，参与国际工程项目勘察设计、投资建设、装备供应、运营维护。', '．优势产能国际合作工程。建立完善“走出去”重点产业、重点企业、重点项目、重点国别指导目录。推动装备、农产品生产加工等企业开展国际产能合作。', '．高新技术合作工程。支持引进先进制造、电子信息、生物医药、节能环保、新材料等领域的境内外优质企业、高新技术项目，深化在高新技术和先进制造业领域的国际合作。鼓励通过并购、合作等方式建立境外技术研发中心。', '个海外公共仓。鼓励有实力的出口企业参与境外展示中心、境外售后服务网点、境外零售网点和备件基地建设，支持企业收购、并购国外营销网络。', '．“一带一路”基础设施建设工程。鼓励我市企业参与“一带一路”国家基础设施建设。支持有实力的企业承揽对外工程承包项目，鼓励企业到国外开展勘察设计、运营维护等技术服务。', '1.提升农业产业链国际化水平。围绕优质小麦、专用玉米、酿酒高粱、特色果蔬、畜禽养殖等重点产业，引进国内外优质项目、创新团队和高端人才，发展种业科技、绿色生产、农产品精深加工等关键核心技术研发与产品生产。鼓励山东鲁花、五得利、衡水老白干等经营规范、发展前景较好的企业做大做强，支持企业引进国内外先进生产技术、加工装备，推动传统食品加工向功能食品、营养食品和中央厨房等领域拓展。', '提升农业产业链国际化水平。围绕优质小麦、专用玉米、酿酒高粱、特色果蔬、畜禽养殖等重点产业，引进国内外优质项目、创新团队和高端人才，发展种业科技、绿色生产、农产品精深加工等关键核心技术研发与产品生产。鼓励山东鲁花、五得利、衡水老白干等经营规范、发展前景较好的企业做大做强，支持企业引进国内外先进生产技术、加工装备，推动传统食品加工向功能食品、营养食品和中央厨房等领域拓展。', '2.稳妥扩大农产品国际合作。巩固扩大速冻农产品出口优势，支持衡水老白干等农业龙头企业走出去，开展科技、贸易、投资、生产等领域的境外合作。鼓励有条件的企业到非洲、南美洲等国家开展农业合作，建设海外农业生产基地，拓宽农产品进口来源渠道，保障农产品供应安全。', '稳妥扩大农产品国际合作。巩固扩大速冻农产品出口优势，支持衡水老白干等农业龙头企业走出去，开展科技、贸易、投资、生产等领域的境外合作。鼓励有条件的企业到非洲、南美洲等国家开展农业合作，建设海外农业生产基地，拓宽农产品进口来源渠道，保障农产品供应安全。', '1.打造开放型战略性新兴产业链。实施战略性新兴产业“强链补链扩链”工程，以先进装备制造、新能源、新材料等高新技术和战略性新兴产业为引领，打造由先进装备制造、新材料、食品及生物制品三大主导产业和服务机器人、数字信息安全两大未来产业构建的“3+2”市域主导产业体系。加强战略性新兴产业国际合作，引进资金、技术、人才等创新要素，提升战略性新兴产业要素供给质量。', '打造开放型战略性新兴产业链。实施战略性新兴产业“强链补链扩链”工程，以先进装备制造、新能源、新材料等高新技术和战略性新兴产业为引领，打造由先进装备制造、新材料、食品及生物制品三大主导产业和服务机器人、数字信息安全两大未来产业构建的“', '”市域主导产业体系。加强战略性新兴产业国际合作，引进资金、技术、人才等创新要素，提升战略性新兴产业要素供给质量。', '2.推动传统产业绿色国际合作。推动橡胶、复合材料等传统产业绿色发展，鼓励开展环保技术、大气污染技术、水处理技术、循环经济等项目合作。推动国外环保技术转移，支持引入环保装备制造、环保产品生产和环保节能综合服务项目、企业。', '推动传统产业绿色国际合作。推动橡胶、复合材料等传统产业绿色发展，鼓励开展环保技术、大气污染技术、水处理技术、循环经济等项目合作。推动国外环保技术转移，支持引入环保装备制造、环保产品生产和环保节能综合服务项目、企业。', '1.扩大服务业自主开放。持续放宽服务领域市场准入，扩大优质服务进口。推动新版市场准入负面清单和跨境服务贸易负面清单落地实施。完善服务业行业管理体制机制，争取资金跨境流动便利。关注数据跨境安全有序流动，保障服务业开放发展的要素供给。', '扩大服务业自主开放。持续放宽服务领域市场准入，扩大优质服务进口。推动新版市场准入负面清单和跨境服务贸易负面清单落地实施。完善服务业行业管理体制机制，争取资金跨境流动便利。关注数据跨境安全有序流动，保障服务业开放发展的要素供给。', '2.加快服务业重点领域扩大开放。落实国家和省扩大金融服务业市场开放政策，支持社会资本依法进入银行、证券、资产管理、债券市场等金融服务业，推动社会服务业市场开放，以医疗、教育、体育、托幼、环保、市政等领域为重点，减少市场准入限制。', '加快服务业重点领域扩大开放。落实国家和省扩大金融服务业市场开放政策，支持社会资本依法进入银行、证券、资产管理、债券市场等金融服务业，推动社会服务业市场开放，以医疗、教育、体育、托幼、环保、市政等领域为重点，减少市场准入限制。', '3.发展服务业新兴业态。在智慧物流、信息服务、动漫游戏、数字出版、远程医疗、远程教育、医养结合等领域，加快培育一批服务业和服务贸易新业态、新模式、新产品。推进高水平数字基础设施建设，发展公共云计算基础设施。规划建设大数据产业园，推动大数据产业化发展。鼓励应用大数据等先进信息化技术推进新业态发展。', '发展服务业新兴业态。在智慧物流、信息服务、动漫游戏、数字出版、远程医疗、远程教育、医养结合等领域，加快培育一批服务业和服务贸易新业态、新模式、新产品。推进高水平数字基础设施建设，发展公共云计算基础设施。规划建设大数据产业园，推动大数据产业化发展。鼓励应用大数据等先进信息化技术推进新业态发展。', '.农产品国际合作工程。推进与“一带一路”沿线国家、欧盟国家农业交流合作，加强境外农业合作示范区和农业对外开放合作试验区建设。开展农业对外开放合作试验区建设。探索在“一带一路”沿线国家、RCEP成员国等重点国家设立境外农产品进出口服务网点。', '.新兴服务业态发展工程。推进“上云用数赋智”行动，引进培育公共云服务商、数字平台和在线应用商店，构建“生产服务+商业模式+金融服务”的数字化生态体系。发展教育、文化、医疗等专业化智慧服务平台，加快培育一批供应链综合服务商。', '全面落实国家和省对外战略部署，扩大教育、医疗、科技、体育、旅游等领域交流合作，开展多层面、多渠道民间交流，构建全方位对外开放新格局。', '坚决落实国家和省对外开放战略部署，推动搭建高能级对外开放平台，务实推进各领域对外开放，不断拓宽海外交往渠道，推动全市经济社会发展再上新台阶。', '1.服从服务国家和河北对外战略部署。坚持服务国家总体外交、河北省外事工作大局，围绕服务全市经济社会发展中心工作，谋划组织重大涉外活动，务实推进各领域对外开放。加强与省外事办沟通交流，积极争取将我市重要对外事项，纳入河北省重大外事活动内容。', '服从服务国家和河北对外战略部署。坚持服务国家总体外交、河北省外事工作大局，围绕服务全市经济社会发展中心工作，谋划组织重大涉外活动，务实推进各领域对外开放。加强与省外事办沟通交流，积极争取将我市重要对外事项，纳入河北省重大外事活动内容。', '2.推动建设高能级开放平台。树立“大外事”理念，全面整合全市外事资源，积极组织参与各类外事活动。持续办好衡水湖国际马拉松赛、中国·安平国际丝网博览会、大营国际皮草交易会等国际性赛事、展会，培育一批国家级、省级涉外活动平台。积极争取对华友好的国外元首、高级官员、世界500强企业等访问我市，提升我市对外交往层级。', '推动建设高能级开放平台。树立“大外事”理念，全面整合全市外事资源，积极组织参与各类外事活动。持续办好衡水湖国际马拉松赛、中国·安平国际丝网博览会、大营国际皮草交易会等国际性赛事、展会，培育一批国家级、省级涉外活动平台。积极争取对华友好的国外元首、高级官员、世界', '深化教育、体育、科技、文化、旅游等领域对外人文交流合作，丰富对外交流合作层次，推动全市对外开放再上新台阶。', '1.加强教育对外交流合作。利用衡水中学等知名院校名牌效应优势，吸引优秀创新团队、中高端人才，助力衡水经济社会发展。巩固拓展衡水学院与韩国圆光大学、光州女子大学等国外高校的友好合作关系，深化衡水学院与乌克兰国立柴可夫斯基音乐学院合作办学。选派我市优秀青年教师、学术带头人等赴国外高水平大学交流访问、研修学习。鼓励优秀外籍专家、优秀外籍教师和外国留学生到我市从事教学、科研和研修学习。深化线上课程建设国际交流合作，支持合作开发特色精品课程。办好河北衡水中学国际文化教育艺术节，邀请国际友人开展教育文化交流。', '加强教育对外交流合作。利用衡水中学等知名院校名牌效应优势，吸引优秀创新团队、中高端人才，助力衡水经济社会发展。巩固拓展衡水学院与韩国圆光大学、光州女子大学等国外高校的友好合作关系，深化衡水学院与乌克兰国立柴可夫斯基音乐学院合作办学。选派我市优秀青年教师、学术带头人等赴国外高水平大学交流访问、研修学习。鼓励优秀外籍专家、优秀外籍教师和外国留学生到我市从事教学、科研和研修学习。深化线上课程建设国际交流合作，支持合作开发特色精品课程。办好河北衡水中学国际文化教育艺术节，邀请国际友人开展教育文化交流。', '2.加强体育领域对外交流合作。持续办好衡水湖国际马拉松赛、衡水航空运动嘉年华、安平马术节等体育赛事活动，推动与国际体育组织建立战略合作伙伴关系，争取落地一批世界级、国家级高水平赛事。挖掘体育赛事在促进经贸往来、提升城市魅力方面的独特价值，引入以会议展览为载体的功能业态，发展住宿、商业、文化、娱乐等配套业态，打造我市对外开放新名片。', '加强体育领域对外交流合作。持续办好衡水湖国际马拉松赛、衡水航空运动嘉年华、安平马术节等体育赛事活动，推动与国际体育组织建立战略合作伙伴关系，争取落地一批世界级、国家级高水平赛事。挖掘体育赛事在促进经贸往来、提升城市魅力方面的独特价值，引入以会议展览为载体的功能业态，发展住宿、商业、文化、娱乐等配套业态，打造我市对外开放新名片。', '3.推进对外文化交流与合作。挖掘董子文化，内画艺术、剪纸文化、年画文化等特色资源，培育对外文化交流主体，丰富对外文化交流形式，拓展对外文化交流渠道，扩大我市对外文化交流影响力。充分利用“国家文化年（节）”“欢乐春节”、河北文化海外行、河北文化周等国家级、省级对外文化交流平台，展示衡水文化魅力，讲好衡水发展故事。推进滏阳河文化带建设，建好故城县大运河历史文化风情街区步行街、枣强县民俗文化商业街、景县西城墙路步行街、饶阳县饶邑古城步行街等特色商贸街区，展示衡水特色文化魅力。', '推进对外文化交流与合作。挖掘董子文化，内画艺术、剪纸文化、年画文化等特色资源，培育对外文化交流主体，丰富对外文化交流形式，拓展对外文化交流渠道，扩大我市对外文化交流影响力。充分利用“国家文化年（节）”“欢乐春节”、河北文化海外行、河北文化周等国家级、省级对外文化交流平台，展示衡水文化魅力，讲好衡水发展故事。推进滏阳河文化带建设，建好故城县大运河历史文化风情街区步行街、枣强县民俗文化商业街、景县西城墙路步行街、饶阳县饶邑古城步行街等特色商贸街区，展示衡水特色文化魅力。', '4.深化医疗卫生对外交流合作。以哈励逊国际和平医院等医疗机构为依托，持续做好对尼泊尔、刚果金等国家医疗援外工作，打造展示衡水形象、宣传推介衡水的靓丽名片。深化与古巴等国在生物制剂、肺癌疫苗、糖尿病治疗、口腔专业、眼科等领域的医疗技术合作。加强与解放军301医院、北京阜外医院、空军医院、天津总医院、同仁医院等京津沪地区大型综合性医院、专科医院合作交流，带动全市医疗技术提升。支持开展形式多样的医疗、养生、保健等中医药对外教学培训，扩大中医药服务影响。', '深化医疗卫生对外交流合作。以哈励逊国际和平医院等医疗机构为依托，持续做好对尼泊尔、刚果金等国家医疗援外工作，打造展示衡水形象、宣传推介衡水的靓丽名片。深化与古巴等国在生物制剂、肺癌疫苗、糖尿病治疗、口腔专业、眼科等领域的医疗技术合作。加强与解放军', '医院、北京阜外医院、空军医院、天津总医院、同仁医院等京津沪地区大型综合性医院、专科医院合作交流，带动全市医疗技术提升。支持开展形式多样的医疗、养生、保健等中医药对外教学培训，扩大中医药服务影响。', '5.深化科技领域对外交流合作。聚焦市域主导产业和县域特色产业，以衡水科技谷、雄安衡水协作区、衡水数字产业园、衡水创新港等平台为依托，整合市内外科技创新资源，建设“两核五园”为支撑的衡水市南北创新轴，打造京津冀科技创新重要支点城市。全面融入京南国家科技成果转移转化示范区，对接科研院所、高等院校等科技创新资源，推动京津冀科技创新成果转移转化。鼓励企业与国内外大学、科研机构等开展精准对接，建立长期稳定的合作关系。支持建设技术创新中心（重点实验室）、外籍院士工作站、产业技术研究院、创新联盟等创新平台，补齐创新链条，提升创新水平。', '深化科技领域对外交流合作。聚焦市域主导产业和县域特色产业，以衡水科技谷、雄安衡水协作区、衡水数字产业园、衡水创新港等平台为依托，整合市内外科技创新资源，建设“两核五园”为支撑的衡水市南北创新轴，打造京津冀科技创新重要支点城市。全面融入京南国家科技成果转移转化示范区，对接科研院所、高等院校等科技创新资源，推动京津冀科技创新成果转移转化。鼓励企业与国内外大学、科研机构等开展精准对接，建立长期稳定的合作关系。支持建设技术创新中心（重点实验室）、外籍院士工作站、产业技术研究院、创新联盟等创新平台，补齐创新链条，提升创新水平。', '6.提升旅游开放合作水平。用足用好京津冀旅游合作机制和外国人过境144小时免签政策，强化我市与京津、长三角、珠三角等重点区域旅游合作，加大旅游资源和精品线路宣传推介力度，吸引更多国内外游客到衡水旅游。加强冀州古城、衡水安济桥、开福寺舍利塔、宝云塔、庆林寺塔、盈亿义仓等重点历史建筑修缮保护，推出一批历史文化与自然风光有机融合的精品特色旅游线路，增加我市旅游吸引力。', '小时免签政策，强化我市与京津、长三角、珠三角等重点区域旅游合作，加大旅游资源和精品线路宣传推介力度，吸引更多国内外游客到衡水旅游。加强冀州古城、衡水安济桥、开福寺舍利塔、宝云塔、庆林寺塔、盈亿义仓等重点历史建筑修缮保护，推出一批历史文化与自然风光有机融合的精品特色旅游线路，增加我市旅游吸引力。', '发展多层面民间交往，拓展国内国际“朋友圈”，打造覆盖面大、形式多样的对外交流合作网。', '1.大力推动友好城市建设。将友好城市建设作为对外交流的重要窗口，进一步密切与加拿大蒂尔森堡市、墨西哥图提特兰市等国际友好城市关系，开展城市间文化、旅游、体育、经济、科技等领域对话合作，推动互利共赢。加强安平与鄂温克旗等县级国内友好城市建设，鼓励各县（市、区）选择产业互补性强、交往热情度高的县（市、区、旗）等建立友好城市，开展多领域交流合作，提升城市知名度和影响力。', '大力推动友好城市建设。将友好城市建设作为对外交流的重要窗口，进一步密切与加拿大蒂尔森堡市、墨西哥图提特兰市等国际友好城市关系，开展城市间文化、旅游、体育、经济、科技等领域对话合作，推动互利共赢。加强安平与鄂温克旗等县级国内友好城市建设，鼓励各县（市、区）选择产业互补性强、交往热情度高的县（市、区、旗）等建立友好城市，开展多领域交流合作，提升城市知名度和影响力。', '2.加强群团组织、民间组织对外交流合作。发挥好民间交往在国内国际人文交流中的作用，鼓励各类群团组织和民间组织加强对外交流，鼓励青少年、妇女、残疾人及各类民间组织开展线上线下相结合的对外合作，提升民间交往广度、深度。加强与省外、国外河北商会、衡水商会等联系，支持国内外衡水籍企业家、成功人士到我市投资兴业、回报桑梓。', '加强群团组织、民间组织对外交流合作。发挥好民间交往在国内国际人文交流中的作用，鼓励各类群团组织和民间组织加强对外交流，鼓励青少年、妇女、残疾人及各类民间组织开展线上线下相结合的对外合作，提升民间交往广度、深度。加强与省外、国外河北商会、衡水商会等联系，支持国内外衡水籍企业家、成功人士到我市投资兴业、回报桑梓。', '3.加强与重点侨商沟通联络。发挥好侨商会、青委会、留联会等社团作用，加强与海外重点侨商、华侨华人高层次专业人才及华侨社团的联络联谊，搭建海外联络联谊平台，不断扩大海外朋友圈。积极参与实施“圆梦中华•创业河北”“亲情中华•</t>
         </is>
